--- a/SP_metadata_2021.xlsx
+++ b/SP_metadata_2021.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugirona-my.sharepoint.com/personal/u4001033_udg_edu/Documents/GRADCATCH/ANALISIS/R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugirona-my.sharepoint.com/personal/u4001033_udg_edu/Documents/GRADCATCH/ANALISIS/R/SP_gradient/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{4EEA8018-6EF8-42D3-98FB-882912627FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41675591-794F-4BEA-8783-68B6A4E08952}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{4EEA8018-6EF8-42D3-98FB-882912627FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{785BB01F-8267-4334-95C8-F9ADAA6AF4F3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4680" yWindow="0" windowWidth="18360" windowHeight="12240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP_soil_2021" sheetId="1" r:id="rId1"/>
-    <sheet name="llegenda" sheetId="2" r:id="rId2"/>
+    <sheet name="Full1" sheetId="3" r:id="rId2"/>
+    <sheet name="llegenda" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1344,7 +1345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1459,12 +1460,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1880,31 +1875,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZ61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AW14" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="AW2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BA38" sqref="BA38"/>
+      <selection pane="bottomRight" activeCell="AZ1" sqref="AZ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1"/>
-    <col min="2" max="2" width="15.28515625" style="15"/>
-    <col min="3" max="4" width="15.28515625" style="1"/>
-    <col min="5" max="8" width="15.28515625" style="15"/>
-    <col min="9" max="11" width="15.28515625" style="1"/>
-    <col min="12" max="13" width="15.28515625" style="15"/>
-    <col min="14" max="16" width="15.28515625" style="1"/>
-    <col min="17" max="33" width="15.28515625" style="15"/>
-    <col min="34" max="34" width="15.28515625" style="15" customWidth="1"/>
-    <col min="35" max="38" width="15.28515625" style="15"/>
-    <col min="39" max="77" width="15.28515625" style="1"/>
-    <col min="78" max="78" width="15.28515625" style="37"/>
-    <col min="79" max="16384" width="15.28515625" style="1"/>
+    <col min="1" max="1" width="15.33203125" style="1"/>
+    <col min="2" max="2" width="15.33203125" style="15"/>
+    <col min="3" max="4" width="15.33203125" style="1"/>
+    <col min="5" max="8" width="15.33203125" style="15"/>
+    <col min="9" max="11" width="15.33203125" style="1"/>
+    <col min="12" max="13" width="15.33203125" style="15"/>
+    <col min="14" max="16" width="15.33203125" style="1"/>
+    <col min="17" max="33" width="15.33203125" style="15"/>
+    <col min="34" max="34" width="15.33203125" style="15" customWidth="1"/>
+    <col min="35" max="38" width="15.33203125" style="15"/>
+    <col min="39" max="77" width="15.33203125" style="1"/>
+    <col min="78" max="78" width="15.33203125" style="37"/>
+    <col min="79" max="16384" width="15.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:78" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>192</v>
       </c>
@@ -2140,7 +2135,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
@@ -2389,7 +2384,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
@@ -2638,7 +2633,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
@@ -2887,7 +2882,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -3039,7 +3034,7 @@
       <c r="AX5" s="5">
         <v>3.4353747141485499E-3</v>
       </c>
-      <c r="AY5" s="40">
+      <c r="AY5" s="5">
         <v>7.9878191629846301E-2</v>
       </c>
       <c r="AZ5" s="5">
@@ -3128,7 +3123,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -3375,7 +3370,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,7 +3620,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
@@ -3875,7 +3870,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
@@ -4125,7 +4120,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>71</v>
       </c>
@@ -4375,7 +4370,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>71</v>
       </c>
@@ -4623,7 +4618,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>71</v>
       </c>
@@ -4872,7 +4867,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,7 +5013,7 @@
       <c r="AV13" s="27">
         <v>1.12359943221491E-2</v>
       </c>
-      <c r="AW13" s="39">
+      <c r="AW13" s="27">
         <v>1.06551482164E-2</v>
       </c>
       <c r="AX13" s="27">
@@ -5113,7 +5108,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>71</v>
       </c>
@@ -5362,7 +5357,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>71</v>
       </c>
@@ -5611,7 +5606,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>71</v>
       </c>
@@ -5860,7 +5855,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -6109,7 +6104,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
@@ -6358,7 +6353,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>71</v>
       </c>
@@ -6607,7 +6602,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>71</v>
       </c>
@@ -6856,7 +6851,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="21" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>71</v>
       </c>
@@ -7097,7 +7092,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="22" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>71</v>
       </c>
@@ -7346,7 +7341,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>71</v>
       </c>
@@ -7595,7 +7590,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
@@ -7844,7 +7839,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
@@ -7990,7 +7985,7 @@
       <c r="AV25" s="27">
         <v>1.4730660318445899E-2</v>
       </c>
-      <c r="AW25" s="39">
+      <c r="AW25" s="27">
         <v>5.0661273280098599E-3</v>
       </c>
       <c r="AX25" s="27">
@@ -8073,7 +8068,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
@@ -8322,7 +8317,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>71</v>
       </c>
@@ -8571,7 +8566,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="28" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>71</v>
       </c>
@@ -8812,7 +8807,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>71</v>
       </c>
@@ -9061,7 +9056,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="30" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>71</v>
       </c>
@@ -9310,7 +9305,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>71</v>
       </c>
@@ -9559,7 +9554,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>71</v>
       </c>
@@ -9808,7 +9803,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>71</v>
       </c>
@@ -10057,7 +10052,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="34" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
@@ -10306,7 +10301,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="35" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>71</v>
       </c>
@@ -10466,7 +10461,7 @@
       <c r="AZ35" s="27">
         <v>1.7539446996404799E-2</v>
       </c>
-      <c r="BA35" s="39">
+      <c r="BA35" s="27">
         <v>3.0097821527053998</v>
       </c>
       <c r="BB35" s="13">
@@ -10555,7 +10550,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="36" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>71</v>
       </c>
@@ -10802,7 +10797,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="37" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>71</v>
       </c>
@@ -11051,7 +11046,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="38" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>71</v>
       </c>
@@ -11300,7 +11295,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="39" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>71</v>
       </c>
@@ -11549,7 +11544,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="40" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>71</v>
       </c>
@@ -11798,7 +11793,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="41" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>71</v>
       </c>
@@ -11941,7 +11936,7 @@
       <c r="AU41" s="27">
         <v>7.1035784456261299E-3</v>
       </c>
-      <c r="AV41" s="39">
+      <c r="AV41" s="27">
         <v>5.1933748326029204E-3</v>
       </c>
       <c r="AW41" s="27">
@@ -12037,7 +12032,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="42" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>71</v>
       </c>
@@ -12182,10 +12177,10 @@
       <c r="AU42" s="27">
         <v>7.9208913713185794E-3</v>
       </c>
-      <c r="AV42" s="39">
+      <c r="AV42" s="27">
         <v>2.8124610652151901E-3</v>
       </c>
-      <c r="AW42" s="39">
+      <c r="AW42" s="27">
         <v>0</v>
       </c>
       <c r="AX42" s="27">
@@ -12286,7 +12281,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>71</v>
       </c>
@@ -12434,7 +12429,7 @@
       <c r="AV43" s="27">
         <v>7.9689802037143896E-3</v>
       </c>
-      <c r="AW43" s="39">
+      <c r="AW43" s="27">
         <v>2.42728585405199E-4</v>
       </c>
       <c r="AX43" s="27">
@@ -12532,7 +12527,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>71</v>
       </c>
@@ -12781,7 +12776,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>71</v>
       </c>
@@ -13030,7 +13025,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="46" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>71</v>
       </c>
@@ -13273,7 +13268,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="47" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -13522,7 +13517,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="48" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>71</v>
       </c>
@@ -13771,7 +13766,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="49" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>71</v>
       </c>
@@ -14012,7 +14007,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>71</v>
       </c>
@@ -14261,7 +14256,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="51" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>71</v>
       </c>
@@ -14406,7 +14401,7 @@
       <c r="AU51" s="27">
         <v>6.5635222586999706E-2</v>
       </c>
-      <c r="AV51" s="39">
+      <c r="AV51" s="27">
         <v>2.53815141147135E-2</v>
       </c>
       <c r="AW51" s="27">
@@ -14510,7 +14505,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="52" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>71</v>
       </c>
@@ -14759,7 +14754,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="53" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>71</v>
       </c>
@@ -15008,7 +15003,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="54" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>71</v>
       </c>
@@ -15257,7 +15252,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>71</v>
       </c>
@@ -15491,7 +15486,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>71</v>
       </c>
@@ -15740,7 +15735,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="57" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>71</v>
       </c>
@@ -15989,7 +15984,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>71</v>
       </c>
@@ -16128,7 +16123,7 @@
       <c r="AS58" s="5">
         <v>40.42652003522511</v>
       </c>
-      <c r="AT58" s="39">
+      <c r="AT58" s="27">
         <v>8.7348492317557407E-3</v>
       </c>
       <c r="AU58" s="27">
@@ -16238,7 +16233,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
@@ -16487,7 +16482,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="60" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>71</v>
       </c>
@@ -16736,7 +16731,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="1:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:78" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>71</v>
       </c>
@@ -16998,6 +16993,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7BC9AB-8373-48D8-8BEA-7E34BB3D267C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2851FD1-392A-48A9-B131-D748FDC4A90A}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -17005,14 +17014,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>206</v>
       </c>

--- a/SP_metadata_2021.xlsx
+++ b/SP_metadata_2021.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugirona-my.sharepoint.com/personal/u4001033_udg_edu/Documents/GRADCATCH/ANALISIS/R/SP_gradient/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{4EEA8018-6EF8-42D3-98FB-882912627FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{785BB01F-8267-4334-95C8-F9ADAA6AF4F3}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{4EEA8018-6EF8-42D3-98FB-882912627FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2004EE7-2EC7-45C3-9B98-8EEB917BF82B}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4680" yWindow="0" windowWidth="18360" windowHeight="12240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3072" yWindow="720" windowWidth="18360" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP_soil_2021" sheetId="1" r:id="rId1"/>
-    <sheet name="Full1" sheetId="3" r:id="rId2"/>
-    <sheet name="llegenda" sheetId="2" r:id="rId3"/>
+    <sheet name="llegenda" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1875,11 +1874,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZ61"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AW2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="AW29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AZ1" sqref="AZ1"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16993,20 +16992,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7BC9AB-8373-48D8-8BEA-7E34BB3D267C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2851FD1-392A-48A9-B131-D748FDC4A90A}">
   <dimension ref="A1:A3"/>
   <sheetViews>

--- a/SP_metadata_2021.xlsx
+++ b/SP_metadata_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugirona-my.sharepoint.com/personal/u4001033_udg_edu/Documents/GRADCATCH/ANALISIS/R/SP_gradient/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{4EEA8018-6EF8-42D3-98FB-882912627FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2004EE7-2EC7-45C3-9B98-8EEB917BF82B}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{4EEA8018-6EF8-42D3-98FB-882912627FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E8D6EF0-F84F-4D19-A880-D9E76097A7B7}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3072" yWindow="720" windowWidth="18360" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP_soil_2021" sheetId="1" r:id="rId1"/>
@@ -1875,10 +1875,10 @@
   <dimension ref="A1:BZ61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AW29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:B61"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2153,7 +2153,7 @@
       <c r="F2" s="5">
         <v>12.13822558</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="7">
         <v>1.248428493</v>
       </c>
       <c r="H2" s="5">
@@ -2402,7 +2402,7 @@
       <c r="F3" s="5">
         <v>12.13822558</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="7">
         <v>1.248428493</v>
       </c>
       <c r="H3" s="5">
@@ -2651,7 +2651,7 @@
       <c r="F4" s="5">
         <v>12.13822558</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="7">
         <v>1.248428493</v>
       </c>
       <c r="H4" s="5">
@@ -2900,7 +2900,7 @@
       <c r="F5" s="5">
         <v>12.13822558</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="7">
         <v>1.248428493</v>
       </c>
       <c r="H5" s="5">
@@ -3141,7 +3141,7 @@
       <c r="F6" s="5">
         <v>12.13822558</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="7">
         <v>1.248428493</v>
       </c>
       <c r="H6" s="5">
@@ -3388,7 +3388,7 @@
       <c r="F7" s="5">
         <v>10.970743150000001</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="7">
         <v>1.0879099809999999</v>
       </c>
       <c r="H7" s="5">
@@ -3638,7 +3638,7 @@
       <c r="F8" s="5">
         <v>10.970743150000001</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="7">
         <v>1.0879099809999999</v>
       </c>
       <c r="H8" s="5">
@@ -3888,7 +3888,7 @@
       <c r="F9" s="5">
         <v>10.970743150000001</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="7">
         <v>1.0879099809999999</v>
       </c>
       <c r="H9" s="5">
@@ -4138,7 +4138,7 @@
       <c r="F10" s="5">
         <v>10.970743150000001</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="7">
         <v>1.0879099809999999</v>
       </c>
       <c r="H10" s="5">
@@ -4388,7 +4388,7 @@
       <c r="F11" s="5">
         <v>10.970743150000001</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="7">
         <v>1.0879099809999999</v>
       </c>
       <c r="H11" s="5">
@@ -4636,7 +4636,7 @@
       <c r="F12" s="5">
         <v>13.84807052</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="7">
         <v>0.56437017</v>
       </c>
       <c r="H12" s="5">
@@ -4885,7 +4885,7 @@
       <c r="F13" s="5">
         <v>13.84807052</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="7">
         <v>0.56437017</v>
       </c>
       <c r="H13" s="5">
@@ -5126,7 +5126,7 @@
       <c r="F14" s="5">
         <v>13.84807052</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="7">
         <v>0.56437017</v>
       </c>
       <c r="H14" s="5">
@@ -5375,7 +5375,7 @@
       <c r="F15" s="5">
         <v>13.84807052</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="7">
         <v>0.56437017</v>
       </c>
       <c r="H15" s="5">
@@ -5624,7 +5624,7 @@
       <c r="F16" s="5">
         <v>13.84807052</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="7">
         <v>0.56437017</v>
       </c>
       <c r="H16" s="5">
@@ -5873,7 +5873,7 @@
       <c r="F17" s="5">
         <v>13.479537779999999</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="7">
         <v>0.24611151000000001</v>
       </c>
       <c r="H17" s="5">
@@ -6122,7 +6122,7 @@
       <c r="F18" s="5">
         <v>13.479537779999999</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="7">
         <v>0.24611151000000001</v>
       </c>
       <c r="H18" s="5">
@@ -6371,7 +6371,7 @@
       <c r="F19" s="5">
         <v>13.479537779999999</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="7">
         <v>0.24611151000000001</v>
       </c>
       <c r="H19" s="5">
@@ -6620,7 +6620,7 @@
       <c r="F20" s="5">
         <v>13.479537779999999</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="7">
         <v>0.24611151000000001</v>
       </c>
       <c r="H20" s="5">
@@ -6869,7 +6869,7 @@
       <c r="F21" s="5">
         <v>13.479537779999999</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="7">
         <v>0.24611151000000001</v>
       </c>
       <c r="H21" s="5">
@@ -7110,7 +7110,7 @@
       <c r="F22" s="5">
         <v>16.980182540000001</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="7">
         <v>0.15639571399999999</v>
       </c>
       <c r="H22" s="5">
@@ -7359,7 +7359,7 @@
       <c r="F23" s="5">
         <v>16.980182540000001</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="7">
         <v>0.15639571399999999</v>
       </c>
       <c r="H23" s="5">
@@ -7608,7 +7608,7 @@
       <c r="F24" s="5">
         <v>16.980182540000001</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="7">
         <v>0.15639571399999999</v>
       </c>
       <c r="H24" s="5">
@@ -7857,7 +7857,7 @@
       <c r="F25" s="5">
         <v>16.980182540000001</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="7">
         <v>0.15639571399999999</v>
       </c>
       <c r="H25" s="5">
@@ -8086,7 +8086,7 @@
       <c r="F26" s="5">
         <v>16.980182540000001</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="7">
         <v>0.15639571399999999</v>
       </c>
       <c r="H26" s="5">
@@ -8335,7 +8335,7 @@
       <c r="F27" s="5">
         <v>9.191429608</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="7">
         <v>0.70398598999999995</v>
       </c>
       <c r="H27" s="5">
@@ -8584,7 +8584,7 @@
       <c r="F28" s="5">
         <v>9.191429608</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="7">
         <v>0.70398598999999995</v>
       </c>
       <c r="H28" s="5">
@@ -8825,7 +8825,7 @@
       <c r="F29" s="5">
         <v>9.191429608</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="7">
         <v>0.70398598999999995</v>
       </c>
       <c r="H29" s="5">
@@ -9074,7 +9074,7 @@
       <c r="F30" s="5">
         <v>9.191429608</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="7">
         <v>0.70398598999999995</v>
       </c>
       <c r="H30" s="5">
@@ -9323,7 +9323,7 @@
       <c r="F31" s="5">
         <v>9.191429608</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="7">
         <v>0.70398598999999995</v>
       </c>
       <c r="H31" s="5">
@@ -9572,7 +9572,7 @@
       <c r="F32" s="5">
         <v>9.4308277250000003</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="7">
         <v>0.99706098099999996</v>
       </c>
       <c r="H32" s="5">
@@ -9821,7 +9821,7 @@
       <c r="F33" s="5">
         <v>9.4308277250000003</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="7">
         <v>0.99706098099999996</v>
       </c>
       <c r="H33" s="5">
@@ -10070,7 +10070,7 @@
       <c r="F34" s="5">
         <v>9.4308277250000003</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="7">
         <v>0.99706098099999996</v>
       </c>
       <c r="H34" s="5">
@@ -10319,7 +10319,7 @@
       <c r="F35" s="5">
         <v>9.4308277250000003</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="7">
         <v>0.99706098099999996</v>
       </c>
       <c r="H35" s="5">
@@ -10568,7 +10568,7 @@
       <c r="F36" s="5">
         <v>9.4308277250000003</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="7">
         <v>0.99706098099999996</v>
       </c>
       <c r="H36" s="5">
@@ -10815,7 +10815,7 @@
       <c r="F37" s="5">
         <v>12.17788356</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="7">
         <v>1.3318448700000001</v>
       </c>
       <c r="H37" s="5">
@@ -11064,7 +11064,7 @@
       <c r="F38" s="5">
         <v>12.17788356</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="7">
         <v>1.3318448700000001</v>
       </c>
       <c r="H38" s="5">
@@ -11313,7 +11313,7 @@
       <c r="F39" s="5">
         <v>12.17788356</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="7">
         <v>1.3318448700000001</v>
       </c>
       <c r="H39" s="5">
@@ -11562,7 +11562,7 @@
       <c r="F40" s="5">
         <v>12.17788356</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="7">
         <v>1.3318448700000001</v>
       </c>
       <c r="H40" s="5">
@@ -11811,7 +11811,7 @@
       <c r="F41" s="5">
         <v>12.17788356</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="7">
         <v>1.3318448700000001</v>
       </c>
       <c r="H41" s="5">
@@ -12050,7 +12050,7 @@
       <c r="F42" s="5">
         <v>17.095476130000002</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="7">
         <v>0.184624183</v>
       </c>
       <c r="H42" s="5">
@@ -12299,7 +12299,7 @@
       <c r="F43" s="5">
         <v>17.095476130000002</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="7">
         <v>0.184624183</v>
       </c>
       <c r="H43" s="5">
@@ -12545,7 +12545,7 @@
       <c r="F44" s="5">
         <v>17.095476130000002</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="7">
         <v>0.184624183</v>
       </c>
       <c r="H44" s="5">
@@ -12794,7 +12794,7 @@
       <c r="F45" s="5">
         <v>17.095476130000002</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="7">
         <v>0.184624183</v>
       </c>
       <c r="H45" s="5">
@@ -13043,7 +13043,7 @@
       <c r="F46" s="5">
         <v>17.095476130000002</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="7">
         <v>0.184624183</v>
       </c>
       <c r="H46" s="5">
@@ -13286,7 +13286,7 @@
       <c r="F47" s="5">
         <v>16.864897020000001</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="7">
         <v>0.17709229000000001</v>
       </c>
       <c r="H47" s="5">
@@ -13535,7 +13535,7 @@
       <c r="F48" s="5">
         <v>16.864897020000001</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="7">
         <v>0.17709229000000001</v>
       </c>
       <c r="H48" s="5">
@@ -13784,7 +13784,7 @@
       <c r="F49" s="5">
         <v>16.864897020000001</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="7">
         <v>0.17709229000000001</v>
       </c>
       <c r="H49" s="5">
@@ -14025,7 +14025,7 @@
       <c r="F50" s="5">
         <v>16.864897020000001</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="7">
         <v>0.17709229000000001</v>
       </c>
       <c r="H50" s="5">
@@ -14274,7 +14274,7 @@
       <c r="F51" s="5">
         <v>16.864897020000001</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="7">
         <v>0.17709229000000001</v>
       </c>
       <c r="H51" s="5">
@@ -14523,7 +14523,7 @@
       <c r="F52" s="5">
         <v>14.68688395</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52" s="7">
         <v>0.40075582599999998</v>
       </c>
       <c r="H52" s="5">
@@ -14772,7 +14772,7 @@
       <c r="F53" s="5">
         <v>14.68688395</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="7">
         <v>0.40075582599999998</v>
       </c>
       <c r="H53" s="5">
@@ -15021,7 +15021,7 @@
       <c r="F54" s="5">
         <v>14.68688395</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="7">
         <v>0.40075582599999998</v>
       </c>
       <c r="H54" s="5">
@@ -15270,7 +15270,7 @@
       <c r="F55" s="5">
         <v>14.68688395</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="7">
         <v>0.40075582599999998</v>
       </c>
       <c r="H55" s="5">
@@ -15504,7 +15504,7 @@
       <c r="F56" s="5">
         <v>14.68688395</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="7">
         <v>0.40075582599999998</v>
       </c>
       <c r="H56" s="5">
@@ -15753,7 +15753,7 @@
       <c r="F57" s="5">
         <v>14.418147189999999</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="7">
         <v>0.43213200000000002</v>
       </c>
       <c r="H57" s="5">
@@ -16002,7 +16002,7 @@
       <c r="F58" s="5">
         <v>14.418147189999999</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58" s="7">
         <v>0.43213200000000002</v>
       </c>
       <c r="H58" s="5">
@@ -16251,7 +16251,7 @@
       <c r="F59" s="5">
         <v>14.418147189999999</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59" s="7">
         <v>0.43213200000000002</v>
       </c>
       <c r="H59" s="5">
@@ -16500,7 +16500,7 @@
       <c r="F60" s="5">
         <v>14.418147189999999</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60" s="7">
         <v>0.43213200000000002</v>
       </c>
       <c r="H60" s="5">
@@ -16749,7 +16749,7 @@
       <c r="F61" s="12">
         <v>14.418147189999999</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G61" s="10">
         <v>0.43213200000000002</v>
       </c>
       <c r="H61" s="12">

--- a/SP_metadata_2021.xlsx
+++ b/SP_metadata_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugirona-my.sharepoint.com/personal/u4001033_udg_edu/Documents/GRADCATCH/ANALISIS/R/SP_gradient/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{4EEA8018-6EF8-42D3-98FB-882912627FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E8D6EF0-F84F-4D19-A880-D9E76097A7B7}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{4EEA8018-6EF8-42D3-98FB-882912627FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5ED9EEC-E863-47DC-B187-154A921CA723}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP_soil_2021" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="234">
   <si>
     <t>1-SP01-A</t>
   </si>
@@ -1205,6 +1205,48 @@
   </si>
   <si>
     <t>landcover_n</t>
+  </si>
+  <si>
+    <t>s275:295</t>
+  </si>
+  <si>
+    <t>s350:400</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>E2/E3</t>
+  </si>
+  <si>
+    <t>E3/E4</t>
+  </si>
+  <si>
+    <t>E4/E6</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>BIX</t>
+  </si>
+  <si>
+    <t>Peak_A</t>
+  </si>
+  <si>
+    <t>Peak_C</t>
+  </si>
+  <si>
+    <t>Peak_M</t>
+  </si>
+  <si>
+    <t>Peak_T</t>
+  </si>
+  <si>
+    <t>Peak_B</t>
+  </si>
+  <si>
+    <t>HIX</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1460,6 +1502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1872,13 +1915,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BZ61"/>
+  <dimension ref="A1:CN61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="CA2" sqref="CA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1898,7 +1941,7 @@
     <col min="79" max="16384" width="15.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:92" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>192</v>
       </c>
@@ -2133,8 +2176,50 @@
       <c r="BZ1" s="25" t="s">
         <v>211</v>
       </c>
+      <c r="CA1" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="CB1" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="CC1" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="CD1" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="CE1" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="CF1" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="CG1" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="CH1" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="CI1" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="CJ1" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="CK1" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="CL1" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="CM1" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="CN1" s="25" t="s">
+        <v>233</v>
+      </c>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
@@ -2382,8 +2467,50 @@
       <c r="BZ2" s="37" t="s">
         <v>212</v>
       </c>
+      <c r="CA2" s="39">
+        <v>-2.469213E-2</v>
+      </c>
+      <c r="CB2">
+        <v>-1.548341E-2</v>
+      </c>
+      <c r="CC2">
+        <v>1.5947475</v>
+      </c>
+      <c r="CD2">
+        <v>7.4959758000000001</v>
+      </c>
+      <c r="CE2">
+        <v>5.3029127000000003</v>
+      </c>
+      <c r="CF2">
+        <v>7.7256413000000004</v>
+      </c>
+      <c r="CG2">
+        <v>1.8034623000000001</v>
+      </c>
+      <c r="CH2">
+        <v>0.58455791000000001</v>
+      </c>
+      <c r="CI2">
+        <v>0.98190540999999998</v>
+      </c>
+      <c r="CJ2">
+        <v>0.57683852000000002</v>
+      </c>
+      <c r="CK2">
+        <v>0.52345311000000005</v>
+      </c>
+      <c r="CL2">
+        <v>0.48573481000000002</v>
+      </c>
+      <c r="CM2">
+        <v>0.38091428999999999</v>
+      </c>
+      <c r="CN2">
+        <v>3.4899152999999998</v>
+      </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
@@ -2631,8 +2758,50 @@
       <c r="BZ3" s="37" t="s">
         <v>212</v>
       </c>
+      <c r="CA3">
+        <v>-2.469213E-2</v>
+      </c>
+      <c r="CB3">
+        <v>-1.548341E-2</v>
+      </c>
+      <c r="CC3">
+        <v>1.5947475</v>
+      </c>
+      <c r="CD3">
+        <v>7.4959758000000001</v>
+      </c>
+      <c r="CE3">
+        <v>5.3029127000000003</v>
+      </c>
+      <c r="CF3">
+        <v>7.7256413000000004</v>
+      </c>
+      <c r="CG3">
+        <v>1.8034623000000001</v>
+      </c>
+      <c r="CH3">
+        <v>0.58455791000000001</v>
+      </c>
+      <c r="CI3">
+        <v>0.98190540999999998</v>
+      </c>
+      <c r="CJ3">
+        <v>0.57683852000000002</v>
+      </c>
+      <c r="CK3">
+        <v>0.52345311000000005</v>
+      </c>
+      <c r="CL3">
+        <v>0.48573481000000002</v>
+      </c>
+      <c r="CM3">
+        <v>0.38091428999999999</v>
+      </c>
+      <c r="CN3">
+        <v>3.4899152999999998</v>
+      </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
@@ -2880,8 +3049,50 @@
       <c r="BZ4" s="37" t="s">
         <v>212</v>
       </c>
+      <c r="CA4">
+        <v>-2.469213E-2</v>
+      </c>
+      <c r="CB4">
+        <v>-1.548341E-2</v>
+      </c>
+      <c r="CC4">
+        <v>1.5947475</v>
+      </c>
+      <c r="CD4">
+        <v>7.4959758000000001</v>
+      </c>
+      <c r="CE4">
+        <v>5.3029127000000003</v>
+      </c>
+      <c r="CF4">
+        <v>7.7256413000000004</v>
+      </c>
+      <c r="CG4">
+        <v>1.8034623000000001</v>
+      </c>
+      <c r="CH4">
+        <v>0.58455791000000001</v>
+      </c>
+      <c r="CI4">
+        <v>0.98190540999999998</v>
+      </c>
+      <c r="CJ4">
+        <v>0.57683852000000002</v>
+      </c>
+      <c r="CK4">
+        <v>0.52345311000000005</v>
+      </c>
+      <c r="CL4">
+        <v>0.48573481000000002</v>
+      </c>
+      <c r="CM4">
+        <v>0.38091428999999999</v>
+      </c>
+      <c r="CN4">
+        <v>3.4899152999999998</v>
+      </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -3121,8 +3332,50 @@
       <c r="BZ5" s="37" t="s">
         <v>212</v>
       </c>
+      <c r="CA5">
+        <v>-2.469213E-2</v>
+      </c>
+      <c r="CB5">
+        <v>-1.548341E-2</v>
+      </c>
+      <c r="CC5">
+        <v>1.5947475</v>
+      </c>
+      <c r="CD5">
+        <v>7.4959758000000001</v>
+      </c>
+      <c r="CE5">
+        <v>5.3029127000000003</v>
+      </c>
+      <c r="CF5">
+        <v>7.7256413000000004</v>
+      </c>
+      <c r="CG5">
+        <v>1.8034623000000001</v>
+      </c>
+      <c r="CH5">
+        <v>0.58455791000000001</v>
+      </c>
+      <c r="CI5">
+        <v>0.98190540999999998</v>
+      </c>
+      <c r="CJ5">
+        <v>0.57683852000000002</v>
+      </c>
+      <c r="CK5">
+        <v>0.52345311000000005</v>
+      </c>
+      <c r="CL5">
+        <v>0.48573481000000002</v>
+      </c>
+      <c r="CM5">
+        <v>0.38091428999999999</v>
+      </c>
+      <c r="CN5">
+        <v>3.4899152999999998</v>
+      </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -3368,8 +3621,50 @@
       <c r="BZ6" s="37" t="s">
         <v>212</v>
       </c>
+      <c r="CA6">
+        <v>-2.0433546E-2</v>
+      </c>
+      <c r="CB6">
+        <v>-1.4048353E-2</v>
+      </c>
+      <c r="CC6">
+        <v>1.4545154300000001</v>
+      </c>
+      <c r="CD6">
+        <v>6.06871809</v>
+      </c>
+      <c r="CE6">
+        <v>4.6514863599999998</v>
+      </c>
+      <c r="CF6">
+        <v>7.63015227</v>
+      </c>
+      <c r="CG6">
+        <v>1.80242433</v>
+      </c>
+      <c r="CH6">
+        <v>0.552247932</v>
+      </c>
+      <c r="CI6">
+        <v>1.0121566200000001</v>
+      </c>
+      <c r="CJ6">
+        <v>0.56345022700000003</v>
+      </c>
+      <c r="CK6">
+        <v>0.52932859799999998</v>
+      </c>
+      <c r="CL6">
+        <v>0.50777129799999998</v>
+      </c>
+      <c r="CM6">
+        <v>0.375133677</v>
+      </c>
+      <c r="CN6">
+        <v>3.9223225300000002</v>
+      </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>71</v>
       </c>
@@ -3618,8 +3913,50 @@
       <c r="BZ7" s="37" t="s">
         <v>212</v>
       </c>
+      <c r="CA7">
+        <v>-1.7057869E-2</v>
+      </c>
+      <c r="CB7">
+        <v>-2.2496379E-2</v>
+      </c>
+      <c r="CC7">
+        <v>0.75824954600000005</v>
+      </c>
+      <c r="CD7">
+        <v>7.0113767600000001</v>
+      </c>
+      <c r="CE7">
+        <v>7.64018877</v>
+      </c>
+      <c r="CF7">
+        <v>-162.46763799999999</v>
+      </c>
+      <c r="CG7">
+        <v>1.6402585599999999</v>
+      </c>
+      <c r="CH7">
+        <v>0.54977669699999998</v>
+      </c>
+      <c r="CI7">
+        <v>2.28335292</v>
+      </c>
+      <c r="CJ7">
+        <v>1.3537394599999999</v>
+      </c>
+      <c r="CK7">
+        <v>1.23009832</v>
+      </c>
+      <c r="CL7">
+        <v>0.52531348499999997</v>
+      </c>
+      <c r="CM7">
+        <v>0.21022286200000001</v>
+      </c>
+      <c r="CN7">
+        <v>10.9056672</v>
+      </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
@@ -3868,8 +4205,50 @@
       <c r="BZ8" s="37" t="s">
         <v>212</v>
       </c>
+      <c r="CA8">
+        <v>-1.5930577000000001E-2</v>
+      </c>
+      <c r="CB8">
+        <v>-1.4305607999999999E-2</v>
+      </c>
+      <c r="CC8">
+        <v>1.1135896000000001</v>
+      </c>
+      <c r="CD8">
+        <v>4.9491639000000003</v>
+      </c>
+      <c r="CE8">
+        <v>4.3597030999999999</v>
+      </c>
+      <c r="CF8">
+        <v>7.2488459000000001</v>
+      </c>
+      <c r="CG8">
+        <v>1.5052504</v>
+      </c>
+      <c r="CH8">
+        <v>0.52956608999999999</v>
+      </c>
+      <c r="CI8">
+        <v>0.66880972999999999</v>
+      </c>
+      <c r="CJ8">
+        <v>0.37558891999999999</v>
+      </c>
+      <c r="CK8">
+        <v>0.3401363</v>
+      </c>
+      <c r="CL8">
+        <v>0.46244607999999998</v>
+      </c>
+      <c r="CM8">
+        <v>0.29393416999999999</v>
+      </c>
+      <c r="CN8">
+        <v>3.4092088999999999</v>
+      </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
@@ -4118,8 +4497,50 @@
       <c r="BZ9" s="37" t="s">
         <v>212</v>
       </c>
+      <c r="CA9">
+        <v>-1.7062693E-2</v>
+      </c>
+      <c r="CB9">
+        <v>-1.6716379999999999E-2</v>
+      </c>
+      <c r="CC9">
+        <v>1.02071698</v>
+      </c>
+      <c r="CD9">
+        <v>5.2132102600000003</v>
+      </c>
+      <c r="CE9">
+        <v>4.9121119599999998</v>
+      </c>
+      <c r="CF9">
+        <v>10.1940464</v>
+      </c>
+      <c r="CG9">
+        <v>1.58749074</v>
+      </c>
+      <c r="CH9">
+        <v>0.48796331900000001</v>
+      </c>
+      <c r="CI9">
+        <v>1.46056648</v>
+      </c>
+      <c r="CJ9">
+        <v>0.81040769999999995</v>
+      </c>
+      <c r="CK9">
+        <v>0.71084365699999996</v>
+      </c>
+      <c r="CL9">
+        <v>0.44767552599999999</v>
+      </c>
+      <c r="CM9">
+        <v>0.29968813700000002</v>
+      </c>
+      <c r="CN9">
+        <v>6.4043681299999999</v>
+      </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>71</v>
       </c>
@@ -4368,8 +4789,50 @@
       <c r="BZ10" s="37" t="s">
         <v>212</v>
       </c>
+      <c r="CA10">
+        <v>-1.4638997000000001E-2</v>
+      </c>
+      <c r="CB10">
+        <v>-1.939337E-2</v>
+      </c>
+      <c r="CC10">
+        <v>0.754845443</v>
+      </c>
+      <c r="CD10">
+        <v>5.4048175299999999</v>
+      </c>
+      <c r="CE10">
+        <v>5.8346984500000003</v>
+      </c>
+      <c r="CF10">
+        <v>27.6675231</v>
+      </c>
+      <c r="CG10">
+        <v>1.5437603499999999</v>
+      </c>
+      <c r="CH10">
+        <v>0.42477563400000001</v>
+      </c>
+      <c r="CI10">
+        <v>2.9260697699999998</v>
+      </c>
+      <c r="CJ10">
+        <v>1.73764238</v>
+      </c>
+      <c r="CK10">
+        <v>1.5605884800000001</v>
+      </c>
+      <c r="CL10">
+        <v>0.53503912600000003</v>
+      </c>
+      <c r="CM10">
+        <v>0.28532896000000002</v>
+      </c>
+      <c r="CN10">
+        <v>12.403162999999999</v>
+      </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>71</v>
       </c>
@@ -4616,8 +5079,50 @@
       <c r="BZ11" s="37" t="s">
         <v>212</v>
       </c>
+      <c r="CA11">
+        <v>-1.5786834E-2</v>
+      </c>
+      <c r="CB11">
+        <v>-2.2309310999999998E-2</v>
+      </c>
+      <c r="CC11">
+        <v>0.70763429099999997</v>
+      </c>
+      <c r="CD11">
+        <v>6.4792103799999996</v>
+      </c>
+      <c r="CE11">
+        <v>7.3964815399999999</v>
+      </c>
+      <c r="CF11">
+        <v>-11.6785742</v>
+      </c>
+      <c r="CG11">
+        <v>1.55938508</v>
+      </c>
+      <c r="CH11">
+        <v>0.471284447</v>
+      </c>
+      <c r="CI11">
+        <v>1.9212454800000001</v>
+      </c>
+      <c r="CJ11">
+        <v>1.21705313</v>
+      </c>
+      <c r="CK11">
+        <v>1.09852813</v>
+      </c>
+      <c r="CL11">
+        <v>0.410306846</v>
+      </c>
+      <c r="CM11">
+        <v>0.187199852</v>
+      </c>
+      <c r="CN11">
+        <v>10.9008693</v>
+      </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>71</v>
       </c>
@@ -4865,8 +5370,50 @@
       <c r="BZ12" s="37" t="s">
         <v>213</v>
       </c>
+      <c r="CA12">
+        <v>-1.6280269999999999E-2</v>
+      </c>
+      <c r="CB12">
+        <v>-1.8493623000000001E-2</v>
+      </c>
+      <c r="CC12">
+        <v>0.88031807200000001</v>
+      </c>
+      <c r="CD12">
+        <v>5.6564059100000001</v>
+      </c>
+      <c r="CE12">
+        <v>5.6394043399999996</v>
+      </c>
+      <c r="CF12">
+        <v>9.73906165</v>
+      </c>
+      <c r="CG12">
+        <v>1.4630273199999999</v>
+      </c>
+      <c r="CH12">
+        <v>0.43482169500000001</v>
+      </c>
+      <c r="CI12">
+        <v>1.82357284</v>
+      </c>
+      <c r="CJ12">
+        <v>1.14011464</v>
+      </c>
+      <c r="CK12">
+        <v>1.04362914</v>
+      </c>
+      <c r="CL12">
+        <v>0.73702940100000003</v>
+      </c>
+      <c r="CM12">
+        <v>0.63339902199999998</v>
+      </c>
+      <c r="CN12">
+        <v>3.77592572</v>
+      </c>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>71</v>
       </c>
@@ -5106,8 +5653,50 @@
       <c r="BZ13" s="37" t="s">
         <v>213</v>
       </c>
+      <c r="CA13">
+        <v>-1.5238272000000001E-2</v>
+      </c>
+      <c r="CB13">
+        <v>-1.6081871000000001E-2</v>
+      </c>
+      <c r="CC13">
+        <v>0.94754348899999996</v>
+      </c>
+      <c r="CD13">
+        <v>5.0925718399999997</v>
+      </c>
+      <c r="CE13">
+        <v>4.7896665399999998</v>
+      </c>
+      <c r="CF13">
+        <v>6.8960731300000004</v>
+      </c>
+      <c r="CG13">
+        <v>1.5055294400000001</v>
+      </c>
+      <c r="CH13">
+        <v>0.48796369899999997</v>
+      </c>
+      <c r="CI13">
+        <v>2.1489254199999999</v>
+      </c>
+      <c r="CJ13">
+        <v>1.2165441400000001</v>
+      </c>
+      <c r="CK13">
+        <v>1.1307744099999999</v>
+      </c>
+      <c r="CL13">
+        <v>1.4281345599999999</v>
+      </c>
+      <c r="CM13">
+        <v>1.3085885100000001</v>
+      </c>
+      <c r="CN13">
+        <v>2.8690791999999998</v>
+      </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>71</v>
       </c>
@@ -5355,8 +5944,50 @@
       <c r="BZ14" s="37" t="s">
         <v>213</v>
       </c>
+      <c r="CA14">
+        <v>-1.5095694E-2</v>
+      </c>
+      <c r="CB14">
+        <v>-1.8593790999999998E-2</v>
+      </c>
+      <c r="CC14">
+        <v>0.81186748500000006</v>
+      </c>
+      <c r="CD14">
+        <v>5.2860341399999999</v>
+      </c>
+      <c r="CE14">
+        <v>5.4056420599999999</v>
+      </c>
+      <c r="CF14">
+        <v>8.8883839299999998</v>
+      </c>
+      <c r="CG14">
+        <v>1.52769541</v>
+      </c>
+      <c r="CH14">
+        <v>0.47431368600000001</v>
+      </c>
+      <c r="CI14">
+        <v>1.90736679</v>
+      </c>
+      <c r="CJ14">
+        <v>1.15356667</v>
+      </c>
+      <c r="CK14">
+        <v>1.0703897099999999</v>
+      </c>
+      <c r="CL14">
+        <v>0.99566566499999998</v>
+      </c>
+      <c r="CM14">
+        <v>0.89639387400000003</v>
+      </c>
+      <c r="CN14">
+        <v>3.34823966</v>
+      </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>71</v>
       </c>
@@ -5604,8 +6235,50 @@
       <c r="BZ15" s="37" t="s">
         <v>213</v>
       </c>
+      <c r="CA15">
+        <v>-1.5675267999999999E-2</v>
+      </c>
+      <c r="CB15">
+        <v>-1.9503023000000001E-2</v>
+      </c>
+      <c r="CC15">
+        <v>0.80373530500000001</v>
+      </c>
+      <c r="CD15">
+        <v>5.5069705100000004</v>
+      </c>
+      <c r="CE15">
+        <v>5.7330633899999999</v>
+      </c>
+      <c r="CF15">
+        <v>9.9091409800000001</v>
+      </c>
+      <c r="CG15">
+        <v>1.4785097</v>
+      </c>
+      <c r="CH15">
+        <v>0.46818301099999998</v>
+      </c>
+      <c r="CI15">
+        <v>2.00135614</v>
+      </c>
+      <c r="CJ15">
+        <v>1.21295647</v>
+      </c>
+      <c r="CK15">
+        <v>1.1412489400000001</v>
+      </c>
+      <c r="CL15">
+        <v>0.99930201200000002</v>
+      </c>
+      <c r="CM15">
+        <v>0.93613128800000001</v>
+      </c>
+      <c r="CN15">
+        <v>4.0995861800000002</v>
+      </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>71</v>
       </c>
@@ -5853,8 +6526,50 @@
       <c r="BZ16" s="37" t="s">
         <v>213</v>
       </c>
+      <c r="CA16">
+        <v>-1.6058647999999998E-2</v>
+      </c>
+      <c r="CB16">
+        <v>-2.164081E-2</v>
+      </c>
+      <c r="CC16">
+        <v>0.74205391499999995</v>
+      </c>
+      <c r="CD16">
+        <v>5.73967721</v>
+      </c>
+      <c r="CE16">
+        <v>6.4314306800000001</v>
+      </c>
+      <c r="CF16">
+        <v>12.8613733</v>
+      </c>
+      <c r="CG16">
+        <v>1.4564747499999999</v>
+      </c>
+      <c r="CH16">
+        <v>0.42840246399999998</v>
+      </c>
+      <c r="CI16">
+        <v>2.1276609</v>
+      </c>
+      <c r="CJ16">
+        <v>1.3530593399999999</v>
+      </c>
+      <c r="CK16">
+        <v>1.24559</v>
+      </c>
+      <c r="CL16">
+        <v>0.75614346300000002</v>
+      </c>
+      <c r="CM16">
+        <v>0.74929019200000002</v>
+      </c>
+      <c r="CN16">
+        <v>5.1956354300000003</v>
+      </c>
     </row>
-    <row r="17" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -6102,8 +6817,50 @@
       <c r="BZ17" s="37" t="s">
         <v>214</v>
       </c>
+      <c r="CA17">
+        <v>-1.7981308000000001E-2</v>
+      </c>
+      <c r="CB17">
+        <v>-1.6933904999999999E-2</v>
+      </c>
+      <c r="CC17">
+        <v>1.0618524600000001</v>
+      </c>
+      <c r="CD17">
+        <v>5.51985101</v>
+      </c>
+      <c r="CE17">
+        <v>5.0328844000000004</v>
+      </c>
+      <c r="CF17">
+        <v>10.6229449</v>
+      </c>
+      <c r="CG17">
+        <v>1.5056733099999999</v>
+      </c>
+      <c r="CH17">
+        <v>0.49186649500000001</v>
+      </c>
+      <c r="CI17">
+        <v>2.44433027</v>
+      </c>
+      <c r="CJ17">
+        <v>1.34764857</v>
+      </c>
+      <c r="CK17">
+        <v>1.28364218</v>
+      </c>
+      <c r="CL17">
+        <v>1.12999038</v>
+      </c>
+      <c r="CM17">
+        <v>0.77902990000000005</v>
+      </c>
+      <c r="CN17">
+        <v>4.4724002499999997</v>
+      </c>
     </row>
-    <row r="18" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
@@ -6352,7 +7109,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>71</v>
       </c>
@@ -6600,8 +7357,50 @@
       <c r="BZ19" s="37" t="s">
         <v>214</v>
       </c>
+      <c r="CA19">
+        <v>-1.6218683000000001E-2</v>
+      </c>
+      <c r="CB19">
+        <v>-1.8748206E-2</v>
+      </c>
+      <c r="CC19">
+        <v>0.865079182</v>
+      </c>
+      <c r="CD19">
+        <v>5.2801593000000002</v>
+      </c>
+      <c r="CE19">
+        <v>5.5044655000000002</v>
+      </c>
+      <c r="CF19">
+        <v>17.797754399999999</v>
+      </c>
+      <c r="CG19">
+        <v>1.46319044</v>
+      </c>
+      <c r="CH19">
+        <v>0.42335929</v>
+      </c>
+      <c r="CI19">
+        <v>2.6186041000000002</v>
+      </c>
+      <c r="CJ19">
+        <v>1.5521916899999999</v>
+      </c>
+      <c r="CK19">
+        <v>1.4725902200000001</v>
+      </c>
+      <c r="CL19">
+        <v>0.79144055599999996</v>
+      </c>
+      <c r="CM19">
+        <v>0.54468367200000001</v>
+      </c>
+      <c r="CN19">
+        <v>6.67491243</v>
+      </c>
     </row>
-    <row r="20" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>71</v>
       </c>
@@ -6849,8 +7648,50 @@
       <c r="BZ20" s="37" t="s">
         <v>214</v>
       </c>
+      <c r="CA20">
+        <v>-1.4962306E-2</v>
+      </c>
+      <c r="CB20">
+        <v>-1.6822516999999999E-2</v>
+      </c>
+      <c r="CC20">
+        <v>0.88942137899999996</v>
+      </c>
+      <c r="CD20">
+        <v>4.7702672499999998</v>
+      </c>
+      <c r="CE20">
+        <v>4.7965825799999999</v>
+      </c>
+      <c r="CF20">
+        <v>11.830988700000001</v>
+      </c>
+      <c r="CG20">
+        <v>1.46659976</v>
+      </c>
+      <c r="CH20">
+        <v>0.44906225900000002</v>
+      </c>
+      <c r="CI20">
+        <v>3.0922413400000002</v>
+      </c>
+      <c r="CJ20">
+        <v>1.6716629300000001</v>
+      </c>
+      <c r="CK20">
+        <v>1.5734672300000001</v>
+      </c>
+      <c r="CL20">
+        <v>0.85976755299999996</v>
+      </c>
+      <c r="CM20">
+        <v>0.59477622100000005</v>
+      </c>
+      <c r="CN20">
+        <v>7.5455760200000004</v>
+      </c>
     </row>
-    <row r="21" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>71</v>
       </c>
@@ -7090,8 +7931,50 @@
       <c r="BZ21" s="37" t="s">
         <v>214</v>
       </c>
+      <c r="CA21">
+        <v>-1.5273212E-2</v>
+      </c>
+      <c r="CB21">
+        <v>-1.9250389E-2</v>
+      </c>
+      <c r="CC21">
+        <v>0.79339758699999996</v>
+      </c>
+      <c r="CD21">
+        <v>5.3130609199999999</v>
+      </c>
+      <c r="CE21">
+        <v>5.7828481199999997</v>
+      </c>
+      <c r="CF21">
+        <v>22.467257100000001</v>
+      </c>
+      <c r="CG21">
+        <v>1.4390756499999999</v>
+      </c>
+      <c r="CH21">
+        <v>0.44805866900000002</v>
+      </c>
+      <c r="CI21">
+        <v>2.33991375</v>
+      </c>
+      <c r="CJ21">
+        <v>1.3418689100000001</v>
+      </c>
+      <c r="CK21">
+        <v>1.2621196100000001</v>
+      </c>
+      <c r="CL21">
+        <v>0.55723622100000003</v>
+      </c>
+      <c r="CM21">
+        <v>0.33968660000000001</v>
+      </c>
+      <c r="CN21">
+        <v>8.8158130900000007</v>
+      </c>
     </row>
-    <row r="22" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>71</v>
       </c>
@@ -7339,8 +8222,50 @@
       <c r="BZ22" s="37" t="s">
         <v>215</v>
       </c>
+      <c r="CA22">
+        <v>-1.8345145E-2</v>
+      </c>
+      <c r="CB22">
+        <v>-1.3950974E-2</v>
+      </c>
+      <c r="CC22">
+        <v>1.3149723</v>
+      </c>
+      <c r="CD22">
+        <v>5.2228577999999999</v>
+      </c>
+      <c r="CE22">
+        <v>4.1224191000000001</v>
+      </c>
+      <c r="CF22">
+        <v>9.5576199000000006</v>
+      </c>
+      <c r="CG22">
+        <v>1.8112862000000001</v>
+      </c>
+      <c r="CH22">
+        <v>0.74058657000000006</v>
+      </c>
+      <c r="CI22">
+        <v>0.34301013000000002</v>
+      </c>
+      <c r="CJ22">
+        <v>0.15974708000000001</v>
+      </c>
+      <c r="CK22">
+        <v>0.14725995</v>
+      </c>
+      <c r="CL22">
+        <v>0.16038139000000001</v>
+      </c>
+      <c r="CM22">
+        <v>0.14011779999999999</v>
+      </c>
+      <c r="CN22">
+        <v>4.0578099999999999</v>
+      </c>
     </row>
-    <row r="23" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>71</v>
       </c>
@@ -7588,8 +8513,50 @@
       <c r="BZ23" s="37" t="s">
         <v>215</v>
       </c>
+      <c r="CA23">
+        <v>-1.7032640000000002E-2</v>
+      </c>
+      <c r="CB23">
+        <v>-1.8459130000000001E-2</v>
+      </c>
+      <c r="CC23">
+        <v>0.92272171300000005</v>
+      </c>
+      <c r="CD23">
+        <v>5.6400090499999997</v>
+      </c>
+      <c r="CE23">
+        <v>5.34510738</v>
+      </c>
+      <c r="CF23">
+        <v>19.1917762</v>
+      </c>
+      <c r="CG23">
+        <v>1.68467499</v>
+      </c>
+      <c r="CH23">
+        <v>0.51577963699999996</v>
+      </c>
+      <c r="CI23">
+        <v>1.3459832</v>
+      </c>
+      <c r="CJ23">
+        <v>0.65033902600000004</v>
+      </c>
+      <c r="CK23">
+        <v>0.60280595000000003</v>
+      </c>
+      <c r="CL23">
+        <v>0.29331631200000002</v>
+      </c>
+      <c r="CM23">
+        <v>0.167856802</v>
+      </c>
+      <c r="CN23">
+        <v>10.091862799999999</v>
+      </c>
     </row>
-    <row r="24" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
@@ -7837,8 +8804,50 @@
       <c r="BZ24" s="37" t="s">
         <v>215</v>
       </c>
+      <c r="CA24">
+        <v>-1.4874185999999999E-2</v>
+      </c>
+      <c r="CB24">
+        <v>-1.2528867000000001E-2</v>
+      </c>
+      <c r="CC24">
+        <v>1.1871932000000001</v>
+      </c>
+      <c r="CD24">
+        <v>4.1611953000000002</v>
+      </c>
+      <c r="CE24">
+        <v>3.6138789</v>
+      </c>
+      <c r="CF24">
+        <v>10.836662</v>
+      </c>
+      <c r="CG24">
+        <v>1.6468548999999999</v>
+      </c>
+      <c r="CH24">
+        <v>0.50751513999999998</v>
+      </c>
+      <c r="CI24">
+        <v>0.30175375999999998</v>
+      </c>
+      <c r="CJ24">
+        <v>0.14545256000000001</v>
+      </c>
+      <c r="CK24">
+        <v>0.12537206000000001</v>
+      </c>
+      <c r="CL24">
+        <v>0.14837159999999999</v>
+      </c>
+      <c r="CM24">
+        <v>0.10840862</v>
+      </c>
+      <c r="CN24">
+        <v>4.7112970000000001</v>
+      </c>
     </row>
-    <row r="25" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
@@ -8066,8 +9075,50 @@
       <c r="BZ25" s="37" t="s">
         <v>215</v>
       </c>
+      <c r="CA25">
+        <v>-2.0195747999999999E-2</v>
+      </c>
+      <c r="CB25">
+        <v>-1.6738856999999999E-2</v>
+      </c>
+      <c r="CC25">
+        <v>1.2065189999999999</v>
+      </c>
+      <c r="CD25">
+        <v>7.8591170999999997</v>
+      </c>
+      <c r="CE25">
+        <v>5.3833859999999998</v>
+      </c>
+      <c r="CF25">
+        <v>-20.991181000000001</v>
+      </c>
+      <c r="CG25">
+        <v>1.6672023</v>
+      </c>
+      <c r="CH25">
+        <v>0.65522365000000005</v>
+      </c>
+      <c r="CI25">
+        <v>0.38137831</v>
+      </c>
+      <c r="CJ25">
+        <v>0.17288838000000001</v>
+      </c>
+      <c r="CK25">
+        <v>0.15853194000000001</v>
+      </c>
+      <c r="CL25">
+        <v>0.14488938000000001</v>
+      </c>
+      <c r="CM25">
+        <v>0.12171281</v>
+      </c>
+      <c r="CN25">
+        <v>4.8561924000000003</v>
+      </c>
     </row>
-    <row r="26" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
@@ -8315,8 +9366,50 @@
       <c r="BZ26" s="37" t="s">
         <v>215</v>
       </c>
+      <c r="CA26">
+        <v>-1.5050867000000001E-2</v>
+      </c>
+      <c r="CB26">
+        <v>-1.6203348999999999E-2</v>
+      </c>
+      <c r="CC26">
+        <v>0.92887381400000002</v>
+      </c>
+      <c r="CD26">
+        <v>4.84073507</v>
+      </c>
+      <c r="CE26">
+        <v>4.5494198800000003</v>
+      </c>
+      <c r="CF26">
+        <v>14.669965100000001</v>
+      </c>
+      <c r="CG26">
+        <v>1.59635393</v>
+      </c>
+      <c r="CH26">
+        <v>0.56824785</v>
+      </c>
+      <c r="CI26">
+        <v>2.6557679799999998</v>
+      </c>
+      <c r="CJ26">
+        <v>1.3092831700000001</v>
+      </c>
+      <c r="CK26">
+        <v>1.24327246</v>
+      </c>
+      <c r="CL26">
+        <v>0.67472292099999998</v>
+      </c>
+      <c r="CM26">
+        <v>0.38317213500000002</v>
+      </c>
+      <c r="CN26">
+        <v>9.5454894100000001</v>
+      </c>
     </row>
-    <row r="27" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>71</v>
       </c>
@@ -8565,7 +9658,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="28" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>71</v>
       </c>
@@ -8805,8 +9898,50 @@
       <c r="BZ28" s="37" t="s">
         <v>212</v>
       </c>
+      <c r="CA28">
+        <v>-2.2029197E-2</v>
+      </c>
+      <c r="CB28">
+        <v>-2.1895609999999999E-2</v>
+      </c>
+      <c r="CC28">
+        <v>1.00610109</v>
+      </c>
+      <c r="CD28">
+        <v>6.9839497499999998</v>
+      </c>
+      <c r="CE28">
+        <v>6.9078182400000001</v>
+      </c>
+      <c r="CF28">
+        <v>-103.35069799999999</v>
+      </c>
+      <c r="CG28">
+        <v>1.53302027</v>
+      </c>
+      <c r="CH28">
+        <v>0.38583685099999998</v>
+      </c>
+      <c r="CI28">
+        <v>1.8776065399999999</v>
+      </c>
+      <c r="CJ28">
+        <v>1.3656085</v>
+      </c>
+      <c r="CK28">
+        <v>1.28754149</v>
+      </c>
+      <c r="CL28">
+        <v>0.93234358299999998</v>
+      </c>
+      <c r="CM28">
+        <v>0.903285212</v>
+      </c>
+      <c r="CN28">
+        <v>3.5510024699999998</v>
+      </c>
     </row>
-    <row r="29" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>71</v>
       </c>
@@ -9055,7 +10190,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="30" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>71</v>
       </c>
@@ -9303,8 +10438,50 @@
       <c r="BZ30" s="37" t="s">
         <v>212</v>
       </c>
+      <c r="CA30">
+        <v>-1.8747249000000001E-2</v>
+      </c>
+      <c r="CB30">
+        <v>-2.1305871000000001E-2</v>
+      </c>
+      <c r="CC30">
+        <v>0.879909987</v>
+      </c>
+      <c r="CD30">
+        <v>6.1584597700000003</v>
+      </c>
+      <c r="CE30">
+        <v>6.4491923900000003</v>
+      </c>
+      <c r="CF30">
+        <v>54.6945038</v>
+      </c>
+      <c r="CG30">
+        <v>1.4942978499999999</v>
+      </c>
+      <c r="CH30">
+        <v>0.38446537600000003</v>
+      </c>
+      <c r="CI30">
+        <v>3.22582769</v>
+      </c>
+      <c r="CJ30">
+        <v>2.1218484800000001</v>
+      </c>
+      <c r="CK30">
+        <v>1.9466191399999999</v>
+      </c>
+      <c r="CL30">
+        <v>0.75862501500000001</v>
+      </c>
+      <c r="CM30">
+        <v>0.55701689099999996</v>
+      </c>
+      <c r="CN30">
+        <v>7.7782095599999996</v>
+      </c>
     </row>
-    <row r="31" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>71</v>
       </c>
@@ -9552,8 +10729,50 @@
       <c r="BZ31" s="37" t="s">
         <v>212</v>
       </c>
+      <c r="CA31">
+        <v>-1.8944487999999999E-2</v>
+      </c>
+      <c r="CB31">
+        <v>-2.1047026E-2</v>
+      </c>
+      <c r="CC31">
+        <v>0.90010282500000005</v>
+      </c>
+      <c r="CD31">
+        <v>6.0156741199999999</v>
+      </c>
+      <c r="CE31">
+        <v>6.2378605599999997</v>
+      </c>
+      <c r="CF31">
+        <v>29.901513699999999</v>
+      </c>
+      <c r="CG31">
+        <v>1.52556106</v>
+      </c>
+      <c r="CH31">
+        <v>0.39146096200000002</v>
+      </c>
+      <c r="CI31">
+        <v>3.5025787400000001</v>
+      </c>
+      <c r="CJ31">
+        <v>2.37159605</v>
+      </c>
+      <c r="CK31">
+        <v>2.18861244</v>
+      </c>
+      <c r="CL31">
+        <v>0.88920527699999996</v>
+      </c>
+      <c r="CM31">
+        <v>0.573683787</v>
+      </c>
+      <c r="CN31">
+        <v>7.4891597699999997</v>
+      </c>
     </row>
-    <row r="32" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>71</v>
       </c>
@@ -9801,8 +11020,50 @@
       <c r="BZ32" s="37" t="s">
         <v>212</v>
       </c>
+      <c r="CA32">
+        <v>-3.7150943999999998E-2</v>
+      </c>
+      <c r="CB32">
+        <v>-2.7178220999999999E-2</v>
+      </c>
+      <c r="CC32">
+        <v>1.3669380499999999</v>
+      </c>
+      <c r="CD32">
+        <v>15.4409923</v>
+      </c>
+      <c r="CE32">
+        <v>13.5398482</v>
+      </c>
+      <c r="CF32">
+        <v>-5.8692327000000004</v>
+      </c>
+      <c r="CG32">
+        <v>1.9656225899999999</v>
+      </c>
+      <c r="CH32">
+        <v>0.56804209900000002</v>
+      </c>
+      <c r="CI32">
+        <v>2.5857352499999999</v>
+      </c>
+      <c r="CJ32">
+        <v>1.33329458</v>
+      </c>
+      <c r="CK32">
+        <v>1.1324342300000001</v>
+      </c>
+      <c r="CL32">
+        <v>0.589138779</v>
+      </c>
+      <c r="CM32">
+        <v>0.53945436999999996</v>
+      </c>
+      <c r="CN32">
+        <v>8.3040474300000007</v>
+      </c>
     </row>
-    <row r="33" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>71</v>
       </c>
@@ -10050,8 +11311,50 @@
       <c r="BZ33" s="37" t="s">
         <v>212</v>
       </c>
+      <c r="CA33">
+        <v>-3.1580349000000001E-2</v>
+      </c>
+      <c r="CB33">
+        <v>-2.5132394999999998E-2</v>
+      </c>
+      <c r="CC33">
+        <v>1.2565594899999999</v>
+      </c>
+      <c r="CD33">
+        <v>11.6155934</v>
+      </c>
+      <c r="CE33">
+        <v>10.624980300000001</v>
+      </c>
+      <c r="CF33">
+        <v>-107.88619</v>
+      </c>
+      <c r="CG33">
+        <v>1.7627091500000001</v>
+      </c>
+      <c r="CH33">
+        <v>0.54592618999999998</v>
+      </c>
+      <c r="CI33">
+        <v>1.53616646</v>
+      </c>
+      <c r="CJ33">
+        <v>0.90930300500000005</v>
+      </c>
+      <c r="CK33">
+        <v>0.80565931000000002</v>
+      </c>
+      <c r="CL33">
+        <v>0.41574445100000001</v>
+      </c>
+      <c r="CM33">
+        <v>0.33081216600000002</v>
+      </c>
+      <c r="CN33">
+        <v>6.2894612499999996</v>
+      </c>
     </row>
-    <row r="34" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
@@ -10299,8 +11602,50 @@
       <c r="BZ34" s="37" t="s">
         <v>212</v>
       </c>
+      <c r="CA34">
+        <v>-2.4817947E-2</v>
+      </c>
+      <c r="CB34">
+        <v>-2.4097593E-2</v>
+      </c>
+      <c r="CC34">
+        <v>1.02989318</v>
+      </c>
+      <c r="CD34">
+        <v>8.8095105</v>
+      </c>
+      <c r="CE34">
+        <v>8.9353893600000003</v>
+      </c>
+      <c r="CF34">
+        <v>-175.152501</v>
+      </c>
+      <c r="CG34">
+        <v>1.7747685900000001</v>
+      </c>
+      <c r="CH34">
+        <v>0.494890208</v>
+      </c>
+      <c r="CI34">
+        <v>2.4585108199999999</v>
+      </c>
+      <c r="CJ34">
+        <v>1.4541209399999999</v>
+      </c>
+      <c r="CK34">
+        <v>1.2565372100000001</v>
+      </c>
+      <c r="CL34">
+        <v>0.57938718600000005</v>
+      </c>
+      <c r="CM34">
+        <v>0.27404383100000002</v>
+      </c>
+      <c r="CN34">
+        <v>9.6039411900000005</v>
+      </c>
     </row>
-    <row r="35" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>71</v>
       </c>
@@ -10548,8 +11893,50 @@
       <c r="BZ35" s="37" t="s">
         <v>212</v>
       </c>
+      <c r="CA35">
+        <v>-2.8259442999999999E-2</v>
+      </c>
+      <c r="CB35">
+        <v>-2.5733362999999999E-2</v>
+      </c>
+      <c r="CC35">
+        <v>1.0981636400000001</v>
+      </c>
+      <c r="CD35">
+        <v>10.345117</v>
+      </c>
+      <c r="CE35">
+        <v>10.4749762</v>
+      </c>
+      <c r="CF35">
+        <v>-14.101581400000001</v>
+      </c>
+      <c r="CG35">
+        <v>1.7718963299999999</v>
+      </c>
+      <c r="CH35">
+        <v>0.52505987899999995</v>
+      </c>
+      <c r="CI35">
+        <v>2.1669513399999998</v>
+      </c>
+      <c r="CJ35">
+        <v>1.3177326199999999</v>
+      </c>
+      <c r="CK35">
+        <v>1.1617746099999999</v>
+      </c>
+      <c r="CL35">
+        <v>0.52119331499999999</v>
+      </c>
+      <c r="CM35">
+        <v>0.25562614</v>
+      </c>
+      <c r="CN35">
+        <v>8.8249260899999999</v>
+      </c>
     </row>
-    <row r="36" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>71</v>
       </c>
@@ -10795,8 +12182,50 @@
       <c r="BZ36" s="37" t="s">
         <v>212</v>
       </c>
+      <c r="CA36">
+        <v>-2.451447E-2</v>
+      </c>
+      <c r="CB36">
+        <v>-2.4340470999999999E-2</v>
+      </c>
+      <c r="CC36">
+        <v>1.00714854</v>
+      </c>
+      <c r="CD36">
+        <v>9.1276267900000008</v>
+      </c>
+      <c r="CE36">
+        <v>9.2742758999999992</v>
+      </c>
+      <c r="CF36">
+        <v>173.652141</v>
+      </c>
+      <c r="CG36">
+        <v>1.7392931899999999</v>
+      </c>
+      <c r="CH36">
+        <v>0.51972775500000001</v>
+      </c>
+      <c r="CI36">
+        <v>2.7961904400000002</v>
+      </c>
+      <c r="CJ36">
+        <v>1.66239425</v>
+      </c>
+      <c r="CK36">
+        <v>1.4850121599999999</v>
+      </c>
+      <c r="CL36">
+        <v>0.71266114999999997</v>
+      </c>
+      <c r="CM36">
+        <v>0.28538106200000002</v>
+      </c>
+      <c r="CN36">
+        <v>9.0486037499999998</v>
+      </c>
     </row>
-    <row r="37" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>71</v>
       </c>
@@ -11045,7 +12474,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="38" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>71</v>
       </c>
@@ -11293,8 +12722,50 @@
       <c r="BZ38" s="37" t="s">
         <v>216</v>
       </c>
+      <c r="CA38">
+        <v>-2.7036741999999999E-2</v>
+      </c>
+      <c r="CB38">
+        <v>-2.3497570999999998E-2</v>
+      </c>
+      <c r="CC38">
+        <v>1.1506185799999999</v>
+      </c>
+      <c r="CD38">
+        <v>9.0484053299999996</v>
+      </c>
+      <c r="CE38">
+        <v>8.9599867399999997</v>
+      </c>
+      <c r="CF38">
+        <v>50.073487200000002</v>
+      </c>
+      <c r="CG38">
+        <v>1.9630238200000001</v>
+      </c>
+      <c r="CH38">
+        <v>0.683502147</v>
+      </c>
+      <c r="CI38">
+        <v>3.2405453799999999</v>
+      </c>
+      <c r="CJ38">
+        <v>2.0473316100000001</v>
+      </c>
+      <c r="CK38">
+        <v>1.72636251</v>
+      </c>
+      <c r="CL38">
+        <v>0.75870850499999998</v>
+      </c>
+      <c r="CM38">
+        <v>0.52063953200000002</v>
+      </c>
+      <c r="CN38">
+        <v>9.1145691400000004</v>
+      </c>
     </row>
-    <row r="39" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>71</v>
       </c>
@@ -11542,8 +13013,50 @@
       <c r="BZ39" s="37" t="s">
         <v>216</v>
       </c>
+      <c r="CA39">
+        <v>-2.4055928000000001E-2</v>
+      </c>
+      <c r="CB39">
+        <v>-2.3635791999999999E-2</v>
+      </c>
+      <c r="CC39">
+        <v>1.0177754400000001</v>
+      </c>
+      <c r="CD39">
+        <v>8.5609018900000002</v>
+      </c>
+      <c r="CE39">
+        <v>8.9242301899999994</v>
+      </c>
+      <c r="CF39">
+        <v>-663.55311500000005</v>
+      </c>
+      <c r="CG39">
+        <v>1.8784778900000001</v>
+      </c>
+      <c r="CH39">
+        <v>0.64406733900000002</v>
+      </c>
+      <c r="CI39">
+        <v>2.9434755300000002</v>
+      </c>
+      <c r="CJ39">
+        <v>1.83382336</v>
+      </c>
+      <c r="CK39">
+        <v>1.55258476</v>
+      </c>
+      <c r="CL39">
+        <v>0.68581250699999996</v>
+      </c>
+      <c r="CM39">
+        <v>0.38270551400000002</v>
+      </c>
+      <c r="CN39">
+        <v>9.1724063699999991</v>
+      </c>
     </row>
-    <row r="40" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>71</v>
       </c>
@@ -11791,8 +13304,50 @@
       <c r="BZ40" s="37" t="s">
         <v>216</v>
       </c>
+      <c r="CA40">
+        <v>-2.1407889999999999E-2</v>
+      </c>
+      <c r="CB40">
+        <v>-2.4076601999999999E-2</v>
+      </c>
+      <c r="CC40">
+        <v>0.88915742900000005</v>
+      </c>
+      <c r="CD40">
+        <v>7.9613193400000002</v>
+      </c>
+      <c r="CE40">
+        <v>8.8525890799999996</v>
+      </c>
+      <c r="CF40">
+        <v>-22.021986699999999</v>
+      </c>
+      <c r="CG40">
+        <v>1.7923199999999999</v>
+      </c>
+      <c r="CH40">
+        <v>0.60698938599999996</v>
+      </c>
+      <c r="CI40">
+        <v>3.1646124499999999</v>
+      </c>
+      <c r="CJ40">
+        <v>1.9400383699999999</v>
+      </c>
+      <c r="CK40">
+        <v>1.62698228</v>
+      </c>
+      <c r="CL40">
+        <v>0.69072321400000003</v>
+      </c>
+      <c r="CM40">
+        <v>0.335809038</v>
+      </c>
+      <c r="CN40">
+        <v>9.7109783000000007</v>
+      </c>
     </row>
-    <row r="41" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>71</v>
       </c>
@@ -12030,8 +13585,50 @@
       <c r="BZ41" s="37" t="s">
         <v>216</v>
       </c>
+      <c r="CA41">
+        <v>-2.2390429999999999E-2</v>
+      </c>
+      <c r="CB41">
+        <v>-2.3610176E-2</v>
+      </c>
+      <c r="CC41">
+        <v>0.94833812900000003</v>
+      </c>
+      <c r="CD41">
+        <v>8.1301138500000008</v>
+      </c>
+      <c r="CE41">
+        <v>8.4970567599999995</v>
+      </c>
+      <c r="CF41">
+        <v>45.185728599999997</v>
+      </c>
+      <c r="CG41">
+        <v>1.8394618300000001</v>
+      </c>
+      <c r="CH41">
+        <v>0.58978472100000001</v>
+      </c>
+      <c r="CI41">
+        <v>3.28741101</v>
+      </c>
+      <c r="CJ41">
+        <v>2.03840668</v>
+      </c>
+      <c r="CK41">
+        <v>1.7401563</v>
+      </c>
+      <c r="CL41">
+        <v>0.73114841100000005</v>
+      </c>
+      <c r="CM41">
+        <v>0.32662935399999998</v>
+      </c>
+      <c r="CN41">
+        <v>9.7218949600000002</v>
+      </c>
     </row>
-    <row r="42" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>71</v>
       </c>
@@ -12279,8 +13876,50 @@
       <c r="BZ42" s="37" t="s">
         <v>217</v>
       </c>
+      <c r="CA42">
+        <v>-1.9147991E-2</v>
+      </c>
+      <c r="CB42">
+        <v>-1.6710815E-2</v>
+      </c>
+      <c r="CC42">
+        <v>1.1458442</v>
+      </c>
+      <c r="CD42">
+        <v>5.8251939400000001</v>
+      </c>
+      <c r="CE42">
+        <v>5.0962481899999998</v>
+      </c>
+      <c r="CF42">
+        <v>7.9055735699999996</v>
+      </c>
+      <c r="CG42">
+        <v>1.72030142</v>
+      </c>
+      <c r="CH42">
+        <v>0.522507316</v>
+      </c>
+      <c r="CI42">
+        <v>3.6791106600000001</v>
+      </c>
+      <c r="CJ42">
+        <v>2.0083323700000002</v>
+      </c>
+      <c r="CK42">
+        <v>1.87461677</v>
+      </c>
+      <c r="CL42">
+        <v>1.0087596999999999</v>
+      </c>
+      <c r="CM42">
+        <v>0.85503358500000004</v>
+      </c>
+      <c r="CN42">
+        <v>6.4315554400000003</v>
+      </c>
     </row>
-    <row r="43" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>71</v>
       </c>
@@ -12525,8 +14164,50 @@
       <c r="BZ43" s="37" t="s">
         <v>217</v>
       </c>
+      <c r="CA43">
+        <v>-1.6671089E-2</v>
+      </c>
+      <c r="CB43">
+        <v>-1.3792577E-2</v>
+      </c>
+      <c r="CC43">
+        <v>1.2087001500000001</v>
+      </c>
+      <c r="CD43">
+        <v>4.6016975000000002</v>
+      </c>
+      <c r="CE43">
+        <v>3.9099584200000002</v>
+      </c>
+      <c r="CF43">
+        <v>6.1227405499999996</v>
+      </c>
+      <c r="CG43">
+        <v>1.5875857799999999</v>
+      </c>
+      <c r="CH43">
+        <v>0.47642378600000002</v>
+      </c>
+      <c r="CI43">
+        <v>3.5717128800000002</v>
+      </c>
+      <c r="CJ43">
+        <v>1.9071938100000001</v>
+      </c>
+      <c r="CK43">
+        <v>1.8370610700000001</v>
+      </c>
+      <c r="CL43">
+        <v>1.2799973099999999</v>
+      </c>
+      <c r="CM43">
+        <v>0.91573189099999996</v>
+      </c>
+      <c r="CN43">
+        <v>5.78455706</v>
+      </c>
     </row>
-    <row r="44" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>71</v>
       </c>
@@ -12774,8 +14455,50 @@
       <c r="BZ44" s="37" t="s">
         <v>217</v>
       </c>
+      <c r="CA44">
+        <v>-1.5170028E-2</v>
+      </c>
+      <c r="CB44">
+        <v>-1.3704874000000001E-2</v>
+      </c>
+      <c r="CC44">
+        <v>1.1069074800000001</v>
+      </c>
+      <c r="CD44">
+        <v>4.4606058400000004</v>
+      </c>
+      <c r="CE44">
+        <v>3.9019595699999998</v>
+      </c>
+      <c r="CF44">
+        <v>6.1676147800000001</v>
+      </c>
+      <c r="CG44">
+        <v>1.5227084399999999</v>
+      </c>
+      <c r="CH44">
+        <v>0.45428243800000001</v>
+      </c>
+      <c r="CI44">
+        <v>5.2545153999999998</v>
+      </c>
+      <c r="CJ44">
+        <v>2.7676802299999999</v>
+      </c>
+      <c r="CK44">
+        <v>2.6580697899999999</v>
+      </c>
+      <c r="CL44">
+        <v>1.5047779100000001</v>
+      </c>
+      <c r="CM44">
+        <v>1.03016277</v>
+      </c>
+      <c r="CN44">
+        <v>7.0655917600000002</v>
+      </c>
     </row>
-    <row r="45" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>71</v>
       </c>
@@ -13023,8 +14746,50 @@
       <c r="BZ45" s="37" t="s">
         <v>217</v>
       </c>
+      <c r="CA45">
+        <v>-1.9809673999999999E-2</v>
+      </c>
+      <c r="CB45">
+        <v>-1.9839730999999999E-2</v>
+      </c>
+      <c r="CC45">
+        <v>0.99848499999999996</v>
+      </c>
+      <c r="CD45">
+        <v>6.1855092200000001</v>
+      </c>
+      <c r="CE45">
+        <v>6.0162445199999999</v>
+      </c>
+      <c r="CF45">
+        <v>16.468933700000001</v>
+      </c>
+      <c r="CG45">
+        <v>1.5939095299999999</v>
+      </c>
+      <c r="CH45">
+        <v>0.48730316699999998</v>
+      </c>
+      <c r="CI45">
+        <v>3.8889914800000001</v>
+      </c>
+      <c r="CJ45">
+        <v>2.0853247000000001</v>
+      </c>
+      <c r="CK45">
+        <v>2.0101204400000001</v>
+      </c>
+      <c r="CL45">
+        <v>1.02192672</v>
+      </c>
+      <c r="CM45">
+        <v>0.65252808699999998</v>
+      </c>
+      <c r="CN45">
+        <v>7.74037065</v>
+      </c>
     </row>
-    <row r="46" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>71</v>
       </c>
@@ -13266,8 +15031,50 @@
       <c r="BZ46" s="37" t="s">
         <v>217</v>
       </c>
+      <c r="CA46">
+        <v>-1.5184751999999999E-2</v>
+      </c>
+      <c r="CB46">
+        <v>-1.4833615E-2</v>
+      </c>
+      <c r="CC46">
+        <v>1.02367169</v>
+      </c>
+      <c r="CD46">
+        <v>4.6861758599999996</v>
+      </c>
+      <c r="CE46">
+        <v>4.2796464900000002</v>
+      </c>
+      <c r="CF46">
+        <v>7.1291260899999997</v>
+      </c>
+      <c r="CG46">
+        <v>1.6244548700000001</v>
+      </c>
+      <c r="CH46">
+        <v>0.483376313</v>
+      </c>
+      <c r="CI46">
+        <v>3.25531185</v>
+      </c>
+      <c r="CJ46">
+        <v>1.8851662899999999</v>
+      </c>
+      <c r="CK46">
+        <v>1.69388771</v>
+      </c>
+      <c r="CL46">
+        <v>0.97250964799999995</v>
+      </c>
+      <c r="CM46">
+        <v>0.69701381100000004</v>
+      </c>
+      <c r="CN46">
+        <v>6.3975369400000002</v>
+      </c>
     </row>
-    <row r="47" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -13516,7 +15323,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="48" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>71</v>
       </c>
@@ -13764,8 +15571,50 @@
       <c r="BZ48" s="37" t="s">
         <v>218</v>
       </c>
+      <c r="CA48">
+        <v>-1.6034494E-2</v>
+      </c>
+      <c r="CB48">
+        <v>-1.0272768999999999E-2</v>
+      </c>
+      <c r="CC48">
+        <v>1.5608736999999999</v>
+      </c>
+      <c r="CD48">
+        <v>4.0514526000000002</v>
+      </c>
+      <c r="CE48">
+        <v>3.0415736999999998</v>
+      </c>
+      <c r="CF48">
+        <v>5.7516904000000002</v>
+      </c>
+      <c r="CG48">
+        <v>1.7432704000000001</v>
+      </c>
+      <c r="CH48">
+        <v>0.60439102</v>
+      </c>
+      <c r="CI48">
+        <v>0.76274299000000001</v>
+      </c>
+      <c r="CJ48">
+        <v>0.37422477999999998</v>
+      </c>
+      <c r="CK48">
+        <v>0.36989709999999998</v>
+      </c>
+      <c r="CL48">
+        <v>0.61143581000000002</v>
+      </c>
+      <c r="CM48">
+        <v>0.42028032999999998</v>
+      </c>
+      <c r="CN48">
+        <v>2.8657992000000001</v>
+      </c>
     </row>
-    <row r="49" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>71</v>
       </c>
@@ -14005,8 +15854,50 @@
       <c r="BZ49" s="37" t="s">
         <v>218</v>
       </c>
+      <c r="CA49">
+        <v>-1.5869858000000001E-2</v>
+      </c>
+      <c r="CB49">
+        <v>-1.3477387E-2</v>
+      </c>
+      <c r="CC49">
+        <v>1.1775174399999999</v>
+      </c>
+      <c r="CD49">
+        <v>4.6000249599999998</v>
+      </c>
+      <c r="CE49">
+        <v>3.8531179799999999</v>
+      </c>
+      <c r="CF49">
+        <v>6.9116128400000001</v>
+      </c>
+      <c r="CG49">
+        <v>1.6476831199999999</v>
+      </c>
+      <c r="CH49">
+        <v>0.49659207300000002</v>
+      </c>
+      <c r="CI49">
+        <v>1.3822307199999999</v>
+      </c>
+      <c r="CJ49">
+        <v>0.70361272600000002</v>
+      </c>
+      <c r="CK49">
+        <v>0.68419771699999998</v>
+      </c>
+      <c r="CL49">
+        <v>0.57975131199999996</v>
+      </c>
+      <c r="CM49">
+        <v>0.38758057000000001</v>
+      </c>
+      <c r="CN49">
+        <v>5.13716638</v>
+      </c>
     </row>
-    <row r="50" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>71</v>
       </c>
@@ -14254,8 +16145,50 @@
       <c r="BZ50" s="37" t="s">
         <v>218</v>
       </c>
+      <c r="CA50">
+        <v>-1.5297777E-2</v>
+      </c>
+      <c r="CB50">
+        <v>-1.2529779E-2</v>
+      </c>
+      <c r="CC50">
+        <v>1.2209135600000001</v>
+      </c>
+      <c r="CD50">
+        <v>4.4930501999999999</v>
+      </c>
+      <c r="CE50">
+        <v>3.6593972799999999</v>
+      </c>
+      <c r="CF50">
+        <v>6.7903591399999996</v>
+      </c>
+      <c r="CG50">
+        <v>1.5513741599999999</v>
+      </c>
+      <c r="CH50">
+        <v>0.491752668</v>
+      </c>
+      <c r="CI50">
+        <v>1.53142701</v>
+      </c>
+      <c r="CJ50">
+        <v>0.78415877599999995</v>
+      </c>
+      <c r="CK50">
+        <v>0.75525787899999997</v>
+      </c>
+      <c r="CL50">
+        <v>0.77627437099999996</v>
+      </c>
+      <c r="CM50">
+        <v>0.51704020100000003</v>
+      </c>
+      <c r="CN50">
+        <v>4.61066033</v>
+      </c>
     </row>
-    <row r="51" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>71</v>
       </c>
@@ -14503,8 +16436,50 @@
       <c r="BZ51" s="37" t="s">
         <v>218</v>
       </c>
+      <c r="CA51">
+        <v>-1.464995E-2</v>
+      </c>
+      <c r="CB51">
+        <v>-1.2618022E-2</v>
+      </c>
+      <c r="CC51">
+        <v>1.16103383</v>
+      </c>
+      <c r="CD51">
+        <v>4.3118451499999999</v>
+      </c>
+      <c r="CE51">
+        <v>3.6607647499999998</v>
+      </c>
+      <c r="CF51">
+        <v>6.6821612200000002</v>
+      </c>
+      <c r="CG51">
+        <v>1.5366348999999999</v>
+      </c>
+      <c r="CH51">
+        <v>0.467145651</v>
+      </c>
+      <c r="CI51">
+        <v>1.9247330499999999</v>
+      </c>
+      <c r="CJ51">
+        <v>1.01041486</v>
+      </c>
+      <c r="CK51">
+        <v>0.99105352099999999</v>
+      </c>
+      <c r="CL51">
+        <v>1.0044606899999999</v>
+      </c>
+      <c r="CM51">
+        <v>0.66244209600000004</v>
+      </c>
+      <c r="CN51">
+        <v>4.4596304800000004</v>
+      </c>
     </row>
-    <row r="52" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>71</v>
       </c>
@@ -14752,8 +16727,50 @@
       <c r="BZ52" s="37" t="s">
         <v>213</v>
       </c>
+      <c r="CA52">
+        <v>-1.5080191E-2</v>
+      </c>
+      <c r="CB52">
+        <v>-1.9888739999999999E-2</v>
+      </c>
+      <c r="CC52">
+        <v>0.75822756899999999</v>
+      </c>
+      <c r="CD52">
+        <v>6.1249156999999999</v>
+      </c>
+      <c r="CE52">
+        <v>6.3946474000000002</v>
+      </c>
+      <c r="CF52">
+        <v>11.295594400000001</v>
+      </c>
+      <c r="CG52">
+        <v>1.50758842</v>
+      </c>
+      <c r="CH52">
+        <v>0.49475411000000002</v>
+      </c>
+      <c r="CI52">
+        <v>2.9969550200000001</v>
+      </c>
+      <c r="CJ52">
+        <v>1.77957589</v>
+      </c>
+      <c r="CK52">
+        <v>1.774027</v>
+      </c>
+      <c r="CL52">
+        <v>1.0248783100000001</v>
+      </c>
+      <c r="CM52">
+        <v>0.58014951100000001</v>
+      </c>
+      <c r="CN52">
+        <v>4.44812809</v>
+      </c>
     </row>
-    <row r="53" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>71</v>
       </c>
@@ -15001,8 +17018,50 @@
       <c r="BZ53" s="37" t="s">
         <v>213</v>
       </c>
+      <c r="CA53">
+        <v>-1.5439573E-2</v>
+      </c>
+      <c r="CB53">
+        <v>-2.1168764999999999E-2</v>
+      </c>
+      <c r="CC53">
+        <v>0.72935634599999999</v>
+      </c>
+      <c r="CD53">
+        <v>6.0964136</v>
+      </c>
+      <c r="CE53">
+        <v>6.69030345</v>
+      </c>
+      <c r="CF53">
+        <v>13.8832463</v>
+      </c>
+      <c r="CG53">
+        <v>1.52752782</v>
+      </c>
+      <c r="CH53">
+        <v>0.468653708</v>
+      </c>
+      <c r="CI53">
+        <v>2.1410486999999998</v>
+      </c>
+      <c r="CJ53">
+        <v>1.23344578</v>
+      </c>
+      <c r="CK53">
+        <v>1.2225987700000001</v>
+      </c>
+      <c r="CL53">
+        <v>1.1937039199999999</v>
+      </c>
+      <c r="CM53">
+        <v>0.57865903399999996</v>
+      </c>
+      <c r="CN53">
+        <v>3.48872252</v>
+      </c>
     </row>
-    <row r="54" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>71</v>
       </c>
@@ -15251,7 +17310,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>71</v>
       </c>
@@ -15484,8 +17543,50 @@
       <c r="BZ55" s="37" t="s">
         <v>213</v>
       </c>
+      <c r="CA55">
+        <v>-1.7299772000000001E-2</v>
+      </c>
+      <c r="CB55">
+        <v>-2.0472382000000001E-2</v>
+      </c>
+      <c r="CC55">
+        <v>0.84502974200000003</v>
+      </c>
+      <c r="CD55">
+        <v>5.6293622399999999</v>
+      </c>
+      <c r="CE55">
+        <v>6.0407430499999997</v>
+      </c>
+      <c r="CF55">
+        <v>14.987723600000001</v>
+      </c>
+      <c r="CG55">
+        <v>1.5016609599999999</v>
+      </c>
+      <c r="CH55">
+        <v>0.47538166100000001</v>
+      </c>
+      <c r="CI55">
+        <v>2.1130347299999999</v>
+      </c>
+      <c r="CJ55">
+        <v>1.21040539</v>
+      </c>
+      <c r="CK55">
+        <v>1.1764887100000001</v>
+      </c>
+      <c r="CL55">
+        <v>0.63505827999999998</v>
+      </c>
+      <c r="CM55">
+        <v>0.46055271399999997</v>
+      </c>
+      <c r="CN55">
+        <v>6.3318403600000002</v>
+      </c>
     </row>
-    <row r="56" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>71</v>
       </c>
@@ -15733,8 +17834,50 @@
       <c r="BZ56" s="37" t="s">
         <v>213</v>
       </c>
+      <c r="CA56">
+        <v>-1.5554490000000001E-2</v>
+      </c>
+      <c r="CB56">
+        <v>-2.1047212999999999E-2</v>
+      </c>
+      <c r="CC56">
+        <v>0.73902847800000004</v>
+      </c>
+      <c r="CD56">
+        <v>5.82741357</v>
+      </c>
+      <c r="CE56">
+        <v>6.3964306999999998</v>
+      </c>
+      <c r="CF56">
+        <v>14.4774241</v>
+      </c>
+      <c r="CG56">
+        <v>1.5337066500000001</v>
+      </c>
+      <c r="CH56">
+        <v>0.47073556100000002</v>
+      </c>
+      <c r="CI56">
+        <v>2.7485201500000001</v>
+      </c>
+      <c r="CJ56">
+        <v>1.5801729900000001</v>
+      </c>
+      <c r="CK56">
+        <v>1.5754389</v>
+      </c>
+      <c r="CL56">
+        <v>1.2318100000000001</v>
+      </c>
+      <c r="CM56">
+        <v>0.70940442699999995</v>
+      </c>
+      <c r="CN56">
+        <v>4.1968844799999996</v>
+      </c>
     </row>
-    <row r="57" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>71</v>
       </c>
@@ -15982,8 +18125,50 @@
       <c r="BZ57" s="37" t="s">
         <v>214</v>
       </c>
+      <c r="CA57">
+        <v>-1.5130629E-2</v>
+      </c>
+      <c r="CB57">
+        <v>-1.5136762999999999E-2</v>
+      </c>
+      <c r="CC57">
+        <v>0.99959477600000002</v>
+      </c>
+      <c r="CD57">
+        <v>4.7235313699999999</v>
+      </c>
+      <c r="CE57">
+        <v>4.3380605900000004</v>
+      </c>
+      <c r="CF57">
+        <v>8.0026797900000002</v>
+      </c>
+      <c r="CG57">
+        <v>1.47063783</v>
+      </c>
+      <c r="CH57">
+        <v>0.41268360700000001</v>
+      </c>
+      <c r="CI57">
+        <v>2.6428173799999999</v>
+      </c>
+      <c r="CJ57">
+        <v>1.5574606099999999</v>
+      </c>
+      <c r="CK57">
+        <v>1.4274066599999999</v>
+      </c>
+      <c r="CL57">
+        <v>0.92244112700000003</v>
+      </c>
+      <c r="CM57">
+        <v>0.59896143199999996</v>
+      </c>
+      <c r="CN57">
+        <v>6.4942736400000003</v>
+      </c>
     </row>
-    <row r="58" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>71</v>
       </c>
@@ -16231,8 +18416,50 @@
       <c r="BZ58" s="37" t="s">
         <v>214</v>
       </c>
+      <c r="CA58">
+        <v>-1.4621449E-2</v>
+      </c>
+      <c r="CB58">
+        <v>-1.7794561E-2</v>
+      </c>
+      <c r="CC58">
+        <v>0.82168078499999997</v>
+      </c>
+      <c r="CD58">
+        <v>5.0750280600000002</v>
+      </c>
+      <c r="CE58">
+        <v>5.1151660699999999</v>
+      </c>
+      <c r="CF58">
+        <v>10.272507600000001</v>
+      </c>
+      <c r="CG58">
+        <v>1.4528251999999999</v>
+      </c>
+      <c r="CH58">
+        <v>0.37104659899999998</v>
+      </c>
+      <c r="CI58">
+        <v>3.7177686900000002</v>
+      </c>
+      <c r="CJ58">
+        <v>2.7117982199999999</v>
+      </c>
+      <c r="CK58">
+        <v>2.4246887500000001</v>
+      </c>
+      <c r="CL58">
+        <v>0.805733115</v>
+      </c>
+      <c r="CM58">
+        <v>0.50942348699999995</v>
+      </c>
+      <c r="CN58">
+        <v>11.3962074</v>
+      </c>
     </row>
-    <row r="59" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
@@ -16480,8 +18707,50 @@
       <c r="BZ59" s="37" t="s">
         <v>214</v>
       </c>
+      <c r="CA59">
+        <v>-1.3835851999999999E-2</v>
+      </c>
+      <c r="CB59">
+        <v>-1.7470993000000001E-2</v>
+      </c>
+      <c r="CC59">
+        <v>0.79193274300000005</v>
+      </c>
+      <c r="CD59">
+        <v>4.9442019000000004</v>
+      </c>
+      <c r="CE59">
+        <v>5.0020350899999997</v>
+      </c>
+      <c r="CF59">
+        <v>11.165740400000001</v>
+      </c>
+      <c r="CG59">
+        <v>1.47012421</v>
+      </c>
+      <c r="CH59">
+        <v>0.39938565399999998</v>
+      </c>
+      <c r="CI59">
+        <v>3.6591637800000001</v>
+      </c>
+      <c r="CJ59">
+        <v>2.1431337199999998</v>
+      </c>
+      <c r="CK59">
+        <v>1.91214145</v>
+      </c>
+      <c r="CL59">
+        <v>0.67078296299999995</v>
+      </c>
+      <c r="CM59">
+        <v>0.33989959400000003</v>
+      </c>
+      <c r="CN59">
+        <v>14.629201</v>
+      </c>
     </row>
-    <row r="60" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>71</v>
       </c>
@@ -16729,8 +18998,50 @@
       <c r="BZ60" s="37" t="s">
         <v>214</v>
       </c>
+      <c r="CA60">
+        <v>-1.4306968E-2</v>
+      </c>
+      <c r="CB60">
+        <v>-1.8943050999999999E-2</v>
+      </c>
+      <c r="CC60">
+        <v>0.755262086</v>
+      </c>
+      <c r="CD60">
+        <v>5.4939572300000004</v>
+      </c>
+      <c r="CE60">
+        <v>5.6643117299999997</v>
+      </c>
+      <c r="CF60">
+        <v>10.5451692</v>
+      </c>
+      <c r="CG60">
+        <v>1.4251687799999999</v>
+      </c>
+      <c r="CH60">
+        <v>0.39867936799999998</v>
+      </c>
+      <c r="CI60">
+        <v>3.1224474500000001</v>
+      </c>
+      <c r="CJ60">
+        <v>1.8626331199999999</v>
+      </c>
+      <c r="CK60">
+        <v>1.6490246200000001</v>
+      </c>
+      <c r="CL60">
+        <v>0.569843985</v>
+      </c>
+      <c r="CM60">
+        <v>0.23879720400000001</v>
+      </c>
+      <c r="CN60">
+        <v>14.296771</v>
+      </c>
     </row>
-    <row r="61" spans="1:78" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:92" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>71</v>
       </c>
@@ -16977,6 +19288,48 @@
       </c>
       <c r="BZ61" s="38" t="s">
         <v>214</v>
+      </c>
+      <c r="CA61">
+        <v>-1.3584489999999999E-2</v>
+      </c>
+      <c r="CB61">
+        <v>-1.7665351999999999E-2</v>
+      </c>
+      <c r="CC61">
+        <v>0.76899060100000005</v>
+      </c>
+      <c r="CD61">
+        <v>5.1145391599999996</v>
+      </c>
+      <c r="CE61">
+        <v>5.1964355800000002</v>
+      </c>
+      <c r="CF61">
+        <v>9.3901929899999992</v>
+      </c>
+      <c r="CG61">
+        <v>1.43442622</v>
+      </c>
+      <c r="CH61">
+        <v>0.39934182299999998</v>
+      </c>
+      <c r="CI61">
+        <v>2.9013752400000001</v>
+      </c>
+      <c r="CJ61">
+        <v>1.7222981500000001</v>
+      </c>
+      <c r="CK61">
+        <v>1.54842656</v>
+      </c>
+      <c r="CL61">
+        <v>0.58998537699999998</v>
+      </c>
+      <c r="CM61">
+        <v>0.27718492700000003</v>
+      </c>
+      <c r="CN61">
+        <v>13.1595081</v>
       </c>
     </row>
   </sheetData>

--- a/SP_metadata_2021.xlsx
+++ b/SP_metadata_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugirona-my.sharepoint.com/personal/u4001033_udg_edu/Documents/GRADCATCH/ANALISIS/R/SP_gradient/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{4EEA8018-6EF8-42D3-98FB-882912627FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5ED9EEC-E863-47DC-B187-154A921CA723}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{4EEA8018-6EF8-42D3-98FB-882912627FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFE7370F-6C21-40D2-AD8B-D79DB2F6FB54}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1386,7 +1386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1502,7 +1502,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1918,10 +1917,10 @@
   <dimension ref="A1:CN61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CA2" sqref="CA2"/>
+      <selection pane="bottomRight" activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2467,7 +2466,7 @@
       <c r="BZ2" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="CA2" s="39">
+      <c r="CA2">
         <v>-2.469213E-2</v>
       </c>
       <c r="CB2">
@@ -8042,7 +8041,7 @@
         <v>6.04</v>
       </c>
       <c r="W22" s="1">
-        <v>666.08</v>
+        <v>66.56</v>
       </c>
       <c r="X22" s="1">
         <v>23.8</v>
@@ -8915,7 +8914,7 @@
         <v>3.42</v>
       </c>
       <c r="W25" s="1">
-        <v>10497.8</v>
+        <v>104.56</v>
       </c>
       <c r="X25" s="1">
         <v>23.8</v>

--- a/SP_metadata_2021.xlsx
+++ b/SP_metadata_2021.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugirona-my.sharepoint.com/personal/u4001033_udg_edu/Documents/GRADCATCH/ANALISIS/R/SP_gradient/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\luciana_datos\UCI\Project_14 (Anna)\SP_gradient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{4EEA8018-6EF8-42D3-98FB-882912627FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFE7370F-6C21-40D2-AD8B-D79DB2F6FB54}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F209334-CF43-4E29-B105-1AFA803E0895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP_soil_2021" sheetId="1" r:id="rId1"/>
-    <sheet name="llegenda" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="llegenda" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,36 +72,36 @@
   <commentList>
     <comment ref="E1" authorId="0" shapeId="0" xr:uid="{9D67D6DC-CF53-4FD9-804D-9CAD74BCF708}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Mean Anual Precipitation (mm)
 Extracted by Jonnathan in CLIMATIC_DATA &gt; Results</t>
       </text>
     </comment>
     <comment ref="F1" authorId="1" shapeId="0" xr:uid="{A060A6BB-2CBD-43B3-AC5B-082CEC512E1D}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Mean Anual Temperature (ºC)
 Extracted by Jonnathan in CLIMATIC_DATA &gt; Results</t>
       </text>
     </comment>
     <comment ref="G1" authorId="2" shapeId="0" xr:uid="{B995EEC3-22B8-4EC7-89D8-04467B49E5EA}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Aridity Index
 Extracted by Jonnathan in CLIMATIC_DATA &gt; Results</t>
       </text>
     </comment>
     <comment ref="H1" authorId="3" shapeId="0" xr:uid="{4643F9B3-2625-4E22-B8D3-AEC2801D2687}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Measured in situ (ºC)</t>
       </text>
     </comment>
@@ -158,102 +159,102 @@
     </comment>
     <comment ref="L1" authorId="5" shapeId="0" xr:uid="{3F748EAE-1275-4297-953C-9BFF8326AFE2}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     soil organic matter
 Mean for samples analysed both by Han and me</t>
       </text>
     </comment>
     <comment ref="N1" authorId="6" shapeId="0" xr:uid="{D1572FAE-2DB7-4542-9F5E-D5D55C7DBA14}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Total Organic Carbon (%)</t>
       </text>
     </comment>
     <comment ref="O1" authorId="7" shapeId="0" xr:uid="{9A542229-A5AB-4A4C-8A5E-FAB0986574A7}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Total Carbon (%)</t>
       </text>
     </comment>
     <comment ref="P1" authorId="8" shapeId="0" xr:uid="{856DBA50-38E6-464F-9A04-5AA8CE118D3E}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Total Nitrogen (%)</t>
       </text>
     </comment>
     <comment ref="T1" authorId="9" shapeId="0" xr:uid="{B3BE2832-10E9-440B-AA0D-682097F684C5}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     C/N ratio
 (TC/TN)</t>
       </text>
     </comment>
     <comment ref="U1" authorId="10" shapeId="0" xr:uid="{EC1E8241-F70F-4BE9-B47F-FFBE7926BB63}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     NH4+ (mg/Kg DW soil)</t>
       </text>
     </comment>
     <comment ref="V1" authorId="11" shapeId="0" xr:uid="{1E617BEC-2113-4034-922A-A8AF614A800F}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     PO43-
 (mg/kg DW soil)</t>
       </text>
     </comment>
     <comment ref="W1" authorId="12" shapeId="0" xr:uid="{F3E5E20E-F7AC-40CE-BE07-6D96D6B20EB7}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     SO42-
 (mg/kg DW soil)</t>
       </text>
     </comment>
     <comment ref="AI1" authorId="13" shapeId="0" xr:uid="{A861B59D-14D6-4062-A50E-075AA1D6131B}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Dark CO2 (mmol/m2*d)</t>
       </text>
     </comment>
     <comment ref="AJ1" authorId="14" shapeId="0" xr:uid="{B81A9F97-071D-4C35-895E-BE0BDEE13424}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Light CO2 (mmol/m2*d)</t>
       </text>
     </comment>
     <comment ref="AK1" authorId="15" shapeId="0" xr:uid="{2227ECD2-C3B4-4FD3-9840-F481938E8276}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Average methane values between dark and light
 (umol/m2*d)</t>
       </text>
     </comment>
     <comment ref="AL1" authorId="16" shapeId="0" xr:uid="{CC8F20A9-1D1A-453D-B53F-26E0204A3838}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     (umol/m2*d)</t>
       </text>
     </comment>
@@ -430,54 +431,54 @@
     </comment>
     <comment ref="BB1" authorId="18" shapeId="0" xr:uid="{EFE74430-CE78-45F3-B99F-9E4A66B4DB4A}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     16S rRNA gene
 (copies/g DW soil)</t>
       </text>
     </comment>
     <comment ref="BC1" authorId="19" shapeId="0" xr:uid="{B5AA4312-E55C-4126-AC62-41022648693A}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Fungal ITS2
 (copies/g DW soil)</t>
       </text>
     </comment>
     <comment ref="BG1" authorId="20" shapeId="0" xr:uid="{33824549-3C86-4035-A72B-6643897DCE38}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     arc amoA (AOA)
 (copies/g DW soil)</t>
       </text>
     </comment>
     <comment ref="BH1" authorId="21" shapeId="0" xr:uid="{D4888460-C366-4F77-BB5B-BF617AB9A960}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     bac amoA (AOB)
 (copies/g DW soil)</t>
       </text>
     </comment>
     <comment ref="BJ1" authorId="22" shapeId="0" xr:uid="{97253582-92B4-438A-9794-DF4FB2038D50}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     nosZ Clade I
 (copies/g DW soil)</t>
       </text>
     </comment>
     <comment ref="BL1" authorId="23" shapeId="0" xr:uid="{8F08B99E-9739-4B6E-8F09-DF43B94644DC}">
       <text>
-        <t xml:space="preserve">[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Fluorescence
 Final - Initial
 (nmol raz / gDW*h)
@@ -486,35 +487,35 @@
     </comment>
     <comment ref="BM1" authorId="24" shapeId="0" xr:uid="{B6FFDCB7-FA07-49A4-92C0-69346EC1EFB2}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Bacterial biomass / Fungal biomass
 (mg C / gDW*h)</t>
       </text>
     </comment>
     <comment ref="BN1" authorId="25" shapeId="0" xr:uid="{5E6F31F2-E5EE-4FEA-A394-E8FB2FFDD356}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     16S / ITS2
 (copies / gDW)</t>
       </text>
     </comment>
     <comment ref="BT1" authorId="26" shapeId="0" xr:uid="{C67D560F-8BBA-4DA6-8AE1-F3DD3F0DEC55}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     mg EPS / mg C bact</t>
       </text>
     </comment>
     <comment ref="BX1" authorId="27" shapeId="0" xr:uid="{631D2E3C-FB75-41CC-8E7D-69D20DFEBBF5}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     masl</t>
       </text>
     </comment>
@@ -522,8 +523,55 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={4081FDEB-35DC-4D72-B8D0-0F29840F5E80}</author>
+    <author>tc={A17C3618-9073-47D4-A8FB-C2BAC082C93C}</author>
+    <author>tc={B07C916B-4DC3-40A8-9BF7-5FBA1D7F0473}</author>
+    <author>tc={FE35A6FF-3B2A-4AE9-85C1-0C9D805121A4}</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{4081FDEB-35DC-4D72-B8D0-0F29840F5E80}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    NH4+ (mg/Kg DW soil)</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{A17C3618-9073-47D4-A8FB-C2BAC082C93C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    PO43-
+(mg/kg DW soil)</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{B07C916B-4DC3-40A8-9BF7-5FBA1D7F0473}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    NH4+ (mg/Kg DW soil)</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="3" shapeId="0" xr:uid="{FE35A6FF-3B2A-4AE9-85C1-0C9D805121A4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    PO43-
+(mg/kg DW soil)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="234">
   <si>
     <t>1-SP01-A</t>
   </si>
@@ -1260,7 +1308,7 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1292,6 +1340,18 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1386,7 +1446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1502,6 +1562,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1912,15 +1977,34 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D1" dT="2023-03-01T13:41:18.13" personId="{5C2DB10E-6B8E-4F59-90D1-A869F7498523}" id="{4081FDEB-35DC-4D72-B8D0-0F29840F5E80}">
+    <text>NH4+ (mg/Kg DW soil)</text>
+  </threadedComment>
+  <threadedComment ref="E1" dT="2023-03-01T14:05:34.86" personId="{5C2DB10E-6B8E-4F59-90D1-A869F7498523}" id="{A17C3618-9073-47D4-A8FB-C2BAC082C93C}">
+    <text>PO43-
+(mg/kg DW soil)</text>
+  </threadedComment>
+  <threadedComment ref="I1" dT="2023-03-01T13:41:18.13" personId="{5C2DB10E-6B8E-4F59-90D1-A869F7498523}" id="{B07C916B-4DC3-40A8-9BF7-5FBA1D7F0473}">
+    <text>NH4+ (mg/Kg DW soil)</text>
+  </threadedComment>
+  <threadedComment ref="J1" dT="2023-03-01T14:05:34.86" personId="{5C2DB10E-6B8E-4F59-90D1-A869F7498523}" id="{FE35A6FF-3B2A-4AE9-85C1-0C9D805121A4}">
+    <text>PO43-
+(mg/kg DW soil)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W23" sqref="W23"/>
+      <selection pane="bottomRight" activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19344,11 +19428,653 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD626EB-9DDD-4FC9-BAF5-409CC1F59D7A}">
+  <dimension ref="C1:J51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C1" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="7">
+        <v>10.79</v>
+      </c>
+      <c r="E2" s="1">
+        <v>11.35</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="39">
+        <f>AVERAGE(D2:D6)</f>
+        <v>12.007999999999999</v>
+      </c>
+      <c r="J2" s="39">
+        <f>AVERAGE(E2:E6)</f>
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="7">
+        <v>31.01</v>
+      </c>
+      <c r="E3" s="1">
+        <v>17.47</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="39">
+        <f>AVERAGE(D7:D11)</f>
+        <v>33.962000000000003</v>
+      </c>
+      <c r="J3" s="39">
+        <f>AVERAGE(E7:E11)</f>
+        <v>119.94800000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6.59</v>
+      </c>
+      <c r="E4" s="1">
+        <v>16.14</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="39">
+        <f>AVERAGE(D12:D16)</f>
+        <v>30.32</v>
+      </c>
+      <c r="J4" s="39">
+        <f>AVERAGE(E12:E16)</f>
+        <v>5.194</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5.46</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6.61</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="39">
+        <f>AVERAGE(D17:D21)</f>
+        <v>4.9760000000000009</v>
+      </c>
+      <c r="J5" s="39">
+        <f>AVERAGE(E17:E21)</f>
+        <v>23.824000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6.19</v>
+      </c>
+      <c r="E6" s="1">
+        <v>12.93</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="39">
+        <f>AVERAGE(D22:D26)</f>
+        <v>49.1</v>
+      </c>
+      <c r="J6" s="39">
+        <f>AVERAGE(E22:E26)</f>
+        <v>5.0539999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="7">
+        <v>66.84</v>
+      </c>
+      <c r="E7" s="1">
+        <v>84.42</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="7">
+        <v>7.07</v>
+      </c>
+      <c r="E8" s="1">
+        <v>158.78</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E9" s="1">
+        <v>112.02</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="7">
+        <v>79.37</v>
+      </c>
+      <c r="E10" s="1">
+        <v>143.31</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="7">
+        <v>7.33</v>
+      </c>
+      <c r="E11" s="1">
+        <v>101.21</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="7">
+        <v>13.75</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="7">
+        <v>7.49</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="7">
+        <v>30.57</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10.79</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="7">
+        <v>94.7</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5.09</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="7">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="E17" s="1">
+        <v>20.079999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5.34</v>
+      </c>
+      <c r="E18" s="1">
+        <v>34.96</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="7">
+        <v>5.33</v>
+      </c>
+      <c r="E19" s="1">
+        <v>23.37</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="7">
+        <v>4.46</v>
+      </c>
+      <c r="E20" s="1">
+        <v>16.59</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="E21" s="1">
+        <v>24.12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="7">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="7">
+        <v>6.22</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4.7699999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="7">
+        <v>169.5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="7">
+        <v>60.66</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="7">
+        <v>4.76</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="7">
+        <v>46.46</v>
+      </c>
+      <c r="E27" s="1">
+        <v>44.45</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="7">
+        <v>85.05</v>
+      </c>
+      <c r="E28" s="1">
+        <v>64.91</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="7">
+        <v>304.72000000000003</v>
+      </c>
+      <c r="E29" s="1">
+        <v>77.02</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="7">
+        <v>86.35</v>
+      </c>
+      <c r="E30" s="1">
+        <v>67.400000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="7">
+        <v>119.14</v>
+      </c>
+      <c r="E31" s="1">
+        <v>62.11</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="7">
+        <v>24.71</v>
+      </c>
+      <c r="E32" s="1">
+        <v>17.420000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="7">
+        <v>59.67</v>
+      </c>
+      <c r="E33" s="1">
+        <v>27.47</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="7">
+        <v>44.4</v>
+      </c>
+      <c r="E34" s="1">
+        <v>34.049999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="7">
+        <v>35.130000000000003</v>
+      </c>
+      <c r="E35" s="1">
+        <v>21.83</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="7">
+        <v>27.94</v>
+      </c>
+      <c r="E36" s="1">
+        <v>11.73</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="7">
+        <v>13.94</v>
+      </c>
+      <c r="E37" s="1">
+        <v>27.56</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="7">
+        <v>19.78</v>
+      </c>
+      <c r="E38" s="1">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="7">
+        <v>31</v>
+      </c>
+      <c r="E39" s="1">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="7">
+        <v>14.39</v>
+      </c>
+      <c r="E40" s="1">
+        <v>26.94</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="7">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="E41" s="1">
+        <v>24.69</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="7">
+        <v>73.75</v>
+      </c>
+      <c r="E42" s="1">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="7">
+        <v>5.25</v>
+      </c>
+      <c r="E43" s="1">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="7">
+        <v>4.67</v>
+      </c>
+      <c r="E44" s="1">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="E45" s="1">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="7">
+        <v>4.37</v>
+      </c>
+      <c r="E46" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="7">
+        <v>33.950000000000003</v>
+      </c>
+      <c r="E47" s="1">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="7">
+        <v>44.44</v>
+      </c>
+      <c r="E48" s="1">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="7">
+        <v>33.07</v>
+      </c>
+      <c r="E49" s="1">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="7">
+        <v>32.57</v>
+      </c>
+      <c r="E50" s="1">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" s="7">
+        <v>31.21</v>
+      </c>
+      <c r="E51" s="1">
+        <v>4.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2851FD1-392A-48A9-B131-D748FDC4A90A}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SP_metadata_2021.xlsx
+++ b/SP_metadata_2021.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugirona-my.sharepoint.com/personal/u4001033_udg_edu/Documents/GRADCATCH/ANALISIS/R/SP_gradient/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{4EEA8018-6EF8-42D3-98FB-882912627FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFE7370F-6C21-40D2-AD8B-D79DB2F6FB54}"/>
+  <xr:revisionPtr revIDLastSave="267" documentId="13_ncr:1_{4EEA8018-6EF8-42D3-98FB-882912627FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83539D5E-D652-41D4-8CEE-C0D0592BFDF7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP_soil_2021" sheetId="1" r:id="rId1"/>
     <sheet name="llegenda" sheetId="2" r:id="rId2"/>
+    <sheet name="Fscoqca means" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">[1]Full2!$B$1:$Y$61</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -522,8 +529,149 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={46950935-13BF-4C47-9BC7-15A265926274}</author>
+    <author>tc={927F8FEC-F271-403D-A42D-B2F79C90CBAD}</author>
+    <author>tc={73B9E603-9B72-409A-8371-1CDDC8276088}</author>
+    <author>tc={AB25765A-6801-4828-AEE5-079C965BA8B6}</author>
+    <author>tc={70561FF1-FB34-417B-85C3-50324242F8F7}</author>
+    <author>tc={691EA5A3-C066-40C2-B56B-00164ED839C2}</author>
+    <author>tc={90D0DC41-E641-409B-B719-CD4252CDFFDA}</author>
+    <author>tc={128A8EF5-7F03-4C06-BA55-0435B06432A1}</author>
+    <author>tc={3693FF55-B8AE-4C75-93E6-BAE2885162D1}</author>
+    <author>tc={D562A4C9-89BF-4545-948F-E2F24291506A}</author>
+    <author>Anna DP</author>
+    <author>tc={857A4019-C717-4341-AAE7-C72BEFA424EB}</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{46950935-13BF-4C47-9BC7-15A265926274}">
+      <text>
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
+    Mean Anual Precipitation (mm)
+Extracted by Jonnathan in CLIMATIC_DATA &gt; Results</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{927F8FEC-F271-403D-A42D-B2F79C90CBAD}">
+      <text>
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
+    Mean Anual Temperature (ºC)
+Extracted by Jonnathan in CLIMATIC_DATA &gt; Results</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{73B9E603-9B72-409A-8371-1CDDC8276088}">
+      <text>
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
+    Aridity Index
+Extracted by Jonnathan in CLIMATIC_DATA &gt; Results</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="3" shapeId="0" xr:uid="{AB25765A-6801-4828-AEE5-079C965BA8B6}">
+      <text>
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
+    Measured in situ (ºC)</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="4" shapeId="0" xr:uid="{70561FF1-FB34-417B-85C3-50324242F8F7}">
+      <text>
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
+    Total Carbon (%)</t>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="5" shapeId="0" xr:uid="{691EA5A3-C066-40C2-B56B-00164ED839C2}">
+      <text>
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
+    C/N ratio
+(TC/TN)</t>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="6" shapeId="0" xr:uid="{90D0DC41-E641-409B-B719-CD4252CDFFDA}">
+      <text>
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
+    NH4+ (mg/Kg DW soil)</t>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="7" shapeId="0" xr:uid="{128A8EF5-7F03-4C06-BA55-0435B06432A1}">
+      <text>
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
+    PO43-
+(mg/kg DW soil)</t>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="8" shapeId="0" xr:uid="{3693FF55-B8AE-4C75-93E6-BAE2885162D1}">
+      <text>
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
+    SO42-
+(mg/kg DW soil)</t>
+      </text>
+    </comment>
+    <comment ref="AI1" authorId="9" shapeId="0" xr:uid="{D562A4C9-89BF-4545-948F-E2F24291506A}">
+      <text>
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
+    masl</t>
+      </text>
+    </comment>
+    <comment ref="AT1" authorId="10" shapeId="0" xr:uid="{74257F1C-D854-4A21-BB3B-B90D80516286}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anna DP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Moisture
+(%)
+Mean for samples analysed both by Han and me</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ1" authorId="11" shapeId="0" xr:uid="{857A4019-C717-4341-AAE7-C72BEFA424EB}">
+      <text>
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
+    Total Organic Carbon (%)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="236">
   <si>
     <t>1-SP01-A</t>
   </si>
@@ -1248,17 +1396,24 @@
   <si>
     <t>HIX</t>
   </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.0000000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1386,7 +1541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1502,11 +1657,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1541,6 +1765,955 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="SP_soil_2021"/>
+      <sheetName val="Fscoqca means"/>
+      <sheetName val="Full2"/>
+      <sheetName val="llegenda"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>pH</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>TC_perc</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>C_N</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>NH4</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>PO43</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>SO42</v>
+          </cell>
+          <cell r="N1" t="str">
+            <v>Litter</v>
+          </cell>
+          <cell r="P1" t="str">
+            <v>L_TC_perc</v>
+          </cell>
+          <cell r="R1" t="str">
+            <v>L_TN_perc</v>
+          </cell>
+          <cell r="T1" t="str">
+            <v>altitude</v>
+          </cell>
+          <cell r="V1" t="str">
+            <v>BIX</v>
+          </cell>
+          <cell r="X1" t="str">
+            <v>HIX</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2">
+            <v>4.3160000000000007</v>
+          </cell>
+          <cell r="C2">
+            <v>0.15043270920913462</v>
+          </cell>
+          <cell r="D2">
+            <v>3.6488</v>
+          </cell>
+          <cell r="E2">
+            <v>0.80734267817327876</v>
+          </cell>
+          <cell r="F2">
+            <v>12.597338154000001</v>
+          </cell>
+          <cell r="G2">
+            <v>1.0011326942601673</v>
+          </cell>
+          <cell r="H2">
+            <v>12.007999999999999</v>
+          </cell>
+          <cell r="I2">
+            <v>10.824043606711868</v>
+          </cell>
+          <cell r="J2">
+            <v>12.9</v>
+          </cell>
+          <cell r="K2">
+            <v>4.2822307270860565</v>
+          </cell>
+          <cell r="L2">
+            <v>42.809999999999995</v>
+          </cell>
+          <cell r="M2">
+            <v>7.9930657447565343</v>
+          </cell>
+          <cell r="N2">
+            <v>655.41</v>
+          </cell>
+          <cell r="O2">
+            <v>251.78734171915801</v>
+          </cell>
+          <cell r="P2">
+            <v>1.3299999999999998</v>
+          </cell>
+          <cell r="Q2">
+            <v>0.10793516572461445</v>
+          </cell>
+          <cell r="R2">
+            <v>48.036000000000001</v>
+          </cell>
+          <cell r="S2">
+            <v>1.703872060924764</v>
+          </cell>
+          <cell r="T2">
+            <v>344</v>
+          </cell>
+          <cell r="U2">
+            <v>0</v>
+          </cell>
+          <cell r="V2">
+            <v>0.57809591440000008</v>
+          </cell>
+          <cell r="W2">
+            <v>1.4449461431904547E-2</v>
+          </cell>
+          <cell r="X2">
+            <v>3.5763967459999995</v>
+          </cell>
+          <cell r="Y2">
+            <v>0.19337839204847745</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>4.452</v>
+          </cell>
+          <cell r="C7">
+            <v>0.39505695791872836</v>
+          </cell>
+          <cell r="D7">
+            <v>3.5928000000000004</v>
+          </cell>
+          <cell r="E7">
+            <v>1.0452974217896054</v>
+          </cell>
+          <cell r="F7">
+            <v>12.191174086</v>
+          </cell>
+          <cell r="G7">
+            <v>1.3320964779314139</v>
+          </cell>
+          <cell r="H7">
+            <v>33.962000000000003</v>
+          </cell>
+          <cell r="I7">
+            <v>36.015444881328342</v>
+          </cell>
+          <cell r="J7">
+            <v>119.94800000000001</v>
+          </cell>
+          <cell r="K7">
+            <v>30.536502255497435</v>
+          </cell>
+          <cell r="L7">
+            <v>23.178000000000001</v>
+          </cell>
+          <cell r="M7">
+            <v>2.1707302918603224</v>
+          </cell>
+          <cell r="N7">
+            <v>435.20199999999994</v>
+          </cell>
+          <cell r="O7">
+            <v>223.56242734413155</v>
+          </cell>
+          <cell r="P7">
+            <v>1.052</v>
+          </cell>
+          <cell r="Q7">
+            <v>0.10779610382569492</v>
+          </cell>
+          <cell r="R7">
+            <v>48.611999999999995</v>
+          </cell>
+          <cell r="S7">
+            <v>1.6178751496948092</v>
+          </cell>
+          <cell r="T7">
+            <v>664.5</v>
+          </cell>
+          <cell r="U7">
+            <v>0</v>
+          </cell>
+          <cell r="V7">
+            <v>0.49267323739999991</v>
+          </cell>
+          <cell r="W7">
+            <v>4.9273816334914726E-2</v>
+          </cell>
+          <cell r="X7">
+            <v>8.8046553060000008</v>
+          </cell>
+          <cell r="Y7">
+            <v>3.7626401023229787</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>4.7300000000000004</v>
+          </cell>
+          <cell r="C12">
+            <v>0.29094673051952313</v>
+          </cell>
+          <cell r="D12">
+            <v>2.2234000000000003</v>
+          </cell>
+          <cell r="E12">
+            <v>0.74368326591365408</v>
+          </cell>
+          <cell r="F12">
+            <v>25.444887189999996</v>
+          </cell>
+          <cell r="G12">
+            <v>2.5856472467128837</v>
+          </cell>
+          <cell r="H12">
+            <v>30.32</v>
+          </cell>
+          <cell r="I12">
+            <v>37.340238349533877</v>
+          </cell>
+          <cell r="J12">
+            <v>5.194</v>
+          </cell>
+          <cell r="K12">
+            <v>3.1631123913006949</v>
+          </cell>
+          <cell r="L12">
+            <v>20.512000000000004</v>
+          </cell>
+          <cell r="M12">
+            <v>2.6627185356323064</v>
+          </cell>
+          <cell r="N12">
+            <v>840.19400000000007</v>
+          </cell>
+          <cell r="O12">
+            <v>139.15600213429522</v>
+          </cell>
+          <cell r="P12">
+            <v>0.65</v>
+          </cell>
+          <cell r="Q12">
+            <v>0.12083045973594596</v>
+          </cell>
+          <cell r="R12">
+            <v>46.576000000000001</v>
+          </cell>
+          <cell r="S12">
+            <v>5.0021875214749798</v>
+          </cell>
+          <cell r="T12">
+            <v>259</v>
+          </cell>
+          <cell r="U12">
+            <v>0</v>
+          </cell>
+          <cell r="V12">
+            <v>0.45873691100000002</v>
+          </cell>
+          <cell r="W12">
+            <v>2.5875597058474E-2</v>
+          </cell>
+          <cell r="X12">
+            <v>3.8576932379999995</v>
+          </cell>
+          <cell r="Y12">
+            <v>0.87923092754274912</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>7.548</v>
+          </cell>
+          <cell r="C17">
+            <v>0.12794530081249567</v>
+          </cell>
+          <cell r="D17">
+            <v>8.827399999999999</v>
+          </cell>
+          <cell r="E17">
+            <v>1.395027347402207</v>
+          </cell>
+          <cell r="F17">
+            <v>36.705904750000002</v>
+          </cell>
+          <cell r="G17">
+            <v>4.698750658585281</v>
+          </cell>
+          <cell r="H17">
+            <v>4.9760000000000009</v>
+          </cell>
+          <cell r="I17">
+            <v>0.63160905629985464</v>
+          </cell>
+          <cell r="J17">
+            <v>23.824000000000002</v>
+          </cell>
+          <cell r="K17">
+            <v>6.9038489265046863</v>
+          </cell>
+          <cell r="L17">
+            <v>22.810000000000002</v>
+          </cell>
+          <cell r="M17">
+            <v>4.8422308908188008</v>
+          </cell>
+          <cell r="N17">
+            <v>954.55399999999986</v>
+          </cell>
+          <cell r="O17">
+            <v>721.09536323568204</v>
+          </cell>
+          <cell r="P17">
+            <v>0.59200000000000008</v>
+          </cell>
+          <cell r="Q17">
+            <v>0.15039946808416513</v>
+          </cell>
+          <cell r="R17">
+            <v>45.944000000000003</v>
+          </cell>
+          <cell r="S17">
+            <v>2.745738516319427</v>
+          </cell>
+          <cell r="T17">
+            <v>925</v>
+          </cell>
+          <cell r="U17">
+            <v>0</v>
+          </cell>
+          <cell r="V17">
+            <v>0.45308667825000004</v>
+          </cell>
+          <cell r="W17">
+            <v>2.8455044231487179E-2</v>
+          </cell>
+          <cell r="X17">
+            <v>6.8771754474999991</v>
+          </cell>
+          <cell r="Y17">
+            <v>1.8283808240257919</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>7.7120000000000006</v>
+          </cell>
+          <cell r="C22">
+            <v>3.7013511046643549E-2</v>
+          </cell>
+          <cell r="D22">
+            <v>3.9889999999999999</v>
+          </cell>
+          <cell r="E22">
+            <v>0.38580889051446188</v>
+          </cell>
+          <cell r="F22">
+            <v>35.689152703999994</v>
+          </cell>
+          <cell r="G22">
+            <v>2.383877922653427</v>
+          </cell>
+          <cell r="H22">
+            <v>49.1</v>
+          </cell>
+          <cell r="I22">
+            <v>71.477603485287602</v>
+          </cell>
+          <cell r="J22">
+            <v>5.0539999999999994</v>
+          </cell>
+          <cell r="K22">
+            <v>1.0837342847764897</v>
+          </cell>
+          <cell r="L22">
+            <v>71.816000000000003</v>
+          </cell>
+          <cell r="M22">
+            <v>46.628530214880243</v>
+          </cell>
+          <cell r="N22">
+            <v>20.86</v>
+          </cell>
+          <cell r="O22">
+            <v>19.88344914746936</v>
+          </cell>
+          <cell r="P22">
+            <v>0.67</v>
+          </cell>
+          <cell r="Q22">
+            <v>0.18867962264113197</v>
+          </cell>
+          <cell r="R22">
+            <v>36.655999999999999</v>
+          </cell>
+          <cell r="S22">
+            <v>4.1348796838602029</v>
+          </cell>
+          <cell r="T22">
+            <v>283</v>
+          </cell>
+          <cell r="U22">
+            <v>0</v>
+          </cell>
+          <cell r="V22">
+            <v>0.5974705694000001</v>
+          </cell>
+          <cell r="W22">
+            <v>9.9293709506921624E-2</v>
+          </cell>
+          <cell r="X22">
+            <v>6.6525303219999996</v>
+          </cell>
+          <cell r="Y22">
+            <v>2.9123019447219778</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>6.1180000000000003</v>
+          </cell>
+          <cell r="C27">
+            <v>0.21040437257813846</v>
+          </cell>
+          <cell r="D27">
+            <v>18.087600000000002</v>
+          </cell>
+          <cell r="E27">
+            <v>3.8414336256142816</v>
+          </cell>
+          <cell r="F27">
+            <v>15.908437574000001</v>
+          </cell>
+          <cell r="G27">
+            <v>0.88558784482483865</v>
+          </cell>
+          <cell r="H27">
+            <v>128.34399999999999</v>
+          </cell>
+          <cell r="I27">
+            <v>101.90199080489057</v>
+          </cell>
+          <cell r="J27">
+            <v>63.177999999999997</v>
+          </cell>
+          <cell r="K27">
+            <v>11.877548989585362</v>
+          </cell>
+          <cell r="L27">
+            <v>59.817999999999998</v>
+          </cell>
+          <cell r="M27">
+            <v>21.026570571541171</v>
+          </cell>
+          <cell r="N27">
+            <v>649.452</v>
+          </cell>
+          <cell r="O27">
+            <v>63.516975447513254</v>
+          </cell>
+          <cell r="P27">
+            <v>1.1300000000000001</v>
+          </cell>
+          <cell r="Q27">
+            <v>0.21447610589527175</v>
+          </cell>
+          <cell r="R27">
+            <v>46.06600000000001</v>
+          </cell>
+          <cell r="S27">
+            <v>0.42688405920108841</v>
+          </cell>
+          <cell r="T27">
+            <v>1096</v>
+          </cell>
+          <cell r="U27">
+            <v>0</v>
+          </cell>
+          <cell r="V27">
+            <v>0.38725439633333331</v>
+          </cell>
+          <cell r="W27">
+            <v>3.7069707241749817E-3</v>
+          </cell>
+          <cell r="X27">
+            <v>6.2727905999999996</v>
+          </cell>
+          <cell r="Y27">
+            <v>2.3615641879338045</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>4.2219999999999995</v>
+          </cell>
+          <cell r="C32">
+            <v>0.3131613002910803</v>
+          </cell>
+          <cell r="D32">
+            <v>6.9530000000000003</v>
+          </cell>
+          <cell r="E32">
+            <v>2.3671552547308772</v>
+          </cell>
+          <cell r="F32">
+            <v>13.484286724</v>
+          </cell>
+          <cell r="G32">
+            <v>0.6204023151536957</v>
+          </cell>
+          <cell r="H32">
+            <v>38.369999999999997</v>
+          </cell>
+          <cell r="I32">
+            <v>14.106106833566809</v>
+          </cell>
+          <cell r="J32">
+            <v>22.5</v>
+          </cell>
+          <cell r="K32">
+            <v>8.6653274606329731</v>
+          </cell>
+          <cell r="L32">
+            <v>29.042000000000002</v>
+          </cell>
+          <cell r="M32">
+            <v>12.434201622943062</v>
+          </cell>
+          <cell r="N32">
+            <v>1348.3700000000001</v>
+          </cell>
+          <cell r="O32">
+            <v>287.2622281992534</v>
+          </cell>
+          <cell r="P32">
+            <v>1.526</v>
+          </cell>
+          <cell r="Q32">
+            <v>0.22300224214119624</v>
+          </cell>
+          <cell r="R32">
+            <v>47.322000000000003</v>
+          </cell>
+          <cell r="S32">
+            <v>1.0794998842056414</v>
+          </cell>
+          <cell r="T32">
+            <v>803</v>
+          </cell>
+          <cell r="U32">
+            <v>0</v>
+          </cell>
+          <cell r="V32">
+            <v>0.53072922619999996</v>
+          </cell>
+          <cell r="W32">
+            <v>2.7662281526954713E-2</v>
+          </cell>
+          <cell r="X32">
+            <v>8.4141959419999992</v>
+          </cell>
+          <cell r="Y32">
+            <v>1.2760580396821917</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>3.778</v>
+          </cell>
+          <cell r="C37">
+            <v>0.1492313639956428</v>
+          </cell>
+          <cell r="D37">
+            <v>6.3753999999999991</v>
+          </cell>
+          <cell r="E37">
+            <v>1.8159948513142865</v>
+          </cell>
+          <cell r="F37">
+            <v>15.928080907999998</v>
+          </cell>
+          <cell r="G37">
+            <v>1.6141488117697738</v>
+          </cell>
+          <cell r="H37">
+            <v>19.038</v>
+          </cell>
+          <cell r="I37">
+            <v>7.0707722350532576</v>
+          </cell>
+          <cell r="J37">
+            <v>27.618000000000002</v>
+          </cell>
+          <cell r="K37">
+            <v>2.3018297069939817</v>
+          </cell>
+          <cell r="L37">
+            <v>31.315999999999995</v>
+          </cell>
+          <cell r="M37">
+            <v>10.23683447165188</v>
+          </cell>
+          <cell r="N37">
+            <v>478.51800000000003</v>
+          </cell>
+          <cell r="O37">
+            <v>109.68837094241127</v>
+          </cell>
+          <cell r="P37">
+            <v>1.0920000000000001</v>
+          </cell>
+          <cell r="Q37">
+            <v>0.17725687574816448</v>
+          </cell>
+          <cell r="R37">
+            <v>48.782000000000004</v>
+          </cell>
+          <cell r="S37">
+            <v>0.71335124588101784</v>
+          </cell>
+          <cell r="T37">
+            <v>450</v>
+          </cell>
+          <cell r="U37">
+            <v>0</v>
+          </cell>
+          <cell r="V37">
+            <v>0.63108589825000005</v>
+          </cell>
+          <cell r="W37">
+            <v>4.1642966920469524E-2</v>
+          </cell>
+          <cell r="X37">
+            <v>9.4299621924999997</v>
+          </cell>
+          <cell r="Y37">
+            <v>0.33166377185516288</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>7.6020000000000012</v>
+          </cell>
+          <cell r="C42">
+            <v>6.6105975524153551E-2</v>
+          </cell>
+          <cell r="D42">
+            <v>8.6837999999999997</v>
+          </cell>
+          <cell r="E42">
+            <v>0.95801236943997703</v>
+          </cell>
+          <cell r="F42">
+            <v>89.994816455999995</v>
+          </cell>
+          <cell r="G42">
+            <v>41.709832108148284</v>
+          </cell>
+          <cell r="H42">
+            <v>18.368000000000002</v>
+          </cell>
+          <cell r="I42">
+            <v>30.963905115472755</v>
+          </cell>
+          <cell r="J42">
+            <v>5.8900000000000006</v>
+          </cell>
+          <cell r="K42">
+            <v>1.7345460501237768</v>
+          </cell>
+          <cell r="L42">
+            <v>18.704000000000001</v>
+          </cell>
+          <cell r="M42">
+            <v>2.7221921313529838</v>
+          </cell>
+          <cell r="N42">
+            <v>150.09200000000001</v>
+          </cell>
+          <cell r="O42">
+            <v>233.12572599350764</v>
+          </cell>
+          <cell r="P42">
+            <v>0.71799999999999997</v>
+          </cell>
+          <cell r="Q42">
+            <v>0.26290682760247963</v>
+          </cell>
+          <cell r="R42">
+            <v>46.926000000000002</v>
+          </cell>
+          <cell r="S42">
+            <v>0.54546310599342795</v>
+          </cell>
+          <cell r="T42">
+            <v>195</v>
+          </cell>
+          <cell r="U42">
+            <v>0</v>
+          </cell>
+          <cell r="V42">
+            <v>0.484778604</v>
+          </cell>
+          <cell r="W42">
+            <v>2.4655702545665136E-2</v>
+          </cell>
+          <cell r="X42">
+            <v>6.6839223700000003</v>
+          </cell>
+          <cell r="Y42">
+            <v>0.74436518831203347</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>7.694</v>
+          </cell>
+          <cell r="C47">
+            <v>5.4589376255824565E-2</v>
+          </cell>
+          <cell r="D47">
+            <v>2.2114000000000003</v>
+          </cell>
+          <cell r="E47">
+            <v>0.38021152007796666</v>
+          </cell>
+          <cell r="F47">
+            <v>39.877807392000008</v>
+          </cell>
+          <cell r="G47">
+            <v>7.42283382159673</v>
+          </cell>
+          <cell r="H47">
+            <v>35.048000000000002</v>
+          </cell>
+          <cell r="I47">
+            <v>5.3431844437563427</v>
+          </cell>
+          <cell r="J47">
+            <v>4.2279999999999998</v>
+          </cell>
+          <cell r="K47">
+            <v>0.53681467938200134</v>
+          </cell>
+          <cell r="L47">
+            <v>20.642000000000003</v>
+          </cell>
+          <cell r="M47">
+            <v>3.8979635708918572</v>
+          </cell>
+          <cell r="N47">
+            <v>88.611999999999995</v>
+          </cell>
+          <cell r="O47">
+            <v>109.84841541870324</v>
+          </cell>
+          <cell r="P47">
+            <v>0.56799999999999995</v>
+          </cell>
+          <cell r="Q47">
+            <v>8.700574693662462E-2</v>
+          </cell>
+          <cell r="R47">
+            <v>44.13</v>
+          </cell>
+          <cell r="S47">
+            <v>3.5293271313382113</v>
+          </cell>
+          <cell r="T47">
+            <v>278</v>
+          </cell>
+          <cell r="U47">
+            <v>0</v>
+          </cell>
+          <cell r="V47">
+            <v>0.51497035299999994</v>
+          </cell>
+          <cell r="W47">
+            <v>6.099202100994168E-2</v>
+          </cell>
+          <cell r="X47">
+            <v>4.2683140975000002</v>
+          </cell>
+          <cell r="Y47">
+            <v>0.9790735804209213</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>7.0920000000000005</v>
+          </cell>
+          <cell r="C52">
+            <v>0.3002831996632514</v>
+          </cell>
+          <cell r="D52">
+            <v>6.8681999999999999</v>
+          </cell>
+          <cell r="E52">
+            <v>1.6709610109155713</v>
+          </cell>
+          <cell r="F52">
+            <v>33.089628412000003</v>
+          </cell>
+          <cell r="G52">
+            <v>5.1540095163318522</v>
+          </cell>
+          <cell r="H52">
+            <v>64.86</v>
+          </cell>
+          <cell r="I52">
+            <v>63.25520650507751</v>
+          </cell>
+          <cell r="J52">
+            <v>19.791999999999998</v>
+          </cell>
+          <cell r="K52">
+            <v>4.6964582399931958</v>
+          </cell>
+          <cell r="L52">
+            <v>26.143999999999998</v>
+          </cell>
+          <cell r="M52">
+            <v>2.5783192199570633</v>
+          </cell>
+          <cell r="N52">
+            <v>1027.8319999999999</v>
+          </cell>
+          <cell r="O52">
+            <v>497.45744679319063</v>
+          </cell>
+          <cell r="P52">
+            <v>0.52600000000000002</v>
+          </cell>
+          <cell r="Q52">
+            <v>9.0719347440334192E-2</v>
+          </cell>
+          <cell r="R52">
+            <v>46.524000000000001</v>
+          </cell>
+          <cell r="S52">
+            <v>3.8767421890035449</v>
+          </cell>
+          <cell r="T52">
+            <v>103</v>
+          </cell>
+          <cell r="U52">
+            <v>0</v>
+          </cell>
+          <cell r="V52">
+            <v>0.47738126000000003</v>
+          </cell>
+          <cell r="W52">
+            <v>1.1918470153430017E-2</v>
+          </cell>
+          <cell r="X52">
+            <v>4.6163938625000007</v>
+          </cell>
+          <cell r="Y52">
+            <v>1.2136310305142586</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>5.6419999999999995</v>
+          </cell>
+          <cell r="C57">
+            <v>0.33417061510551754</v>
+          </cell>
+          <cell r="D57">
+            <v>2.4112</v>
+          </cell>
+          <cell r="E57">
+            <v>0.1586243991320378</v>
+          </cell>
+          <cell r="F57">
+            <v>15.018039143999999</v>
+          </cell>
+          <cell r="G57">
+            <v>0.62293742835643195</v>
+          </cell>
+          <cell r="H57">
+            <v>37.991999999999997</v>
+          </cell>
+          <cell r="I57">
+            <v>2.7409432682928707</v>
+          </cell>
+          <cell r="J57">
+            <v>8.645999999999999</v>
+          </cell>
+          <cell r="K57">
+            <v>1.93160037274795</v>
+          </cell>
+          <cell r="L57">
+            <v>19.66</v>
+          </cell>
+          <cell r="M57">
+            <v>1.5308820986607692</v>
+          </cell>
+          <cell r="N57">
+            <v>800.64800000000002</v>
+          </cell>
+          <cell r="O57">
+            <v>166.52938050085908</v>
+          </cell>
+          <cell r="P57">
+            <v>0.8859999999999999</v>
+          </cell>
+          <cell r="Q57">
+            <v>7.2663608498339749E-2</v>
+          </cell>
+          <cell r="R57">
+            <v>47.362000000000002</v>
+          </cell>
+          <cell r="S57">
+            <v>0.26357162214471974</v>
+          </cell>
+          <cell r="T57">
+            <v>154</v>
+          </cell>
+          <cell r="U57">
+            <v>0</v>
+          </cell>
+          <cell r="V57">
+            <v>0.39622741020000002</v>
+          </cell>
+          <cell r="W57">
+            <v>1.5252588582371846E-2</v>
+          </cell>
+          <cell r="X57">
+            <v>11.995192227999999</v>
+          </cell>
+          <cell r="Y57">
+            <v>3.3245220197971066</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1912,35 +3085,79 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B1" dT="2023-03-01T13:52:12.57" personId="{5C2DB10E-6B8E-4F59-90D1-A869F7498523}" id="{46950935-13BF-4C47-9BC7-15A265926274}">
+    <text>Mean Anual Precipitation (mm)
+Extracted by Jonnathan in CLIMATIC_DATA &gt; Results</text>
+  </threadedComment>
+  <threadedComment ref="C1" dT="2023-03-01T13:51:30.04" personId="{5C2DB10E-6B8E-4F59-90D1-A869F7498523}" id="{927F8FEC-F271-403D-A42D-B2F79C90CBAD}">
+    <text>Mean Anual Temperature (ºC)
+Extracted by Jonnathan in CLIMATIC_DATA &gt; Results</text>
+  </threadedComment>
+  <threadedComment ref="D1" dT="2023-03-01T13:52:35.07" personId="{5C2DB10E-6B8E-4F59-90D1-A869F7498523}" id="{73B9E603-9B72-409A-8371-1CDDC8276088}">
+    <text>Aridity Index
+Extracted by Jonnathan in CLIMATIC_DATA &gt; Results</text>
+  </threadedComment>
+  <threadedComment ref="E1" dT="2023-03-01T13:58:00.88" personId="{5C2DB10E-6B8E-4F59-90D1-A869F7498523}" id="{AB25765A-6801-4828-AEE5-079C965BA8B6}">
+    <text>Measured in situ (ºC)</text>
+  </threadedComment>
+  <threadedComment ref="K1" dT="2023-03-01T14:03:41.33" personId="{5C2DB10E-6B8E-4F59-90D1-A869F7498523}" id="{70561FF1-FB34-417B-85C3-50324242F8F7}">
+    <text>Total Carbon (%)</text>
+  </threadedComment>
+  <threadedComment ref="N1" dT="2023-03-01T14:04:56.80" personId="{5C2DB10E-6B8E-4F59-90D1-A869F7498523}" id="{691EA5A3-C066-40C2-B56B-00164ED839C2}">
+    <text>C/N ratio
+(TC/TN)</text>
+  </threadedComment>
+  <threadedComment ref="Q1" dT="2023-03-01T13:41:18.13" personId="{5C2DB10E-6B8E-4F59-90D1-A869F7498523}" id="{90D0DC41-E641-409B-B719-CD4252CDFFDA}">
+    <text>NH4+ (mg/Kg DW soil)</text>
+  </threadedComment>
+  <threadedComment ref="T1" dT="2023-03-01T14:05:34.86" personId="{5C2DB10E-6B8E-4F59-90D1-A869F7498523}" id="{128A8EF5-7F03-4C06-BA55-0435B06432A1}">
+    <text>PO43-
+(mg/kg DW soil)</text>
+  </threadedComment>
+  <threadedComment ref="W1" dT="2023-03-01T14:05:54.63" personId="{5C2DB10E-6B8E-4F59-90D1-A869F7498523}" id="{3693FF55-B8AE-4C75-93E6-BAE2885162D1}">
+    <text>SO42-
+(mg/kg DW soil)</text>
+  </threadedComment>
+  <threadedComment ref="AI1" dT="2023-04-24T13:52:16.39" personId="{E812039B-72CD-4187-9393-237C6A253BAD}" id="{D562A4C9-89BF-4545-948F-E2F24291506A}">
+    <text>masl</text>
+  </threadedComment>
+  <threadedComment ref="AZ1" dT="2023-03-01T14:03:31.59" personId="{5C2DB10E-6B8E-4F59-90D1-A869F7498523}" id="{857A4019-C717-4341-AAE7-C72BEFA424EB}">
+    <text>Total Organic Carbon (%)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W23" sqref="W23"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1"/>
-    <col min="2" max="2" width="15.33203125" style="15"/>
-    <col min="3" max="4" width="15.33203125" style="1"/>
-    <col min="5" max="8" width="15.33203125" style="15"/>
-    <col min="9" max="11" width="15.33203125" style="1"/>
-    <col min="12" max="13" width="15.33203125" style="15"/>
-    <col min="14" max="16" width="15.33203125" style="1"/>
-    <col min="17" max="33" width="15.33203125" style="15"/>
-    <col min="34" max="34" width="15.33203125" style="15" customWidth="1"/>
-    <col min="35" max="38" width="15.33203125" style="15"/>
-    <col min="39" max="77" width="15.33203125" style="1"/>
-    <col min="78" max="78" width="15.33203125" style="37"/>
-    <col min="79" max="16384" width="15.33203125" style="1"/>
+    <col min="1" max="1" width="15.28515625" style="1"/>
+    <col min="2" max="2" width="15.28515625" style="15"/>
+    <col min="3" max="4" width="15.28515625" style="1"/>
+    <col min="5" max="8" width="15.28515625" style="15"/>
+    <col min="9" max="11" width="15.28515625" style="1"/>
+    <col min="12" max="13" width="15.28515625" style="15"/>
+    <col min="14" max="16" width="15.28515625" style="1"/>
+    <col min="17" max="33" width="15.28515625" style="15"/>
+    <col min="34" max="34" width="15.28515625" style="15" customWidth="1"/>
+    <col min="35" max="38" width="15.28515625" style="15"/>
+    <col min="39" max="77" width="15.28515625" style="1"/>
+    <col min="78" max="78" width="15.28515625" style="37"/>
+    <col min="79" max="16384" width="15.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:92" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>192</v>
       </c>
@@ -2218,7 +3435,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
@@ -2509,7 +3726,7 @@
         <v>3.4899152999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
@@ -2800,7 +4017,7 @@
         <v>3.4899152999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
@@ -3091,7 +4308,7 @@
         <v>3.4899152999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -3374,7 +4591,7 @@
         <v>3.4899152999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -3663,7 +4880,7 @@
         <v>3.9223225300000002</v>
       </c>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>71</v>
       </c>
@@ -3955,7 +5172,7 @@
         <v>10.9056672</v>
       </c>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
@@ -4247,7 +5464,7 @@
         <v>3.4092088999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
@@ -4539,7 +5756,7 @@
         <v>6.4043681299999999</v>
       </c>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>71</v>
       </c>
@@ -4831,7 +6048,7 @@
         <v>12.403162999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>71</v>
       </c>
@@ -5121,7 +6338,7 @@
         <v>10.9008693</v>
       </c>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>71</v>
       </c>
@@ -5412,7 +6629,7 @@
         <v>3.77592572</v>
       </c>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>71</v>
       </c>
@@ -5695,7 +6912,7 @@
         <v>2.8690791999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>71</v>
       </c>
@@ -5986,7 +7203,7 @@
         <v>3.34823966</v>
       </c>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>71</v>
       </c>
@@ -6277,7 +7494,7 @@
         <v>4.0995861800000002</v>
       </c>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>71</v>
       </c>
@@ -6568,7 +7785,7 @@
         <v>5.1956354300000003</v>
       </c>
     </row>
-    <row r="17" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -6859,7 +8076,7 @@
         <v>4.4724002499999997</v>
       </c>
     </row>
-    <row r="18" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
@@ -7108,7 +8325,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>71</v>
       </c>
@@ -7399,7 +8616,7 @@
         <v>6.67491243</v>
       </c>
     </row>
-    <row r="20" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>71</v>
       </c>
@@ -7690,7 +8907,7 @@
         <v>7.5455760200000004</v>
       </c>
     </row>
-    <row r="21" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>71</v>
       </c>
@@ -7973,7 +9190,7 @@
         <v>8.8158130900000007</v>
       </c>
     </row>
-    <row r="22" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>71</v>
       </c>
@@ -8264,7 +9481,7 @@
         <v>4.0578099999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>71</v>
       </c>
@@ -8555,7 +9772,7 @@
         <v>10.091862799999999</v>
       </c>
     </row>
-    <row r="24" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
@@ -8846,7 +10063,7 @@
         <v>4.7112970000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
@@ -9117,7 +10334,7 @@
         <v>4.8561924000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
@@ -9408,7 +10625,7 @@
         <v>9.5454894100000001</v>
       </c>
     </row>
-    <row r="27" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>71</v>
       </c>
@@ -9657,7 +10874,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="28" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>71</v>
       </c>
@@ -9940,7 +11157,7 @@
         <v>3.5510024699999998</v>
       </c>
     </row>
-    <row r="29" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>71</v>
       </c>
@@ -10189,7 +11406,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="30" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>71</v>
       </c>
@@ -10480,7 +11697,7 @@
         <v>7.7782095599999996</v>
       </c>
     </row>
-    <row r="31" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>71</v>
       </c>
@@ -10771,7 +11988,7 @@
         <v>7.4891597699999997</v>
       </c>
     </row>
-    <row r="32" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>71</v>
       </c>
@@ -11062,7 +12279,7 @@
         <v>8.3040474300000007</v>
       </c>
     </row>
-    <row r="33" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>71</v>
       </c>
@@ -11353,7 +12570,7 @@
         <v>6.2894612499999996</v>
       </c>
     </row>
-    <row r="34" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
@@ -11644,7 +12861,7 @@
         <v>9.6039411900000005</v>
       </c>
     </row>
-    <row r="35" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>71</v>
       </c>
@@ -11935,7 +13152,7 @@
         <v>8.8249260899999999</v>
       </c>
     </row>
-    <row r="36" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>71</v>
       </c>
@@ -12224,7 +13441,7 @@
         <v>9.0486037499999998</v>
       </c>
     </row>
-    <row r="37" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>71</v>
       </c>
@@ -12473,7 +13690,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="38" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>71</v>
       </c>
@@ -12764,7 +13981,7 @@
         <v>9.1145691400000004</v>
       </c>
     </row>
-    <row r="39" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>71</v>
       </c>
@@ -13055,7 +14272,7 @@
         <v>9.1724063699999991</v>
       </c>
     </row>
-    <row r="40" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>71</v>
       </c>
@@ -13346,7 +14563,7 @@
         <v>9.7109783000000007</v>
       </c>
     </row>
-    <row r="41" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>71</v>
       </c>
@@ -13627,7 +14844,7 @@
         <v>9.7218949600000002</v>
       </c>
     </row>
-    <row r="42" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>71</v>
       </c>
@@ -13918,7 +15135,7 @@
         <v>6.4315554400000003</v>
       </c>
     </row>
-    <row r="43" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>71</v>
       </c>
@@ -14206,7 +15423,7 @@
         <v>5.78455706</v>
       </c>
     </row>
-    <row r="44" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>71</v>
       </c>
@@ -14497,7 +15714,7 @@
         <v>7.0655917600000002</v>
       </c>
     </row>
-    <row r="45" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>71</v>
       </c>
@@ -14788,7 +16005,7 @@
         <v>7.74037065</v>
       </c>
     </row>
-    <row r="46" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>71</v>
       </c>
@@ -15073,7 +16290,7 @@
         <v>6.3975369400000002</v>
       </c>
     </row>
-    <row r="47" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -15322,7 +16539,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="48" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>71</v>
       </c>
@@ -15613,7 +16830,7 @@
         <v>2.8657992000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>71</v>
       </c>
@@ -15896,7 +17113,7 @@
         <v>5.13716638</v>
       </c>
     </row>
-    <row r="50" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>71</v>
       </c>
@@ -16187,7 +17404,7 @@
         <v>4.61066033</v>
       </c>
     </row>
-    <row r="51" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>71</v>
       </c>
@@ -16478,7 +17695,7 @@
         <v>4.4596304800000004</v>
       </c>
     </row>
-    <row r="52" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>71</v>
       </c>
@@ -16769,7 +17986,7 @@
         <v>4.44812809</v>
       </c>
     </row>
-    <row r="53" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>71</v>
       </c>
@@ -17060,7 +18277,7 @@
         <v>3.48872252</v>
       </c>
     </row>
-    <row r="54" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>71</v>
       </c>
@@ -17309,7 +18526,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>71</v>
       </c>
@@ -17585,7 +18802,7 @@
         <v>6.3318403600000002</v>
       </c>
     </row>
-    <row r="56" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>71</v>
       </c>
@@ -17876,7 +19093,7 @@
         <v>4.1968844799999996</v>
       </c>
     </row>
-    <row r="57" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>71</v>
       </c>
@@ -18167,7 +19384,7 @@
         <v>6.4942736400000003</v>
       </c>
     </row>
-    <row r="58" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>71</v>
       </c>
@@ -18458,7 +19675,7 @@
         <v>11.3962074</v>
       </c>
     </row>
-    <row r="59" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
@@ -18749,7 +19966,7 @@
         <v>14.629201</v>
       </c>
     </row>
-    <row r="60" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>71</v>
       </c>
@@ -19040,7 +20257,7 @@
         <v>14.296771</v>
       </c>
     </row>
-    <row r="61" spans="1:92" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:92" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>71</v>
       </c>
@@ -19333,7 +20550,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J61">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19351,14 +20568,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>206</v>
       </c>
@@ -19367,4 +20584,2669 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FD58F6-22A5-4F03-9934-F0D3E502C4E0}">
+  <dimension ref="A1:BA61"/>
+  <sheetViews>
+    <sheetView topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="BA2" sqref="BA2:BA13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" style="15" customWidth="1"/>
+    <col min="2" max="4" width="14" style="15" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="25" width="0" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="0" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="0" hidden="1" customWidth="1"/>
+    <col min="35" max="37" width="0" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="0" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="0" hidden="1" customWidth="1"/>
+    <col min="46" max="51" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z1" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA1" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB1" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC1" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD1" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE1" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF1" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG1" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH1" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI1" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ1" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK1" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="AL1" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="AM1" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN1" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO1" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="AP1" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="AQ1" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR1" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS1" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="AT1" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="AZ1" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA1" s="15"/>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1312.617088</v>
+      </c>
+      <c r="C2" s="5">
+        <v>12.13822558</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1.248428493</v>
+      </c>
+      <c r="E2" s="6">
+        <v>15.63</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1.3367871932360813</v>
+      </c>
+      <c r="G2" s="39">
+        <f>F2/SQRT(5)</f>
+        <v>0.597829407105405</v>
+      </c>
+      <c r="H2" s="7">
+        <v>4.3160000000000007</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.15043270920913462</v>
+      </c>
+      <c r="J2" s="39">
+        <f>I2/SQRT(5)</f>
+        <v>6.7275552766216731E-2</v>
+      </c>
+      <c r="K2" s="7">
+        <v>3.6488</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0.80734267817327876</v>
+      </c>
+      <c r="M2" s="39">
+        <f>L2/SQRT(5)</f>
+        <v>0.36105462190643739</v>
+      </c>
+      <c r="N2" s="7">
+        <v>12.597338154000001</v>
+      </c>
+      <c r="O2" s="7">
+        <v>1.0011326942601673</v>
+      </c>
+      <c r="P2" s="39">
+        <f>O2/SQRT(5)</f>
+        <v>0.44772015177264951</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>12.007999999999999</v>
+      </c>
+      <c r="R2" s="7">
+        <v>10.824043606711868</v>
+      </c>
+      <c r="S2" s="6">
+        <f>R2/SQRT(5)</f>
+        <v>4.8406594592059466</v>
+      </c>
+      <c r="T2" s="7">
+        <v>12.9</v>
+      </c>
+      <c r="U2" s="7">
+        <v>4.2822307270860565</v>
+      </c>
+      <c r="V2" s="6">
+        <f>U2/SQRT(5)</f>
+        <v>1.9150718002205542</v>
+      </c>
+      <c r="W2" s="7">
+        <v>42.809999999999995</v>
+      </c>
+      <c r="X2" s="7">
+        <v>7.9930657447565343</v>
+      </c>
+      <c r="Y2" s="6">
+        <f>X2/SQRT(5)</f>
+        <v>3.5746076707801184</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>655.41</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>251.78734171915801</v>
+      </c>
+      <c r="AB2" s="39">
+        <f>AA2/SQRT(5)</f>
+        <v>112.6027223916012</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>1.3299999999999998</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>0.10793516572461445</v>
+      </c>
+      <c r="AE2" s="39">
+        <f>AD2/SQRT(5)</f>
+        <v>4.8270073544588649E-2</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>48.036000000000001</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>1.703872060924764</v>
+      </c>
+      <c r="AH2" s="39">
+        <f>AG2/SQRT(5)</f>
+        <v>0.76199475063808708</v>
+      </c>
+      <c r="AI2" s="7">
+        <v>344</v>
+      </c>
+      <c r="AJ2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="6">
+        <f>AJ2/SQRT(5)</f>
+        <v>0</v>
+      </c>
+      <c r="AL2" s="7">
+        <v>0.57809591440000008</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>1.4449461431904547E-2</v>
+      </c>
+      <c r="AN2" s="39">
+        <f>AM2/SQRT(5)</f>
+        <v>6.4619956000000027E-3</v>
+      </c>
+      <c r="AO2" s="7">
+        <v>3.5763967459999995</v>
+      </c>
+      <c r="AP2" s="7">
+        <v>0.19337839204847745</v>
+      </c>
+      <c r="AQ2" s="39">
+        <f>AP2/SQRT(5)</f>
+        <v>8.6481446000000073E-2</v>
+      </c>
+      <c r="AR2" s="6">
+        <v>3.6488000000000007E-2</v>
+      </c>
+      <c r="AS2" s="39">
+        <v>3.61054621906436E-3</v>
+      </c>
+      <c r="AT2" s="6">
+        <v>31.231906386614991</v>
+      </c>
+      <c r="AU2" s="39">
+        <v>0.77656758925996539</v>
+      </c>
+      <c r="AV2" s="6">
+        <v>1.5667010859999999</v>
+      </c>
+      <c r="AW2" s="39">
+        <v>2.8046413999999985E-2</v>
+      </c>
+      <c r="AX2" s="6">
+        <v>0.98795565199999991</v>
+      </c>
+      <c r="AY2" s="39">
+        <v>6.0502420000000164E-3</v>
+      </c>
+      <c r="AZ2" s="6">
+        <v>3.6488</v>
+      </c>
+      <c r="BA2" s="39">
+        <v>0.36105462190643739</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1253.26</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10.970743150000001</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1.0879099809999999</v>
+      </c>
+      <c r="E3" s="6">
+        <v>13.684999999999999</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.12820881404958068</v>
+      </c>
+      <c r="G3" s="39">
+        <f t="shared" ref="G3:G13" si="0">F3/SQRT(5)</f>
+        <v>5.7336724705898498E-2</v>
+      </c>
+      <c r="H3" s="7">
+        <v>4.452</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.39505695791872836</v>
+      </c>
+      <c r="J3" s="39">
+        <f t="shared" ref="J3:J13" si="1">I3/SQRT(5)</f>
+        <v>0.17667484257811009</v>
+      </c>
+      <c r="K3" s="7">
+        <v>3.5928000000000004</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1.0452974217896054</v>
+      </c>
+      <c r="M3" s="39">
+        <f t="shared" ref="M3:M13" si="2">L3/SQRT(5)</f>
+        <v>0.46747121836536548</v>
+      </c>
+      <c r="N3" s="7">
+        <v>12.191174086</v>
+      </c>
+      <c r="O3" s="7">
+        <v>1.3320964779314139</v>
+      </c>
+      <c r="P3" s="39">
+        <f t="shared" ref="P3:P13" si="3">O3/SQRT(5)</f>
+        <v>0.59573165544853801</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>33.962000000000003</v>
+      </c>
+      <c r="R3" s="7">
+        <v>36.015444881328342</v>
+      </c>
+      <c r="S3" s="6">
+        <f t="shared" ref="S3:S13" si="4">R3/SQRT(5)</f>
+        <v>16.106596598909402</v>
+      </c>
+      <c r="T3" s="7">
+        <v>119.94800000000001</v>
+      </c>
+      <c r="U3" s="7">
+        <v>30.536502255497435</v>
+      </c>
+      <c r="V3" s="6">
+        <f t="shared" ref="V3:V13" si="5">U3/SQRT(5)</f>
+        <v>13.656338967673582</v>
+      </c>
+      <c r="W3" s="7">
+        <v>23.178000000000001</v>
+      </c>
+      <c r="X3" s="7">
+        <v>2.1707302918603224</v>
+      </c>
+      <c r="Y3" s="6">
+        <f t="shared" ref="Y3:Y13" si="6">X3/SQRT(5)</f>
+        <v>0.97078009868352777</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>435.20199999999994</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>223.56242734413155</v>
+      </c>
+      <c r="AB3" s="39">
+        <f t="shared" ref="AB3:AB13" si="7">AA3/SQRT(5)</f>
+        <v>99.980156951267176</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>1.052</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>0.10779610382569492</v>
+      </c>
+      <c r="AE3" s="39">
+        <f t="shared" ref="AE3:AE13" si="8">AD3/SQRT(5)</f>
+        <v>4.8207883172775794E-2</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>48.611999999999995</v>
+      </c>
+      <c r="AG3" s="7">
+        <v>1.6178751496948092</v>
+      </c>
+      <c r="AH3" s="39">
+        <f t="shared" ref="AH3:AH13" si="9">AG3/SQRT(5)</f>
+        <v>0.72353576276504827</v>
+      </c>
+      <c r="AI3" s="7">
+        <v>664.5</v>
+      </c>
+      <c r="AJ3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="6">
+        <f t="shared" ref="AK3:AK13" si="10">AJ3/SQRT(5)</f>
+        <v>0</v>
+      </c>
+      <c r="AL3" s="7">
+        <v>0.49267323739999991</v>
+      </c>
+      <c r="AM3" s="7">
+        <v>4.9273816334914726E-2</v>
+      </c>
+      <c r="AN3" s="39">
+        <f t="shared" ref="AN3:AN13" si="11">AM3/SQRT(5)</f>
+        <v>2.2035920567141772E-2</v>
+      </c>
+      <c r="AO3" s="7">
+        <v>8.8046553060000008</v>
+      </c>
+      <c r="AP3" s="7">
+        <v>3.7626401023229787</v>
+      </c>
+      <c r="AQ3" s="39">
+        <f t="shared" ref="AQ3:AQ13" si="12">AP3/SQRT(5)</f>
+        <v>1.6827038087321888</v>
+      </c>
+      <c r="AR3" s="6">
+        <v>3.5928000000000002E-2</v>
+      </c>
+      <c r="AS3" s="39">
+        <v>4.6747121836536653E-3</v>
+      </c>
+      <c r="AT3" s="6">
+        <v>14.067050793150056</v>
+      </c>
+      <c r="AU3" s="39">
+        <v>1.9951097158352049</v>
+      </c>
+      <c r="AV3" s="6">
+        <v>0.871007172</v>
+      </c>
+      <c r="AW3" s="39">
+        <v>8.1901705946041695E-2</v>
+      </c>
+      <c r="AX3" s="6">
+        <v>1.852008876</v>
+      </c>
+      <c r="AY3" s="39">
+        <v>0.3806340476185201</v>
+      </c>
+      <c r="AZ3" s="6">
+        <v>3.5928000000000004</v>
+      </c>
+      <c r="BA3" s="39">
+        <v>0.46747121836536548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="5">
+        <v>719.53004450000003</v>
+      </c>
+      <c r="C4" s="5">
+        <v>13.84807052</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.56437017</v>
+      </c>
+      <c r="E4" s="6">
+        <v>25.939999999999998</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1.2016395050097184</v>
+      </c>
+      <c r="G4" s="39">
+        <f t="shared" si="0"/>
+        <v>0.53738952353018588</v>
+      </c>
+      <c r="H4" s="7">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.29094673051952313</v>
+      </c>
+      <c r="J4" s="39">
+        <f t="shared" si="1"/>
+        <v>0.13011533345459328</v>
+      </c>
+      <c r="K4" s="7">
+        <v>2.2234000000000003</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.74368326591365408</v>
+      </c>
+      <c r="M4" s="39">
+        <f t="shared" si="2"/>
+        <v>0.33258526726239651</v>
+      </c>
+      <c r="N4" s="7">
+        <v>25.444887189999996</v>
+      </c>
+      <c r="O4" s="7">
+        <v>2.5856472467128837</v>
+      </c>
+      <c r="P4" s="39">
+        <f t="shared" si="3"/>
+        <v>1.1563366018970356</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>30.32</v>
+      </c>
+      <c r="R4" s="7">
+        <v>37.340238349533877</v>
+      </c>
+      <c r="S4" s="6">
+        <f t="shared" si="4"/>
+        <v>16.699062249120459</v>
+      </c>
+      <c r="T4" s="7">
+        <v>5.194</v>
+      </c>
+      <c r="U4" s="7">
+        <v>3.1631123913006949</v>
+      </c>
+      <c r="V4" s="6">
+        <f t="shared" si="5"/>
+        <v>1.4145868654840537</v>
+      </c>
+      <c r="W4" s="7">
+        <v>20.512000000000004</v>
+      </c>
+      <c r="X4" s="7">
+        <v>2.6627185356323064</v>
+      </c>
+      <c r="Y4" s="6">
+        <f t="shared" si="6"/>
+        <v>1.1908039301245066</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>840.19400000000007</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>139.15600213429522</v>
+      </c>
+      <c r="AB4" s="39">
+        <f t="shared" si="7"/>
+        <v>62.232456049877982</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>0.12083045973594596</v>
+      </c>
+      <c r="AE4" s="39">
+        <f t="shared" si="8"/>
+        <v>5.403702434442529E-2</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>46.576000000000001</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>5.0021875214749798</v>
+      </c>
+      <c r="AH4" s="39">
+        <f t="shared" si="9"/>
+        <v>2.2370462668438487</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>259</v>
+      </c>
+      <c r="AJ4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="7">
+        <v>0.45873691100000002</v>
+      </c>
+      <c r="AM4" s="7">
+        <v>2.5875597058474E-2</v>
+      </c>
+      <c r="AN4" s="39">
+        <f t="shared" si="11"/>
+        <v>1.1571918796228292E-2</v>
+      </c>
+      <c r="AO4" s="7">
+        <v>3.8576932379999995</v>
+      </c>
+      <c r="AP4" s="7">
+        <v>0.87923092754274912</v>
+      </c>
+      <c r="AQ4" s="39">
+        <f t="shared" si="12"/>
+        <v>0.39320402438115581</v>
+      </c>
+      <c r="AR4" s="6">
+        <v>2.2234000000000004E-2</v>
+      </c>
+      <c r="AS4" s="39">
+        <v>3.3258526726239663E-3</v>
+      </c>
+      <c r="AT4" s="6">
+        <v>2.1806104252513729</v>
+      </c>
+      <c r="AU4" s="39">
+        <v>0.23057262839235601</v>
+      </c>
+      <c r="AV4" s="6">
+        <v>0.83710365320000002</v>
+      </c>
+      <c r="AW4" s="39">
+        <v>3.5248550965008778E-2</v>
+      </c>
+      <c r="AX4" s="6">
+        <v>2.0017764179999999</v>
+      </c>
+      <c r="AY4" s="39">
+        <v>6.2517837975533841E-2</v>
+      </c>
+      <c r="AZ4" s="6">
+        <v>2.2234000000000003</v>
+      </c>
+      <c r="BA4" s="39">
+        <v>0.33258526726239651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="5">
+        <v>401.69234560000001</v>
+      </c>
+      <c r="C5" s="5">
+        <v>13.479537779999999</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.24611151000000001</v>
+      </c>
+      <c r="E5" s="6">
+        <v>23.119999999999997</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1.3098664054017113</v>
+      </c>
+      <c r="G5" s="39">
+        <f t="shared" si="0"/>
+        <v>0.58579006478430484</v>
+      </c>
+      <c r="H5" s="7">
+        <v>7.548</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.12794530081249567</v>
+      </c>
+      <c r="J5" s="39">
+        <f t="shared" si="1"/>
+        <v>5.7218878003679877E-2</v>
+      </c>
+      <c r="K5" s="7">
+        <v>8.827399999999999</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1.395027347402207</v>
+      </c>
+      <c r="M5" s="39">
+        <f t="shared" si="2"/>
+        <v>0.62387519585250983</v>
+      </c>
+      <c r="N5" s="7">
+        <v>36.705904750000002</v>
+      </c>
+      <c r="O5" s="7">
+        <v>4.698750658585281</v>
+      </c>
+      <c r="P5" s="39">
+        <f t="shared" si="3"/>
+        <v>2.1013451763837185</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>4.9760000000000009</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0.63160905629985464</v>
+      </c>
+      <c r="S5" s="6">
+        <f t="shared" si="4"/>
+        <v>0.28246415701819333</v>
+      </c>
+      <c r="T5" s="7">
+        <v>23.824000000000002</v>
+      </c>
+      <c r="U5" s="7">
+        <v>6.9038489265046863</v>
+      </c>
+      <c r="V5" s="6">
+        <f t="shared" si="5"/>
+        <v>3.0874951012106853</v>
+      </c>
+      <c r="W5" s="7">
+        <v>22.810000000000002</v>
+      </c>
+      <c r="X5" s="7">
+        <v>4.8422308908188008</v>
+      </c>
+      <c r="Y5" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1655114869240402</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>954.55399999999986</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>721.09536323568204</v>
+      </c>
+      <c r="AB5" s="39">
+        <f t="shared" si="7"/>
+        <v>322.48365009097756</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>0.59200000000000008</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>0.15039946808416513</v>
+      </c>
+      <c r="AE5" s="39">
+        <f t="shared" si="8"/>
+        <v>6.7260686883200652E-2</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>45.944000000000003</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>2.745738516319427</v>
+      </c>
+      <c r="AH5" s="39">
+        <f t="shared" si="9"/>
+        <v>1.2279315941859308</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>925</v>
+      </c>
+      <c r="AJ5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="7">
+        <v>0.45308667825000004</v>
+      </c>
+      <c r="AM5" s="7">
+        <v>2.8455044231487179E-2</v>
+      </c>
+      <c r="AN5" s="39">
+        <f t="shared" si="11"/>
+        <v>1.2725482640873718E-2</v>
+      </c>
+      <c r="AO5" s="7">
+        <v>6.8771754474999991</v>
+      </c>
+      <c r="AP5" s="7">
+        <v>1.8283808240257919</v>
+      </c>
+      <c r="AQ5" s="39">
+        <f t="shared" si="12"/>
+        <v>0.81767676225575026</v>
+      </c>
+      <c r="AR5" s="6">
+        <v>3.7624000000000005E-2</v>
+      </c>
+      <c r="AS5" s="39">
+        <v>5.3409648940991854E-3</v>
+      </c>
+      <c r="AT5" s="6">
+        <v>7.5160303915253746</v>
+      </c>
+      <c r="AU5" s="39">
+        <v>0.66388054112240713</v>
+      </c>
+      <c r="AV5" s="6">
+        <v>0.90243765199999992</v>
+      </c>
+      <c r="AW5" s="39">
+        <v>5.0903762420495262E-2</v>
+      </c>
+      <c r="AX5" s="6">
+        <v>2.6237723650000007</v>
+      </c>
+      <c r="AY5" s="39">
+        <v>0.14883213592688008</v>
+      </c>
+      <c r="AZ5" s="6">
+        <v>3.7624000000000004</v>
+      </c>
+      <c r="BA5" s="39">
+        <v>0.53409648940991916</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="5">
+        <v>265.17704959999998</v>
+      </c>
+      <c r="C6" s="5">
+        <v>16.980182540000001</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.15639571399999999</v>
+      </c>
+      <c r="E6" s="6">
+        <v>29.105</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1.0157201878470279</v>
+      </c>
+      <c r="G6" s="39">
+        <f t="shared" si="0"/>
+        <v>0.45424387722896198</v>
+      </c>
+      <c r="H6" s="7">
+        <v>7.7120000000000006</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3.7013511046643549E-2</v>
+      </c>
+      <c r="J6" s="39">
+        <f t="shared" si="1"/>
+        <v>1.655294535724687E-2</v>
+      </c>
+      <c r="K6" s="7">
+        <v>3.9889999999999999</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.38580889051446188</v>
+      </c>
+      <c r="M6" s="39">
+        <f t="shared" si="2"/>
+        <v>0.17253898110282209</v>
+      </c>
+      <c r="N6" s="7">
+        <v>35.689152703999994</v>
+      </c>
+      <c r="O6" s="7">
+        <v>2.383877922653427</v>
+      </c>
+      <c r="P6" s="39">
+        <f t="shared" si="3"/>
+        <v>1.0661026170228096</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>49.1</v>
+      </c>
+      <c r="R6" s="7">
+        <v>71.477603485287602</v>
+      </c>
+      <c r="S6" s="6">
+        <f t="shared" si="4"/>
+        <v>31.965756052375792</v>
+      </c>
+      <c r="T6" s="7">
+        <v>5.0539999999999994</v>
+      </c>
+      <c r="U6" s="7">
+        <v>1.0837342847764897</v>
+      </c>
+      <c r="V6" s="6">
+        <f t="shared" si="5"/>
+        <v>0.48466070606146927</v>
+      </c>
+      <c r="W6" s="7">
+        <v>71.816000000000003</v>
+      </c>
+      <c r="X6" s="7">
+        <v>46.628530214880243</v>
+      </c>
+      <c r="Y6" s="6">
+        <f t="shared" si="6"/>
+        <v>20.85291265027502</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>20.86</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>19.88344914746936</v>
+      </c>
+      <c r="AB6" s="39">
+        <f t="shared" si="7"/>
+        <v>8.8921487841803462</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>0.18867962264113197</v>
+      </c>
+      <c r="AE6" s="39">
+        <f t="shared" si="8"/>
+        <v>8.4380092438915894E-2</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>36.655999999999999</v>
+      </c>
+      <c r="AG6" s="7">
+        <v>4.1348796838602029</v>
+      </c>
+      <c r="AH6" s="39">
+        <f t="shared" si="9"/>
+        <v>1.8491744103788506</v>
+      </c>
+      <c r="AI6" s="7">
+        <v>283</v>
+      </c>
+      <c r="AJ6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="7">
+        <v>0.5974705694000001</v>
+      </c>
+      <c r="AM6" s="7">
+        <v>9.9293709506921624E-2</v>
+      </c>
+      <c r="AN6" s="39">
+        <f t="shared" si="11"/>
+        <v>4.440549683911877E-2</v>
+      </c>
+      <c r="AO6" s="7">
+        <v>6.6525303219999996</v>
+      </c>
+      <c r="AP6" s="7">
+        <v>2.9123019447219778</v>
+      </c>
+      <c r="AQ6" s="39">
+        <f t="shared" si="12"/>
+        <v>1.3024210238806353</v>
+      </c>
+      <c r="AR6" s="6">
+        <v>7.2020000000000001E-3</v>
+      </c>
+      <c r="AS6" s="39">
+        <v>6.3532196562058219E-4</v>
+      </c>
+      <c r="AT6" s="6">
+        <v>1.62931670400373</v>
+      </c>
+      <c r="AU6" s="39">
+        <v>0.34045817840101278</v>
+      </c>
+      <c r="AV6" s="6">
+        <v>1.1120560053999999</v>
+      </c>
+      <c r="AW6" s="39">
+        <v>7.9103434659964972E-2</v>
+      </c>
+      <c r="AX6" s="6">
+        <v>1.0055786760000001</v>
+      </c>
+      <c r="AY6" s="39">
+        <v>0.45623418692822465</v>
+      </c>
+      <c r="AZ6" s="6">
+        <v>0.72019999999999995</v>
+      </c>
+      <c r="BA6" s="39">
+        <v>6.3532196562058316E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="5">
+        <v>859.27832579999995</v>
+      </c>
+      <c r="C7" s="5">
+        <v>9.191429608</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.70398598999999995</v>
+      </c>
+      <c r="E7" s="6">
+        <v>14.89</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.20202103850836942</v>
+      </c>
+      <c r="G7" s="39">
+        <f t="shared" si="0"/>
+        <v>9.0346554997963346E-2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>6.1180000000000003</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.21040437257813846</v>
+      </c>
+      <c r="J7" s="39">
+        <f t="shared" si="1"/>
+        <v>9.4095695969582047E-2</v>
+      </c>
+      <c r="K7" s="7">
+        <v>18.087600000000002</v>
+      </c>
+      <c r="L7" s="7">
+        <v>3.8414336256142816</v>
+      </c>
+      <c r="M7" s="39">
+        <f t="shared" si="2"/>
+        <v>1.7179413435854021</v>
+      </c>
+      <c r="N7" s="7">
+        <v>15.908437574000001</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0.88558784482483865</v>
+      </c>
+      <c r="P7" s="39">
+        <f t="shared" si="3"/>
+        <v>0.3960469242151749</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>128.34399999999999</v>
+      </c>
+      <c r="R7" s="7">
+        <v>101.90199080489057</v>
+      </c>
+      <c r="S7" s="6">
+        <f t="shared" si="4"/>
+        <v>45.571955696458765</v>
+      </c>
+      <c r="T7" s="7">
+        <v>63.177999999999997</v>
+      </c>
+      <c r="U7" s="7">
+        <v>11.877548989585362</v>
+      </c>
+      <c r="V7" s="6">
+        <f t="shared" si="5"/>
+        <v>5.3118013893593616</v>
+      </c>
+      <c r="W7" s="7">
+        <v>59.817999999999998</v>
+      </c>
+      <c r="X7" s="7">
+        <v>21.026570571541171</v>
+      </c>
+      <c r="Y7" s="6">
+        <f t="shared" si="6"/>
+        <v>9.4033682263325318</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>649.452</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>63.516975447513254</v>
+      </c>
+      <c r="AB7" s="39">
+        <f t="shared" si="7"/>
+        <v>28.405654965164949</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>1.1300000000000001</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>0.21447610589527175</v>
+      </c>
+      <c r="AE7" s="39">
+        <f t="shared" si="8"/>
+        <v>9.5916630466254205E-2</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>46.06600000000001</v>
+      </c>
+      <c r="AG7" s="7">
+        <v>0.42688405920108841</v>
+      </c>
+      <c r="AH7" s="39">
+        <f t="shared" si="9"/>
+        <v>0.19090835497693565</v>
+      </c>
+      <c r="AI7" s="7">
+        <v>1096</v>
+      </c>
+      <c r="AJ7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL7" s="7">
+        <v>0.38725439633333331</v>
+      </c>
+      <c r="AM7" s="7">
+        <v>3.7069707241749817E-3</v>
+      </c>
+      <c r="AN7" s="39">
+        <f t="shared" si="11"/>
+        <v>1.6578077059713763E-3</v>
+      </c>
+      <c r="AO7" s="7">
+        <v>6.2727905999999996</v>
+      </c>
+      <c r="AP7" s="7">
+        <v>2.3615641879338045</v>
+      </c>
+      <c r="AQ7" s="39">
+        <f t="shared" si="12"/>
+        <v>1.0561236114898152</v>
+      </c>
+      <c r="AR7" s="6">
+        <v>0.166044</v>
+      </c>
+      <c r="AS7" s="39">
+        <v>1.7059556442064992E-2</v>
+      </c>
+      <c r="AT7" s="6">
+        <v>31.842843926670223</v>
+      </c>
+      <c r="AU7" s="39">
+        <v>0.74965868520837853</v>
+      </c>
+      <c r="AV7" s="6">
+        <v>0.92870463400000014</v>
+      </c>
+      <c r="AW7" s="39">
+        <v>3.0313680831081904E-2</v>
+      </c>
+      <c r="AX7" s="6">
+        <v>2.86867099</v>
+      </c>
+      <c r="AY7" s="39">
+        <v>0.3887941213442862</v>
+      </c>
+      <c r="AZ7" s="6">
+        <v>16.604400000000002</v>
+      </c>
+      <c r="BA7" s="39">
+        <v>1.7059556442064896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1003.993939</v>
+      </c>
+      <c r="C8" s="5">
+        <v>9.4308277250000003</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.99706098099999996</v>
+      </c>
+      <c r="E8" s="6">
+        <v>13.895000000000001</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.18990129014832927</v>
+      </c>
+      <c r="G8" s="39">
+        <f t="shared" si="0"/>
+        <v>8.4926438757315065E-2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>4.2219999999999995</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.3131613002910803</v>
+      </c>
+      <c r="J8" s="39">
+        <f t="shared" si="1"/>
+        <v>0.14004999107461605</v>
+      </c>
+      <c r="K8" s="7">
+        <v>6.9530000000000003</v>
+      </c>
+      <c r="L8" s="7">
+        <v>2.3671552547308772</v>
+      </c>
+      <c r="M8" s="39">
+        <f t="shared" si="2"/>
+        <v>1.0586240125748143</v>
+      </c>
+      <c r="N8" s="7">
+        <v>13.484286724</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0.6204023151536957</v>
+      </c>
+      <c r="P8" s="39">
+        <f t="shared" si="3"/>
+        <v>0.2774523500163823</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>38.369999999999997</v>
+      </c>
+      <c r="R8" s="7">
+        <v>14.106106833566809</v>
+      </c>
+      <c r="S8" s="6">
+        <f t="shared" si="4"/>
+        <v>6.308442755545939</v>
+      </c>
+      <c r="T8" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="U8" s="7">
+        <v>8.6653274606329731</v>
+      </c>
+      <c r="V8" s="6">
+        <f t="shared" si="5"/>
+        <v>3.8752522498541921</v>
+      </c>
+      <c r="W8" s="7">
+        <v>29.042000000000002</v>
+      </c>
+      <c r="X8" s="7">
+        <v>12.434201622943062</v>
+      </c>
+      <c r="Y8" s="6">
+        <f t="shared" si="6"/>
+        <v>5.5607440149677787</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>1348.3700000000001</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>287.2622281992534</v>
+      </c>
+      <c r="AB8" s="39">
+        <f t="shared" si="7"/>
+        <v>128.46757392431752</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>1.526</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>0.22300224214119624</v>
+      </c>
+      <c r="AE8" s="39">
+        <f t="shared" si="8"/>
+        <v>9.972963451251661E-2</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>47.322000000000003</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>1.0794998842056414</v>
+      </c>
+      <c r="AH8" s="39">
+        <f t="shared" si="9"/>
+        <v>0.48276702455739312</v>
+      </c>
+      <c r="AI8" s="7">
+        <v>803</v>
+      </c>
+      <c r="AJ8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL8" s="7">
+        <v>0.53072922619999996</v>
+      </c>
+      <c r="AM8" s="7">
+        <v>2.7662281526954713E-2</v>
+      </c>
+      <c r="AN8" s="39">
+        <f t="shared" si="11"/>
+        <v>1.2370948381401483E-2</v>
+      </c>
+      <c r="AO8" s="7">
+        <v>8.4141959419999992</v>
+      </c>
+      <c r="AP8" s="7">
+        <v>1.2760580396821917</v>
+      </c>
+      <c r="AQ8" s="39">
+        <f t="shared" si="12"/>
+        <v>0.57067050399290087</v>
+      </c>
+      <c r="AR8" s="6">
+        <v>6.9529999999999995E-2</v>
+      </c>
+      <c r="AS8" s="39">
+        <v>1.0586240125748159E-2</v>
+      </c>
+      <c r="AT8" s="6">
+        <v>36.868302129468461</v>
+      </c>
+      <c r="AU8" s="39">
+        <v>2.8969396568640251</v>
+      </c>
+      <c r="AV8" s="6">
+        <v>1.15174058</v>
+      </c>
+      <c r="AW8" s="39">
+        <v>6.9253552401978558E-2</v>
+      </c>
+      <c r="AX8" s="6">
+        <v>2.3087108619999999</v>
+      </c>
+      <c r="AY8" s="39">
+        <v>0.21837347516008479</v>
+      </c>
+      <c r="AZ8" s="6">
+        <v>6.9530000000000003</v>
+      </c>
+      <c r="BA8" s="39">
+        <v>1.0586240125748143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1361.655949</v>
+      </c>
+      <c r="C9" s="5">
+        <v>12.17788356</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1.3318448700000001</v>
+      </c>
+      <c r="E9" s="6">
+        <v>15.375</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.25310570914145741</v>
+      </c>
+      <c r="G9" s="39">
+        <f t="shared" si="0"/>
+        <v>0.11319231422671773</v>
+      </c>
+      <c r="H9" s="7">
+        <v>3.778</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.1492313639956428</v>
+      </c>
+      <c r="J9" s="39">
+        <f t="shared" si="1"/>
+        <v>6.673829485385438E-2</v>
+      </c>
+      <c r="K9" s="7">
+        <v>6.3753999999999991</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1.8159948513142865</v>
+      </c>
+      <c r="M9" s="39">
+        <f t="shared" si="2"/>
+        <v>0.8121375868656735</v>
+      </c>
+      <c r="N9" s="7">
+        <v>15.928080907999998</v>
+      </c>
+      <c r="O9" s="7">
+        <v>1.6141488117697738</v>
+      </c>
+      <c r="P9" s="39">
+        <f t="shared" si="3"/>
+        <v>0.72186929378354536</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>19.038</v>
+      </c>
+      <c r="R9" s="7">
+        <v>7.0707722350532576</v>
+      </c>
+      <c r="S9" s="6">
+        <f t="shared" si="4"/>
+        <v>3.1621454741994408</v>
+      </c>
+      <c r="T9" s="7">
+        <v>27.618000000000002</v>
+      </c>
+      <c r="U9" s="7">
+        <v>2.3018297069939817</v>
+      </c>
+      <c r="V9" s="6">
+        <f t="shared" si="5"/>
+        <v>1.0294095394933931</v>
+      </c>
+      <c r="W9" s="7">
+        <v>31.315999999999995</v>
+      </c>
+      <c r="X9" s="7">
+        <v>10.23683447165188</v>
+      </c>
+      <c r="Y9" s="6">
+        <f t="shared" si="6"/>
+        <v>4.5780515506053492</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>478.51800000000003</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>109.68837094241127</v>
+      </c>
+      <c r="AB9" s="39">
+        <f t="shared" si="7"/>
+        <v>49.054130753688852</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>0.17725687574816448</v>
+      </c>
+      <c r="AE9" s="39">
+        <f t="shared" si="8"/>
+        <v>7.9271684730425937E-2</v>
+      </c>
+      <c r="AF9" s="7">
+        <v>48.782000000000004</v>
+      </c>
+      <c r="AG9" s="7">
+        <v>0.71335124588101784</v>
+      </c>
+      <c r="AH9" s="39">
+        <f t="shared" si="9"/>
+        <v>0.31902037552482454</v>
+      </c>
+      <c r="AI9" s="7">
+        <v>450</v>
+      </c>
+      <c r="AJ9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="7">
+        <v>0.63108589825000005</v>
+      </c>
+      <c r="AM9" s="7">
+        <v>4.1642966920469524E-2</v>
+      </c>
+      <c r="AN9" s="39">
+        <f t="shared" si="11"/>
+        <v>1.8623300963788985E-2</v>
+      </c>
+      <c r="AO9" s="7">
+        <v>9.4299621924999997</v>
+      </c>
+      <c r="AP9" s="7">
+        <v>0.33166377185516288</v>
+      </c>
+      <c r="AQ9" s="39">
+        <f t="shared" si="12"/>
+        <v>0.14832454790842514</v>
+      </c>
+      <c r="AR9" s="6">
+        <v>6.3753999999999991E-2</v>
+      </c>
+      <c r="AS9" s="39">
+        <v>8.1213758686567473E-3</v>
+      </c>
+      <c r="AT9" s="6">
+        <v>37.865282360673561</v>
+      </c>
+      <c r="AU9" s="39">
+        <v>2.5184261973720914</v>
+      </c>
+      <c r="AV9" s="6">
+        <v>1.0014723944999999</v>
+      </c>
+      <c r="AW9" s="39">
+        <v>5.0297962574552414E-2</v>
+      </c>
+      <c r="AX9" s="6">
+        <v>3.1590110925000001</v>
+      </c>
+      <c r="AY9" s="39">
+        <v>6.812798385400505E-2</v>
+      </c>
+      <c r="AZ9" s="6">
+        <v>6.3753999999999991</v>
+      </c>
+      <c r="BA9" s="39">
+        <v>0.8121375868656735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="5">
+        <v>314.23987199999999</v>
+      </c>
+      <c r="C10" s="5">
+        <v>17.095476130000002</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.184624183</v>
+      </c>
+      <c r="E10" s="6">
+        <v>31.520000000000003</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1.4967047136960572</v>
+      </c>
+      <c r="G10" s="39">
+        <f t="shared" si="0"/>
+        <v>0.66934669641374889</v>
+      </c>
+      <c r="H10" s="7">
+        <v>7.6020000000000012</v>
+      </c>
+      <c r="I10" s="7">
+        <v>6.6105975524153551E-2</v>
+      </c>
+      <c r="J10" s="39">
+        <f t="shared" si="1"/>
+        <v>2.9563490998188925E-2</v>
+      </c>
+      <c r="K10" s="7">
+        <v>8.6837999999999997</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.95801236943997703</v>
+      </c>
+      <c r="M10" s="39">
+        <f t="shared" si="2"/>
+        <v>0.42843615627068615</v>
+      </c>
+      <c r="N10" s="7">
+        <v>89.994816455999995</v>
+      </c>
+      <c r="O10" s="7">
+        <v>41.709832108148284</v>
+      </c>
+      <c r="P10" s="39">
+        <f t="shared" si="3"/>
+        <v>18.653203984784582</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>18.368000000000002</v>
+      </c>
+      <c r="R10" s="7">
+        <v>30.963905115472755</v>
+      </c>
+      <c r="S10" s="6">
+        <f t="shared" si="4"/>
+        <v>13.84747933741011</v>
+      </c>
+      <c r="T10" s="7">
+        <v>5.8900000000000006</v>
+      </c>
+      <c r="U10" s="7">
+        <v>1.7345460501237768</v>
+      </c>
+      <c r="V10" s="6">
+        <f t="shared" si="5"/>
+        <v>0.77571257563610441</v>
+      </c>
+      <c r="W10" s="7">
+        <v>18.704000000000001</v>
+      </c>
+      <c r="X10" s="7">
+        <v>2.7221921313529838</v>
+      </c>
+      <c r="Y10" s="6">
+        <f t="shared" si="6"/>
+        <v>1.2174013307040616</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>150.09200000000001</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>233.12572599350764</v>
+      </c>
+      <c r="AB10" s="39">
+        <f t="shared" si="7"/>
+        <v>104.25699412509455</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>0.26290682760247963</v>
+      </c>
+      <c r="AE10" s="39">
+        <f t="shared" si="8"/>
+        <v>0.1175755076535925</v>
+      </c>
+      <c r="AF10" s="7">
+        <v>46.926000000000002</v>
+      </c>
+      <c r="AG10" s="7">
+        <v>0.54546310599342795</v>
+      </c>
+      <c r="AH10" s="39">
+        <f t="shared" si="9"/>
+        <v>0.24393851684389556</v>
+      </c>
+      <c r="AI10" s="7">
+        <v>195</v>
+      </c>
+      <c r="AJ10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="7">
+        <v>0.484778604</v>
+      </c>
+      <c r="AM10" s="7">
+        <v>2.4655702545665136E-2</v>
+      </c>
+      <c r="AN10" s="39">
+        <f t="shared" si="11"/>
+        <v>1.1026365385024372E-2</v>
+      </c>
+      <c r="AO10" s="7">
+        <v>6.6839223700000003</v>
+      </c>
+      <c r="AP10" s="7">
+        <v>0.74436518831203347</v>
+      </c>
+      <c r="AQ10" s="39">
+        <f t="shared" si="12"/>
+        <v>0.33289023223002773</v>
+      </c>
+      <c r="AR10" s="6">
+        <v>1.1294E-2</v>
+      </c>
+      <c r="AS10" s="39">
+        <v>1.771786104471984E-3</v>
+      </c>
+      <c r="AT10" s="6">
+        <v>2.7134474098283379</v>
+      </c>
+      <c r="AU10" s="39">
+        <v>0.31777559247528447</v>
+      </c>
+      <c r="AV10" s="6">
+        <v>1.0967217040000001</v>
+      </c>
+      <c r="AW10" s="39">
+        <v>3.8757384182082612E-2</v>
+      </c>
+      <c r="AX10" s="6">
+        <v>3.9299284540000001</v>
+      </c>
+      <c r="AY10" s="39">
+        <v>0.34659356160996002</v>
+      </c>
+      <c r="AZ10" s="6">
+        <v>1.1294</v>
+      </c>
+      <c r="BA10" s="39">
+        <v>0.17717861044719807</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="5">
+        <v>304.08181660000002</v>
+      </c>
+      <c r="C11" s="5">
+        <v>16.864897020000001</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.17709229000000001</v>
+      </c>
+      <c r="E11" s="6">
+        <v>45.14</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2.2131425620596614</v>
+      </c>
+      <c r="G11" s="39">
+        <f t="shared" si="0"/>
+        <v>0.98974744253268998</v>
+      </c>
+      <c r="H11" s="7">
+        <v>7.694</v>
+      </c>
+      <c r="I11" s="7">
+        <v>5.4589376255824565E-2</v>
+      </c>
+      <c r="J11" s="39">
+        <f t="shared" si="1"/>
+        <v>2.4413111231467333E-2</v>
+      </c>
+      <c r="K11" s="7">
+        <v>2.2114000000000003</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.38021152007796666</v>
+      </c>
+      <c r="M11" s="39">
+        <f t="shared" si="2"/>
+        <v>0.1700357609445719</v>
+      </c>
+      <c r="N11" s="7">
+        <v>39.877807392000008</v>
+      </c>
+      <c r="O11" s="7">
+        <v>7.42283382159673</v>
+      </c>
+      <c r="P11" s="39">
+        <f t="shared" si="3"/>
+        <v>3.3195922021549666</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>35.048000000000002</v>
+      </c>
+      <c r="R11" s="7">
+        <v>5.3431844437563427</v>
+      </c>
+      <c r="S11" s="6">
+        <f t="shared" si="4"/>
+        <v>2.3895447265117169</v>
+      </c>
+      <c r="T11" s="7">
+        <v>4.2279999999999998</v>
+      </c>
+      <c r="U11" s="7">
+        <v>0.53681467938200134</v>
+      </c>
+      <c r="V11" s="6">
+        <f t="shared" si="5"/>
+        <v>0.24007082288358195</v>
+      </c>
+      <c r="W11" s="7">
+        <v>20.642000000000003</v>
+      </c>
+      <c r="X11" s="7">
+        <v>3.8979635708918572</v>
+      </c>
+      <c r="Y11" s="6">
+        <f t="shared" si="6"/>
+        <v>1.7432223036664025</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>88.611999999999995</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>109.84841541870324</v>
+      </c>
+      <c r="AB11" s="39">
+        <f t="shared" si="7"/>
+        <v>49.125704819371293</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="AD11" s="7">
+        <v>8.700574693662462E-2</v>
+      </c>
+      <c r="AE11" s="39">
+        <f t="shared" si="8"/>
+        <v>3.8910152916687347E-2</v>
+      </c>
+      <c r="AF11" s="7">
+        <v>44.13</v>
+      </c>
+      <c r="AG11" s="7">
+        <v>3.5293271313382113</v>
+      </c>
+      <c r="AH11" s="39">
+        <f t="shared" si="9"/>
+        <v>1.5783630761013137</v>
+      </c>
+      <c r="AI11" s="7">
+        <v>278</v>
+      </c>
+      <c r="AJ11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="7">
+        <v>0.51497035299999994</v>
+      </c>
+      <c r="AM11" s="7">
+        <v>6.099202100994168E-2</v>
+      </c>
+      <c r="AN11" s="39">
+        <f t="shared" si="11"/>
+        <v>2.7276461012664992E-2</v>
+      </c>
+      <c r="AO11" s="7">
+        <v>4.2683140975000002</v>
+      </c>
+      <c r="AP11" s="7">
+        <v>0.9790735804209213</v>
+      </c>
+      <c r="AQ11" s="39">
+        <f t="shared" si="12"/>
+        <v>0.43785501615905742</v>
+      </c>
+      <c r="AR11" s="6">
+        <v>5.0939999999999996E-3</v>
+      </c>
+      <c r="AS11" s="39">
+        <v>4.8001666637732479E-4</v>
+      </c>
+      <c r="AT11" s="6">
+        <v>0.63696528231821303</v>
+      </c>
+      <c r="AU11" s="39">
+        <v>2.099983657313519E-2</v>
+      </c>
+      <c r="AV11" s="6">
+        <v>1.2800846324999999</v>
+      </c>
+      <c r="AW11" s="39">
+        <v>8.4473600926185693E-2</v>
+      </c>
+      <c r="AX11" s="6">
+        <v>1.4002834425000001</v>
+      </c>
+      <c r="AY11" s="39">
+        <v>0.21587492605165245</v>
+      </c>
+      <c r="AZ11" s="6">
+        <v>0.50939999999999996</v>
+      </c>
+      <c r="BA11" s="39">
+        <v>4.8001666637732712E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="5">
+        <v>550.30817999999999</v>
+      </c>
+      <c r="C12" s="5">
+        <v>14.68688395</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.40075582599999998</v>
+      </c>
+      <c r="E12" s="6">
+        <v>24.294999999999998</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.69155621608080442</v>
+      </c>
+      <c r="G12" s="39">
+        <f t="shared" si="0"/>
+        <v>0.30927334188384237</v>
+      </c>
+      <c r="H12" s="7">
+        <v>7.0920000000000005</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.3002831996632514</v>
+      </c>
+      <c r="J12" s="39">
+        <f t="shared" si="1"/>
+        <v>0.13429072938963441</v>
+      </c>
+      <c r="K12" s="7">
+        <v>6.8681999999999999</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1.6709610109155713</v>
+      </c>
+      <c r="M12" s="39">
+        <f t="shared" si="2"/>
+        <v>0.74727648163179705</v>
+      </c>
+      <c r="N12" s="7">
+        <v>33.089628412000003</v>
+      </c>
+      <c r="O12" s="7">
+        <v>5.1540095163318522</v>
+      </c>
+      <c r="P12" s="39">
+        <f t="shared" si="3"/>
+        <v>2.3049431270397669</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>64.86</v>
+      </c>
+      <c r="R12" s="7">
+        <v>63.25520650507751</v>
+      </c>
+      <c r="S12" s="6">
+        <f t="shared" si="4"/>
+        <v>28.288588335228042</v>
+      </c>
+      <c r="T12" s="7">
+        <v>19.791999999999998</v>
+      </c>
+      <c r="U12" s="7">
+        <v>4.6964582399931958</v>
+      </c>
+      <c r="V12" s="6">
+        <f t="shared" si="5"/>
+        <v>2.1003199756227615</v>
+      </c>
+      <c r="W12" s="7">
+        <v>26.143999999999998</v>
+      </c>
+      <c r="X12" s="7">
+        <v>2.5783192199570633</v>
+      </c>
+      <c r="Y12" s="6">
+        <f t="shared" si="6"/>
+        <v>1.1530594087036452</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>1027.8319999999999</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>497.45744679319063</v>
+      </c>
+      <c r="AB12" s="39">
+        <f t="shared" si="7"/>
+        <v>222.46973338861179</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="AD12" s="7">
+        <v>9.0719347440334192E-2</v>
+      </c>
+      <c r="AE12" s="39">
+        <f t="shared" si="8"/>
+        <v>4.057092555020176E-2</v>
+      </c>
+      <c r="AF12" s="7">
+        <v>46.524000000000001</v>
+      </c>
+      <c r="AG12" s="7">
+        <v>3.8767421890035449</v>
+      </c>
+      <c r="AH12" s="39">
+        <f t="shared" si="9"/>
+        <v>1.7337318131706527</v>
+      </c>
+      <c r="AI12" s="7">
+        <v>103</v>
+      </c>
+      <c r="AJ12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="7">
+        <v>0.47738126000000003</v>
+      </c>
+      <c r="AM12" s="7">
+        <v>1.1918470153430017E-2</v>
+      </c>
+      <c r="AN12" s="39">
+        <f t="shared" si="11"/>
+        <v>5.3301018901743729E-3</v>
+      </c>
+      <c r="AO12" s="7">
+        <v>4.6163938625000007</v>
+      </c>
+      <c r="AP12" s="7">
+        <v>1.2136310305142586</v>
+      </c>
+      <c r="AQ12" s="39">
+        <f t="shared" si="12"/>
+        <v>0.54275229676660075</v>
+      </c>
+      <c r="AR12" s="6">
+        <v>4.4185999999999996E-2</v>
+      </c>
+      <c r="AS12" s="39">
+        <v>7.2096203783555768E-3</v>
+      </c>
+      <c r="AT12" s="6">
+        <v>5.5678916829404859</v>
+      </c>
+      <c r="AU12" s="39">
+        <v>0.71118320618131647</v>
+      </c>
+      <c r="AV12" s="6">
+        <v>0.76791053375000007</v>
+      </c>
+      <c r="AW12" s="39">
+        <v>2.3610351719623564E-2</v>
+      </c>
+      <c r="AX12" s="6">
+        <v>2.4998896500000001</v>
+      </c>
+      <c r="AY12" s="39">
+        <v>0.1978744827929384</v>
+      </c>
+      <c r="AZ12" s="6">
+        <v>4.4185999999999996</v>
+      </c>
+      <c r="BA12" s="39">
+        <v>0.72096203783555712</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="5">
+        <v>590.51343999999995</v>
+      </c>
+      <c r="C13" s="5">
+        <v>14.418147189999999</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.43213200000000002</v>
+      </c>
+      <c r="E13" s="6">
+        <v>26.225000000000001</v>
+      </c>
+      <c r="F13" s="6">
+        <v>2.133805286337064</v>
+      </c>
+      <c r="G13" s="39">
+        <f t="shared" si="0"/>
+        <v>0.95426673419961561</v>
+      </c>
+      <c r="H13" s="7">
+        <v>5.6419999999999995</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.33417061510551754</v>
+      </c>
+      <c r="J13" s="39">
+        <f t="shared" si="1"/>
+        <v>0.14944564229177104</v>
+      </c>
+      <c r="K13" s="7">
+        <v>2.4112</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0.1586243991320378</v>
+      </c>
+      <c r="M13" s="39">
+        <f t="shared" si="2"/>
+        <v>7.0938987869859027E-2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>15.018039143999999</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0.62293742835643195</v>
+      </c>
+      <c r="P13" s="39">
+        <f t="shared" si="3"/>
+        <v>0.2785860871067774</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>37.991999999999997</v>
+      </c>
+      <c r="R13" s="7">
+        <v>2.7409432682928707</v>
+      </c>
+      <c r="S13" s="6">
+        <f t="shared" si="4"/>
+        <v>1.2257870940746605</v>
+      </c>
+      <c r="T13" s="7">
+        <v>8.645999999999999</v>
+      </c>
+      <c r="U13" s="7">
+        <v>1.93160037274795</v>
+      </c>
+      <c r="V13" s="6">
+        <f t="shared" si="5"/>
+        <v>0.86383794776566969</v>
+      </c>
+      <c r="W13" s="7">
+        <v>19.66</v>
+      </c>
+      <c r="X13" s="7">
+        <v>1.5308820986607692</v>
+      </c>
+      <c r="Y13" s="6">
+        <f t="shared" si="6"/>
+        <v>0.68463128762860392</v>
+      </c>
+      <c r="Z13" s="7">
+        <v>800.64800000000002</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>166.52938050085908</v>
+      </c>
+      <c r="AB13" s="39">
+        <f t="shared" si="7"/>
+        <v>74.474203010169774</v>
+      </c>
+      <c r="AC13" s="7">
+        <v>0.8859999999999999</v>
+      </c>
+      <c r="AD13" s="7">
+        <v>7.2663608498339749E-2</v>
+      </c>
+      <c r="AE13" s="39">
+        <f t="shared" si="8"/>
+        <v>3.249615361854382E-2</v>
+      </c>
+      <c r="AF13" s="7">
+        <v>47.362000000000002</v>
+      </c>
+      <c r="AG13" s="7">
+        <v>0.26357162214471974</v>
+      </c>
+      <c r="AH13" s="39">
+        <f t="shared" si="9"/>
+        <v>0.11787281281109645</v>
+      </c>
+      <c r="AI13" s="7">
+        <v>154</v>
+      </c>
+      <c r="AJ13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="7">
+        <v>0.39622741020000002</v>
+      </c>
+      <c r="AM13" s="7">
+        <v>1.5252588582371846E-2</v>
+      </c>
+      <c r="AN13" s="39">
+        <f t="shared" si="11"/>
+        <v>6.821164980604119E-3</v>
+      </c>
+      <c r="AO13" s="7">
+        <v>11.995192227999999</v>
+      </c>
+      <c r="AP13" s="7">
+        <v>3.3245220197971066</v>
+      </c>
+      <c r="AQ13" s="39">
+        <f t="shared" si="12"/>
+        <v>1.4867714457922463</v>
+      </c>
+      <c r="AR13" s="6">
+        <v>2.4111999999999998E-2</v>
+      </c>
+      <c r="AS13" s="39">
+        <v>7.0938987869858974E-4</v>
+      </c>
+      <c r="AT13" s="6">
+        <v>1.8170602876819395</v>
+      </c>
+      <c r="AU13" s="39">
+        <v>0.21324562870676436</v>
+      </c>
+      <c r="AV13" s="6">
+        <v>0.82749219820000008</v>
+      </c>
+      <c r="AW13" s="39">
+        <v>4.4473121459080611E-2</v>
+      </c>
+      <c r="AX13" s="6">
+        <v>3.2087145079999999</v>
+      </c>
+      <c r="AY13" s="39">
+        <v>0.21025932765116834</v>
+      </c>
+      <c r="AZ13" s="6">
+        <v>2.4112</v>
+      </c>
+      <c r="BA13" s="39">
+        <v>7.0938987869859027E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT17" s="15"/>
+      <c r="AU17" s="15"/>
+      <c r="AV17" s="15"/>
+      <c r="AW17" s="15"/>
+      <c r="AX17" s="15"/>
+      <c r="AY17" s="15"/>
+    </row>
+    <row r="18" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT18" s="15"/>
+      <c r="AU18" s="15"/>
+      <c r="AV18" s="15"/>
+      <c r="AW18" s="15"/>
+      <c r="AX18" s="15"/>
+      <c r="AY18" s="15"/>
+    </row>
+    <row r="19" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT19" s="15"/>
+      <c r="AU19" s="15"/>
+      <c r="AV19" s="15"/>
+      <c r="AW19" s="15"/>
+      <c r="AX19" s="15"/>
+      <c r="AY19" s="15"/>
+    </row>
+    <row r="20" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT20" s="15"/>
+      <c r="AU20" s="15"/>
+      <c r="AV20" s="15"/>
+      <c r="AW20" s="15"/>
+      <c r="AX20" s="15"/>
+      <c r="AY20" s="15"/>
+    </row>
+    <row r="21" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT21" s="15"/>
+      <c r="AU21" s="15"/>
+      <c r="AV21" s="15"/>
+      <c r="AW21" s="15"/>
+      <c r="AX21" s="15"/>
+      <c r="AY21" s="15"/>
+    </row>
+    <row r="22" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT22" s="15"/>
+      <c r="AU22" s="15"/>
+      <c r="AV22" s="15"/>
+      <c r="AW22" s="15"/>
+      <c r="AX22" s="15"/>
+      <c r="AY22" s="15"/>
+    </row>
+    <row r="23" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT23" s="15"/>
+      <c r="AU23" s="15"/>
+      <c r="AV23" s="15"/>
+      <c r="AW23" s="15"/>
+      <c r="AX23" s="15"/>
+      <c r="AY23" s="15"/>
+    </row>
+    <row r="24" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT24" s="15"/>
+      <c r="AU24" s="15"/>
+      <c r="AV24" s="15"/>
+      <c r="AW24" s="15"/>
+      <c r="AX24" s="15"/>
+      <c r="AY24" s="15"/>
+    </row>
+    <row r="25" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT25" s="15"/>
+      <c r="AU25" s="15"/>
+      <c r="AV25" s="15"/>
+      <c r="AW25" s="15"/>
+      <c r="AX25" s="15"/>
+      <c r="AY25" s="15"/>
+    </row>
+    <row r="26" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT26" s="15"/>
+      <c r="AU26" s="15"/>
+      <c r="AV26" s="15"/>
+      <c r="AW26" s="15"/>
+      <c r="AX26" s="15"/>
+      <c r="AY26" s="15"/>
+    </row>
+    <row r="27" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT27" s="15"/>
+      <c r="AU27" s="15"/>
+      <c r="AV27" s="15"/>
+      <c r="AW27" s="15"/>
+      <c r="AX27" s="15"/>
+      <c r="AY27" s="15"/>
+    </row>
+    <row r="28" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT28" s="15"/>
+      <c r="AU28" s="15"/>
+      <c r="AV28" s="15"/>
+      <c r="AW28" s="15"/>
+      <c r="AX28" s="15"/>
+      <c r="AY28" s="15"/>
+    </row>
+    <row r="29" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT29" s="15"/>
+      <c r="AU29" s="15"/>
+      <c r="AV29" s="15"/>
+      <c r="AW29" s="15"/>
+      <c r="AX29" s="15"/>
+      <c r="AY29" s="15"/>
+    </row>
+    <row r="30" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT30" s="15"/>
+      <c r="AU30" s="15"/>
+      <c r="AV30" s="15"/>
+      <c r="AW30" s="15"/>
+      <c r="AX30" s="15"/>
+      <c r="AY30" s="15"/>
+    </row>
+    <row r="31" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT31" s="15"/>
+      <c r="AU31" s="15"/>
+      <c r="AV31" s="15"/>
+      <c r="AW31" s="15"/>
+      <c r="AX31" s="15"/>
+      <c r="AY31" s="15"/>
+    </row>
+    <row r="32" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT32" s="15"/>
+      <c r="AU32" s="15"/>
+      <c r="AV32" s="15"/>
+      <c r="AW32" s="15"/>
+      <c r="AX32" s="15"/>
+      <c r="AY32" s="15"/>
+    </row>
+    <row r="33" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT33" s="15"/>
+      <c r="AU33" s="15"/>
+      <c r="AV33" s="15"/>
+      <c r="AW33" s="15"/>
+      <c r="AX33" s="15"/>
+      <c r="AY33" s="15"/>
+    </row>
+    <row r="34" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT34" s="15"/>
+      <c r="AU34" s="15"/>
+      <c r="AV34" s="15"/>
+      <c r="AW34" s="15"/>
+      <c r="AX34" s="15"/>
+      <c r="AY34" s="15"/>
+    </row>
+    <row r="35" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT35" s="15"/>
+      <c r="AU35" s="15"/>
+      <c r="AV35" s="15"/>
+      <c r="AW35" s="15"/>
+      <c r="AX35" s="15"/>
+      <c r="AY35" s="15"/>
+    </row>
+    <row r="36" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT36" s="15"/>
+      <c r="AU36" s="15"/>
+      <c r="AV36" s="15"/>
+      <c r="AW36" s="15"/>
+      <c r="AX36" s="15"/>
+      <c r="AY36" s="15"/>
+    </row>
+    <row r="37" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT37" s="15"/>
+      <c r="AU37" s="15"/>
+      <c r="AV37" s="15"/>
+      <c r="AW37" s="15"/>
+      <c r="AX37" s="15"/>
+      <c r="AY37" s="15"/>
+    </row>
+    <row r="38" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT38" s="15"/>
+      <c r="AU38" s="15"/>
+      <c r="AV38" s="15"/>
+      <c r="AW38" s="15"/>
+      <c r="AX38" s="15"/>
+      <c r="AY38" s="15"/>
+    </row>
+    <row r="39" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT39" s="15"/>
+      <c r="AU39" s="15"/>
+      <c r="AV39" s="15"/>
+      <c r="AW39" s="15"/>
+      <c r="AX39" s="15"/>
+      <c r="AY39" s="15"/>
+    </row>
+    <row r="40" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT40" s="15"/>
+      <c r="AU40" s="15"/>
+      <c r="AV40" s="15"/>
+      <c r="AW40" s="15"/>
+      <c r="AX40" s="15"/>
+      <c r="AY40" s="15"/>
+    </row>
+    <row r="41" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT41" s="15"/>
+      <c r="AU41" s="15"/>
+      <c r="AV41" s="15"/>
+      <c r="AW41" s="15"/>
+      <c r="AX41" s="15"/>
+      <c r="AY41" s="15"/>
+    </row>
+    <row r="42" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT42" s="15"/>
+      <c r="AU42" s="15"/>
+      <c r="AV42" s="15"/>
+      <c r="AW42" s="15"/>
+      <c r="AX42" s="15"/>
+      <c r="AY42" s="15"/>
+    </row>
+    <row r="43" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT43" s="15"/>
+      <c r="AU43" s="15"/>
+      <c r="AV43" s="15"/>
+      <c r="AW43" s="15"/>
+      <c r="AX43" s="15"/>
+      <c r="AY43" s="15"/>
+    </row>
+    <row r="44" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT44" s="15"/>
+      <c r="AU44" s="15"/>
+      <c r="AV44" s="15"/>
+      <c r="AW44" s="15"/>
+      <c r="AX44" s="15"/>
+      <c r="AY44" s="15"/>
+    </row>
+    <row r="45" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT45" s="15"/>
+      <c r="AU45" s="15"/>
+      <c r="AV45" s="15"/>
+      <c r="AW45" s="15"/>
+      <c r="AX45" s="15"/>
+      <c r="AY45" s="15"/>
+    </row>
+    <row r="46" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT46" s="15"/>
+      <c r="AU46" s="15"/>
+      <c r="AV46" s="15"/>
+      <c r="AW46" s="15"/>
+      <c r="AX46" s="15"/>
+      <c r="AY46" s="15"/>
+    </row>
+    <row r="47" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT47" s="15"/>
+      <c r="AU47" s="15"/>
+      <c r="AV47" s="15"/>
+      <c r="AW47" s="15"/>
+      <c r="AX47" s="15"/>
+      <c r="AY47" s="15"/>
+    </row>
+    <row r="48" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT48" s="15"/>
+      <c r="AU48" s="15"/>
+      <c r="AV48" s="15"/>
+      <c r="AW48" s="15"/>
+      <c r="AX48" s="15"/>
+      <c r="AY48" s="15"/>
+    </row>
+    <row r="49" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT49" s="15"/>
+      <c r="AU49" s="15"/>
+      <c r="AV49" s="15"/>
+      <c r="AW49" s="15"/>
+      <c r="AX49" s="15"/>
+      <c r="AY49" s="15"/>
+    </row>
+    <row r="50" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT50" s="15"/>
+      <c r="AU50" s="15"/>
+      <c r="AV50" s="15"/>
+      <c r="AW50" s="15"/>
+      <c r="AX50" s="15"/>
+      <c r="AY50" s="15"/>
+    </row>
+    <row r="51" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT51" s="15"/>
+      <c r="AU51" s="15"/>
+      <c r="AV51" s="15"/>
+      <c r="AW51" s="15"/>
+      <c r="AX51" s="15"/>
+      <c r="AY51" s="15"/>
+    </row>
+    <row r="52" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT52" s="15"/>
+      <c r="AU52" s="15"/>
+      <c r="AV52" s="15"/>
+      <c r="AW52" s="15"/>
+      <c r="AX52" s="15"/>
+      <c r="AY52" s="15"/>
+    </row>
+    <row r="53" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT53" s="15"/>
+      <c r="AU53" s="15"/>
+      <c r="AV53" s="15"/>
+      <c r="AW53" s="15"/>
+      <c r="AX53" s="15"/>
+      <c r="AY53" s="15"/>
+    </row>
+    <row r="54" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT54" s="15"/>
+      <c r="AU54" s="15"/>
+      <c r="AV54" s="15"/>
+      <c r="AW54" s="15"/>
+      <c r="AX54" s="15"/>
+      <c r="AY54" s="15"/>
+    </row>
+    <row r="55" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT55" s="15"/>
+      <c r="AU55" s="15"/>
+      <c r="AV55" s="15"/>
+      <c r="AW55" s="15"/>
+      <c r="AX55" s="15"/>
+      <c r="AY55" s="15"/>
+    </row>
+    <row r="56" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT56" s="15"/>
+      <c r="AU56" s="15"/>
+      <c r="AV56" s="15"/>
+      <c r="AW56" s="15"/>
+      <c r="AX56" s="15"/>
+      <c r="AY56" s="15"/>
+    </row>
+    <row r="57" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT57" s="15"/>
+      <c r="AU57" s="15"/>
+      <c r="AV57" s="15"/>
+      <c r="AW57" s="15"/>
+      <c r="AX57" s="15"/>
+      <c r="AY57" s="15"/>
+    </row>
+    <row r="58" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT58" s="15"/>
+      <c r="AU58" s="15"/>
+      <c r="AV58" s="15"/>
+      <c r="AW58" s="15"/>
+      <c r="AX58" s="15"/>
+      <c r="AY58" s="15"/>
+    </row>
+    <row r="59" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT59" s="15"/>
+      <c r="AU59" s="15"/>
+      <c r="AV59" s="15"/>
+      <c r="AW59" s="15"/>
+      <c r="AX59" s="15"/>
+      <c r="AY59" s="15"/>
+    </row>
+    <row r="60" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT60" s="15"/>
+      <c r="AU60" s="15"/>
+      <c r="AV60" s="15"/>
+      <c r="AW60" s="15"/>
+      <c r="AX60" s="15"/>
+      <c r="AY60" s="15"/>
+    </row>
+    <row r="61" spans="46:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT61" s="15"/>
+      <c r="AU61" s="15"/>
+      <c r="AV61" s="15"/>
+      <c r="AW61" s="15"/>
+      <c r="AX61" s="15"/>
+      <c r="AY61" s="15"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="AT13:AU13 AT2:AU12">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV13:AW13 AV2:AW12">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX13:AY13 AX2:AY12">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/SP_metadata_2021.xlsx
+++ b/SP_metadata_2021.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\luciana_datos\UCI\Project_14 (Anna)\SP_gradient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F209334-CF43-4E29-B105-1AFA803E0895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA000A84-3FBB-4950-9B47-833BA501E91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP_soil_2021" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="llegenda" sheetId="2" r:id="rId3"/>
+    <sheet name="llegenda" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -523,55 +522,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={4081FDEB-35DC-4D72-B8D0-0F29840F5E80}</author>
-    <author>tc={A17C3618-9073-47D4-A8FB-C2BAC082C93C}</author>
-    <author>tc={B07C916B-4DC3-40A8-9BF7-5FBA1D7F0473}</author>
-    <author>tc={FE35A6FF-3B2A-4AE9-85C1-0C9D805121A4}</author>
-  </authors>
-  <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{4081FDEB-35DC-4D72-B8D0-0F29840F5E80}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    NH4+ (mg/Kg DW soil)</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{A17C3618-9073-47D4-A8FB-C2BAC082C93C}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    PO43-
-(mg/kg DW soil)</t>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{B07C916B-4DC3-40A8-9BF7-5FBA1D7F0473}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    NH4+ (mg/Kg DW soil)</t>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="3" shapeId="0" xr:uid="{FE35A6FF-3B2A-4AE9-85C1-0C9D805121A4}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    PO43-
-(mg/kg DW soil)</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="234">
   <si>
     <t>1-SP01-A</t>
   </si>
@@ -1308,7 +1260,7 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1340,18 +1292,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1446,7 +1386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1562,11 +1502,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1977,30 +1912,11 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D1" dT="2023-03-01T13:41:18.13" personId="{5C2DB10E-6B8E-4F59-90D1-A869F7498523}" id="{4081FDEB-35DC-4D72-B8D0-0F29840F5E80}">
-    <text>NH4+ (mg/Kg DW soil)</text>
-  </threadedComment>
-  <threadedComment ref="E1" dT="2023-03-01T14:05:34.86" personId="{5C2DB10E-6B8E-4F59-90D1-A869F7498523}" id="{A17C3618-9073-47D4-A8FB-C2BAC082C93C}">
-    <text>PO43-
-(mg/kg DW soil)</text>
-  </threadedComment>
-  <threadedComment ref="I1" dT="2023-03-01T13:41:18.13" personId="{5C2DB10E-6B8E-4F59-90D1-A869F7498523}" id="{B07C916B-4DC3-40A8-9BF7-5FBA1D7F0473}">
-    <text>NH4+ (mg/Kg DW soil)</text>
-  </threadedComment>
-  <threadedComment ref="J1" dT="2023-03-01T14:05:34.86" personId="{5C2DB10E-6B8E-4F59-90D1-A869F7498523}" id="{FE35A6FF-3B2A-4AE9-85C1-0C9D805121A4}">
-    <text>PO43-
-(mg/kg DW soil)</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN61"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -19428,653 +19344,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD626EB-9DDD-4FC9-BAF5-409CC1F59D7A}">
-  <dimension ref="C1:J51"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C1" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="7">
-        <v>10.79</v>
-      </c>
-      <c r="E2" s="1">
-        <v>11.35</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="39">
-        <f>AVERAGE(D2:D6)</f>
-        <v>12.007999999999999</v>
-      </c>
-      <c r="J2" s="39">
-        <f>AVERAGE(E2:E6)</f>
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="7">
-        <v>31.01</v>
-      </c>
-      <c r="E3" s="1">
-        <v>17.47</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="39">
-        <f>AVERAGE(D7:D11)</f>
-        <v>33.962000000000003</v>
-      </c>
-      <c r="J3" s="39">
-        <f>AVERAGE(E7:E11)</f>
-        <v>119.94800000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="7">
-        <v>6.59</v>
-      </c>
-      <c r="E4" s="1">
-        <v>16.14</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" s="39">
-        <f>AVERAGE(D12:D16)</f>
-        <v>30.32</v>
-      </c>
-      <c r="J4" s="39">
-        <f>AVERAGE(E12:E16)</f>
-        <v>5.194</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="7">
-        <v>5.46</v>
-      </c>
-      <c r="E5" s="1">
-        <v>6.61</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" s="39">
-        <f>AVERAGE(D17:D21)</f>
-        <v>4.9760000000000009</v>
-      </c>
-      <c r="J5" s="39">
-        <f>AVERAGE(E17:E21)</f>
-        <v>23.824000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="7">
-        <v>6.19</v>
-      </c>
-      <c r="E6" s="1">
-        <v>12.93</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" s="39">
-        <f>AVERAGE(D22:D26)</f>
-        <v>49.1</v>
-      </c>
-      <c r="J6" s="39">
-        <f>AVERAGE(E22:E26)</f>
-        <v>5.0539999999999994</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="7">
-        <v>66.84</v>
-      </c>
-      <c r="E7" s="1">
-        <v>84.42</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="7">
-        <v>7.07</v>
-      </c>
-      <c r="E8" s="1">
-        <v>158.78</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="7">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="E9" s="1">
-        <v>112.02</v>
-      </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="7">
-        <v>79.37</v>
-      </c>
-      <c r="E10" s="1">
-        <v>143.31</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="7">
-        <v>7.33</v>
-      </c>
-      <c r="E11" s="1">
-        <v>101.21</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="7">
-        <v>13.75</v>
-      </c>
-      <c r="E12" s="1">
-        <v>4.32</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="7">
-        <v>7.49</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="7">
-        <v>30.57</v>
-      </c>
-      <c r="E14" s="1">
-        <v>10.79</v>
-      </c>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="7">
-        <v>94.7</v>
-      </c>
-      <c r="E15" s="1">
-        <v>3.86</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="7">
-        <v>5.09</v>
-      </c>
-      <c r="E16" s="1">
-        <v>3.04</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="7">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="E17" s="1">
-        <v>20.079999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="7">
-        <v>5.34</v>
-      </c>
-      <c r="E18" s="1">
-        <v>34.96</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="7">
-        <v>5.33</v>
-      </c>
-      <c r="E19" s="1">
-        <v>23.37</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="7">
-        <v>4.46</v>
-      </c>
-      <c r="E20" s="1">
-        <v>16.59</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="7">
-        <v>5.6</v>
-      </c>
-      <c r="E21" s="1">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="7">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="E22" s="1">
-        <v>6.04</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="7">
-        <v>6.22</v>
-      </c>
-      <c r="E23" s="1">
-        <v>4.7699999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="7">
-        <v>169.5</v>
-      </c>
-      <c r="E24" s="1">
-        <v>6.04</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="7">
-        <v>60.66</v>
-      </c>
-      <c r="E25" s="1">
-        <v>3.42</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="7">
-        <v>4.76</v>
-      </c>
-      <c r="E26" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="7">
-        <v>46.46</v>
-      </c>
-      <c r="E27" s="1">
-        <v>44.45</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="7">
-        <v>85.05</v>
-      </c>
-      <c r="E28" s="1">
-        <v>64.91</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="7">
-        <v>304.72000000000003</v>
-      </c>
-      <c r="E29" s="1">
-        <v>77.02</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="7">
-        <v>86.35</v>
-      </c>
-      <c r="E30" s="1">
-        <v>67.400000000000006</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="7">
-        <v>119.14</v>
-      </c>
-      <c r="E31" s="1">
-        <v>62.11</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C32" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="7">
-        <v>24.71</v>
-      </c>
-      <c r="E32" s="1">
-        <v>17.420000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="7">
-        <v>59.67</v>
-      </c>
-      <c r="E33" s="1">
-        <v>27.47</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C34" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="7">
-        <v>44.4</v>
-      </c>
-      <c r="E34" s="1">
-        <v>34.049999999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C35" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="7">
-        <v>35.130000000000003</v>
-      </c>
-      <c r="E35" s="1">
-        <v>21.83</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C36" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="7">
-        <v>27.94</v>
-      </c>
-      <c r="E36" s="1">
-        <v>11.73</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C37" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="7">
-        <v>13.94</v>
-      </c>
-      <c r="E37" s="1">
-        <v>27.56</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C38" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="7">
-        <v>19.78</v>
-      </c>
-      <c r="E38" s="1">
-        <v>27.8</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C39" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="7">
-        <v>31</v>
-      </c>
-      <c r="E39" s="1">
-        <v>31.1</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C40" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="7">
-        <v>14.39</v>
-      </c>
-      <c r="E40" s="1">
-        <v>26.94</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="7">
-        <v>16.079999999999998</v>
-      </c>
-      <c r="E41" s="1">
-        <v>24.69</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="7">
-        <v>73.75</v>
-      </c>
-      <c r="E42" s="1">
-        <v>6.51</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="7">
-        <v>5.25</v>
-      </c>
-      <c r="E43" s="1">
-        <v>6.03</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="7">
-        <v>4.67</v>
-      </c>
-      <c r="E44" s="1">
-        <v>7.85</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="7">
-        <v>3.8</v>
-      </c>
-      <c r="E45" s="1">
-        <v>5.96</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C46" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" s="7">
-        <v>4.37</v>
-      </c>
-      <c r="E46" s="1">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C47" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="7">
-        <v>33.950000000000003</v>
-      </c>
-      <c r="E47" s="1">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C48" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="7">
-        <v>44.44</v>
-      </c>
-      <c r="E48" s="1">
-        <v>4.96</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C49" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" s="7">
-        <v>33.07</v>
-      </c>
-      <c r="E49" s="1">
-        <v>4.58</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C50" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="7">
-        <v>32.57</v>
-      </c>
-      <c r="E50" s="1">
-        <v>3.61</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C51" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="7">
-        <v>31.21</v>
-      </c>
-      <c r="E51" s="1">
-        <v>4.03</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2851FD1-392A-48A9-B131-D748FDC4A90A}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SP_metadata_2021.xlsx
+++ b/SP_metadata_2021.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\luciana_datos\UCI\Project_14 (Anna)\SP_gradient\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugirona-my.sharepoint.com/personal/u4001033_udg_edu/Documents/GRADCATCH/ANALISIS/R/SP_gradient/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA000A84-3FBB-4950-9B47-833BA501E91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{CA000A84-3FBB-4950-9B47-833BA501E91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96F7789D-AC30-4DD5-94F5-D5E6AA4439DB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP_soil_2021" sheetId="1" r:id="rId1"/>
-    <sheet name="llegenda" sheetId="2" r:id="rId2"/>
+    <sheet name="Full1" sheetId="3" r:id="rId2"/>
+    <sheet name="llegenda" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,36 +72,36 @@
   <commentList>
     <comment ref="E1" authorId="0" shapeId="0" xr:uid="{9D67D6DC-CF53-4FD9-804D-9CAD74BCF708}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
     Mean Anual Precipitation (mm)
 Extracted by Jonnathan in CLIMATIC_DATA &gt; Results</t>
       </text>
     </comment>
     <comment ref="F1" authorId="1" shapeId="0" xr:uid="{A060A6BB-2CBD-43B3-AC5B-082CEC512E1D}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
     Mean Anual Temperature (ºC)
 Extracted by Jonnathan in CLIMATIC_DATA &gt; Results</t>
       </text>
     </comment>
     <comment ref="G1" authorId="2" shapeId="0" xr:uid="{B995EEC3-22B8-4EC7-89D8-04467B49E5EA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
     Aridity Index
 Extracted by Jonnathan in CLIMATIC_DATA &gt; Results</t>
       </text>
     </comment>
     <comment ref="H1" authorId="3" shapeId="0" xr:uid="{4643F9B3-2625-4E22-B8D3-AEC2801D2687}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
     Measured in situ (ºC)</t>
       </text>
     </comment>
@@ -158,102 +159,102 @@
     </comment>
     <comment ref="L1" authorId="5" shapeId="0" xr:uid="{3F748EAE-1275-4297-953C-9BFF8326AFE2}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
     soil organic matter
 Mean for samples analysed both by Han and me</t>
       </text>
     </comment>
     <comment ref="N1" authorId="6" shapeId="0" xr:uid="{D1572FAE-2DB7-4542-9F5E-D5D55C7DBA14}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
     Total Organic Carbon (%)</t>
       </text>
     </comment>
     <comment ref="O1" authorId="7" shapeId="0" xr:uid="{9A542229-A5AB-4A4C-8A5E-FAB0986574A7}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
     Total Carbon (%)</t>
       </text>
     </comment>
     <comment ref="P1" authorId="8" shapeId="0" xr:uid="{856DBA50-38E6-464F-9A04-5AA8CE118D3E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
     Total Nitrogen (%)</t>
       </text>
     </comment>
     <comment ref="T1" authorId="9" shapeId="0" xr:uid="{B3BE2832-10E9-440B-AA0D-682097F684C5}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
     C/N ratio
 (TC/TN)</t>
       </text>
     </comment>
     <comment ref="U1" authorId="10" shapeId="0" xr:uid="{EC1E8241-F70F-4BE9-B47F-FFBE7926BB63}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
     NH4+ (mg/Kg DW soil)</t>
       </text>
     </comment>
     <comment ref="V1" authorId="11" shapeId="0" xr:uid="{1E617BEC-2113-4034-922A-A8AF614A800F}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
     PO43-
 (mg/kg DW soil)</t>
       </text>
     </comment>
     <comment ref="W1" authorId="12" shapeId="0" xr:uid="{F3E5E20E-F7AC-40CE-BE07-6D96D6B20EB7}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
     SO42-
 (mg/kg DW soil)</t>
       </text>
     </comment>
     <comment ref="AI1" authorId="13" shapeId="0" xr:uid="{A861B59D-14D6-4062-A50E-075AA1D6131B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
     Dark CO2 (mmol/m2*d)</t>
       </text>
     </comment>
     <comment ref="AJ1" authorId="14" shapeId="0" xr:uid="{B81A9F97-071D-4C35-895E-BE0BDEE13424}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
     Light CO2 (mmol/m2*d)</t>
       </text>
     </comment>
     <comment ref="AK1" authorId="15" shapeId="0" xr:uid="{2227ECD2-C3B4-4FD3-9840-F481938E8276}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
     Average methane values between dark and light
 (umol/m2*d)</t>
       </text>
     </comment>
     <comment ref="AL1" authorId="16" shapeId="0" xr:uid="{CC8F20A9-1D1A-453D-B53F-26E0204A3838}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
     (umol/m2*d)</t>
       </text>
     </comment>
@@ -430,54 +431,54 @@
     </comment>
     <comment ref="BB1" authorId="18" shapeId="0" xr:uid="{EFE74430-CE78-45F3-B99F-9E4A66B4DB4A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
     16S rRNA gene
 (copies/g DW soil)</t>
       </text>
     </comment>
     <comment ref="BC1" authorId="19" shapeId="0" xr:uid="{B5AA4312-E55C-4126-AC62-41022648693A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
     Fungal ITS2
 (copies/g DW soil)</t>
       </text>
     </comment>
     <comment ref="BG1" authorId="20" shapeId="0" xr:uid="{33824549-3C86-4035-A72B-6643897DCE38}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
     arc amoA (AOA)
 (copies/g DW soil)</t>
       </text>
     </comment>
     <comment ref="BH1" authorId="21" shapeId="0" xr:uid="{D4888460-C366-4F77-BB5B-BF617AB9A960}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
     bac amoA (AOB)
 (copies/g DW soil)</t>
       </text>
     </comment>
     <comment ref="BJ1" authorId="22" shapeId="0" xr:uid="{97253582-92B4-438A-9794-DF4FB2038D50}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
     nosZ Clade I
 (copies/g DW soil)</t>
       </text>
     </comment>
     <comment ref="BL1" authorId="23" shapeId="0" xr:uid="{8F08B99E-9739-4B6E-8F09-DF43B94644DC}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t xml:space="preserve">[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
     Fluorescence
 Final - Initial
 (nmol raz / gDW*h)
@@ -486,35 +487,35 @@
     </comment>
     <comment ref="BM1" authorId="24" shapeId="0" xr:uid="{B6FFDCB7-FA07-49A4-92C0-69346EC1EFB2}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
     Bacterial biomass / Fungal biomass
 (mg C / gDW*h)</t>
       </text>
     </comment>
     <comment ref="BN1" authorId="25" shapeId="0" xr:uid="{5E6F31F2-E5EE-4FEA-A394-E8FB2FFDD356}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
     16S / ITS2
 (copies / gDW)</t>
       </text>
     </comment>
     <comment ref="BT1" authorId="26" shapeId="0" xr:uid="{C67D560F-8BBA-4DA6-8AE1-F3DD3F0DEC55}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
     mg EPS / mg C bact</t>
       </text>
     </comment>
     <comment ref="BX1" authorId="27" shapeId="0" xr:uid="{631D2E3C-FB75-41CC-8E7D-69D20DFEBBF5}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
     masl</t>
       </text>
     </comment>
@@ -523,7 +524,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="237">
   <si>
     <t>1-SP01-A</t>
   </si>
@@ -1248,17 +1249,27 @@
   <si>
     <t>HIX</t>
   </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.0000000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1386,7 +1397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1502,6 +1513,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1916,11 +1929,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z17" sqref="Z17"/>
+      <selection pane="bottomRight" activeCell="B1" activeCellId="1" sqref="M1:M1048576 B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19344,6 +19357,814 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCEFF931-4757-4988-B960-6E1121EFFF96}">
+  <dimension ref="A1:E62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="5">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="C2" s="39">
+        <f>AVERAGE(B2:B6)</f>
+        <v>4.3160000000000007</v>
+      </c>
+      <c r="D2" s="39">
+        <f>_xlfn.STDEV.S(B2:B6)</f>
+        <v>0.15043270920913462</v>
+      </c>
+      <c r="E2" s="40">
+        <f>D2/SQRT(5)</f>
+        <v>6.7275552766216731E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4.34</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4.53</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4.21</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="5">
+        <v>4.16</v>
+      </c>
+      <c r="C7" s="39">
+        <f>AVERAGE(B7:B11)</f>
+        <v>4.452</v>
+      </c>
+      <c r="D7" s="39">
+        <f>_xlfn.STDEV.S(B7:B11)</f>
+        <v>0.39505695791872836</v>
+      </c>
+      <c r="E7" s="40">
+        <f>D7/SQRT(5)</f>
+        <v>0.17667484257811009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="5">
+        <v>4.54</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4.45</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="5">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="5">
+        <v>4.05</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="5">
+        <v>4.97</v>
+      </c>
+      <c r="C12" s="39">
+        <f>AVERAGE(B12:B16)</f>
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="D12" s="39">
+        <f>_xlfn.STDEV.S(B12:B16)</f>
+        <v>0.29094673051952313</v>
+      </c>
+      <c r="E12" s="40">
+        <f>D12/SQRT(5)</f>
+        <v>0.13011533345459328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="5">
+        <v>4.43</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="5">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="5">
+        <v>4.87</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="5">
+        <v>7.74</v>
+      </c>
+      <c r="C17" s="39">
+        <f>AVERAGE(B17:B21)</f>
+        <v>7.548</v>
+      </c>
+      <c r="D17" s="39">
+        <f>_xlfn.STDEV.S(B17:B21)</f>
+        <v>0.12794530081249567</v>
+      </c>
+      <c r="E17" s="40">
+        <f>D17/SQRT(5)</f>
+        <v>5.7218878003679877E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="5">
+        <v>7.4</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="5">
+        <v>7.56</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="5">
+        <v>7.57</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="5">
+        <v>7.47</v>
+      </c>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="5">
+        <v>7.68</v>
+      </c>
+      <c r="C22" s="39">
+        <f>AVERAGE(B22:B26)</f>
+        <v>7.7120000000000006</v>
+      </c>
+      <c r="D22" s="39">
+        <f>_xlfn.STDEV.S(B22:B26)</f>
+        <v>3.7013511046643549E-2</v>
+      </c>
+      <c r="E22" s="40">
+        <f>D22/SQRT(5)</f>
+        <v>1.655294535724687E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="5">
+        <v>7.76</v>
+      </c>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="5">
+        <v>7.67</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="5">
+        <v>7.73</v>
+      </c>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="5">
+        <v>7.72</v>
+      </c>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="40"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="5">
+        <v>6.24</v>
+      </c>
+      <c r="C27" s="39">
+        <f>AVERAGE(B27:B31)</f>
+        <v>6.1180000000000003</v>
+      </c>
+      <c r="D27" s="39">
+        <f>_xlfn.STDEV.S(B27:B31)</f>
+        <v>0.21040437257813846</v>
+      </c>
+      <c r="E27" s="40">
+        <f>D27/SQRT(5)</f>
+        <v>9.4095695969582047E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="5">
+        <v>5.89</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="5">
+        <v>6.25</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="40"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="5">
+        <v>5.89</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="40"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="5">
+        <v>6.32</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="40"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="5">
+        <v>4.53</v>
+      </c>
+      <c r="C32" s="39">
+        <f>AVERAGE(B32:B36)</f>
+        <v>4.2219999999999995</v>
+      </c>
+      <c r="D32" s="39">
+        <f>_xlfn.STDEV.S(B32:B36)</f>
+        <v>0.3131613002910803</v>
+      </c>
+      <c r="E32" s="40">
+        <f>D32/SQRT(5)</f>
+        <v>0.14004999107461605</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="5">
+        <v>4.53</v>
+      </c>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="5">
+        <v>4.21</v>
+      </c>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="5">
+        <v>3.82</v>
+      </c>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="40"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="5">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="40"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="5">
+        <v>3.89</v>
+      </c>
+      <c r="C37" s="39">
+        <f>AVERAGE(B37:B41)</f>
+        <v>3.778</v>
+      </c>
+      <c r="D37" s="39">
+        <f>_xlfn.STDEV.S(B37:B41)</f>
+        <v>0.1492313639956428</v>
+      </c>
+      <c r="E37" s="40">
+        <f>D37/SQRT(5)</f>
+        <v>6.673829485385438E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="5">
+        <v>3.93</v>
+      </c>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="40"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="5">
+        <v>3.78</v>
+      </c>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="40"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="5">
+        <v>3.55</v>
+      </c>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="40"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="5">
+        <v>3.74</v>
+      </c>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="40"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="5">
+        <v>7.53</v>
+      </c>
+      <c r="C42" s="39">
+        <f>AVERAGE(B42:B46)</f>
+        <v>7.6020000000000012</v>
+      </c>
+      <c r="D42" s="39">
+        <f>_xlfn.STDEV.S(B42:B46)</f>
+        <v>6.6105975524153551E-2</v>
+      </c>
+      <c r="E42" s="40">
+        <f>D42/SQRT(5)</f>
+        <v>2.9563490998188925E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="5">
+        <v>7.64</v>
+      </c>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="40"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="5">
+        <v>7.53</v>
+      </c>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="40"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="5">
+        <v>7.65</v>
+      </c>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="40"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="5">
+        <v>7.66</v>
+      </c>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="40"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="5">
+        <v>7.72</v>
+      </c>
+      <c r="C47" s="39">
+        <f>AVERAGE(B47:B51)</f>
+        <v>7.694</v>
+      </c>
+      <c r="D47" s="39">
+        <f>_xlfn.STDEV.S(B47:B51)</f>
+        <v>5.4589376255824565E-2</v>
+      </c>
+      <c r="E47" s="40">
+        <f>D47/SQRT(5)</f>
+        <v>2.4413111231467333E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="5">
+        <v>7.62</v>
+      </c>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="40"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="5">
+        <v>7.76</v>
+      </c>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="40"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="5">
+        <v>7.71</v>
+      </c>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="40"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="5">
+        <v>7.66</v>
+      </c>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="40"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="5">
+        <v>7.28</v>
+      </c>
+      <c r="C52" s="39">
+        <f>AVERAGE(B52:B56)</f>
+        <v>7.0920000000000005</v>
+      </c>
+      <c r="D52" s="39">
+        <f>_xlfn.STDEV.S(B52:B56)</f>
+        <v>0.3002831996632514</v>
+      </c>
+      <c r="E52" s="40">
+        <f>D52/SQRT(5)</f>
+        <v>0.13429072938963441</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="5">
+        <v>7.09</v>
+      </c>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="40"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="5">
+        <v>7.38</v>
+      </c>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="40"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" s="5">
+        <v>6.6</v>
+      </c>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="40"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="5">
+        <v>7.11</v>
+      </c>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="40"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="5">
+        <v>5.99</v>
+      </c>
+      <c r="C57" s="39">
+        <f>AVERAGE(B57:B61)</f>
+        <v>5.6419999999999995</v>
+      </c>
+      <c r="D57" s="39">
+        <f>_xlfn.STDEV.S(B57:B61)</f>
+        <v>0.33417061510551754</v>
+      </c>
+      <c r="E57" s="40">
+        <f>D57/SQRT(5)</f>
+        <v>0.14944564229177104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="5">
+        <v>5.79</v>
+      </c>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="40"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="5">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="40"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" s="5">
+        <v>5.76</v>
+      </c>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="40"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="12">
+        <v>5.56</v>
+      </c>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="40"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2851FD1-392A-48A9-B131-D748FDC4A90A}">
   <dimension ref="A1:A3"/>
   <sheetViews>

--- a/SP_metadata_2021.xlsx
+++ b/SP_metadata_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugirona-my.sharepoint.com/personal/u4001033_udg_edu/Documents/GRADCATCH/ANALISIS/R/SP_gradient/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{CA000A84-3FBB-4950-9B47-833BA501E91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96F7789D-AC30-4DD5-94F5-D5E6AA4439DB}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{CA000A84-3FBB-4950-9B47-833BA501E91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BB4FE71-99F3-41DE-B84F-763765976A1C}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5760" yWindow="96" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP_soil_2021" sheetId="1" r:id="rId1"/>
@@ -1927,13 +1927,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CN61"/>
+  <dimension ref="A1:CN64"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" activeCellId="1" sqref="M1:M1048576 B1:B1048576"/>
+      <selection pane="bottomRight" activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19344,6 +19344,18 @@
         <v>13.1595081</v>
       </c>
     </row>
+    <row r="63" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="M63" s="27">
+        <f>MAX(M2:M61)</f>
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="M64" s="27">
+        <f>MIN(M2:M61)</f>
+        <v>3.55</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J61">
     <cfRule type="cellIs" dxfId="0" priority="12" operator="lessThan">
@@ -19360,7 +19372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCEFF931-4757-4988-B960-6E1121EFFF96}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>

--- a/SP_metadata_2021.xlsx
+++ b/SP_metadata_2021.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugirona-my.sharepoint.com/personal/u4001033_udg_edu/Documents/GRADCATCH/ANALISIS/R/SP_gradient/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{CA000A84-3FBB-4950-9B47-833BA501E91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BB4FE71-99F3-41DE-B84F-763765976A1C}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="13_ncr:1_{CA000A84-3FBB-4950-9B47-833BA501E91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC714A09-EEF9-4CAB-84EA-3CCA3F3A76B3}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5760" yWindow="96" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP_soil_2021" sheetId="1" r:id="rId1"/>
-    <sheet name="Full1" sheetId="3" r:id="rId2"/>
-    <sheet name="llegenda" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Full1" sheetId="3" r:id="rId3"/>
+    <sheet name="llegenda" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,36 +73,36 @@
   <commentList>
     <comment ref="E1" authorId="0" shapeId="0" xr:uid="{9D67D6DC-CF53-4FD9-804D-9CAD74BCF708}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Mean Anual Precipitation (mm)
 Extracted by Jonnathan in CLIMATIC_DATA &gt; Results</t>
       </text>
     </comment>
     <comment ref="F1" authorId="1" shapeId="0" xr:uid="{A060A6BB-2CBD-43B3-AC5B-082CEC512E1D}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Mean Anual Temperature (ºC)
 Extracted by Jonnathan in CLIMATIC_DATA &gt; Results</t>
       </text>
     </comment>
     <comment ref="G1" authorId="2" shapeId="0" xr:uid="{B995EEC3-22B8-4EC7-89D8-04467B49E5EA}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Aridity Index
 Extracted by Jonnathan in CLIMATIC_DATA &gt; Results</t>
       </text>
     </comment>
     <comment ref="H1" authorId="3" shapeId="0" xr:uid="{4643F9B3-2625-4E22-B8D3-AEC2801D2687}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Measured in situ (ºC)</t>
       </text>
     </comment>
@@ -159,102 +160,102 @@
     </comment>
     <comment ref="L1" authorId="5" shapeId="0" xr:uid="{3F748EAE-1275-4297-953C-9BFF8326AFE2}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     soil organic matter
 Mean for samples analysed both by Han and me</t>
       </text>
     </comment>
     <comment ref="N1" authorId="6" shapeId="0" xr:uid="{D1572FAE-2DB7-4542-9F5E-D5D55C7DBA14}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Total Organic Carbon (%)</t>
       </text>
     </comment>
     <comment ref="O1" authorId="7" shapeId="0" xr:uid="{9A542229-A5AB-4A4C-8A5E-FAB0986574A7}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Total Carbon (%)</t>
       </text>
     </comment>
     <comment ref="P1" authorId="8" shapeId="0" xr:uid="{856DBA50-38E6-464F-9A04-5AA8CE118D3E}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Total Nitrogen (%)</t>
       </text>
     </comment>
     <comment ref="T1" authorId="9" shapeId="0" xr:uid="{B3BE2832-10E9-440B-AA0D-682097F684C5}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     C/N ratio
 (TC/TN)</t>
       </text>
     </comment>
     <comment ref="U1" authorId="10" shapeId="0" xr:uid="{EC1E8241-F70F-4BE9-B47F-FFBE7926BB63}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     NH4+ (mg/Kg DW soil)</t>
       </text>
     </comment>
     <comment ref="V1" authorId="11" shapeId="0" xr:uid="{1E617BEC-2113-4034-922A-A8AF614A800F}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     PO43-
 (mg/kg DW soil)</t>
       </text>
     </comment>
     <comment ref="W1" authorId="12" shapeId="0" xr:uid="{F3E5E20E-F7AC-40CE-BE07-6D96D6B20EB7}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     SO42-
 (mg/kg DW soil)</t>
       </text>
     </comment>
     <comment ref="AI1" authorId="13" shapeId="0" xr:uid="{A861B59D-14D6-4062-A50E-075AA1D6131B}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Dark CO2 (mmol/m2*d)</t>
       </text>
     </comment>
     <comment ref="AJ1" authorId="14" shapeId="0" xr:uid="{B81A9F97-071D-4C35-895E-BE0BDEE13424}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Light CO2 (mmol/m2*d)</t>
       </text>
     </comment>
     <comment ref="AK1" authorId="15" shapeId="0" xr:uid="{2227ECD2-C3B4-4FD3-9840-F481938E8276}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Average methane values between dark and light
 (umol/m2*d)</t>
       </text>
     </comment>
     <comment ref="AL1" authorId="16" shapeId="0" xr:uid="{CC8F20A9-1D1A-453D-B53F-26E0204A3838}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     (umol/m2*d)</t>
       </text>
     </comment>
@@ -431,54 +432,54 @@
     </comment>
     <comment ref="BB1" authorId="18" shapeId="0" xr:uid="{EFE74430-CE78-45F3-B99F-9E4A66B4DB4A}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     16S rRNA gene
 (copies/g DW soil)</t>
       </text>
     </comment>
     <comment ref="BC1" authorId="19" shapeId="0" xr:uid="{B5AA4312-E55C-4126-AC62-41022648693A}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Fungal ITS2
 (copies/g DW soil)</t>
       </text>
     </comment>
     <comment ref="BG1" authorId="20" shapeId="0" xr:uid="{33824549-3C86-4035-A72B-6643897DCE38}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     arc amoA (AOA)
 (copies/g DW soil)</t>
       </text>
     </comment>
     <comment ref="BH1" authorId="21" shapeId="0" xr:uid="{D4888460-C366-4F77-BB5B-BF617AB9A960}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     bac amoA (AOB)
 (copies/g DW soil)</t>
       </text>
     </comment>
     <comment ref="BJ1" authorId="22" shapeId="0" xr:uid="{97253582-92B4-438A-9794-DF4FB2038D50}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     nosZ Clade I
 (copies/g DW soil)</t>
       </text>
     </comment>
     <comment ref="BL1" authorId="23" shapeId="0" xr:uid="{8F08B99E-9739-4B6E-8F09-DF43B94644DC}">
       <text>
-        <t xml:space="preserve">[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Fluorescence
 Final - Initial
 (nmol raz / gDW*h)
@@ -487,35 +488,35 @@
     </comment>
     <comment ref="BM1" authorId="24" shapeId="0" xr:uid="{B6FFDCB7-FA07-49A4-92C0-69346EC1EFB2}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Bacterial biomass / Fungal biomass
 (mg C / gDW*h)</t>
       </text>
     </comment>
     <comment ref="BN1" authorId="25" shapeId="0" xr:uid="{5E6F31F2-E5EE-4FEA-A394-E8FB2FFDD356}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     16S / ITS2
 (copies / gDW)</t>
       </text>
     </comment>
     <comment ref="BT1" authorId="26" shapeId="0" xr:uid="{C67D560F-8BBA-4DA6-8AE1-F3DD3F0DEC55}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     mg EPS / mg C bact</t>
       </text>
     </comment>
     <comment ref="BX1" authorId="27" shapeId="0" xr:uid="{631D2E3C-FB75-41CC-8E7D-69D20DFEBBF5}">
       <text>
-        <t>[Comentari en fils]
-La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
-Comentari:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     masl</t>
       </text>
     </comment>
@@ -524,7 +525,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="240">
   <si>
     <t>1-SP01-A</t>
   </si>
@@ -1258,6 +1259,15 @@
   <si>
     <t>se</t>
   </si>
+  <si>
+    <t>ug BB</t>
+  </si>
+  <si>
+    <t>ug FB</t>
+  </si>
+  <si>
+    <t>pmol</t>
+  </si>
 </sst>
 </file>
 
@@ -1308,7 +1318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1375,6 +1385,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1397,7 +1437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1515,6 +1555,28 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1929,31 +1991,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="BH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M65" sqref="M65"/>
+      <selection pane="bottomRight" activeCell="BL1" sqref="BL1:BL1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1"/>
-    <col min="2" max="2" width="15.33203125" style="15"/>
-    <col min="3" max="4" width="15.33203125" style="1"/>
-    <col min="5" max="8" width="15.33203125" style="15"/>
-    <col min="9" max="11" width="15.33203125" style="1"/>
-    <col min="12" max="13" width="15.33203125" style="15"/>
-    <col min="14" max="16" width="15.33203125" style="1"/>
-    <col min="17" max="33" width="15.33203125" style="15"/>
-    <col min="34" max="34" width="15.33203125" style="15" customWidth="1"/>
-    <col min="35" max="38" width="15.33203125" style="15"/>
-    <col min="39" max="77" width="15.33203125" style="1"/>
-    <col min="78" max="78" width="15.33203125" style="37"/>
-    <col min="79" max="16384" width="15.33203125" style="1"/>
+    <col min="1" max="1" width="15.28515625" style="1"/>
+    <col min="2" max="2" width="15.28515625" style="15"/>
+    <col min="3" max="4" width="15.28515625" style="1"/>
+    <col min="5" max="8" width="15.28515625" style="15"/>
+    <col min="9" max="11" width="15.28515625" style="1"/>
+    <col min="12" max="13" width="15.28515625" style="15"/>
+    <col min="14" max="16" width="15.28515625" style="1"/>
+    <col min="17" max="33" width="15.28515625" style="15"/>
+    <col min="34" max="34" width="15.28515625" style="15" customWidth="1"/>
+    <col min="35" max="38" width="15.28515625" style="15"/>
+    <col min="39" max="77" width="15.28515625" style="1"/>
+    <col min="78" max="78" width="15.28515625" style="37"/>
+    <col min="79" max="16384" width="15.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:92" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>192</v>
       </c>
@@ -2231,7 +2293,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
@@ -2522,7 +2584,7 @@
         <v>3.4899152999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
@@ -2813,7 +2875,7 @@
         <v>3.4899152999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
@@ -3104,7 +3166,7 @@
         <v>3.4899152999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -3387,7 +3449,7 @@
         <v>3.4899152999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -3676,7 +3738,7 @@
         <v>3.9223225300000002</v>
       </c>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>71</v>
       </c>
@@ -3968,7 +4030,7 @@
         <v>10.9056672</v>
       </c>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
@@ -4260,7 +4322,7 @@
         <v>3.4092088999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
@@ -4552,7 +4614,7 @@
         <v>6.4043681299999999</v>
       </c>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>71</v>
       </c>
@@ -4844,7 +4906,7 @@
         <v>12.403162999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>71</v>
       </c>
@@ -5134,7 +5196,7 @@
         <v>10.9008693</v>
       </c>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>71</v>
       </c>
@@ -5425,7 +5487,7 @@
         <v>3.77592572</v>
       </c>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>71</v>
       </c>
@@ -5708,7 +5770,7 @@
         <v>2.8690791999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>71</v>
       </c>
@@ -5999,7 +6061,7 @@
         <v>3.34823966</v>
       </c>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>71</v>
       </c>
@@ -6290,7 +6352,7 @@
         <v>4.0995861800000002</v>
       </c>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>71</v>
       </c>
@@ -6581,7 +6643,7 @@
         <v>5.1956354300000003</v>
       </c>
     </row>
-    <row r="17" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -6872,7 +6934,7 @@
         <v>4.4724002499999997</v>
       </c>
     </row>
-    <row r="18" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
@@ -7121,7 +7183,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>71</v>
       </c>
@@ -7412,7 +7474,7 @@
         <v>6.67491243</v>
       </c>
     </row>
-    <row r="20" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>71</v>
       </c>
@@ -7703,7 +7765,7 @@
         <v>7.5455760200000004</v>
       </c>
     </row>
-    <row r="21" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>71</v>
       </c>
@@ -7986,7 +8048,7 @@
         <v>8.8158130900000007</v>
       </c>
     </row>
-    <row r="22" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>71</v>
       </c>
@@ -8277,7 +8339,7 @@
         <v>4.0578099999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>71</v>
       </c>
@@ -8568,7 +8630,7 @@
         <v>10.091862799999999</v>
       </c>
     </row>
-    <row r="24" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
@@ -8859,7 +8921,7 @@
         <v>4.7112970000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
@@ -9130,7 +9192,7 @@
         <v>4.8561924000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
@@ -9421,7 +9483,7 @@
         <v>9.5454894100000001</v>
       </c>
     </row>
-    <row r="27" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>71</v>
       </c>
@@ -9670,7 +9732,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="28" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>71</v>
       </c>
@@ -9953,7 +10015,7 @@
         <v>3.5510024699999998</v>
       </c>
     </row>
-    <row r="29" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>71</v>
       </c>
@@ -10202,7 +10264,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="30" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>71</v>
       </c>
@@ -10493,7 +10555,7 @@
         <v>7.7782095599999996</v>
       </c>
     </row>
-    <row r="31" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>71</v>
       </c>
@@ -10784,7 +10846,7 @@
         <v>7.4891597699999997</v>
       </c>
     </row>
-    <row r="32" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>71</v>
       </c>
@@ -11075,7 +11137,7 @@
         <v>8.3040474300000007</v>
       </c>
     </row>
-    <row r="33" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>71</v>
       </c>
@@ -11366,7 +11428,7 @@
         <v>6.2894612499999996</v>
       </c>
     </row>
-    <row r="34" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
@@ -11657,7 +11719,7 @@
         <v>9.6039411900000005</v>
       </c>
     </row>
-    <row r="35" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>71</v>
       </c>
@@ -11948,7 +12010,7 @@
         <v>8.8249260899999999</v>
       </c>
     </row>
-    <row r="36" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>71</v>
       </c>
@@ -12237,7 +12299,7 @@
         <v>9.0486037499999998</v>
       </c>
     </row>
-    <row r="37" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>71</v>
       </c>
@@ -12486,7 +12548,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="38" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>71</v>
       </c>
@@ -12777,7 +12839,7 @@
         <v>9.1145691400000004</v>
       </c>
     </row>
-    <row r="39" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>71</v>
       </c>
@@ -13068,7 +13130,7 @@
         <v>9.1724063699999991</v>
       </c>
     </row>
-    <row r="40" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>71</v>
       </c>
@@ -13359,7 +13421,7 @@
         <v>9.7109783000000007</v>
       </c>
     </row>
-    <row r="41" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>71</v>
       </c>
@@ -13640,7 +13702,7 @@
         <v>9.7218949600000002</v>
       </c>
     </row>
-    <row r="42" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>71</v>
       </c>
@@ -13931,7 +13993,7 @@
         <v>6.4315554400000003</v>
       </c>
     </row>
-    <row r="43" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>71</v>
       </c>
@@ -14219,7 +14281,7 @@
         <v>5.78455706</v>
       </c>
     </row>
-    <row r="44" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>71</v>
       </c>
@@ -14510,7 +14572,7 @@
         <v>7.0655917600000002</v>
       </c>
     </row>
-    <row r="45" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>71</v>
       </c>
@@ -14801,7 +14863,7 @@
         <v>7.74037065</v>
       </c>
     </row>
-    <row r="46" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>71</v>
       </c>
@@ -15086,7 +15148,7 @@
         <v>6.3975369400000002</v>
       </c>
     </row>
-    <row r="47" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -15335,7 +15397,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="48" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>71</v>
       </c>
@@ -15626,7 +15688,7 @@
         <v>2.8657992000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>71</v>
       </c>
@@ -15909,7 +15971,7 @@
         <v>5.13716638</v>
       </c>
     </row>
-    <row r="50" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>71</v>
       </c>
@@ -16200,7 +16262,7 @@
         <v>4.61066033</v>
       </c>
     </row>
-    <row r="51" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>71</v>
       </c>
@@ -16491,7 +16553,7 @@
         <v>4.4596304800000004</v>
       </c>
     </row>
-    <row r="52" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>71</v>
       </c>
@@ -16782,7 +16844,7 @@
         <v>4.44812809</v>
       </c>
     </row>
-    <row r="53" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>71</v>
       </c>
@@ -17073,7 +17135,7 @@
         <v>3.48872252</v>
       </c>
     </row>
-    <row r="54" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>71</v>
       </c>
@@ -17322,7 +17384,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>71</v>
       </c>
@@ -17598,7 +17660,7 @@
         <v>6.3318403600000002</v>
       </c>
     </row>
-    <row r="56" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>71</v>
       </c>
@@ -17889,7 +17951,7 @@
         <v>4.1968844799999996</v>
       </c>
     </row>
-    <row r="57" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>71</v>
       </c>
@@ -18180,7 +18242,7 @@
         <v>6.4942736400000003</v>
       </c>
     </row>
-    <row r="58" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>71</v>
       </c>
@@ -18471,7 +18533,7 @@
         <v>11.3962074</v>
       </c>
     </row>
-    <row r="59" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
@@ -18762,7 +18824,7 @@
         <v>14.629201</v>
       </c>
     </row>
-    <row r="60" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>71</v>
       </c>
@@ -19053,7 +19115,7 @@
         <v>14.296771</v>
       </c>
     </row>
-    <row r="61" spans="1:92" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:92" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>71</v>
       </c>
@@ -19344,13 +19406,13 @@
         <v>13.1595081</v>
       </c>
     </row>
-    <row r="63" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:92" x14ac:dyDescent="0.25">
       <c r="M63" s="27">
         <f>MAX(M2:M61)</f>
         <v>7.76</v>
       </c>
     </row>
-    <row r="64" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:92" x14ac:dyDescent="0.25">
       <c r="M64" s="27">
         <f>MIN(M2:M61)</f>
         <v>3.55</v>
@@ -19369,19 +19431,3742 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FEEA69-4C20-432F-81D2-CC79B2F6623E}">
+  <dimension ref="A1:AH61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Q31" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="5" width="9.140625" style="42"/>
+    <col min="7" max="9" width="9.140625" style="42"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.140625" style="43"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="16.42578125" customWidth="1"/>
+    <col min="20" max="22" width="9.140625" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="K1" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N1" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="O1" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="P1" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="R1" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="S1" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="T1" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="U1" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="V1" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="W1" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="X1" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y1" s="59" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="42">
+        <v>2.6380382594688263E-3</v>
+      </c>
+      <c r="C2" s="42">
+        <f>AVERAGE(B2:B6)</f>
+        <v>2.4522360876092601E-3</v>
+      </c>
+      <c r="D2" s="42">
+        <f>_xlfn.STDEV.S(B2:B6)</f>
+        <v>4.6708189226877096E-4</v>
+      </c>
+      <c r="E2" s="42">
+        <f>D2/SQRT(5)</f>
+        <v>2.0888537243444105E-4</v>
+      </c>
+      <c r="F2">
+        <v>0.3121313355734911</v>
+      </c>
+      <c r="G2" s="50">
+        <f>AVERAGE(F2:F6)</f>
+        <v>0.14493580430581332</v>
+      </c>
+      <c r="H2" s="50">
+        <f>_xlfn.STDEV.S(F2:F6)</f>
+        <v>0.11281755369679058</v>
+      </c>
+      <c r="I2" s="50">
+        <f>H2/SQRT(4)</f>
+        <v>5.6408776848395292E-2</v>
+      </c>
+      <c r="J2" s="39">
+        <f>B2*1000</f>
+        <v>2.6380382594688263</v>
+      </c>
+      <c r="K2" s="39">
+        <f>AVERAGE(J2:J6)</f>
+        <v>2.4522360876092599</v>
+      </c>
+      <c r="L2" s="39">
+        <f>_xlfn.STDEV.S(J2:J6)</f>
+        <v>0.46708189226877322</v>
+      </c>
+      <c r="M2" s="39">
+        <f>L2/SQRT(5)</f>
+        <v>0.20888537243444208</v>
+      </c>
+      <c r="N2" s="39">
+        <f>F2*1000</f>
+        <v>312.13133557349107</v>
+      </c>
+      <c r="O2" s="50">
+        <f>AVERAGE(N2:N6)</f>
+        <v>144.93580430581329</v>
+      </c>
+      <c r="P2" s="50">
+        <f>_xlfn.STDEV.S(N2:N4,N6)</f>
+        <v>112.81755369679064</v>
+      </c>
+      <c r="Q2" s="50">
+        <f>P2/SQRT(4)</f>
+        <v>56.40877684839532</v>
+      </c>
+      <c r="R2" s="41">
+        <v>2.9715280043134999E-2</v>
+      </c>
+      <c r="S2" s="60">
+        <f>AVERAGE(R2:R6)</f>
+        <v>2.8103808975831875E-2</v>
+      </c>
+      <c r="T2" s="57">
+        <f>_xlfn.STDEV.S(R2:R6)</f>
+        <v>4.1830629438750454E-3</v>
+      </c>
+      <c r="U2" s="57">
+        <f>T2/SQRT(4)</f>
+        <v>2.0915314719375227E-3</v>
+      </c>
+      <c r="V2" s="41">
+        <f>R2*1000</f>
+        <v>29.715280043134999</v>
+      </c>
+      <c r="W2" s="50">
+        <f>AVERAGE(V2:V6)</f>
+        <v>28.103808975831875</v>
+      </c>
+      <c r="X2" s="50">
+        <f>_xlfn.STDEV.S(V2:V6)</f>
+        <v>4.1830629438750639</v>
+      </c>
+      <c r="Y2" s="50">
+        <f>X2/SQRT(4)</f>
+        <v>2.091531471937532</v>
+      </c>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="42">
+        <v>2.7172191682793001E-3</v>
+      </c>
+      <c r="F3">
+        <v>6.9915930457587205E-2</v>
+      </c>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39">
+        <f t="shared" ref="J3:J61" si="0">B3*1000</f>
+        <v>2.7172191682792999</v>
+      </c>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39">
+        <f t="shared" ref="N3:N61" si="1">F3*1000</f>
+        <v>69.915930457587208</v>
+      </c>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="41">
+        <v>2.6219457262898101E-2</v>
+      </c>
+      <c r="S3" s="60"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="41">
+        <f>R3*1000</f>
+        <v>26.2194572628981</v>
+      </c>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="42">
+        <v>2.2241743090382826E-3</v>
+      </c>
+      <c r="F4">
+        <v>0.112131390216317</v>
+      </c>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39">
+        <f t="shared" si="0"/>
+        <v>2.2241743090382826</v>
+      </c>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39">
+        <f t="shared" si="1"/>
+        <v>112.131390216317</v>
+      </c>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="41">
+        <v>3.3052171704250302E-2</v>
+      </c>
+      <c r="S4" s="60"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="41">
+        <f>R4*1000</f>
+        <v>33.052171704250306</v>
+      </c>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="58"/>
+      <c r="AC4" s="58"/>
+      <c r="AD4" s="58"/>
+      <c r="AE4" s="58"/>
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="42">
+        <v>1.7530357467337196E-3</v>
+      </c>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39">
+        <f t="shared" si="0"/>
+        <v>1.7530357467337196</v>
+      </c>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="41">
+        <v>2.34283268930441E-2</v>
+      </c>
+      <c r="S5" s="60"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="41">
+        <f>R5*1000</f>
+        <v>23.428326893044101</v>
+      </c>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="58"/>
+      <c r="AC5" s="58"/>
+      <c r="AD5" s="58"/>
+      <c r="AE5" s="58"/>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="58"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="42">
+        <v>2.9287129545261721E-3</v>
+      </c>
+      <c r="F6">
+        <v>8.5564560975857948E-2</v>
+      </c>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39">
+        <f t="shared" si="0"/>
+        <v>2.9287129545261719</v>
+      </c>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39">
+        <f t="shared" si="1"/>
+        <v>85.564560975857944</v>
+      </c>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="58"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="58"/>
+      <c r="AE6" s="58"/>
+      <c r="AF6" s="58"/>
+      <c r="AG6" s="58"/>
+      <c r="AH6" s="58"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="42">
+        <v>5.4478046155327078E-3</v>
+      </c>
+      <c r="C7" s="42">
+        <f>AVERAGE(B7:B11)</f>
+        <v>4.6174955125970699E-3</v>
+      </c>
+      <c r="D7" s="42">
+        <f>_xlfn.STDEV.S(B7:B11)</f>
+        <v>1.3447616977208315E-3</v>
+      </c>
+      <c r="E7" s="42">
+        <f>D7/SQRT(5)</f>
+        <v>6.0139571392836067E-4</v>
+      </c>
+      <c r="F7">
+        <v>0.31111535605387081</v>
+      </c>
+      <c r="G7" s="39">
+        <f>AVERAGE(F7:F11)</f>
+        <v>0.58579002462950502</v>
+      </c>
+      <c r="H7" s="39">
+        <f>_xlfn.STDEV.S(F7:F11)</f>
+        <v>0.28160879118739079</v>
+      </c>
+      <c r="I7" s="39">
+        <f>H7/SQRT(5)</f>
+        <v>0.12593928003130991</v>
+      </c>
+      <c r="J7" s="39">
+        <f t="shared" si="0"/>
+        <v>5.447804615532708</v>
+      </c>
+      <c r="K7" s="39">
+        <f>AVERAGE(J7:J11)</f>
+        <v>4.6174955125970696</v>
+      </c>
+      <c r="L7" s="39">
+        <f>_xlfn.STDEV.S(J7:J11)</f>
+        <v>1.3447616977208314</v>
+      </c>
+      <c r="M7" s="39">
+        <f>L7/SQRT(5)</f>
+        <v>0.60139571392836055</v>
+      </c>
+      <c r="N7" s="39">
+        <f t="shared" si="1"/>
+        <v>311.11535605387081</v>
+      </c>
+      <c r="O7" s="39">
+        <f>AVERAGE(N7:N11)</f>
+        <v>585.79002462950484</v>
+      </c>
+      <c r="P7" s="39">
+        <f>_xlfn.STDEV.S(N7:N11)</f>
+        <v>281.60879118739115</v>
+      </c>
+      <c r="Q7" s="39">
+        <f>P7/SQRT(5)</f>
+        <v>125.93928003131006</v>
+      </c>
+      <c r="R7" s="41">
+        <v>2.2861213882187301E-2</v>
+      </c>
+      <c r="S7" s="60">
+        <f>AVERAGE(R7:R11)</f>
+        <v>2.9264437247349076E-2</v>
+      </c>
+      <c r="T7" s="57">
+        <f>_xlfn.STDEV.S(R7:R11)</f>
+        <v>6.3534521390225902E-3</v>
+      </c>
+      <c r="U7" s="57">
+        <f>T7/SQRT(5)</f>
+        <v>2.8413501749291912E-3</v>
+      </c>
+      <c r="V7" s="41">
+        <f>R7*1000</f>
+        <v>22.8612138821873</v>
+      </c>
+      <c r="W7" s="57">
+        <f>AVERAGE(V7:V11)</f>
+        <v>29.264437247349075</v>
+      </c>
+      <c r="X7" s="57">
+        <f>_xlfn.STDEV.S(V7:V11)</f>
+        <v>6.353452139022596</v>
+      </c>
+      <c r="Y7" s="57">
+        <f>X7/SQRT(5)</f>
+        <v>2.8413501749291936</v>
+      </c>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="58"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="58"/>
+      <c r="AE7" s="58"/>
+      <c r="AF7" s="58"/>
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="58"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="42">
+        <v>5.1234432818831662E-3</v>
+      </c>
+      <c r="F8">
+        <v>0.45173820553510957</v>
+      </c>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39">
+        <f t="shared" si="0"/>
+        <v>5.1234432818831666</v>
+      </c>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39">
+        <f t="shared" si="1"/>
+        <v>451.73820553510956</v>
+      </c>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="41">
+        <v>2.4744008910779401E-2</v>
+      </c>
+      <c r="S8" s="60"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="41">
+        <f>R8*1000</f>
+        <v>24.744008910779399</v>
+      </c>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="58"/>
+      <c r="AE8" s="58"/>
+      <c r="AF8" s="58"/>
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="58"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="42">
+        <v>3.4605176180182492E-3</v>
+      </c>
+      <c r="F9">
+        <v>0.65219091362959425</v>
+      </c>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39">
+        <f t="shared" si="0"/>
+        <v>3.4605176180182493</v>
+      </c>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39">
+        <f t="shared" si="1"/>
+        <v>652.19091362959421</v>
+      </c>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="41">
+        <v>3.4711478174025499E-2</v>
+      </c>
+      <c r="S9" s="60"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="41">
+        <f>R9*1000</f>
+        <v>34.711478174025501</v>
+      </c>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="58"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="58"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="42">
+        <v>6.0984405357501041E-3</v>
+      </c>
+      <c r="F10">
+        <v>1.0404977899963856</v>
+      </c>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39">
+        <f t="shared" si="0"/>
+        <v>6.0984405357501039</v>
+      </c>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39">
+        <f t="shared" si="1"/>
+        <v>1040.4977899963856</v>
+      </c>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="41">
+        <v>3.4741048022404103E-2</v>
+      </c>
+      <c r="S10" s="60"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="41">
+        <f>R10*1000</f>
+        <v>34.741048022404101</v>
+      </c>
+      <c r="W10" s="57"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="58"/>
+      <c r="AF10" s="58"/>
+      <c r="AG10" s="58"/>
+      <c r="AH10" s="58"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="42">
+        <v>2.9572715118011202E-3</v>
+      </c>
+      <c r="F11">
+        <v>0.47340785793256429</v>
+      </c>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39">
+        <f t="shared" si="0"/>
+        <v>2.9572715118011201</v>
+      </c>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39">
+        <f t="shared" si="1"/>
+        <v>473.4078579325643</v>
+      </c>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="58"/>
+      <c r="AE11" s="58"/>
+      <c r="AF11" s="58"/>
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="58"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="42">
+        <v>1.0332066560852376E-3</v>
+      </c>
+      <c r="C12" s="42">
+        <f>AVERAGE(B12:B16)</f>
+        <v>7.2697731427356015E-4</v>
+      </c>
+      <c r="D12" s="42">
+        <f>_xlfn.STDEV.S(B12:B16)</f>
+        <v>5.469726891455894E-4</v>
+      </c>
+      <c r="E12" s="42">
+        <f>D12/SQRT(5)</f>
+        <v>2.4461362295307982E-4</v>
+      </c>
+      <c r="F12">
+        <v>0.17245996703598704</v>
+      </c>
+      <c r="G12" s="39">
+        <f>AVERAGE(F12:F16)</f>
+        <v>0.2154852176505887</v>
+      </c>
+      <c r="H12" s="39">
+        <f>_xlfn.STDEV.S(F12:F16)</f>
+        <v>3.2020807419693001E-2</v>
+      </c>
+      <c r="I12" s="39">
+        <f>H12/SQRT(4)</f>
+        <v>1.60104037098465E-2</v>
+      </c>
+      <c r="J12" s="39">
+        <f t="shared" si="0"/>
+        <v>1.0332066560852375</v>
+      </c>
+      <c r="K12" s="50">
+        <f>AVERAGE(J12:J16)</f>
+        <v>0.72697731427356005</v>
+      </c>
+      <c r="L12" s="50">
+        <f>_xlfn.STDEV.S(J12:J16)</f>
+        <v>0.5469726891455895</v>
+      </c>
+      <c r="M12" s="50">
+        <f>L12/SQRT(5)</f>
+        <v>0.2446136229530799</v>
+      </c>
+      <c r="N12" s="39">
+        <f t="shared" si="1"/>
+        <v>172.45996703598703</v>
+      </c>
+      <c r="O12" s="39">
+        <f>AVERAGE(N12:N16)</f>
+        <v>215.48521765058871</v>
+      </c>
+      <c r="P12" s="39">
+        <f>_xlfn.STDEV.S(N12:N16)</f>
+        <v>32.020807419692929</v>
+      </c>
+      <c r="Q12" s="39">
+        <f>P12/SQRT(4)</f>
+        <v>16.010403709846464</v>
+      </c>
+      <c r="R12" s="41">
+        <v>4.7524810773509403E-2</v>
+      </c>
+      <c r="S12" s="60">
+        <f>AVERAGE(R12:R16)</f>
+        <v>4.8764004444062335E-2</v>
+      </c>
+      <c r="T12" s="57">
+        <f>_xlfn.STDEV.S(R12:R16)</f>
+        <v>2.8813992004683214E-3</v>
+      </c>
+      <c r="U12" s="57">
+        <f>T12/SQRT(4)</f>
+        <v>1.4406996002341607E-3</v>
+      </c>
+      <c r="V12" s="41">
+        <f>R12*1000</f>
+        <v>47.524810773509401</v>
+      </c>
+      <c r="W12" s="57">
+        <f>AVERAGE(V12:V16)</f>
+        <v>48.764004444062344</v>
+      </c>
+      <c r="X12" s="57">
+        <f>_xlfn.STDEV.S(V12:V16)</f>
+        <v>2.8813992004683207</v>
+      </c>
+      <c r="Y12" s="57">
+        <f>X12/SQRT(4)</f>
+        <v>1.4406996002341603</v>
+      </c>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="58"/>
+      <c r="AE12" s="58"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="58"/>
+      <c r="AH12" s="58"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="42">
+        <v>1.7958632887868703E-4</v>
+      </c>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39">
+        <f t="shared" si="0"/>
+        <v>0.17958632887868703</v>
+      </c>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="41">
+        <v>4.4243414599751202E-2</v>
+      </c>
+      <c r="S13" s="60"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="41">
+        <f>R13*1000</f>
+        <v>44.243414599751205</v>
+      </c>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="58"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="58"/>
+      <c r="AH13" s="58"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="42">
+        <v>1.4570738624725796E-3</v>
+      </c>
+      <c r="F14">
+        <v>0.24235855586370669</v>
+      </c>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39">
+        <f t="shared" si="0"/>
+        <v>1.4570738624725796</v>
+      </c>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39">
+        <f t="shared" si="1"/>
+        <v>242.3585558637067</v>
+      </c>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="41">
+        <v>5.0815535123685598E-2</v>
+      </c>
+      <c r="S14" s="60"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="41">
+        <f>R14*1000</f>
+        <v>50.815535123685599</v>
+      </c>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="58"/>
+      <c r="AE14" s="58"/>
+      <c r="AF14" s="58"/>
+      <c r="AG14" s="58"/>
+      <c r="AH14" s="58"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="42">
+        <v>2.0797976358053334E-4</v>
+      </c>
+      <c r="F15">
+        <v>0.20991922221036921</v>
+      </c>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39">
+        <f t="shared" si="0"/>
+        <v>0.20797976358053333</v>
+      </c>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39">
+        <f t="shared" si="1"/>
+        <v>209.91922221036921</v>
+      </c>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="41">
+        <v>5.0895767532296701E-2</v>
+      </c>
+      <c r="S15" s="60"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="41">
+        <f>R15*1000</f>
+        <v>50.895767532296702</v>
+      </c>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="58"/>
+      <c r="AF15" s="58"/>
+      <c r="AG15" s="58"/>
+      <c r="AH15" s="58"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="42">
+        <v>7.570399603507626E-4</v>
+      </c>
+      <c r="F16">
+        <v>0.23720312549229189</v>
+      </c>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39">
+        <f t="shared" si="0"/>
+        <v>0.7570399603507626</v>
+      </c>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39">
+        <f t="shared" si="1"/>
+        <v>237.20312549229189</v>
+      </c>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="41">
+        <v>5.0340494191068799E-2</v>
+      </c>
+      <c r="S16" s="60"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="41">
+        <f>R16*1000</f>
+        <v>50.3404941910688</v>
+      </c>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="58"/>
+      <c r="AD16" s="58"/>
+      <c r="AE16" s="58"/>
+      <c r="AF16" s="58"/>
+      <c r="AG16" s="58"/>
+      <c r="AH16" s="58"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="42">
+        <v>1.0054631244055087E-3</v>
+      </c>
+      <c r="C17" s="42">
+        <f>AVERAGE(B17:B21)</f>
+        <v>1.448466288337088E-3</v>
+      </c>
+      <c r="D17" s="42">
+        <f>_xlfn.STDEV.S(B17:B21)</f>
+        <v>6.8390616323488727E-4</v>
+      </c>
+      <c r="E17" s="42">
+        <f>D17/SQRT(5)</f>
+        <v>3.0585213424485504E-4</v>
+      </c>
+      <c r="F17">
+        <v>0.89368599928889991</v>
+      </c>
+      <c r="G17" s="39">
+        <f>AVERAGE(F17:F21)</f>
+        <v>1.2661523760777695</v>
+      </c>
+      <c r="H17" s="39">
+        <f>_xlfn.STDEV.S(F17:F21)</f>
+        <v>0.4211351880667506</v>
+      </c>
+      <c r="I17" s="39">
+        <f>H17/SQRT(4)</f>
+        <v>0.2105675940333753</v>
+      </c>
+      <c r="J17" s="39">
+        <f t="shared" si="0"/>
+        <v>1.0054631244055088</v>
+      </c>
+      <c r="K17" s="39">
+        <f>AVERAGE(J17:J21)</f>
+        <v>1.4484662883370882</v>
+      </c>
+      <c r="L17" s="39">
+        <f>_xlfn.STDEV.S(J17:J21)</f>
+        <v>0.68390616323488707</v>
+      </c>
+      <c r="M17" s="39">
+        <f>L17/SQRT(5)</f>
+        <v>0.30585213424485497</v>
+      </c>
+      <c r="N17" s="39">
+        <f t="shared" si="1"/>
+        <v>893.68599928889989</v>
+      </c>
+      <c r="O17" s="39">
+        <f>AVERAGE(N17:N21)</f>
+        <v>1266.1523760777695</v>
+      </c>
+      <c r="P17" s="39">
+        <f>_xlfn.STDEV.S(N17:N21)</f>
+        <v>421.13518806675063</v>
+      </c>
+      <c r="Q17" s="39">
+        <f>P17/SQRT(4)</f>
+        <v>210.56759403337531</v>
+      </c>
+      <c r="R17" s="41">
+        <v>7.1796874281741504E-3</v>
+      </c>
+      <c r="S17" s="60">
+        <f>AVERAGE(R17:R21)</f>
+        <v>7.2314710919455906E-3</v>
+      </c>
+      <c r="T17" s="57">
+        <f>_xlfn.STDEV.S(R17:R21)</f>
+        <v>1.1783036525368446E-3</v>
+      </c>
+      <c r="U17" s="57">
+        <f>T17/SQRT(4)</f>
+        <v>5.8915182626842228E-4</v>
+      </c>
+      <c r="V17" s="41">
+        <f>R17*1000</f>
+        <v>7.1796874281741507</v>
+      </c>
+      <c r="W17" s="57">
+        <f>AVERAGE(V17:V21)</f>
+        <v>7.2314710919455907</v>
+      </c>
+      <c r="X17" s="57">
+        <f>_xlfn.STDEV.S(V17:V21)</f>
+        <v>1.1783036525368404</v>
+      </c>
+      <c r="Y17" s="57">
+        <f>X17/SQRT(4)</f>
+        <v>0.58915182626842022</v>
+      </c>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="58"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="58"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="58"/>
+      <c r="AH17" s="58"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="42">
+        <v>2.4690531273733477E-3</v>
+      </c>
+      <c r="F18">
+        <v>1.7986029193228665</v>
+      </c>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39">
+        <f t="shared" si="0"/>
+        <v>2.4690531273733476</v>
+      </c>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39">
+        <f t="shared" si="1"/>
+        <v>1798.6029193228665</v>
+      </c>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="41">
+        <v>7.45157678113215E-3</v>
+      </c>
+      <c r="S18" s="60"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="41">
+        <f>R18*1000</f>
+        <v>7.4515767811321503</v>
+      </c>
+      <c r="W18" s="57"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="58"/>
+      <c r="AC18" s="58"/>
+      <c r="AD18" s="58"/>
+      <c r="AE18" s="58"/>
+      <c r="AF18" s="58"/>
+      <c r="AG18" s="58"/>
+      <c r="AH18" s="58"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="42">
+        <v>7.7899495277012395E-4</v>
+      </c>
+      <c r="F19">
+        <v>1.406424100913394</v>
+      </c>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39">
+        <f t="shared" si="0"/>
+        <v>0.77899495277012398</v>
+      </c>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39">
+        <f t="shared" si="1"/>
+        <v>1406.4241009133939</v>
+      </c>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="41">
+        <v>7.9715978221207608E-3</v>
+      </c>
+      <c r="S19" s="60"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="41">
+        <f>R19*1000</f>
+        <v>7.9715978221207608</v>
+      </c>
+      <c r="W19" s="57"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="58"/>
+      <c r="AC19" s="58"/>
+      <c r="AD19" s="58"/>
+      <c r="AE19" s="58"/>
+      <c r="AF19" s="58"/>
+      <c r="AG19" s="58"/>
+      <c r="AH19" s="58"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="42">
+        <v>1.7949494013224259E-3</v>
+      </c>
+      <c r="F20">
+        <v>0.96589648478591761</v>
+      </c>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39">
+        <f t="shared" si="0"/>
+        <v>1.7949494013224259</v>
+      </c>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39">
+        <f t="shared" si="1"/>
+        <v>965.89648478591766</v>
+      </c>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="41">
+        <v>8.2842375536372401E-3</v>
+      </c>
+      <c r="S20" s="60"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="41">
+        <f>R20*1000</f>
+        <v>8.2842375536372401</v>
+      </c>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="58"/>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="58"/>
+      <c r="AE20" s="58"/>
+      <c r="AF20" s="58"/>
+      <c r="AG20" s="58"/>
+      <c r="AH20" s="58"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="42">
+        <v>1.193870835814035E-3</v>
+      </c>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39">
+        <f t="shared" si="0"/>
+        <v>1.1938708358140351</v>
+      </c>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="41">
+        <v>5.2702558746636503E-3</v>
+      </c>
+      <c r="S21" s="60"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="41">
+        <f>R21*1000</f>
+        <v>5.2702558746636505</v>
+      </c>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="58"/>
+      <c r="AD21" s="58"/>
+      <c r="AE21" s="58"/>
+      <c r="AF21" s="58"/>
+      <c r="AG21" s="58"/>
+      <c r="AH21" s="58"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="42">
+        <v>1.5429990723662861E-3</v>
+      </c>
+      <c r="C22" s="42">
+        <f>AVERAGE(B22:B26)</f>
+        <v>2.2187141891874761E-3</v>
+      </c>
+      <c r="D22" s="42">
+        <f>_xlfn.STDEV.S(B22:B26)</f>
+        <v>7.8803447603267081E-4</v>
+      </c>
+      <c r="E22" s="42">
+        <f>D22/SQRT(5)</f>
+        <v>3.5241973140449613E-4</v>
+      </c>
+      <c r="F22">
+        <v>0.14114993984770988</v>
+      </c>
+      <c r="G22" s="39">
+        <f>AVERAGE(F22:F26)</f>
+        <v>0.15742364840146991</v>
+      </c>
+      <c r="H22" s="39">
+        <f>_xlfn.STDEV.S(F22:F26)</f>
+        <v>6.4497505352109269E-2</v>
+      </c>
+      <c r="I22" s="39">
+        <f>H22/SQRT(4)</f>
+        <v>3.2248752676054634E-2</v>
+      </c>
+      <c r="J22" s="39">
+        <f t="shared" si="0"/>
+        <v>1.5429990723662861</v>
+      </c>
+      <c r="K22" s="39">
+        <f>AVERAGE(J22:J26)</f>
+        <v>2.2187141891874758</v>
+      </c>
+      <c r="L22" s="39">
+        <f>_xlfn.STDEV.S(J22:J26)</f>
+        <v>0.78803447603267152</v>
+      </c>
+      <c r="M22" s="39">
+        <f>L22/SQRT(5)</f>
+        <v>0.35241973140449645</v>
+      </c>
+      <c r="N22" s="39">
+        <f t="shared" si="1"/>
+        <v>141.14993984770987</v>
+      </c>
+      <c r="O22" s="39">
+        <f>AVERAGE(N22:N26)</f>
+        <v>157.42364840146993</v>
+      </c>
+      <c r="P22" s="39">
+        <f>_xlfn.STDEV.S(N22:N26)</f>
+        <v>64.497505352109172</v>
+      </c>
+      <c r="Q22" s="39">
+        <f>P22/SQRT(4)</f>
+        <v>32.248752676054586</v>
+      </c>
+      <c r="R22" s="41">
+        <v>3.8645269759873999E-3</v>
+      </c>
+      <c r="S22" s="60">
+        <f>AVERAGE(R22:R26)</f>
+        <v>6.7388478546140298E-3</v>
+      </c>
+      <c r="T22" s="57">
+        <f>_xlfn.STDEV.S(R22:R26)</f>
+        <v>3.6785934570432539E-3</v>
+      </c>
+      <c r="U22" s="57">
+        <f>T22/SQRT(4)</f>
+        <v>1.839296728521627E-3</v>
+      </c>
+      <c r="V22" s="41">
+        <f>R22*1000</f>
+        <v>3.8645269759873999</v>
+      </c>
+      <c r="W22" s="57">
+        <f>AVERAGE(V22:V26)</f>
+        <v>6.7388478546140309</v>
+      </c>
+      <c r="X22" s="57">
+        <f>_xlfn.STDEV.S(V22:V26)</f>
+        <v>3.6785934570432528</v>
+      </c>
+      <c r="Y22" s="57">
+        <f>X22/SQRT(4)</f>
+        <v>1.8392967285216264</v>
+      </c>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="58"/>
+      <c r="AD22" s="58"/>
+      <c r="AE22" s="58"/>
+      <c r="AF22" s="58"/>
+      <c r="AG22" s="58"/>
+      <c r="AH22" s="58"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="42">
+        <v>2.3612383331482584E-3</v>
+      </c>
+      <c r="F23">
+        <v>0.14964656760514525</v>
+      </c>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39">
+        <f t="shared" si="0"/>
+        <v>2.3612383331482585</v>
+      </c>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39">
+        <f t="shared" si="1"/>
+        <v>149.64656760514524</v>
+      </c>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="41">
+        <v>3.52156181021021E-3</v>
+      </c>
+      <c r="S23" s="60"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="41">
+        <f>R23*1000</f>
+        <v>3.5215618102102102</v>
+      </c>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="58"/>
+      <c r="AA23" s="58"/>
+      <c r="AB23" s="58"/>
+      <c r="AC23" s="58"/>
+      <c r="AD23" s="58"/>
+      <c r="AE23" s="58"/>
+      <c r="AF23" s="58"/>
+      <c r="AG23" s="58"/>
+      <c r="AH23" s="58"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="42">
+        <v>3.5162964526096203E-3</v>
+      </c>
+      <c r="F24">
+        <v>9.2425514918066748E-2</v>
+      </c>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39">
+        <f t="shared" si="0"/>
+        <v>3.5162964526096201</v>
+      </c>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39">
+        <f t="shared" si="1"/>
+        <v>92.425514918066753</v>
+      </c>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="41">
+        <v>6.7343317474841298E-3</v>
+      </c>
+      <c r="S24" s="60"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="41">
+        <f>R24*1000</f>
+        <v>6.7343317474841298</v>
+      </c>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="58"/>
+      <c r="AC24" s="58"/>
+      <c r="AD24" s="58"/>
+      <c r="AE24" s="58"/>
+      <c r="AF24" s="58"/>
+      <c r="AG24" s="58"/>
+      <c r="AH24" s="58"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="42">
+        <v>1.7115734798567159E-3</v>
+      </c>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39">
+        <f t="shared" si="0"/>
+        <v>1.7115734798567159</v>
+      </c>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="41">
+        <v>1.2696735042250201E-2</v>
+      </c>
+      <c r="S25" s="60"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="41">
+        <f>R25*1000</f>
+        <v>12.6967350422502</v>
+      </c>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="58"/>
+      <c r="AC25" s="58"/>
+      <c r="AD25" s="58"/>
+      <c r="AE25" s="58"/>
+      <c r="AF25" s="58"/>
+      <c r="AG25" s="58"/>
+      <c r="AH25" s="58"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="42">
+        <v>1.9614636079565003E-3</v>
+      </c>
+      <c r="F26">
+        <v>0.24647257123495783</v>
+      </c>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39">
+        <f t="shared" si="0"/>
+        <v>1.9614636079565004</v>
+      </c>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39">
+        <f t="shared" si="1"/>
+        <v>246.47257123495783</v>
+      </c>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="41">
+        <v>6.87708369713821E-3</v>
+      </c>
+      <c r="S26" s="60"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="41">
+        <f>R26*1000</f>
+        <v>6.8770836971382101</v>
+      </c>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="58"/>
+      <c r="AA26" s="58"/>
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="58"/>
+      <c r="AD26" s="58"/>
+      <c r="AE26" s="58"/>
+      <c r="AF26" s="58"/>
+      <c r="AG26" s="58"/>
+      <c r="AH26" s="58"/>
+    </row>
+    <row r="27" spans="1:34" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="52">
+        <v>1.0263390989901262E-2</v>
+      </c>
+      <c r="C27" s="52">
+        <f>AVERAGE(B27:B31)</f>
+        <v>1.778395169800312E-2</v>
+      </c>
+      <c r="D27" s="52">
+        <f>_xlfn.STDEV.S(B27:B31)</f>
+        <v>6.5216046642797296E-3</v>
+      </c>
+      <c r="E27" s="52">
+        <f>D27/SQRT(5)</f>
+        <v>2.9165502703418339E-3</v>
+      </c>
+      <c r="F27" s="53">
+        <v>4.5268076678274678</v>
+      </c>
+      <c r="G27" s="54">
+        <f>AVERAGE(F27:F31)</f>
+        <v>8.5301243112311607</v>
+      </c>
+      <c r="H27" s="54">
+        <f>_xlfn.STDEV.S(F27:F31)</f>
+        <v>3.392172236127875</v>
+      </c>
+      <c r="I27" s="54">
+        <f>H27/SQRT(4)</f>
+        <v>1.6960861180639375</v>
+      </c>
+      <c r="J27" s="54">
+        <f t="shared" si="0"/>
+        <v>10.263390989901263</v>
+      </c>
+      <c r="K27" s="54">
+        <f>AVERAGE(J27:J31)</f>
+        <v>17.783951698003118</v>
+      </c>
+      <c r="L27" s="54">
+        <f>_xlfn.STDEV.S(J27:J31)</f>
+        <v>6.5216046642797245</v>
+      </c>
+      <c r="M27" s="54">
+        <f>L27/SQRT(5)</f>
+        <v>2.9165502703418316</v>
+      </c>
+      <c r="N27" s="54">
+        <f t="shared" si="1"/>
+        <v>4526.8076678274674</v>
+      </c>
+      <c r="O27" s="54">
+        <f>AVERAGE(N27:N31)</f>
+        <v>8530.1243112311604</v>
+      </c>
+      <c r="P27" s="54">
+        <f>_xlfn.STDEV.S(N27:N31)</f>
+        <v>3392.1722361278707</v>
+      </c>
+      <c r="Q27" s="54">
+        <f>P27/SQRT(4)</f>
+        <v>1696.0861180639354</v>
+      </c>
+      <c r="R27" s="56">
+        <v>3.0745893529043101E-2</v>
+      </c>
+      <c r="S27" s="60">
+        <f>AVERAGE(R27:R31)</f>
+        <v>3.0535844626716525E-2</v>
+      </c>
+      <c r="T27" s="57">
+        <f>_xlfn.STDEV.S(R27:R31)</f>
+        <v>2.9994152455848459E-3</v>
+      </c>
+      <c r="U27" s="57">
+        <f>T27/SQRT(4)</f>
+        <v>1.499707622792423E-3</v>
+      </c>
+      <c r="V27" s="41">
+        <f>R27*1000</f>
+        <v>30.745893529043101</v>
+      </c>
+      <c r="W27" s="57">
+        <f>AVERAGE(V27:V31)</f>
+        <v>30.535844626716518</v>
+      </c>
+      <c r="X27" s="57">
+        <f>_xlfn.STDEV.S(V27:V31)</f>
+        <v>2.9994152455848462</v>
+      </c>
+      <c r="Y27" s="57">
+        <f>X27/SQRT(4)</f>
+        <v>1.4997076227924231</v>
+      </c>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="58"/>
+      <c r="AF27" s="58"/>
+      <c r="AG27" s="58"/>
+      <c r="AH27" s="58"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="42">
+        <v>1.1063833782919504E-2</v>
+      </c>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39">
+        <f t="shared" si="0"/>
+        <v>11.063833782919504</v>
+      </c>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="41">
+        <v>3.4226574164589699E-2</v>
+      </c>
+      <c r="S28" s="60"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="41">
+        <f>R28*1000</f>
+        <v>34.226574164589699</v>
+      </c>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="58"/>
+      <c r="AC28" s="58"/>
+      <c r="AD28" s="58"/>
+      <c r="AE28" s="58"/>
+      <c r="AF28" s="58"/>
+      <c r="AG28" s="58"/>
+      <c r="AH28" s="58"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="42">
+        <v>2.1858174624332278E-2</v>
+      </c>
+      <c r="F29">
+        <v>7.420706116299538</v>
+      </c>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39">
+        <f t="shared" si="0"/>
+        <v>21.858174624332278</v>
+      </c>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39">
+        <f t="shared" si="1"/>
+        <v>7420.7061162995378</v>
+      </c>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="41">
+        <v>3.03973714983969E-2</v>
+      </c>
+      <c r="S29" s="60"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="41">
+        <f>R29*1000</f>
+        <v>30.3973714983969</v>
+      </c>
+      <c r="W29" s="57"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="58"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="58"/>
+      <c r="AC29" s="58"/>
+      <c r="AD29" s="58"/>
+      <c r="AE29" s="58"/>
+      <c r="AF29" s="58"/>
+      <c r="AG29" s="58"/>
+      <c r="AH29" s="58"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="42">
+        <v>2.2613419561160194E-2</v>
+      </c>
+      <c r="F30">
+        <v>9.6385421807756</v>
+      </c>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39">
+        <f t="shared" si="0"/>
+        <v>22.613419561160192</v>
+      </c>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39">
+        <f t="shared" si="1"/>
+        <v>9638.5421807755993</v>
+      </c>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="41">
+        <v>3.14136516262917E-2</v>
+      </c>
+      <c r="S30" s="60"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="41">
+        <f>R30*1000</f>
+        <v>31.413651626291699</v>
+      </c>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="57"/>
+      <c r="Z30" s="58"/>
+      <c r="AA30" s="58"/>
+      <c r="AB30" s="58"/>
+      <c r="AC30" s="58"/>
+      <c r="AD30" s="58"/>
+      <c r="AE30" s="58"/>
+      <c r="AF30" s="58"/>
+      <c r="AG30" s="58"/>
+      <c r="AH30" s="58"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="42">
+        <v>2.3120939531702363E-2</v>
+      </c>
+      <c r="F31">
+        <v>12.534441280022037</v>
+      </c>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39">
+        <f t="shared" si="0"/>
+        <v>23.120939531702362</v>
+      </c>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39">
+        <f t="shared" si="1"/>
+        <v>12534.441280022036</v>
+      </c>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="41">
+        <v>2.58957323152612E-2</v>
+      </c>
+      <c r="S31" s="60"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="41">
+        <f>R31*1000</f>
+        <v>25.895732315261199</v>
+      </c>
+      <c r="W31" s="57"/>
+      <c r="X31" s="57"/>
+      <c r="Y31" s="57"/>
+      <c r="Z31" s="58"/>
+      <c r="AA31" s="58"/>
+      <c r="AB31" s="58"/>
+      <c r="AC31" s="58"/>
+      <c r="AD31" s="58"/>
+      <c r="AE31" s="58"/>
+      <c r="AF31" s="58"/>
+      <c r="AG31" s="58"/>
+      <c r="AH31" s="58"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="42">
+        <v>5.4788307311903891E-3</v>
+      </c>
+      <c r="C32" s="42">
+        <f>AVERAGE(B32:B36)</f>
+        <v>8.774214349685814E-3</v>
+      </c>
+      <c r="D32" s="42">
+        <f>_xlfn.STDEV.S(B32:B36)</f>
+        <v>4.911280753574567E-3</v>
+      </c>
+      <c r="E32" s="42">
+        <f>D32/SQRT(5)</f>
+        <v>2.1963915243158249E-3</v>
+      </c>
+      <c r="F32">
+        <v>0.73253218161485967</v>
+      </c>
+      <c r="G32" s="39">
+        <f>AVERAGE(F32:F36)</f>
+        <v>0.72264158226760344</v>
+      </c>
+      <c r="H32" s="39">
+        <f>_xlfn.STDEV.S(F32:F36)</f>
+        <v>0.18309426007140073</v>
+      </c>
+      <c r="I32" s="39">
+        <f>H32/SQRT(5)</f>
+        <v>8.1882242361935503E-2</v>
+      </c>
+      <c r="J32" s="39">
+        <f t="shared" si="0"/>
+        <v>5.4788307311903894</v>
+      </c>
+      <c r="K32" s="50">
+        <f>AVERAGE(J32:J36)</f>
+        <v>8.7742143496858134</v>
+      </c>
+      <c r="L32" s="50">
+        <f>_xlfn.STDEV.S(J32:J36)</f>
+        <v>4.9112807535745668</v>
+      </c>
+      <c r="M32" s="50">
+        <f>L32/SQRT(5)</f>
+        <v>2.1963915243158247</v>
+      </c>
+      <c r="N32" s="39">
+        <f t="shared" si="1"/>
+        <v>732.53218161485972</v>
+      </c>
+      <c r="O32" s="39">
+        <f>AVERAGE(N32:N36)</f>
+        <v>722.64158226760333</v>
+      </c>
+      <c r="P32" s="39">
+        <f>_xlfn.STDEV.S(N32:N36)</f>
+        <v>183.09426007140161</v>
+      </c>
+      <c r="Q32" s="39">
+        <f>P32/SQRT(5)</f>
+        <v>81.882242361935894</v>
+      </c>
+      <c r="R32" s="41">
+        <v>3.1850118389617398E-2</v>
+      </c>
+      <c r="S32" s="60">
+        <f>AVERAGE(R32:R36)</f>
+        <v>4.0271166108141319E-2</v>
+      </c>
+      <c r="T32" s="57">
+        <f>_xlfn.STDEV.S(R32:R36)</f>
+        <v>8.8656929755320593E-3</v>
+      </c>
+      <c r="U32" s="57">
+        <f>T32/SQRT(5)</f>
+        <v>3.9648584321864124E-3</v>
+      </c>
+      <c r="V32" s="41">
+        <f>R32*1000</f>
+        <v>31.850118389617396</v>
+      </c>
+      <c r="W32" s="57">
+        <f>AVERAGE(V32:V36)</f>
+        <v>40.271166108141323</v>
+      </c>
+      <c r="X32" s="57">
+        <f>_xlfn.STDEV.S(V32:V36)</f>
+        <v>8.8656929755320029</v>
+      </c>
+      <c r="Y32" s="57">
+        <f>X32/SQRT(5)</f>
+        <v>3.9648584321863876</v>
+      </c>
+      <c r="Z32" s="58"/>
+      <c r="AA32" s="58"/>
+      <c r="AB32" s="58"/>
+      <c r="AC32" s="58"/>
+      <c r="AD32" s="58"/>
+      <c r="AE32" s="58"/>
+      <c r="AF32" s="58"/>
+      <c r="AG32" s="58"/>
+      <c r="AH32" s="58"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="42">
+        <v>9.4379664944887077E-3</v>
+      </c>
+      <c r="F33">
+        <v>0.90109906630237613</v>
+      </c>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39">
+        <f t="shared" si="0"/>
+        <v>9.4379664944887072</v>
+      </c>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39">
+        <f t="shared" si="1"/>
+        <v>901.09906630237617</v>
+      </c>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="41">
+        <v>4.1026735792770899E-2</v>
+      </c>
+      <c r="S33" s="60"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="41">
+        <f>R33*1000</f>
+        <v>41.0267357927709</v>
+      </c>
+      <c r="W33" s="57"/>
+      <c r="X33" s="57"/>
+      <c r="Y33" s="57"/>
+      <c r="Z33" s="58"/>
+      <c r="AA33" s="58"/>
+      <c r="AB33" s="58"/>
+      <c r="AC33" s="58"/>
+      <c r="AD33" s="58"/>
+      <c r="AE33" s="58"/>
+      <c r="AF33" s="58"/>
+      <c r="AG33" s="58"/>
+      <c r="AH33" s="58"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="42">
+        <v>1.6455934959037324E-2</v>
+      </c>
+      <c r="F34">
+        <v>0.86449648019390579</v>
+      </c>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39">
+        <f t="shared" si="0"/>
+        <v>16.455934959037325</v>
+      </c>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39">
+        <f t="shared" si="1"/>
+        <v>864.49648019390577</v>
+      </c>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="41">
+        <v>5.2317821025532903E-2</v>
+      </c>
+      <c r="S34" s="60"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="41">
+        <f>R34*1000</f>
+        <v>52.317821025532901</v>
+      </c>
+      <c r="W34" s="57"/>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="58"/>
+      <c r="AA34" s="58"/>
+      <c r="AB34" s="58"/>
+      <c r="AC34" s="58"/>
+      <c r="AD34" s="58"/>
+      <c r="AE34" s="58"/>
+      <c r="AF34" s="58"/>
+      <c r="AG34" s="58"/>
+      <c r="AH34" s="58"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="42">
+        <v>8.8397356273583472E-3</v>
+      </c>
+      <c r="F35">
+        <v>0.6748203504440905</v>
+      </c>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39">
+        <f t="shared" si="0"/>
+        <v>8.8397356273583476</v>
+      </c>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39">
+        <f t="shared" si="1"/>
+        <v>674.82035044409054</v>
+      </c>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="41">
+        <v>3.5889989224644099E-2</v>
+      </c>
+      <c r="S35" s="60"/>
+      <c r="T35" s="57"/>
+      <c r="U35" s="57"/>
+      <c r="V35" s="41">
+        <f>R35*1000</f>
+        <v>35.889989224644097</v>
+      </c>
+      <c r="W35" s="57"/>
+      <c r="X35" s="57"/>
+      <c r="Y35" s="57"/>
+      <c r="Z35" s="58"/>
+      <c r="AA35" s="58"/>
+      <c r="AB35" s="58"/>
+      <c r="AC35" s="58"/>
+      <c r="AD35" s="58"/>
+      <c r="AE35" s="58"/>
+      <c r="AF35" s="58"/>
+      <c r="AG35" s="58"/>
+      <c r="AH35" s="58"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="42">
+        <v>3.6586039363542973E-3</v>
+      </c>
+      <c r="F36">
+        <v>0.44025983278278469</v>
+      </c>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39">
+        <f t="shared" si="0"/>
+        <v>3.6586039363542975</v>
+      </c>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39">
+        <f t="shared" si="1"/>
+        <v>440.25983278278471</v>
+      </c>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="57"/>
+      <c r="X36" s="57"/>
+      <c r="Y36" s="57"/>
+      <c r="Z36" s="58"/>
+      <c r="AA36" s="58"/>
+      <c r="AB36" s="58"/>
+      <c r="AC36" s="58"/>
+      <c r="AD36" s="58"/>
+      <c r="AE36" s="58"/>
+      <c r="AF36" s="58"/>
+      <c r="AG36" s="58"/>
+      <c r="AH36" s="58"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="42">
+        <v>7.543981264115907E-3</v>
+      </c>
+      <c r="C37" s="42">
+        <f>AVERAGE(B37:B41)</f>
+        <v>6.8282677406202256E-3</v>
+      </c>
+      <c r="D37" s="42">
+        <f>_xlfn.STDEV.S(B37:B41)</f>
+        <v>1.2940811135089029E-3</v>
+      </c>
+      <c r="E37" s="42">
+        <f>D37/SQRT(5)</f>
+        <v>5.7873066764090562E-4</v>
+      </c>
+      <c r="F37">
+        <v>1.6716194130361317</v>
+      </c>
+      <c r="G37" s="39">
+        <f>AVERAGE(F37:F41)</f>
+        <v>1.0548190062781033</v>
+      </c>
+      <c r="H37" s="39">
+        <f>_xlfn.STDEV.S(F37:F41)</f>
+        <v>0.47390788255798222</v>
+      </c>
+      <c r="I37" s="39">
+        <f>H37/SQRT(4)</f>
+        <v>0.23695394127899111</v>
+      </c>
+      <c r="J37" s="39">
+        <f t="shared" si="0"/>
+        <v>7.5439812641159074</v>
+      </c>
+      <c r="K37" s="39">
+        <f>AVERAGE(J37:J41)</f>
+        <v>6.828267740620225</v>
+      </c>
+      <c r="L37" s="39">
+        <f>_xlfn.STDEV.S(J37:J41)</f>
+        <v>1.2940811135089045</v>
+      </c>
+      <c r="M37" s="39">
+        <f>L37/SQRT(5)</f>
+        <v>0.57873066764090642</v>
+      </c>
+      <c r="N37" s="39">
+        <f t="shared" si="1"/>
+        <v>1671.6194130361316</v>
+      </c>
+      <c r="O37" s="39">
+        <f>AVERAGE(N37:N41)</f>
+        <v>1054.8190062781034</v>
+      </c>
+      <c r="P37" s="39">
+        <f>_xlfn.STDEV.S(N37:N41)</f>
+        <v>473.90788255798168</v>
+      </c>
+      <c r="Q37" s="39">
+        <f>P37/SQRT(4)</f>
+        <v>236.95394127899084</v>
+      </c>
+      <c r="R37" s="41">
+        <v>4.4578285176112599E-2</v>
+      </c>
+      <c r="S37" s="60">
+        <f>AVERAGE(R37:R41)</f>
+        <v>4.1618229706369803E-2</v>
+      </c>
+      <c r="T37" s="57">
+        <f>_xlfn.STDEV.S(R37:R41)</f>
+        <v>7.1698070756606464E-3</v>
+      </c>
+      <c r="U37" s="57">
+        <f>T37/SQRT(4)</f>
+        <v>3.5849035378303232E-3</v>
+      </c>
+      <c r="V37" s="41">
+        <f>R37*1000</f>
+        <v>44.578285176112601</v>
+      </c>
+      <c r="W37" s="57">
+        <f>AVERAGE(V37:V41)</f>
+        <v>41.618229706369796</v>
+      </c>
+      <c r="X37" s="57">
+        <f>_xlfn.STDEV.S(V37:V41)</f>
+        <v>7.1698070756607031</v>
+      </c>
+      <c r="Y37" s="57">
+        <f>X37/SQRT(4)</f>
+        <v>3.5849035378303515</v>
+      </c>
+      <c r="Z37" s="58"/>
+      <c r="AA37" s="58"/>
+      <c r="AB37" s="58"/>
+      <c r="AC37" s="58"/>
+      <c r="AD37" s="58"/>
+      <c r="AE37" s="58"/>
+      <c r="AF37" s="58"/>
+      <c r="AG37" s="58"/>
+      <c r="AH37" s="58"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="42">
+        <v>4.5256780385424054E-3</v>
+      </c>
+      <c r="F38">
+        <v>0.7020236526236997</v>
+      </c>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39">
+        <f t="shared" si="0"/>
+        <v>4.5256780385424058</v>
+      </c>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39">
+        <f t="shared" si="1"/>
+        <v>702.02365262369972</v>
+      </c>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="41">
+        <v>3.8768530588302402E-2</v>
+      </c>
+      <c r="S38" s="60"/>
+      <c r="T38" s="57"/>
+      <c r="U38" s="57"/>
+      <c r="V38" s="41">
+        <f>R38*1000</f>
+        <v>38.768530588302404</v>
+      </c>
+      <c r="W38" s="57"/>
+      <c r="X38" s="57"/>
+      <c r="Y38" s="57"/>
+      <c r="Z38" s="58"/>
+      <c r="AA38" s="58"/>
+      <c r="AB38" s="58"/>
+      <c r="AC38" s="58"/>
+      <c r="AD38" s="58"/>
+      <c r="AE38" s="58"/>
+      <c r="AF38" s="58"/>
+      <c r="AG38" s="58"/>
+      <c r="AH38" s="58"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="42">
+        <v>7.3694456003257428E-3</v>
+      </c>
+      <c r="F39">
+        <v>1.18166914639465</v>
+      </c>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39">
+        <f t="shared" si="0"/>
+        <v>7.3694456003257427</v>
+      </c>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39">
+        <f t="shared" si="1"/>
+        <v>1181.6691463946499</v>
+      </c>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="41">
+        <v>4.9849474093886403E-2</v>
+      </c>
+      <c r="S39" s="60"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="57"/>
+      <c r="V39" s="41">
+        <f>R39*1000</f>
+        <v>49.8494740938864</v>
+      </c>
+      <c r="W39" s="57"/>
+      <c r="X39" s="57"/>
+      <c r="Y39" s="57"/>
+      <c r="Z39" s="58"/>
+      <c r="AA39" s="58"/>
+      <c r="AB39" s="58"/>
+      <c r="AC39" s="58"/>
+      <c r="AD39" s="58"/>
+      <c r="AE39" s="58"/>
+      <c r="AF39" s="58"/>
+      <c r="AG39" s="58"/>
+      <c r="AH39" s="58"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="42">
+        <v>7.2014463173674173E-3</v>
+      </c>
+      <c r="F40">
+        <v>0.66396381305793206</v>
+      </c>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39">
+        <f t="shared" si="0"/>
+        <v>7.2014463173674175</v>
+      </c>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39">
+        <f t="shared" si="1"/>
+        <v>663.96381305793204</v>
+      </c>
+      <c r="O40" s="39"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="41">
+        <v>3.3276628967177799E-2</v>
+      </c>
+      <c r="S40" s="60"/>
+      <c r="T40" s="57"/>
+      <c r="U40" s="57"/>
+      <c r="V40" s="41">
+        <f>R40*1000</f>
+        <v>33.2766289671778</v>
+      </c>
+      <c r="W40" s="57"/>
+      <c r="X40" s="57"/>
+      <c r="Y40" s="57"/>
+      <c r="Z40" s="58"/>
+      <c r="AA40" s="58"/>
+      <c r="AB40" s="58"/>
+      <c r="AC40" s="58"/>
+      <c r="AD40" s="58"/>
+      <c r="AE40" s="58"/>
+      <c r="AF40" s="58"/>
+      <c r="AG40" s="58"/>
+      <c r="AH40" s="58"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="42">
+        <v>7.5007874827496572E-3</v>
+      </c>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39">
+        <f t="shared" si="0"/>
+        <v>7.500787482749657</v>
+      </c>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="60"/>
+      <c r="T41" s="57"/>
+      <c r="U41" s="57"/>
+      <c r="V41" s="41"/>
+      <c r="W41" s="57"/>
+      <c r="X41" s="57"/>
+      <c r="Y41" s="57"/>
+      <c r="Z41" s="58"/>
+      <c r="AA41" s="58"/>
+      <c r="AB41" s="58"/>
+      <c r="AC41" s="58"/>
+      <c r="AD41" s="58"/>
+      <c r="AE41" s="58"/>
+      <c r="AF41" s="58"/>
+      <c r="AG41" s="58"/>
+      <c r="AH41" s="58"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="42">
+        <v>1.8426413085582023E-3</v>
+      </c>
+      <c r="C42" s="42">
+        <f>AVERAGE(B42:B46)</f>
+        <v>1.6423964258539554E-3</v>
+      </c>
+      <c r="D42" s="42">
+        <f>_xlfn.STDEV.S(B42:B46)</f>
+        <v>4.1589071939376085E-4</v>
+      </c>
+      <c r="E42" s="42">
+        <f>D42/SQRT(5)</f>
+        <v>1.8599198395514787E-4</v>
+      </c>
+      <c r="F42">
+        <v>0.20561240236953329</v>
+      </c>
+      <c r="G42" s="39">
+        <f>AVERAGE(F42:F46)</f>
+        <v>0.28921143988783377</v>
+      </c>
+      <c r="H42" s="39">
+        <f>_xlfn.STDEV.S(F42:F46)</f>
+        <v>0.16820350734704337</v>
+      </c>
+      <c r="I42" s="39">
+        <f>H42/SQRT(5)</f>
+        <v>7.5222895296374853E-2</v>
+      </c>
+      <c r="J42" s="39">
+        <f t="shared" si="0"/>
+        <v>1.8426413085582023</v>
+      </c>
+      <c r="K42" s="39">
+        <f>AVERAGE(J42:J46)</f>
+        <v>1.6423964258539552</v>
+      </c>
+      <c r="L42" s="39">
+        <f>_xlfn.STDEV.S(J42:J46)</f>
+        <v>0.41589071939376138</v>
+      </c>
+      <c r="M42" s="39">
+        <f>L42/SQRT(5)</f>
+        <v>0.1859919839551481</v>
+      </c>
+      <c r="N42" s="39">
+        <f t="shared" si="1"/>
+        <v>205.6124023695333</v>
+      </c>
+      <c r="O42" s="39">
+        <f>AVERAGE(N42:N46)</f>
+        <v>289.21143988783371</v>
+      </c>
+      <c r="P42" s="39">
+        <f>_xlfn.STDEV.S(N42:N46)</f>
+        <v>168.2035073470436</v>
+      </c>
+      <c r="Q42" s="39">
+        <f>P42/SQRT(5)</f>
+        <v>75.222895296374958</v>
+      </c>
+      <c r="R42" s="41">
+        <v>2.60851923166337E-3</v>
+      </c>
+      <c r="S42" s="60">
+        <f>AVERAGE(R42:R46)</f>
+        <v>2.7974276849771621E-3</v>
+      </c>
+      <c r="T42" s="57">
+        <f>_xlfn.STDEV.S(R42:R46)</f>
+        <v>1.4760707448920247E-3</v>
+      </c>
+      <c r="U42" s="57">
+        <f>T42/SQRT(5)</f>
+        <v>6.6011890503546347E-4</v>
+      </c>
+      <c r="V42" s="41">
+        <f>R42*1000</f>
+        <v>2.6085192316633701</v>
+      </c>
+      <c r="W42" s="57">
+        <f>AVERAGE(V42:V46)</f>
+        <v>2.797427684977162</v>
+      </c>
+      <c r="X42" s="57">
+        <f>_xlfn.STDEV.S(V42:V46)</f>
+        <v>1.4760707448920243</v>
+      </c>
+      <c r="Y42" s="57">
+        <f>X42/SQRT(5)</f>
+        <v>0.66011890503546333</v>
+      </c>
+      <c r="Z42" s="58"/>
+      <c r="AA42" s="58"/>
+      <c r="AB42" s="58"/>
+      <c r="AC42" s="58"/>
+      <c r="AD42" s="58"/>
+      <c r="AE42" s="58"/>
+      <c r="AF42" s="58"/>
+      <c r="AG42" s="58"/>
+      <c r="AH42" s="58"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" s="42">
+        <v>1.5729493195579577E-3</v>
+      </c>
+      <c r="F43">
+        <v>0.35405597181079279</v>
+      </c>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39">
+        <f t="shared" si="0"/>
+        <v>1.5729493195579578</v>
+      </c>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39">
+        <f t="shared" si="1"/>
+        <v>354.05597181079281</v>
+      </c>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="41">
+        <v>4.1896917929837799E-3</v>
+      </c>
+      <c r="S43" s="60"/>
+      <c r="T43" s="57"/>
+      <c r="U43" s="57"/>
+      <c r="V43" s="41">
+        <f>R43*1000</f>
+        <v>4.1896917929837798</v>
+      </c>
+      <c r="W43" s="57"/>
+      <c r="X43" s="57"/>
+      <c r="Y43" s="57"/>
+      <c r="Z43" s="58"/>
+      <c r="AA43" s="58"/>
+      <c r="AB43" s="58"/>
+      <c r="AC43" s="58"/>
+      <c r="AD43" s="58"/>
+      <c r="AE43" s="58"/>
+      <c r="AF43" s="58"/>
+      <c r="AG43" s="58"/>
+      <c r="AH43" s="58"/>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="42">
+        <v>2.0586645233422892E-3</v>
+      </c>
+      <c r="F44">
+        <v>0.55582523898099623</v>
+      </c>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39">
+        <f t="shared" si="0"/>
+        <v>2.0586645233422893</v>
+      </c>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39">
+        <f t="shared" si="1"/>
+        <v>555.82523898099623</v>
+      </c>
+      <c r="O44" s="39"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="41">
+        <v>4.3953094068381699E-3</v>
+      </c>
+      <c r="S44" s="60"/>
+      <c r="T44" s="57"/>
+      <c r="U44" s="57"/>
+      <c r="V44" s="41">
+        <f>R44*1000</f>
+        <v>4.3953094068381695</v>
+      </c>
+      <c r="W44" s="57"/>
+      <c r="X44" s="57"/>
+      <c r="Y44" s="57"/>
+      <c r="Z44" s="58"/>
+      <c r="AA44" s="58"/>
+      <c r="AB44" s="58"/>
+      <c r="AC44" s="58"/>
+      <c r="AD44" s="58"/>
+      <c r="AE44" s="58"/>
+      <c r="AF44" s="58"/>
+      <c r="AG44" s="58"/>
+      <c r="AH44" s="58"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="42">
+        <v>9.6635896463814611E-4</v>
+      </c>
+      <c r="F45">
+        <v>0.17466354637552567</v>
+      </c>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39">
+        <f t="shared" si="0"/>
+        <v>0.96635896463814608</v>
+      </c>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39">
+        <f t="shared" si="1"/>
+        <v>174.66354637552567</v>
+      </c>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="41">
+        <v>1.03324180306961E-3</v>
+      </c>
+      <c r="S45" s="60"/>
+      <c r="T45" s="57"/>
+      <c r="U45" s="57"/>
+      <c r="V45" s="41">
+        <f>R45*1000</f>
+        <v>1.03324180306961</v>
+      </c>
+      <c r="W45" s="57"/>
+      <c r="X45" s="57"/>
+      <c r="Y45" s="57"/>
+      <c r="Z45" s="58"/>
+      <c r="AA45" s="58"/>
+      <c r="AB45" s="58"/>
+      <c r="AC45" s="58"/>
+      <c r="AD45" s="58"/>
+      <c r="AE45" s="58"/>
+      <c r="AF45" s="58"/>
+      <c r="AG45" s="58"/>
+      <c r="AH45" s="58"/>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="42">
+        <v>1.7713680131731812E-3</v>
+      </c>
+      <c r="F46">
+        <v>0.15590003990232068</v>
+      </c>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39">
+        <f t="shared" si="0"/>
+        <v>1.7713680131731813</v>
+      </c>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39">
+        <f t="shared" si="1"/>
+        <v>155.90003990232069</v>
+      </c>
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="41">
+        <v>1.7603761903308801E-3</v>
+      </c>
+      <c r="S46" s="60"/>
+      <c r="T46" s="57"/>
+      <c r="U46" s="57"/>
+      <c r="V46" s="41">
+        <f>R46*1000</f>
+        <v>1.7603761903308801</v>
+      </c>
+      <c r="W46" s="57"/>
+      <c r="X46" s="57"/>
+      <c r="Y46" s="57"/>
+      <c r="Z46" s="58"/>
+      <c r="AA46" s="58"/>
+      <c r="AB46" s="58"/>
+      <c r="AC46" s="58"/>
+      <c r="AD46" s="58"/>
+      <c r="AE46" s="58"/>
+      <c r="AF46" s="58"/>
+      <c r="AG46" s="58"/>
+      <c r="AH46" s="58"/>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="42">
+        <v>1.5897837936821593E-3</v>
+      </c>
+      <c r="C47" s="42">
+        <f>AVERAGE(B47:B51)</f>
+        <v>1.7401791314959169E-3</v>
+      </c>
+      <c r="D47" s="42">
+        <f>_xlfn.STDEV.S(B47:B51)</f>
+        <v>2.5635387727712829E-4</v>
+      </c>
+      <c r="E47" s="42">
+        <f>D47/SQRT(5)</f>
+        <v>1.146449391774595E-4</v>
+      </c>
+      <c r="F47">
+        <v>0.12291674977384805</v>
+      </c>
+      <c r="G47" s="39">
+        <f>AVERAGE(F47:F51)</f>
+        <v>0.16127279442174566</v>
+      </c>
+      <c r="H47" s="39">
+        <f>_xlfn.STDEV.S(F47:F51)</f>
+        <v>6.5125772663869819E-2</v>
+      </c>
+      <c r="I47" s="39">
+        <f>H47/SQRT(4)</f>
+        <v>3.2562886331934909E-2</v>
+      </c>
+      <c r="J47" s="39">
+        <f t="shared" si="0"/>
+        <v>1.5897837936821593</v>
+      </c>
+      <c r="K47" s="39">
+        <f>AVERAGE(J47:J51)</f>
+        <v>1.740179131495917</v>
+      </c>
+      <c r="L47" s="39">
+        <f>_xlfn.STDEV.S(J47:J51)</f>
+        <v>0.25635387727712672</v>
+      </c>
+      <c r="M47" s="39">
+        <f>L47/SQRT(5)</f>
+        <v>0.1146449391774588</v>
+      </c>
+      <c r="N47" s="39">
+        <f t="shared" si="1"/>
+        <v>122.91674977384805</v>
+      </c>
+      <c r="O47" s="39">
+        <f>AVERAGE(N47:N51)</f>
+        <v>161.27279442174569</v>
+      </c>
+      <c r="P47" s="39">
+        <f>_xlfn.STDEV.S(N47:N51)</f>
+        <v>65.125772663869725</v>
+      </c>
+      <c r="Q47" s="39">
+        <f>P47/SQRT(4)</f>
+        <v>32.562886331934862</v>
+      </c>
+      <c r="R47" s="41">
+        <v>4.1867003272652699E-2</v>
+      </c>
+      <c r="S47" s="60">
+        <f>AVERAGE(R47:R51)</f>
+        <v>4.2011304548606583E-2</v>
+      </c>
+      <c r="T47" s="57">
+        <f>_xlfn.STDEV.S(R47:R51)</f>
+        <v>5.6314679256342752E-3</v>
+      </c>
+      <c r="U47" s="57">
+        <f>T47/SQRT(4)</f>
+        <v>2.8157339628171376E-3</v>
+      </c>
+      <c r="V47" s="41">
+        <f>R47*1000</f>
+        <v>41.867003272652696</v>
+      </c>
+      <c r="W47" s="57">
+        <f>AVERAGE(V47:V51)</f>
+        <v>42.011304548606581</v>
+      </c>
+      <c r="X47" s="57">
+        <f>_xlfn.STDEV.S(V47:V51)</f>
+        <v>5.6314679256342774</v>
+      </c>
+      <c r="Y47" s="57">
+        <f>X47/SQRT(4)</f>
+        <v>2.8157339628171387</v>
+      </c>
+      <c r="Z47" s="58"/>
+      <c r="AA47" s="58"/>
+      <c r="AB47" s="58"/>
+      <c r="AC47" s="58"/>
+      <c r="AD47" s="58"/>
+      <c r="AE47" s="58"/>
+      <c r="AF47" s="58"/>
+      <c r="AG47" s="58"/>
+      <c r="AH47" s="58"/>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="42">
+        <v>1.9272194198414825E-3</v>
+      </c>
+      <c r="F48">
+        <v>0.13873132392979384</v>
+      </c>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39">
+        <f t="shared" si="0"/>
+        <v>1.9272194198414825</v>
+      </c>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39">
+        <f t="shared" si="1"/>
+        <v>138.73132392979383</v>
+      </c>
+      <c r="O48" s="39"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="39"/>
+      <c r="R48" s="41">
+        <v>4.6806276990890502E-2</v>
+      </c>
+      <c r="S48" s="60"/>
+      <c r="T48" s="57"/>
+      <c r="U48" s="57"/>
+      <c r="V48" s="41">
+        <f>R48*1000</f>
+        <v>46.806276990890503</v>
+      </c>
+      <c r="W48" s="57"/>
+      <c r="X48" s="57"/>
+      <c r="Y48" s="57"/>
+      <c r="Z48" s="58"/>
+      <c r="AA48" s="58"/>
+      <c r="AB48" s="58"/>
+      <c r="AC48" s="58"/>
+      <c r="AD48" s="58"/>
+      <c r="AE48" s="58"/>
+      <c r="AF48" s="58"/>
+      <c r="AG48" s="58"/>
+      <c r="AH48" s="58"/>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" s="42">
+        <v>1.7489701231783142E-3</v>
+      </c>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39">
+        <f t="shared" si="0"/>
+        <v>1.7489701231783141</v>
+      </c>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="41">
+        <v>3.3678037555376399E-2</v>
+      </c>
+      <c r="S49" s="60"/>
+      <c r="T49" s="57"/>
+      <c r="U49" s="57"/>
+      <c r="V49" s="41">
+        <f>R49*1000</f>
+        <v>33.678037555376399</v>
+      </c>
+      <c r="W49" s="57"/>
+      <c r="X49" s="57"/>
+      <c r="Y49" s="57"/>
+      <c r="Z49" s="58"/>
+      <c r="AA49" s="58"/>
+      <c r="AB49" s="58"/>
+      <c r="AC49" s="58"/>
+      <c r="AD49" s="58"/>
+      <c r="AE49" s="58"/>
+      <c r="AF49" s="58"/>
+      <c r="AG49" s="58"/>
+      <c r="AH49" s="58"/>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="42">
+        <v>2.0369583595333095E-3</v>
+      </c>
+      <c r="F50">
+        <v>0.12504868994449633</v>
+      </c>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39">
+        <f t="shared" si="0"/>
+        <v>2.0369583595333096</v>
+      </c>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39">
+        <f t="shared" si="1"/>
+        <v>125.04868994449633</v>
+      </c>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="41">
+        <v>4.0136620383475298E-2</v>
+      </c>
+      <c r="S50" s="60"/>
+      <c r="T50" s="57"/>
+      <c r="U50" s="57"/>
+      <c r="V50" s="41">
+        <f>R50*1000</f>
+        <v>40.136620383475297</v>
+      </c>
+      <c r="W50" s="57"/>
+      <c r="X50" s="57"/>
+      <c r="Y50" s="57"/>
+      <c r="Z50" s="58"/>
+      <c r="AA50" s="58"/>
+      <c r="AB50" s="58"/>
+      <c r="AC50" s="58"/>
+      <c r="AD50" s="58"/>
+      <c r="AE50" s="58"/>
+      <c r="AF50" s="58"/>
+      <c r="AG50" s="58"/>
+      <c r="AH50" s="58"/>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="42">
+        <v>1.3979639612443184E-3</v>
+      </c>
+      <c r="F51">
+        <v>0.25839441403884444</v>
+      </c>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39">
+        <f t="shared" si="0"/>
+        <v>1.3979639612443184</v>
+      </c>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39">
+        <f t="shared" si="1"/>
+        <v>258.39441403884445</v>
+      </c>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="41">
+        <v>4.7568584540637997E-2</v>
+      </c>
+      <c r="S51" s="60"/>
+      <c r="T51" s="57"/>
+      <c r="U51" s="57"/>
+      <c r="V51" s="41">
+        <f>R51*1000</f>
+        <v>47.568584540638</v>
+      </c>
+      <c r="W51" s="57"/>
+      <c r="X51" s="57"/>
+      <c r="Y51" s="57"/>
+      <c r="Z51" s="58"/>
+      <c r="AA51" s="58"/>
+      <c r="AB51" s="58"/>
+      <c r="AC51" s="58"/>
+      <c r="AD51" s="58"/>
+      <c r="AE51" s="58"/>
+      <c r="AF51" s="58"/>
+      <c r="AG51" s="58"/>
+      <c r="AH51" s="58"/>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" s="42">
+        <v>1.0267061174887226E-3</v>
+      </c>
+      <c r="C52" s="42">
+        <f>AVERAGE(B52:B56)</f>
+        <v>1.4887128311133744E-3</v>
+      </c>
+      <c r="D52" s="42">
+        <f>_xlfn.STDEV.S(B52:B56)</f>
+        <v>7.8014497330490084E-4</v>
+      </c>
+      <c r="E52" s="42">
+        <f>D52/SQRT(5)</f>
+        <v>3.4889143852290342E-4</v>
+      </c>
+      <c r="F52">
+        <v>1.9072896157767099</v>
+      </c>
+      <c r="G52" s="50">
+        <f>AVERAGE(F52:F56)</f>
+        <v>1.7002915035154404</v>
+      </c>
+      <c r="H52" s="50">
+        <f>_xlfn.STDEV.S(F52:F56)</f>
+        <v>0.46690994894169841</v>
+      </c>
+      <c r="I52" s="50">
+        <f>H52/SQRT(5)</f>
+        <v>0.20880847704091871</v>
+      </c>
+      <c r="J52" s="39">
+        <f t="shared" si="0"/>
+        <v>1.0267061174887226</v>
+      </c>
+      <c r="K52" s="39">
+        <f>AVERAGE(J52:J56)</f>
+        <v>1.4887128311133744</v>
+      </c>
+      <c r="L52" s="39">
+        <f>_xlfn.STDEV.S(J52:J56)</f>
+        <v>0.78014497330490096</v>
+      </c>
+      <c r="M52" s="39">
+        <f>L52/SQRT(5)</f>
+        <v>0.34889143852290344</v>
+      </c>
+      <c r="N52" s="39">
+        <f t="shared" si="1"/>
+        <v>1907.2896157767098</v>
+      </c>
+      <c r="O52" s="50">
+        <f>AVERAGE(N52:N56)</f>
+        <v>1700.2915035154406</v>
+      </c>
+      <c r="P52" s="50">
+        <f>_xlfn.STDEV.S(N52:N56)</f>
+        <v>466.90994894169881</v>
+      </c>
+      <c r="Q52" s="50">
+        <f>P52/SQRT(5)</f>
+        <v>208.80847704091889</v>
+      </c>
+      <c r="R52" s="41">
+        <v>1.39446365857014E-2</v>
+      </c>
+      <c r="S52" s="60">
+        <f>AVERAGE(R52:R56)</f>
+        <v>1.4978657839298758E-2</v>
+      </c>
+      <c r="T52" s="57">
+        <f>_xlfn.STDEV.S(R52:R56)</f>
+        <v>2.9348549254506438E-3</v>
+      </c>
+      <c r="U52" s="57">
+        <f>T52/SQRT(5)</f>
+        <v>1.3125070234815434E-3</v>
+      </c>
+      <c r="V52" s="41">
+        <f>R52*1000</f>
+        <v>13.944636585701401</v>
+      </c>
+      <c r="W52" s="57">
+        <f>AVERAGE(V52:V56)</f>
+        <v>14.978657839298762</v>
+      </c>
+      <c r="X52" s="57">
+        <f>_xlfn.STDEV.S(V52:V56)</f>
+        <v>2.9348549254506224</v>
+      </c>
+      <c r="Y52" s="57">
+        <f>X52/SQRT(5)</f>
+        <v>1.3125070234815339</v>
+      </c>
+      <c r="Z52" s="58"/>
+      <c r="AA52" s="58"/>
+      <c r="AB52" s="58"/>
+      <c r="AC52" s="58"/>
+      <c r="AD52" s="58"/>
+      <c r="AE52" s="58"/>
+      <c r="AF52" s="58"/>
+      <c r="AG52" s="58"/>
+      <c r="AH52" s="58"/>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" s="42">
+        <v>1.0302555445664563E-3</v>
+      </c>
+      <c r="F53">
+        <v>1.1341680726449044</v>
+      </c>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39">
+        <f t="shared" si="0"/>
+        <v>1.0302555445664563</v>
+      </c>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="39">
+        <f t="shared" si="1"/>
+        <v>1134.1680726449044</v>
+      </c>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="41">
+        <v>1.1441869733041199E-2</v>
+      </c>
+      <c r="S53" s="60"/>
+      <c r="T53" s="57"/>
+      <c r="U53" s="57"/>
+      <c r="V53" s="41">
+        <f>R53*1000</f>
+        <v>11.4418697330412</v>
+      </c>
+      <c r="W53" s="57"/>
+      <c r="X53" s="57"/>
+      <c r="Y53" s="57"/>
+      <c r="Z53" s="58"/>
+      <c r="AA53" s="58"/>
+      <c r="AB53" s="58"/>
+      <c r="AC53" s="58"/>
+      <c r="AD53" s="58"/>
+      <c r="AE53" s="58"/>
+      <c r="AF53" s="58"/>
+      <c r="AG53" s="58"/>
+      <c r="AH53" s="58"/>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="42">
+        <v>1.0616909210623012E-3</v>
+      </c>
+      <c r="F54">
+        <v>1.3663037049934414</v>
+      </c>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39">
+        <f t="shared" si="0"/>
+        <v>1.0616909210623011</v>
+      </c>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39">
+        <f t="shared" si="1"/>
+        <v>1366.3037049934414</v>
+      </c>
+      <c r="O54" s="39"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="41">
+        <v>1.39865483895137E-2</v>
+      </c>
+      <c r="S54" s="60"/>
+      <c r="T54" s="57"/>
+      <c r="U54" s="57"/>
+      <c r="V54" s="41">
+        <f>R54*1000</f>
+        <v>13.9865483895137</v>
+      </c>
+      <c r="W54" s="57"/>
+      <c r="X54" s="57"/>
+      <c r="Y54" s="57"/>
+      <c r="Z54" s="58"/>
+      <c r="AA54" s="58"/>
+      <c r="AB54" s="58"/>
+      <c r="AC54" s="58"/>
+      <c r="AD54" s="58"/>
+      <c r="AE54" s="58"/>
+      <c r="AF54" s="58"/>
+      <c r="AG54" s="58"/>
+      <c r="AH54" s="58"/>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="42">
+        <v>1.4839778648147706E-3</v>
+      </c>
+      <c r="F55">
+        <v>2.3269595560359986</v>
+      </c>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39">
+        <f t="shared" si="0"/>
+        <v>1.4839778648147706</v>
+      </c>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39">
+        <f t="shared" si="1"/>
+        <v>2326.9595560359985</v>
+      </c>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="41">
+        <v>1.9246406191570701E-2</v>
+      </c>
+      <c r="S55" s="60"/>
+      <c r="T55" s="57"/>
+      <c r="U55" s="57"/>
+      <c r="V55" s="41">
+        <f>R55*1000</f>
+        <v>19.246406191570699</v>
+      </c>
+      <c r="W55" s="57"/>
+      <c r="X55" s="57"/>
+      <c r="Y55" s="57"/>
+      <c r="Z55" s="58"/>
+      <c r="AA55" s="58"/>
+      <c r="AB55" s="58"/>
+      <c r="AC55" s="58"/>
+      <c r="AD55" s="58"/>
+      <c r="AE55" s="58"/>
+      <c r="AF55" s="58"/>
+      <c r="AG55" s="58"/>
+      <c r="AH55" s="58"/>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="42">
+        <v>2.840933707634621E-3</v>
+      </c>
+      <c r="F56">
+        <v>1.7667365681261489</v>
+      </c>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39">
+        <f t="shared" si="0"/>
+        <v>2.8409337076346208</v>
+      </c>
+      <c r="K56" s="39"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="39">
+        <f t="shared" si="1"/>
+        <v>1766.7365681261488</v>
+      </c>
+      <c r="O56" s="39"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="41">
+        <v>1.6273828296666799E-2</v>
+      </c>
+      <c r="S56" s="60"/>
+      <c r="T56" s="57"/>
+      <c r="U56" s="57"/>
+      <c r="V56" s="41">
+        <f>R56*1000</f>
+        <v>16.2738282966668</v>
+      </c>
+      <c r="W56" s="57"/>
+      <c r="X56" s="57"/>
+      <c r="Y56" s="57"/>
+      <c r="Z56" s="58"/>
+      <c r="AA56" s="58"/>
+      <c r="AB56" s="58"/>
+      <c r="AC56" s="58"/>
+      <c r="AD56" s="58"/>
+      <c r="AE56" s="58"/>
+      <c r="AF56" s="58"/>
+      <c r="AG56" s="58"/>
+      <c r="AH56" s="58"/>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" s="42">
+        <v>5.5140712774364867E-3</v>
+      </c>
+      <c r="C57" s="42">
+        <f>AVERAGE(B57:B61)</f>
+        <v>3.5698789567905924E-3</v>
+      </c>
+      <c r="D57" s="42">
+        <f>_xlfn.STDEV.S(B57:B61)</f>
+        <v>1.4041435381325867E-3</v>
+      </c>
+      <c r="E57" s="42">
+        <f>D57/SQRT(5)</f>
+        <v>6.2795208028630634E-4</v>
+      </c>
+      <c r="F57">
+        <v>0.8511828005953338</v>
+      </c>
+      <c r="G57" s="39">
+        <f>AVERAGE(F57:F61)</f>
+        <v>0.63014404214123387</v>
+      </c>
+      <c r="H57" s="39">
+        <f>_xlfn.STDEV.S(F57:F61)</f>
+        <v>0.15028511743719697</v>
+      </c>
+      <c r="I57" s="39">
+        <f>H57/SQRT(5)</f>
+        <v>6.7209547719222273E-2</v>
+      </c>
+      <c r="J57" s="39">
+        <f t="shared" si="0"/>
+        <v>5.5140712774364866</v>
+      </c>
+      <c r="K57" s="39">
+        <f>AVERAGE(J57:J61)</f>
+        <v>3.5698789567905935</v>
+      </c>
+      <c r="L57" s="39">
+        <f>_xlfn.STDEV.S(J57:J61)</f>
+        <v>1.404143538132586</v>
+      </c>
+      <c r="M57" s="39">
+        <f>L57/SQRT(5)</f>
+        <v>0.627952080286306</v>
+      </c>
+      <c r="N57" s="39">
+        <f t="shared" si="1"/>
+        <v>851.18280059533379</v>
+      </c>
+      <c r="O57" s="39">
+        <f>AVERAGE(N57:N61)</f>
+        <v>630.14404214123385</v>
+      </c>
+      <c r="P57" s="39">
+        <f>_xlfn.STDEV.S(N57:N61)</f>
+        <v>150.28511743719707</v>
+      </c>
+      <c r="Q57" s="39">
+        <f>P57/SQRT(5)</f>
+        <v>67.209547719222329</v>
+      </c>
+      <c r="R57" s="41">
+        <v>7.3144315095305099E-2</v>
+      </c>
+      <c r="S57" s="60">
+        <f>AVERAGE(R57:R61)</f>
+        <v>7.1123451232858736E-2</v>
+      </c>
+      <c r="T57" s="57">
+        <f>_xlfn.STDEV.S(R57:R61)</f>
+        <v>5.106732686866111E-3</v>
+      </c>
+      <c r="U57" s="57">
+        <f>T57/SQRT(5)</f>
+        <v>2.2838002861505541E-3</v>
+      </c>
+      <c r="V57" s="41">
+        <f>R57*1000</f>
+        <v>73.144315095305103</v>
+      </c>
+      <c r="W57" s="50">
+        <f>AVERAGE(V57:V61)</f>
+        <v>71.123451232858741</v>
+      </c>
+      <c r="X57" s="50">
+        <f>_xlfn.STDEV.S(V57:V61)</f>
+        <v>5.1067326868661098</v>
+      </c>
+      <c r="Y57" s="50">
+        <f>X57/SQRT(5)</f>
+        <v>2.2838002861505537</v>
+      </c>
+      <c r="Z57" s="58"/>
+      <c r="AA57" s="58"/>
+      <c r="AB57" s="58"/>
+      <c r="AC57" s="58"/>
+      <c r="AD57" s="58"/>
+      <c r="AE57" s="58"/>
+      <c r="AF57" s="58"/>
+      <c r="AG57" s="58"/>
+      <c r="AH57" s="58"/>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="42">
+        <v>1.9861252770459487E-3</v>
+      </c>
+      <c r="F58">
+        <v>0.57629680806747063</v>
+      </c>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39">
+        <f t="shared" si="0"/>
+        <v>1.9861252770459488</v>
+      </c>
+      <c r="K58" s="39"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="39">
+        <f t="shared" si="1"/>
+        <v>576.29680806747058</v>
+      </c>
+      <c r="O58" s="39"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="41">
+        <v>7.5410854872354494E-2</v>
+      </c>
+      <c r="S58" s="60"/>
+      <c r="T58" s="57"/>
+      <c r="U58" s="57"/>
+      <c r="V58" s="41">
+        <f>R58*1000</f>
+        <v>75.410854872354491</v>
+      </c>
+      <c r="W58" s="57"/>
+      <c r="X58" s="57"/>
+      <c r="Y58" s="57"/>
+      <c r="Z58" s="58"/>
+      <c r="AA58" s="58"/>
+      <c r="AB58" s="58"/>
+      <c r="AC58" s="58"/>
+      <c r="AD58" s="58"/>
+      <c r="AE58" s="58"/>
+      <c r="AF58" s="58"/>
+      <c r="AG58" s="58"/>
+      <c r="AH58" s="58"/>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="42">
+        <v>3.2254038506948652E-3</v>
+      </c>
+      <c r="F59">
+        <v>0.4482157588986545</v>
+      </c>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="39">
+        <f t="shared" si="0"/>
+        <v>3.2254038506948652</v>
+      </c>
+      <c r="K59" s="39"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="39">
+        <f t="shared" si="1"/>
+        <v>448.21575889865449</v>
+      </c>
+      <c r="O59" s="39"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="41">
+        <v>6.2467359119988498E-2</v>
+      </c>
+      <c r="S59" s="60"/>
+      <c r="T59" s="57"/>
+      <c r="U59" s="57"/>
+      <c r="V59" s="41">
+        <f>R59*1000</f>
+        <v>62.467359119988501</v>
+      </c>
+      <c r="W59" s="57"/>
+      <c r="X59" s="57"/>
+      <c r="Y59" s="57"/>
+      <c r="Z59" s="58"/>
+      <c r="AA59" s="58"/>
+      <c r="AB59" s="58"/>
+      <c r="AC59" s="58"/>
+      <c r="AD59" s="58"/>
+      <c r="AE59" s="58"/>
+      <c r="AF59" s="58"/>
+      <c r="AG59" s="58"/>
+      <c r="AH59" s="58"/>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="42">
+        <v>2.7018023431605621E-3</v>
+      </c>
+      <c r="F60">
+        <v>0.68936954481328372</v>
+      </c>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39">
+        <f t="shared" si="0"/>
+        <v>2.701802343160562</v>
+      </c>
+      <c r="K60" s="39"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="39">
+        <f t="shared" si="1"/>
+        <v>689.36954481328371</v>
+      </c>
+      <c r="O60" s="39"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="41">
+        <v>7.3740464947370299E-2</v>
+      </c>
+      <c r="S60" s="60"/>
+      <c r="T60" s="57"/>
+      <c r="U60" s="57"/>
+      <c r="V60" s="41">
+        <f>R60*1000</f>
+        <v>73.740464947370299</v>
+      </c>
+      <c r="W60" s="57"/>
+      <c r="X60" s="57"/>
+      <c r="Y60" s="57"/>
+      <c r="Z60" s="58"/>
+      <c r="AA60" s="58"/>
+      <c r="AB60" s="58"/>
+      <c r="AC60" s="58"/>
+      <c r="AD60" s="58"/>
+      <c r="AE60" s="58"/>
+      <c r="AF60" s="58"/>
+      <c r="AG60" s="58"/>
+      <c r="AH60" s="58"/>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="42">
+        <v>4.4219920356151025E-3</v>
+      </c>
+      <c r="F61">
+        <v>0.58565529833142693</v>
+      </c>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39">
+        <f t="shared" si="0"/>
+        <v>4.4219920356151023</v>
+      </c>
+      <c r="K61" s="39"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="39">
+        <f t="shared" si="1"/>
+        <v>585.65529833142693</v>
+      </c>
+      <c r="O61" s="39"/>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="41">
+        <v>7.08542621292753E-2</v>
+      </c>
+      <c r="S61" s="60"/>
+      <c r="T61" s="57"/>
+      <c r="U61" s="57"/>
+      <c r="V61" s="41">
+        <f>R61*1000</f>
+        <v>70.854262129275298</v>
+      </c>
+      <c r="W61" s="57"/>
+      <c r="X61" s="57"/>
+      <c r="Y61" s="57"/>
+      <c r="Z61" s="58"/>
+      <c r="AA61" s="58"/>
+      <c r="AB61" s="58"/>
+      <c r="AC61" s="58"/>
+      <c r="AD61" s="58"/>
+      <c r="AE61" s="58"/>
+      <c r="AF61" s="58"/>
+      <c r="AG61" s="58"/>
+      <c r="AH61" s="58"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCEFF931-4757-4988-B960-6E1121EFFF96}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="15"/>
+    <col min="1" max="2" width="8.85546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>193</v>
       </c>
@@ -19398,7 +23183,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
@@ -19418,7 +23203,7 @@
         <v>6.7275552766216731E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
@@ -19429,7 +23214,7 @@
       <c r="D3" s="39"/>
       <c r="E3" s="40"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>77</v>
       </c>
@@ -19440,7 +23225,7 @@
       <c r="D4" s="39"/>
       <c r="E4" s="40"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>77</v>
       </c>
@@ -19451,7 +23236,7 @@
       <c r="D5" s="39"/>
       <c r="E5" s="40"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>77</v>
       </c>
@@ -19462,7 +23247,7 @@
       <c r="D6" s="39"/>
       <c r="E6" s="40"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>78</v>
       </c>
@@ -19482,7 +23267,7 @@
         <v>0.17667484257811009</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>78</v>
       </c>
@@ -19493,7 +23278,7 @@
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>78</v>
       </c>
@@ -19504,7 +23289,7 @@
       <c r="D9" s="39"/>
       <c r="E9" s="40"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
@@ -19515,7 +23300,7 @@
       <c r="D10" s="39"/>
       <c r="E10" s="40"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>78</v>
       </c>
@@ -19526,7 +23311,7 @@
       <c r="D11" s="39"/>
       <c r="E11" s="40"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>79</v>
       </c>
@@ -19546,7 +23331,7 @@
         <v>0.13011533345459328</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>79</v>
       </c>
@@ -19557,7 +23342,7 @@
       <c r="D13" s="39"/>
       <c r="E13" s="40"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -19568,7 +23353,7 @@
       <c r="D14" s="39"/>
       <c r="E14" s="40"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>79</v>
       </c>
@@ -19579,7 +23364,7 @@
       <c r="D15" s="39"/>
       <c r="E15" s="40"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>79</v>
       </c>
@@ -19590,7 +23375,7 @@
       <c r="D16" s="39"/>
       <c r="E16" s="40"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>80</v>
       </c>
@@ -19610,7 +23395,7 @@
         <v>5.7218878003679877E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>80</v>
       </c>
@@ -19621,7 +23406,7 @@
       <c r="D18" s="39"/>
       <c r="E18" s="40"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
@@ -19632,7 +23417,7 @@
       <c r="D19" s="39"/>
       <c r="E19" s="40"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>80</v>
       </c>
@@ -19643,7 +23428,7 @@
       <c r="D20" s="39"/>
       <c r="E20" s="40"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>80</v>
       </c>
@@ -19654,7 +23439,7 @@
       <c r="D21" s="39"/>
       <c r="E21" s="40"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>81</v>
       </c>
@@ -19674,7 +23459,7 @@
         <v>1.655294535724687E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>81</v>
       </c>
@@ -19685,7 +23470,7 @@
       <c r="D23" s="39"/>
       <c r="E23" s="40"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>81</v>
       </c>
@@ -19696,7 +23481,7 @@
       <c r="D24" s="39"/>
       <c r="E24" s="40"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>81</v>
       </c>
@@ -19707,7 +23492,7 @@
       <c r="D25" s="39"/>
       <c r="E25" s="40"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>81</v>
       </c>
@@ -19718,7 +23503,7 @@
       <c r="D26" s="39"/>
       <c r="E26" s="40"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>82</v>
       </c>
@@ -19738,7 +23523,7 @@
         <v>9.4095695969582047E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>82</v>
       </c>
@@ -19749,7 +23534,7 @@
       <c r="D28" s="39"/>
       <c r="E28" s="40"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
@@ -19760,7 +23545,7 @@
       <c r="D29" s="39"/>
       <c r="E29" s="40"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -19771,7 +23556,7 @@
       <c r="D30" s="39"/>
       <c r="E30" s="40"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>82</v>
       </c>
@@ -19782,7 +23567,7 @@
       <c r="D31" s="39"/>
       <c r="E31" s="40"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>83</v>
       </c>
@@ -19802,7 +23587,7 @@
         <v>0.14004999107461605</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>83</v>
       </c>
@@ -19813,7 +23598,7 @@
       <c r="D33" s="39"/>
       <c r="E33" s="40"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>83</v>
       </c>
@@ -19824,7 +23609,7 @@
       <c r="D34" s="39"/>
       <c r="E34" s="40"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>83</v>
       </c>
@@ -19835,7 +23620,7 @@
       <c r="D35" s="39"/>
       <c r="E35" s="40"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>83</v>
       </c>
@@ -19846,7 +23631,7 @@
       <c r="D36" s="39"/>
       <c r="E36" s="40"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>84</v>
       </c>
@@ -19866,7 +23651,7 @@
         <v>6.673829485385438E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>84</v>
       </c>
@@ -19877,7 +23662,7 @@
       <c r="D38" s="39"/>
       <c r="E38" s="40"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>84</v>
       </c>
@@ -19888,7 +23673,7 @@
       <c r="D39" s="39"/>
       <c r="E39" s="40"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>84</v>
       </c>
@@ -19899,7 +23684,7 @@
       <c r="D40" s="39"/>
       <c r="E40" s="40"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>84</v>
       </c>
@@ -19910,7 +23695,7 @@
       <c r="D41" s="39"/>
       <c r="E41" s="40"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>85</v>
       </c>
@@ -19930,7 +23715,7 @@
         <v>2.9563490998188925E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>85</v>
       </c>
@@ -19941,7 +23726,7 @@
       <c r="D43" s="39"/>
       <c r="E43" s="40"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>85</v>
       </c>
@@ -19952,7 +23737,7 @@
       <c r="D44" s="39"/>
       <c r="E44" s="40"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>85</v>
       </c>
@@ -19963,7 +23748,7 @@
       <c r="D45" s="39"/>
       <c r="E45" s="40"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>85</v>
       </c>
@@ -19974,7 +23759,7 @@
       <c r="D46" s="39"/>
       <c r="E46" s="40"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>86</v>
       </c>
@@ -19994,7 +23779,7 @@
         <v>2.4413111231467333E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>86</v>
       </c>
@@ -20005,7 +23790,7 @@
       <c r="D48" s="39"/>
       <c r="E48" s="40"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>86</v>
       </c>
@@ -20016,7 +23801,7 @@
       <c r="D49" s="39"/>
       <c r="E49" s="40"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>86</v>
       </c>
@@ -20027,7 +23812,7 @@
       <c r="D50" s="39"/>
       <c r="E50" s="40"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>86</v>
       </c>
@@ -20038,7 +23823,7 @@
       <c r="D51" s="39"/>
       <c r="E51" s="40"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>87</v>
       </c>
@@ -20058,7 +23843,7 @@
         <v>0.13429072938963441</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>87</v>
       </c>
@@ -20069,7 +23854,7 @@
       <c r="D53" s="39"/>
       <c r="E53" s="40"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>87</v>
       </c>
@@ -20080,7 +23865,7 @@
       <c r="D54" s="39"/>
       <c r="E54" s="40"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>87</v>
       </c>
@@ -20091,7 +23876,7 @@
       <c r="D55" s="39"/>
       <c r="E55" s="40"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>87</v>
       </c>
@@ -20102,7 +23887,7 @@
       <c r="D56" s="39"/>
       <c r="E56" s="40"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>88</v>
       </c>
@@ -20122,7 +23907,7 @@
         <v>0.14944564229177104</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>88</v>
       </c>
@@ -20133,7 +23918,7 @@
       <c r="D58" s="39"/>
       <c r="E58" s="40"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>88</v>
       </c>
@@ -20144,7 +23929,7 @@
       <c r="D59" s="39"/>
       <c r="E59" s="40"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>88</v>
       </c>
@@ -20155,7 +23940,7 @@
       <c r="D60" s="39"/>
       <c r="E60" s="40"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>88</v>
       </c>
@@ -20166,7 +23951,7 @@
       <c r="D61" s="39"/>
       <c r="E61" s="40"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C62" s="39"/>
       <c r="D62" s="39"/>
       <c r="E62" s="39"/>
@@ -20176,7 +23961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2851FD1-392A-48A9-B131-D748FDC4A90A}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -20184,14 +23969,14 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>206</v>
       </c>

--- a/SP_metadata_2021.xlsx
+++ b/SP_metadata_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugirona-my.sharepoint.com/personal/u4001033_udg_edu/Documents/GRADCATCH/ANALISIS/R/SP_gradient/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="192" documentId="13_ncr:1_{CA000A84-3FBB-4950-9B47-833BA501E91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC714A09-EEF9-4CAB-84EA-3CCA3F3A76B3}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="13_ncr:1_{CA000A84-3FBB-4950-9B47-833BA501E91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7D13524-687A-4462-A70C-86E47D88F338}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4095" yWindow="4125" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP_soil_2021" sheetId="1" r:id="rId1"/>
@@ -1437,7 +1437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1557,12 +1557,11 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1573,10 +1572,7 @@
     <xf numFmtId="2" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1991,11 +1987,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN64"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="BH2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="BR20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BL1" sqref="BL1:BL1048576"/>
+      <selection pane="bottomRight" activeCell="BO5" sqref="BO5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,7 +2007,7 @@
     <col min="34" max="34" width="15.28515625" style="15" customWidth="1"/>
     <col min="35" max="38" width="15.28515625" style="15"/>
     <col min="39" max="77" width="15.28515625" style="1"/>
-    <col min="78" max="78" width="15.28515625" style="37"/>
+    <col min="78" max="78" width="24.7109375" style="37" customWidth="1"/>
     <col min="79" max="16384" width="15.28515625" style="1"/>
   </cols>
   <sheetData>
@@ -19434,7 +19430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FEEA69-4C20-432F-81D2-CC79B2F6623E}">
   <dimension ref="A1:AH61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q31" workbookViewId="0">
+    <sheetView topLeftCell="Q31" workbookViewId="0">
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
@@ -19443,90 +19439,89 @@
     <col min="2" max="5" width="9.140625" style="42"/>
     <col min="7" max="9" width="9.140625" style="42"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.140625" style="43"/>
     <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="16.42578125" customWidth="1"/>
     <col min="20" max="22" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O1" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="R1" s="55" t="s">
+      <c r="R1" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="S1" s="59" t="s">
+      <c r="S1" s="56" t="s">
         <v>234</v>
       </c>
-      <c r="T1" s="59" t="s">
+      <c r="T1" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="U1" s="59" t="s">
+      <c r="U1" s="56" t="s">
         <v>236</v>
       </c>
-      <c r="V1" s="55" t="s">
+      <c r="V1" s="54" t="s">
         <v>239</v>
       </c>
-      <c r="W1" s="59" t="s">
+      <c r="W1" s="56" t="s">
         <v>234</v>
       </c>
-      <c r="X1" s="59" t="s">
+      <c r="X1" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="Y1" s="59" t="s">
+      <c r="Y1" s="56" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>89</v>
       </c>
@@ -19548,15 +19543,15 @@
       <c r="F2">
         <v>0.3121313355734911</v>
       </c>
-      <c r="G2" s="50">
+      <c r="G2" s="49">
         <f>AVERAGE(F2:F6)</f>
         <v>0.14493580430581332</v>
       </c>
-      <c r="H2" s="50">
+      <c r="H2" s="49">
         <f>_xlfn.STDEV.S(F2:F6)</f>
         <v>0.11281755369679058</v>
       </c>
-      <c r="I2" s="50">
+      <c r="I2" s="49">
         <f>H2/SQRT(4)</f>
         <v>5.6408776848395292E-2</v>
       </c>
@@ -19580,30 +19575,30 @@
         <f>F2*1000</f>
         <v>312.13133557349107</v>
       </c>
-      <c r="O2" s="50">
+      <c r="O2" s="49">
         <f>AVERAGE(N2:N6)</f>
         <v>144.93580430581329</v>
       </c>
-      <c r="P2" s="50">
+      <c r="P2" s="49">
         <f>_xlfn.STDEV.S(N2:N4,N6)</f>
         <v>112.81755369679064</v>
       </c>
-      <c r="Q2" s="50">
+      <c r="Q2" s="49">
         <f>P2/SQRT(4)</f>
         <v>56.40877684839532</v>
       </c>
       <c r="R2" s="41">
         <v>2.9715280043134999E-2</v>
       </c>
-      <c r="S2" s="60">
+      <c r="S2" s="41">
         <f>AVERAGE(R2:R6)</f>
         <v>2.8103808975831875E-2</v>
       </c>
-      <c r="T2" s="57">
+      <c r="T2" s="39">
         <f>_xlfn.STDEV.S(R2:R6)</f>
         <v>4.1830629438750454E-3</v>
       </c>
-      <c r="U2" s="57">
+      <c r="U2" s="39">
         <f>T2/SQRT(4)</f>
         <v>2.0915314719375227E-3</v>
       </c>
@@ -19611,29 +19606,20 @@
         <f>R2*1000</f>
         <v>29.715280043134999</v>
       </c>
-      <c r="W2" s="50">
+      <c r="W2" s="49">
         <f>AVERAGE(V2:V6)</f>
         <v>28.103808975831875</v>
       </c>
-      <c r="X2" s="50">
+      <c r="X2" s="49">
         <f>_xlfn.STDEV.S(V2:V6)</f>
         <v>4.1830629438750639</v>
       </c>
-      <c r="Y2" s="50">
+      <c r="Y2" s="49">
         <f>X2/SQRT(4)</f>
         <v>2.091531471937532</v>
       </c>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>90</v>
       </c>
@@ -19663,27 +19649,18 @@
       <c r="R3" s="41">
         <v>2.6219457262898101E-2</v>
       </c>
-      <c r="S3" s="60"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
       <c r="V3" s="41">
         <f>R3*1000</f>
         <v>26.2194572628981</v>
       </c>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="58"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>91</v>
       </c>
@@ -19713,27 +19690,18 @@
       <c r="R4" s="41">
         <v>3.3052171704250302E-2</v>
       </c>
-      <c r="S4" s="60"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
       <c r="V4" s="41">
         <f>R4*1000</f>
         <v>33.052171704250306</v>
       </c>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="58"/>
-      <c r="AC4" s="58"/>
-      <c r="AD4" s="58"/>
-      <c r="AE4" s="58"/>
-      <c r="AF4" s="58"/>
-      <c r="AG4" s="58"/>
-      <c r="AH4" s="58"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>92</v>
       </c>
@@ -19757,27 +19725,18 @@
       <c r="R5" s="41">
         <v>2.34283268930441E-2</v>
       </c>
-      <c r="S5" s="60"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
       <c r="V5" s="41">
         <f>R5*1000</f>
         <v>23.428326893044101</v>
       </c>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="58"/>
-      <c r="AA5" s="58"/>
-      <c r="AB5" s="58"/>
-      <c r="AC5" s="58"/>
-      <c r="AD5" s="58"/>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="58"/>
-      <c r="AG5" s="58"/>
-      <c r="AH5" s="58"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>93</v>
       </c>
@@ -19805,24 +19764,15 @@
       <c r="P6" s="39"/>
       <c r="Q6" s="39"/>
       <c r="R6" s="41"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
       <c r="V6" s="41"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="57"/>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="58"/>
-      <c r="AB6" s="58"/>
-      <c r="AC6" s="58"/>
-      <c r="AD6" s="58"/>
-      <c r="AE6" s="58"/>
-      <c r="AF6" s="58"/>
-      <c r="AG6" s="58"/>
-      <c r="AH6" s="58"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>94</v>
       </c>
@@ -19891,15 +19841,15 @@
       <c r="R7" s="41">
         <v>2.2861213882187301E-2</v>
       </c>
-      <c r="S7" s="60">
+      <c r="S7" s="41">
         <f>AVERAGE(R7:R11)</f>
         <v>2.9264437247349076E-2</v>
       </c>
-      <c r="T7" s="57">
+      <c r="T7" s="39">
         <f>_xlfn.STDEV.S(R7:R11)</f>
         <v>6.3534521390225902E-3</v>
       </c>
-      <c r="U7" s="57">
+      <c r="U7" s="39">
         <f>T7/SQRT(5)</f>
         <v>2.8413501749291912E-3</v>
       </c>
@@ -19907,29 +19857,20 @@
         <f>R7*1000</f>
         <v>22.8612138821873</v>
       </c>
-      <c r="W7" s="57">
+      <c r="W7" s="39">
         <f>AVERAGE(V7:V11)</f>
         <v>29.264437247349075</v>
       </c>
-      <c r="X7" s="57">
+      <c r="X7" s="39">
         <f>_xlfn.STDEV.S(V7:V11)</f>
         <v>6.353452139022596</v>
       </c>
-      <c r="Y7" s="57">
+      <c r="Y7" s="39">
         <f>X7/SQRT(5)</f>
         <v>2.8413501749291936</v>
       </c>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="58"/>
-      <c r="AC7" s="58"/>
-      <c r="AD7" s="58"/>
-      <c r="AE7" s="58"/>
-      <c r="AF7" s="58"/>
-      <c r="AG7" s="58"/>
-      <c r="AH7" s="58"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>95</v>
       </c>
@@ -19959,27 +19900,18 @@
       <c r="R8" s="41">
         <v>2.4744008910779401E-2</v>
       </c>
-      <c r="S8" s="60"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
       <c r="V8" s="41">
         <f>R8*1000</f>
         <v>24.744008910779399</v>
       </c>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="58"/>
-      <c r="AD8" s="58"/>
-      <c r="AE8" s="58"/>
-      <c r="AF8" s="58"/>
-      <c r="AG8" s="58"/>
-      <c r="AH8" s="58"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>96</v>
       </c>
@@ -20009,27 +19941,18 @@
       <c r="R9" s="41">
         <v>3.4711478174025499E-2</v>
       </c>
-      <c r="S9" s="60"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
       <c r="V9" s="41">
         <f>R9*1000</f>
         <v>34.711478174025501</v>
       </c>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="58"/>
-      <c r="AF9" s="58"/>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="58"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>97</v>
       </c>
@@ -20059,27 +19982,18 @@
       <c r="R10" s="41">
         <v>3.4741048022404103E-2</v>
       </c>
-      <c r="S10" s="60"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
       <c r="V10" s="41">
         <f>R10*1000</f>
         <v>34.741048022404101</v>
       </c>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="58"/>
-      <c r="AE10" s="58"/>
-      <c r="AF10" s="58"/>
-      <c r="AG10" s="58"/>
-      <c r="AH10" s="58"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
@@ -20107,24 +20021,15 @@
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
       <c r="R11" s="41"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
       <c r="V11" s="41"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="58"/>
-      <c r="AD11" s="58"/>
-      <c r="AE11" s="58"/>
-      <c r="AF11" s="58"/>
-      <c r="AG11" s="58"/>
-      <c r="AH11" s="58"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>99</v>
       </c>
@@ -20162,15 +20067,15 @@
         <f t="shared" si="0"/>
         <v>1.0332066560852375</v>
       </c>
-      <c r="K12" s="50">
+      <c r="K12" s="49">
         <f>AVERAGE(J12:J16)</f>
         <v>0.72697731427356005</v>
       </c>
-      <c r="L12" s="50">
+      <c r="L12" s="49">
         <f>_xlfn.STDEV.S(J12:J16)</f>
         <v>0.5469726891455895</v>
       </c>
-      <c r="M12" s="50">
+      <c r="M12" s="49">
         <f>L12/SQRT(5)</f>
         <v>0.2446136229530799</v>
       </c>
@@ -20193,45 +20098,36 @@
       <c r="R12" s="41">
         <v>4.7524810773509403E-2</v>
       </c>
-      <c r="S12" s="60">
+      <c r="S12" s="41">
         <f>AVERAGE(R12:R16)</f>
         <v>4.8764004444062335E-2</v>
       </c>
-      <c r="T12" s="57">
+      <c r="T12" s="39">
         <f>_xlfn.STDEV.S(R12:R16)</f>
         <v>2.8813992004683214E-3</v>
       </c>
-      <c r="U12" s="57">
+      <c r="U12" s="39">
         <f>T12/SQRT(4)</f>
         <v>1.4406996002341607E-3</v>
       </c>
       <c r="V12" s="41">
-        <f>R12*1000</f>
+        <f t="shared" ref="V12:V35" si="2">R12*1000</f>
         <v>47.524810773509401</v>
       </c>
-      <c r="W12" s="57">
+      <c r="W12" s="39">
         <f>AVERAGE(V12:V16)</f>
         <v>48.764004444062344</v>
       </c>
-      <c r="X12" s="57">
+      <c r="X12" s="39">
         <f>_xlfn.STDEV.S(V12:V16)</f>
         <v>2.8813992004683207</v>
       </c>
-      <c r="Y12" s="57">
+      <c r="Y12" s="39">
         <f>X12/SQRT(4)</f>
         <v>1.4406996002341603</v>
       </c>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="58"/>
-      <c r="AF12" s="58"/>
-      <c r="AG12" s="58"/>
-      <c r="AH12" s="58"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>100</v>
       </c>
@@ -20255,27 +20151,18 @@
       <c r="R13" s="41">
         <v>4.4243414599751202E-2</v>
       </c>
-      <c r="S13" s="60"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
       <c r="V13" s="41">
-        <f>R13*1000</f>
+        <f t="shared" si="2"/>
         <v>44.243414599751205</v>
       </c>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="58"/>
-      <c r="AF13" s="58"/>
-      <c r="AG13" s="58"/>
-      <c r="AH13" s="58"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>101</v>
       </c>
@@ -20305,27 +20192,18 @@
       <c r="R14" s="41">
         <v>5.0815535123685598E-2</v>
       </c>
-      <c r="S14" s="60"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
       <c r="V14" s="41">
-        <f>R14*1000</f>
+        <f t="shared" si="2"/>
         <v>50.815535123685599</v>
       </c>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="58"/>
-      <c r="AG14" s="58"/>
-      <c r="AH14" s="58"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>102</v>
       </c>
@@ -20355,27 +20233,18 @@
       <c r="R15" s="41">
         <v>5.0895767532296701E-2</v>
       </c>
-      <c r="S15" s="60"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
       <c r="V15" s="41">
-        <f>R15*1000</f>
+        <f t="shared" si="2"/>
         <v>50.895767532296702</v>
       </c>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="58"/>
-      <c r="AF15" s="58"/>
-      <c r="AG15" s="58"/>
-      <c r="AH15" s="58"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>103</v>
       </c>
@@ -20405,25 +20274,16 @@
       <c r="R16" s="41">
         <v>5.0340494191068799E-2</v>
       </c>
-      <c r="S16" s="60"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
       <c r="V16" s="41">
-        <f>R16*1000</f>
+        <f t="shared" si="2"/>
         <v>50.3404941910688</v>
       </c>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="58"/>
-      <c r="AD16" s="58"/>
-      <c r="AE16" s="58"/>
-      <c r="AF16" s="58"/>
-      <c r="AG16" s="58"/>
-      <c r="AH16" s="58"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -20494,43 +20354,34 @@
       <c r="R17" s="41">
         <v>7.1796874281741504E-3</v>
       </c>
-      <c r="S17" s="60">
+      <c r="S17" s="41">
         <f>AVERAGE(R17:R21)</f>
         <v>7.2314710919455906E-3</v>
       </c>
-      <c r="T17" s="57">
+      <c r="T17" s="39">
         <f>_xlfn.STDEV.S(R17:R21)</f>
         <v>1.1783036525368446E-3</v>
       </c>
-      <c r="U17" s="57">
+      <c r="U17" s="39">
         <f>T17/SQRT(4)</f>
         <v>5.8915182626842228E-4</v>
       </c>
       <c r="V17" s="41">
-        <f>R17*1000</f>
+        <f t="shared" si="2"/>
         <v>7.1796874281741507</v>
       </c>
-      <c r="W17" s="57">
+      <c r="W17" s="39">
         <f>AVERAGE(V17:V21)</f>
         <v>7.2314710919455907</v>
       </c>
-      <c r="X17" s="57">
+      <c r="X17" s="39">
         <f>_xlfn.STDEV.S(V17:V21)</f>
         <v>1.1783036525368404</v>
       </c>
-      <c r="Y17" s="57">
+      <c r="Y17" s="39">
         <f>X17/SQRT(4)</f>
         <v>0.58915182626842022</v>
       </c>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="58"/>
-      <c r="AH17" s="58"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -20562,25 +20413,16 @@
       <c r="R18" s="41">
         <v>7.45157678113215E-3</v>
       </c>
-      <c r="S18" s="60"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
       <c r="V18" s="41">
-        <f>R18*1000</f>
+        <f t="shared" si="2"/>
         <v>7.4515767811321503</v>
       </c>
-      <c r="W18" s="57"/>
-      <c r="X18" s="57"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="58"/>
-      <c r="AB18" s="58"/>
-      <c r="AC18" s="58"/>
-      <c r="AD18" s="58"/>
-      <c r="AE18" s="58"/>
-      <c r="AF18" s="58"/>
-      <c r="AG18" s="58"/>
-      <c r="AH18" s="58"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="39"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -20612,25 +20454,16 @@
       <c r="R19" s="41">
         <v>7.9715978221207608E-3</v>
       </c>
-      <c r="S19" s="60"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
       <c r="V19" s="41">
-        <f>R19*1000</f>
+        <f t="shared" si="2"/>
         <v>7.9715978221207608</v>
       </c>
-      <c r="W19" s="57"/>
-      <c r="X19" s="57"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="58"/>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="58"/>
-      <c r="AC19" s="58"/>
-      <c r="AD19" s="58"/>
-      <c r="AE19" s="58"/>
-      <c r="AF19" s="58"/>
-      <c r="AG19" s="58"/>
-      <c r="AH19" s="58"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="39"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -20662,25 +20495,16 @@
       <c r="R20" s="41">
         <v>8.2842375536372401E-3</v>
       </c>
-      <c r="S20" s="60"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
       <c r="V20" s="41">
-        <f>R20*1000</f>
+        <f t="shared" si="2"/>
         <v>8.2842375536372401</v>
       </c>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="58"/>
-      <c r="AA20" s="58"/>
-      <c r="AB20" s="58"/>
-      <c r="AC20" s="58"/>
-      <c r="AD20" s="58"/>
-      <c r="AE20" s="58"/>
-      <c r="AF20" s="58"/>
-      <c r="AG20" s="58"/>
-      <c r="AH20" s="58"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -20706,25 +20530,16 @@
       <c r="R21" s="41">
         <v>5.2702558746636503E-3</v>
       </c>
-      <c r="S21" s="60"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
       <c r="V21" s="41">
-        <f>R21*1000</f>
+        <f t="shared" si="2"/>
         <v>5.2702558746636505</v>
       </c>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="58"/>
-      <c r="AA21" s="58"/>
-      <c r="AB21" s="58"/>
-      <c r="AC21" s="58"/>
-      <c r="AD21" s="58"/>
-      <c r="AE21" s="58"/>
-      <c r="AF21" s="58"/>
-      <c r="AG21" s="58"/>
-      <c r="AH21" s="58"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -20795,43 +20610,34 @@
       <c r="R22" s="41">
         <v>3.8645269759873999E-3</v>
       </c>
-      <c r="S22" s="60">
+      <c r="S22" s="41">
         <f>AVERAGE(R22:R26)</f>
         <v>6.7388478546140298E-3</v>
       </c>
-      <c r="T22" s="57">
+      <c r="T22" s="39">
         <f>_xlfn.STDEV.S(R22:R26)</f>
         <v>3.6785934570432539E-3</v>
       </c>
-      <c r="U22" s="57">
+      <c r="U22" s="39">
         <f>T22/SQRT(4)</f>
         <v>1.839296728521627E-3</v>
       </c>
       <c r="V22" s="41">
-        <f>R22*1000</f>
+        <f t="shared" si="2"/>
         <v>3.8645269759873999</v>
       </c>
-      <c r="W22" s="57">
+      <c r="W22" s="39">
         <f>AVERAGE(V22:V26)</f>
         <v>6.7388478546140309</v>
       </c>
-      <c r="X22" s="57">
+      <c r="X22" s="39">
         <f>_xlfn.STDEV.S(V22:V26)</f>
         <v>3.6785934570432528</v>
       </c>
-      <c r="Y22" s="57">
+      <c r="Y22" s="39">
         <f>X22/SQRT(4)</f>
         <v>1.8392967285216264</v>
       </c>
-      <c r="Z22" s="58"/>
-      <c r="AA22" s="58"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="58"/>
-      <c r="AD22" s="58"/>
-      <c r="AE22" s="58"/>
-      <c r="AF22" s="58"/>
-      <c r="AG22" s="58"/>
-      <c r="AH22" s="58"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -20863,25 +20669,16 @@
       <c r="R23" s="41">
         <v>3.52156181021021E-3</v>
       </c>
-      <c r="S23" s="60"/>
-      <c r="T23" s="57"/>
-      <c r="U23" s="57"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
       <c r="V23" s="41">
-        <f>R23*1000</f>
+        <f t="shared" si="2"/>
         <v>3.5215618102102102</v>
       </c>
-      <c r="W23" s="57"/>
-      <c r="X23" s="57"/>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="58"/>
-      <c r="AA23" s="58"/>
-      <c r="AB23" s="58"/>
-      <c r="AC23" s="58"/>
-      <c r="AD23" s="58"/>
-      <c r="AE23" s="58"/>
-      <c r="AF23" s="58"/>
-      <c r="AG23" s="58"/>
-      <c r="AH23" s="58"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -20913,25 +20710,16 @@
       <c r="R24" s="41">
         <v>6.7343317474841298E-3</v>
       </c>
-      <c r="S24" s="60"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
       <c r="V24" s="41">
-        <f>R24*1000</f>
+        <f t="shared" si="2"/>
         <v>6.7343317474841298</v>
       </c>
-      <c r="W24" s="57"/>
-      <c r="X24" s="57"/>
-      <c r="Y24" s="57"/>
-      <c r="Z24" s="58"/>
-      <c r="AA24" s="58"/>
-      <c r="AB24" s="58"/>
-      <c r="AC24" s="58"/>
-      <c r="AD24" s="58"/>
-      <c r="AE24" s="58"/>
-      <c r="AF24" s="58"/>
-      <c r="AG24" s="58"/>
-      <c r="AH24" s="58"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -20957,25 +20745,16 @@
       <c r="R25" s="41">
         <v>1.2696735042250201E-2</v>
       </c>
-      <c r="S25" s="60"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="57"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
       <c r="V25" s="41">
-        <f>R25*1000</f>
+        <f t="shared" si="2"/>
         <v>12.6967350422502</v>
       </c>
-      <c r="W25" s="57"/>
-      <c r="X25" s="57"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="58"/>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="58"/>
-      <c r="AF25" s="58"/>
-      <c r="AG25" s="58"/>
-      <c r="AH25" s="58"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -21007,132 +20786,123 @@
       <c r="R26" s="41">
         <v>6.87708369713821E-3</v>
       </c>
-      <c r="S26" s="60"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
       <c r="V26" s="41">
-        <f>R26*1000</f>
+        <f t="shared" si="2"/>
         <v>6.8770836971382101</v>
       </c>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="58"/>
-      <c r="AA26" s="58"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="58"/>
-      <c r="AD26" s="58"/>
-      <c r="AE26" s="58"/>
-      <c r="AF26" s="58"/>
-      <c r="AG26" s="58"/>
-      <c r="AH26" s="58"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="39"/>
     </row>
-    <row r="27" spans="1:34" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+    <row r="27" spans="1:34" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="52">
+      <c r="B27" s="51">
         <v>1.0263390989901262E-2</v>
       </c>
-      <c r="C27" s="52">
+      <c r="C27" s="51">
         <f>AVERAGE(B27:B31)</f>
         <v>1.778395169800312E-2</v>
       </c>
-      <c r="D27" s="52">
+      <c r="D27" s="51">
         <f>_xlfn.STDEV.S(B27:B31)</f>
         <v>6.5216046642797296E-3</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="51">
         <f>D27/SQRT(5)</f>
         <v>2.9165502703418339E-3</v>
       </c>
-      <c r="F27" s="53">
+      <c r="F27" s="52">
         <v>4.5268076678274678</v>
       </c>
-      <c r="G27" s="54">
+      <c r="G27" s="53">
         <f>AVERAGE(F27:F31)</f>
         <v>8.5301243112311607</v>
       </c>
-      <c r="H27" s="54">
+      <c r="H27" s="53">
         <f>_xlfn.STDEV.S(F27:F31)</f>
         <v>3.392172236127875</v>
       </c>
-      <c r="I27" s="54">
+      <c r="I27" s="53">
         <f>H27/SQRT(4)</f>
         <v>1.6960861180639375</v>
       </c>
-      <c r="J27" s="54">
+      <c r="J27" s="53">
         <f t="shared" si="0"/>
         <v>10.263390989901263</v>
       </c>
-      <c r="K27" s="54">
+      <c r="K27" s="53">
         <f>AVERAGE(J27:J31)</f>
         <v>17.783951698003118</v>
       </c>
-      <c r="L27" s="54">
+      <c r="L27" s="53">
         <f>_xlfn.STDEV.S(J27:J31)</f>
         <v>6.5216046642797245</v>
       </c>
-      <c r="M27" s="54">
+      <c r="M27" s="53">
         <f>L27/SQRT(5)</f>
         <v>2.9165502703418316</v>
       </c>
-      <c r="N27" s="54">
+      <c r="N27" s="53">
         <f t="shared" si="1"/>
         <v>4526.8076678274674</v>
       </c>
-      <c r="O27" s="54">
+      <c r="O27" s="53">
         <f>AVERAGE(N27:N31)</f>
         <v>8530.1243112311604</v>
       </c>
-      <c r="P27" s="54">
+      <c r="P27" s="53">
         <f>_xlfn.STDEV.S(N27:N31)</f>
         <v>3392.1722361278707</v>
       </c>
-      <c r="Q27" s="54">
+      <c r="Q27" s="53">
         <f>P27/SQRT(4)</f>
         <v>1696.0861180639354</v>
       </c>
-      <c r="R27" s="56">
+      <c r="R27" s="55">
         <v>3.0745893529043101E-2</v>
       </c>
-      <c r="S27" s="60">
+      <c r="S27" s="41">
         <f>AVERAGE(R27:R31)</f>
         <v>3.0535844626716525E-2</v>
       </c>
-      <c r="T27" s="57">
+      <c r="T27" s="39">
         <f>_xlfn.STDEV.S(R27:R31)</f>
         <v>2.9994152455848459E-3</v>
       </c>
-      <c r="U27" s="57">
+      <c r="U27" s="39">
         <f>T27/SQRT(4)</f>
         <v>1.499707622792423E-3</v>
       </c>
       <c r="V27" s="41">
-        <f>R27*1000</f>
+        <f t="shared" si="2"/>
         <v>30.745893529043101</v>
       </c>
-      <c r="W27" s="57">
+      <c r="W27" s="39">
         <f>AVERAGE(V27:V31)</f>
         <v>30.535844626716518</v>
       </c>
-      <c r="X27" s="57">
+      <c r="X27" s="39">
         <f>_xlfn.STDEV.S(V27:V31)</f>
         <v>2.9994152455848462</v>
       </c>
-      <c r="Y27" s="57">
+      <c r="Y27" s="39">
         <f>X27/SQRT(4)</f>
         <v>1.4997076227924231</v>
       </c>
-      <c r="Z27" s="58"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="58"/>
-      <c r="AF27" s="58"/>
-      <c r="AG27" s="58"/>
-      <c r="AH27" s="58"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -21158,25 +20928,16 @@
       <c r="R28" s="41">
         <v>3.4226574164589699E-2</v>
       </c>
-      <c r="S28" s="60"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
       <c r="V28" s="41">
-        <f>R28*1000</f>
+        <f t="shared" si="2"/>
         <v>34.226574164589699</v>
       </c>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="58"/>
-      <c r="AA28" s="58"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="58"/>
-      <c r="AD28" s="58"/>
-      <c r="AE28" s="58"/>
-      <c r="AF28" s="58"/>
-      <c r="AG28" s="58"/>
-      <c r="AH28" s="58"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -21208,25 +20969,16 @@
       <c r="R29" s="41">
         <v>3.03973714983969E-2</v>
       </c>
-      <c r="S29" s="60"/>
-      <c r="T29" s="57"/>
-      <c r="U29" s="57"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
       <c r="V29" s="41">
-        <f>R29*1000</f>
+        <f t="shared" si="2"/>
         <v>30.3973714983969</v>
       </c>
-      <c r="W29" s="57"/>
-      <c r="X29" s="57"/>
-      <c r="Y29" s="57"/>
-      <c r="Z29" s="58"/>
-      <c r="AA29" s="58"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="58"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="58"/>
-      <c r="AF29" s="58"/>
-      <c r="AG29" s="58"/>
-      <c r="AH29" s="58"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="39"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -21258,25 +21010,16 @@
       <c r="R30" s="41">
         <v>3.14136516262917E-2</v>
       </c>
-      <c r="S30" s="60"/>
-      <c r="T30" s="57"/>
-      <c r="U30" s="57"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
       <c r="V30" s="41">
-        <f>R30*1000</f>
+        <f t="shared" si="2"/>
         <v>31.413651626291699</v>
       </c>
-      <c r="W30" s="57"/>
-      <c r="X30" s="57"/>
-      <c r="Y30" s="57"/>
-      <c r="Z30" s="58"/>
-      <c r="AA30" s="58"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="58"/>
-      <c r="AE30" s="58"/>
-      <c r="AF30" s="58"/>
-      <c r="AG30" s="58"/>
-      <c r="AH30" s="58"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="39"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -21308,25 +21051,16 @@
       <c r="R31" s="41">
         <v>2.58957323152612E-2</v>
       </c>
-      <c r="S31" s="60"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="57"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
       <c r="V31" s="41">
-        <f>R31*1000</f>
+        <f t="shared" si="2"/>
         <v>25.895732315261199</v>
       </c>
-      <c r="W31" s="57"/>
-      <c r="X31" s="57"/>
-      <c r="Y31" s="57"/>
-      <c r="Z31" s="58"/>
-      <c r="AA31" s="58"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="58"/>
-      <c r="AD31" s="58"/>
-      <c r="AE31" s="58"/>
-      <c r="AF31" s="58"/>
-      <c r="AG31" s="58"/>
-      <c r="AH31" s="58"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="39"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -21366,15 +21100,15 @@
         <f t="shared" si="0"/>
         <v>5.4788307311903894</v>
       </c>
-      <c r="K32" s="50">
+      <c r="K32" s="49">
         <f>AVERAGE(J32:J36)</f>
         <v>8.7742143496858134</v>
       </c>
-      <c r="L32" s="50">
+      <c r="L32" s="49">
         <f>_xlfn.STDEV.S(J32:J36)</f>
         <v>4.9112807535745668</v>
       </c>
-      <c r="M32" s="50">
+      <c r="M32" s="49">
         <f>L32/SQRT(5)</f>
         <v>2.1963915243158247</v>
       </c>
@@ -21397,45 +21131,36 @@
       <c r="R32" s="41">
         <v>3.1850118389617398E-2</v>
       </c>
-      <c r="S32" s="60">
+      <c r="S32" s="41">
         <f>AVERAGE(R32:R36)</f>
         <v>4.0271166108141319E-2</v>
       </c>
-      <c r="T32" s="57">
+      <c r="T32" s="39">
         <f>_xlfn.STDEV.S(R32:R36)</f>
         <v>8.8656929755320593E-3</v>
       </c>
-      <c r="U32" s="57">
+      <c r="U32" s="39">
         <f>T32/SQRT(5)</f>
         <v>3.9648584321864124E-3</v>
       </c>
       <c r="V32" s="41">
-        <f>R32*1000</f>
+        <f t="shared" si="2"/>
         <v>31.850118389617396</v>
       </c>
-      <c r="W32" s="57">
+      <c r="W32" s="39">
         <f>AVERAGE(V32:V36)</f>
         <v>40.271166108141323</v>
       </c>
-      <c r="X32" s="57">
+      <c r="X32" s="39">
         <f>_xlfn.STDEV.S(V32:V36)</f>
         <v>8.8656929755320029</v>
       </c>
-      <c r="Y32" s="57">
+      <c r="Y32" s="39">
         <f>X32/SQRT(5)</f>
         <v>3.9648584321863876</v>
       </c>
-      <c r="Z32" s="58"/>
-      <c r="AA32" s="58"/>
-      <c r="AB32" s="58"/>
-      <c r="AC32" s="58"/>
-      <c r="AD32" s="58"/>
-      <c r="AE32" s="58"/>
-      <c r="AF32" s="58"/>
-      <c r="AG32" s="58"/>
-      <c r="AH32" s="58"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>120</v>
       </c>
@@ -21465,27 +21190,18 @@
       <c r="R33" s="41">
         <v>4.1026735792770899E-2</v>
       </c>
-      <c r="S33" s="60"/>
-      <c r="T33" s="57"/>
-      <c r="U33" s="57"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
       <c r="V33" s="41">
-        <f>R33*1000</f>
+        <f t="shared" si="2"/>
         <v>41.0267357927709</v>
       </c>
-      <c r="W33" s="57"/>
-      <c r="X33" s="57"/>
-      <c r="Y33" s="57"/>
-      <c r="Z33" s="58"/>
-      <c r="AA33" s="58"/>
-      <c r="AB33" s="58"/>
-      <c r="AC33" s="58"/>
-      <c r="AD33" s="58"/>
-      <c r="AE33" s="58"/>
-      <c r="AF33" s="58"/>
-      <c r="AG33" s="58"/>
-      <c r="AH33" s="58"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="39"/>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>121</v>
       </c>
@@ -21515,27 +21231,18 @@
       <c r="R34" s="41">
         <v>5.2317821025532903E-2</v>
       </c>
-      <c r="S34" s="60"/>
-      <c r="T34" s="57"/>
-      <c r="U34" s="57"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
       <c r="V34" s="41">
-        <f>R34*1000</f>
+        <f t="shared" si="2"/>
         <v>52.317821025532901</v>
       </c>
-      <c r="W34" s="57"/>
-      <c r="X34" s="57"/>
-      <c r="Y34" s="57"/>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="58"/>
-      <c r="AF34" s="58"/>
-      <c r="AG34" s="58"/>
-      <c r="AH34" s="58"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="39"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>122</v>
       </c>
@@ -21565,27 +21272,18 @@
       <c r="R35" s="41">
         <v>3.5889989224644099E-2</v>
       </c>
-      <c r="S35" s="60"/>
-      <c r="T35" s="57"/>
-      <c r="U35" s="57"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
       <c r="V35" s="41">
-        <f>R35*1000</f>
+        <f t="shared" si="2"/>
         <v>35.889989224644097</v>
       </c>
-      <c r="W35" s="57"/>
-      <c r="X35" s="57"/>
-      <c r="Y35" s="57"/>
-      <c r="Z35" s="58"/>
-      <c r="AA35" s="58"/>
-      <c r="AB35" s="58"/>
-      <c r="AC35" s="58"/>
-      <c r="AD35" s="58"/>
-      <c r="AE35" s="58"/>
-      <c r="AF35" s="58"/>
-      <c r="AG35" s="58"/>
-      <c r="AH35" s="58"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>123</v>
       </c>
@@ -21613,24 +21311,15 @@
       <c r="P36" s="39"/>
       <c r="Q36" s="39"/>
       <c r="R36" s="41"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="57"/>
-      <c r="U36" s="57"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
       <c r="V36" s="41"/>
-      <c r="W36" s="57"/>
-      <c r="X36" s="57"/>
-      <c r="Y36" s="57"/>
-      <c r="Z36" s="58"/>
-      <c r="AA36" s="58"/>
-      <c r="AB36" s="58"/>
-      <c r="AC36" s="58"/>
-      <c r="AD36" s="58"/>
-      <c r="AE36" s="58"/>
-      <c r="AF36" s="58"/>
-      <c r="AG36" s="58"/>
-      <c r="AH36" s="58"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="39"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>124</v>
       </c>
@@ -21699,15 +21388,15 @@
       <c r="R37" s="41">
         <v>4.4578285176112599E-2</v>
       </c>
-      <c r="S37" s="60">
+      <c r="S37" s="41">
         <f>AVERAGE(R37:R41)</f>
         <v>4.1618229706369803E-2</v>
       </c>
-      <c r="T37" s="57">
+      <c r="T37" s="39">
         <f>_xlfn.STDEV.S(R37:R41)</f>
         <v>7.1698070756606464E-3</v>
       </c>
-      <c r="U37" s="57">
+      <c r="U37" s="39">
         <f>T37/SQRT(4)</f>
         <v>3.5849035378303232E-3</v>
       </c>
@@ -21715,29 +21404,20 @@
         <f>R37*1000</f>
         <v>44.578285176112601</v>
       </c>
-      <c r="W37" s="57">
+      <c r="W37" s="39">
         <f>AVERAGE(V37:V41)</f>
         <v>41.618229706369796</v>
       </c>
-      <c r="X37" s="57">
+      <c r="X37" s="39">
         <f>_xlfn.STDEV.S(V37:V41)</f>
         <v>7.1698070756607031</v>
       </c>
-      <c r="Y37" s="57">
+      <c r="Y37" s="39">
         <f>X37/SQRT(4)</f>
         <v>3.5849035378303515</v>
       </c>
-      <c r="Z37" s="58"/>
-      <c r="AA37" s="58"/>
-      <c r="AB37" s="58"/>
-      <c r="AC37" s="58"/>
-      <c r="AD37" s="58"/>
-      <c r="AE37" s="58"/>
-      <c r="AF37" s="58"/>
-      <c r="AG37" s="58"/>
-      <c r="AH37" s="58"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>125</v>
       </c>
@@ -21767,27 +21447,18 @@
       <c r="R38" s="41">
         <v>3.8768530588302402E-2</v>
       </c>
-      <c r="S38" s="60"/>
-      <c r="T38" s="57"/>
-      <c r="U38" s="57"/>
+      <c r="S38" s="41"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
       <c r="V38" s="41">
         <f>R38*1000</f>
         <v>38.768530588302404</v>
       </c>
-      <c r="W38" s="57"/>
-      <c r="X38" s="57"/>
-      <c r="Y38" s="57"/>
-      <c r="Z38" s="58"/>
-      <c r="AA38" s="58"/>
-      <c r="AB38" s="58"/>
-      <c r="AC38" s="58"/>
-      <c r="AD38" s="58"/>
-      <c r="AE38" s="58"/>
-      <c r="AF38" s="58"/>
-      <c r="AG38" s="58"/>
-      <c r="AH38" s="58"/>
+      <c r="W38" s="39"/>
+      <c r="X38" s="39"/>
+      <c r="Y38" s="39"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>126</v>
       </c>
@@ -21817,27 +21488,18 @@
       <c r="R39" s="41">
         <v>4.9849474093886403E-2</v>
       </c>
-      <c r="S39" s="60"/>
-      <c r="T39" s="57"/>
-      <c r="U39" s="57"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39"/>
       <c r="V39" s="41">
         <f>R39*1000</f>
         <v>49.8494740938864</v>
       </c>
-      <c r="W39" s="57"/>
-      <c r="X39" s="57"/>
-      <c r="Y39" s="57"/>
-      <c r="Z39" s="58"/>
-      <c r="AA39" s="58"/>
-      <c r="AB39" s="58"/>
-      <c r="AC39" s="58"/>
-      <c r="AD39" s="58"/>
-      <c r="AE39" s="58"/>
-      <c r="AF39" s="58"/>
-      <c r="AG39" s="58"/>
-      <c r="AH39" s="58"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="39"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>127</v>
       </c>
@@ -21867,27 +21529,18 @@
       <c r="R40" s="41">
         <v>3.3276628967177799E-2</v>
       </c>
-      <c r="S40" s="60"/>
-      <c r="T40" s="57"/>
-      <c r="U40" s="57"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="39"/>
       <c r="V40" s="41">
         <f>R40*1000</f>
         <v>33.2766289671778</v>
       </c>
-      <c r="W40" s="57"/>
-      <c r="X40" s="57"/>
-      <c r="Y40" s="57"/>
-      <c r="Z40" s="58"/>
-      <c r="AA40" s="58"/>
-      <c r="AB40" s="58"/>
-      <c r="AC40" s="58"/>
-      <c r="AD40" s="58"/>
-      <c r="AE40" s="58"/>
-      <c r="AF40" s="58"/>
-      <c r="AG40" s="58"/>
-      <c r="AH40" s="58"/>
+      <c r="W40" s="39"/>
+      <c r="X40" s="39"/>
+      <c r="Y40" s="39"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>128</v>
       </c>
@@ -21909,24 +21562,15 @@
       <c r="P41" s="39"/>
       <c r="Q41" s="39"/>
       <c r="R41" s="41"/>
-      <c r="S41" s="60"/>
-      <c r="T41" s="57"/>
-      <c r="U41" s="57"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39"/>
       <c r="V41" s="41"/>
-      <c r="W41" s="57"/>
-      <c r="X41" s="57"/>
-      <c r="Y41" s="57"/>
-      <c r="Z41" s="58"/>
-      <c r="AA41" s="58"/>
-      <c r="AB41" s="58"/>
-      <c r="AC41" s="58"/>
-      <c r="AD41" s="58"/>
-      <c r="AE41" s="58"/>
-      <c r="AF41" s="58"/>
-      <c r="AG41" s="58"/>
-      <c r="AH41" s="58"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="39"/>
+      <c r="Y41" s="39"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>129</v>
       </c>
@@ -21995,45 +21639,36 @@
       <c r="R42" s="41">
         <v>2.60851923166337E-3</v>
       </c>
-      <c r="S42" s="60">
+      <c r="S42" s="41">
         <f>AVERAGE(R42:R46)</f>
         <v>2.7974276849771621E-3</v>
       </c>
-      <c r="T42" s="57">
+      <c r="T42" s="39">
         <f>_xlfn.STDEV.S(R42:R46)</f>
         <v>1.4760707448920247E-3</v>
       </c>
-      <c r="U42" s="57">
+      <c r="U42" s="39">
         <f>T42/SQRT(5)</f>
         <v>6.6011890503546347E-4</v>
       </c>
       <c r="V42" s="41">
-        <f>R42*1000</f>
+        <f t="shared" ref="V42:V61" si="3">R42*1000</f>
         <v>2.6085192316633701</v>
       </c>
-      <c r="W42" s="57">
+      <c r="W42" s="39">
         <f>AVERAGE(V42:V46)</f>
         <v>2.797427684977162</v>
       </c>
-      <c r="X42" s="57">
+      <c r="X42" s="39">
         <f>_xlfn.STDEV.S(V42:V46)</f>
         <v>1.4760707448920243</v>
       </c>
-      <c r="Y42" s="57">
+      <c r="Y42" s="39">
         <f>X42/SQRT(5)</f>
         <v>0.66011890503546333</v>
       </c>
-      <c r="Z42" s="58"/>
-      <c r="AA42" s="58"/>
-      <c r="AB42" s="58"/>
-      <c r="AC42" s="58"/>
-      <c r="AD42" s="58"/>
-      <c r="AE42" s="58"/>
-      <c r="AF42" s="58"/>
-      <c r="AG42" s="58"/>
-      <c r="AH42" s="58"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>130</v>
       </c>
@@ -22063,27 +21698,18 @@
       <c r="R43" s="41">
         <v>4.1896917929837799E-3</v>
       </c>
-      <c r="S43" s="60"/>
-      <c r="T43" s="57"/>
-      <c r="U43" s="57"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
       <c r="V43" s="41">
-        <f>R43*1000</f>
+        <f t="shared" si="3"/>
         <v>4.1896917929837798</v>
       </c>
-      <c r="W43" s="57"/>
-      <c r="X43" s="57"/>
-      <c r="Y43" s="57"/>
-      <c r="Z43" s="58"/>
-      <c r="AA43" s="58"/>
-      <c r="AB43" s="58"/>
-      <c r="AC43" s="58"/>
-      <c r="AD43" s="58"/>
-      <c r="AE43" s="58"/>
-      <c r="AF43" s="58"/>
-      <c r="AG43" s="58"/>
-      <c r="AH43" s="58"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="39"/>
+      <c r="Y43" s="39"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>131</v>
       </c>
@@ -22113,27 +21739,18 @@
       <c r="R44" s="41">
         <v>4.3953094068381699E-3</v>
       </c>
-      <c r="S44" s="60"/>
-      <c r="T44" s="57"/>
-      <c r="U44" s="57"/>
+      <c r="S44" s="41"/>
+      <c r="T44" s="39"/>
+      <c r="U44" s="39"/>
       <c r="V44" s="41">
-        <f>R44*1000</f>
+        <f t="shared" si="3"/>
         <v>4.3953094068381695</v>
       </c>
-      <c r="W44" s="57"/>
-      <c r="X44" s="57"/>
-      <c r="Y44" s="57"/>
-      <c r="Z44" s="58"/>
-      <c r="AA44" s="58"/>
-      <c r="AB44" s="58"/>
-      <c r="AC44" s="58"/>
-      <c r="AD44" s="58"/>
-      <c r="AE44" s="58"/>
-      <c r="AF44" s="58"/>
-      <c r="AG44" s="58"/>
-      <c r="AH44" s="58"/>
+      <c r="W44" s="39"/>
+      <c r="X44" s="39"/>
+      <c r="Y44" s="39"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>132</v>
       </c>
@@ -22163,27 +21780,18 @@
       <c r="R45" s="41">
         <v>1.03324180306961E-3</v>
       </c>
-      <c r="S45" s="60"/>
-      <c r="T45" s="57"/>
-      <c r="U45" s="57"/>
+      <c r="S45" s="41"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="39"/>
       <c r="V45" s="41">
-        <f>R45*1000</f>
+        <f t="shared" si="3"/>
         <v>1.03324180306961</v>
       </c>
-      <c r="W45" s="57"/>
-      <c r="X45" s="57"/>
-      <c r="Y45" s="57"/>
-      <c r="Z45" s="58"/>
-      <c r="AA45" s="58"/>
-      <c r="AB45" s="58"/>
-      <c r="AC45" s="58"/>
-      <c r="AD45" s="58"/>
-      <c r="AE45" s="58"/>
-      <c r="AF45" s="58"/>
-      <c r="AG45" s="58"/>
-      <c r="AH45" s="58"/>
+      <c r="W45" s="39"/>
+      <c r="X45" s="39"/>
+      <c r="Y45" s="39"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>133</v>
       </c>
@@ -22213,27 +21821,18 @@
       <c r="R46" s="41">
         <v>1.7603761903308801E-3</v>
       </c>
-      <c r="S46" s="60"/>
-      <c r="T46" s="57"/>
-      <c r="U46" s="57"/>
+      <c r="S46" s="41"/>
+      <c r="T46" s="39"/>
+      <c r="U46" s="39"/>
       <c r="V46" s="41">
-        <f>R46*1000</f>
+        <f t="shared" si="3"/>
         <v>1.7603761903308801</v>
       </c>
-      <c r="W46" s="57"/>
-      <c r="X46" s="57"/>
-      <c r="Y46" s="57"/>
-      <c r="Z46" s="58"/>
-      <c r="AA46" s="58"/>
-      <c r="AB46" s="58"/>
-      <c r="AC46" s="58"/>
-      <c r="AD46" s="58"/>
-      <c r="AE46" s="58"/>
-      <c r="AF46" s="58"/>
-      <c r="AG46" s="58"/>
-      <c r="AH46" s="58"/>
+      <c r="W46" s="39"/>
+      <c r="X46" s="39"/>
+      <c r="Y46" s="39"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>134</v>
       </c>
@@ -22302,45 +21901,36 @@
       <c r="R47" s="41">
         <v>4.1867003272652699E-2</v>
       </c>
-      <c r="S47" s="60">
+      <c r="S47" s="41">
         <f>AVERAGE(R47:R51)</f>
         <v>4.2011304548606583E-2</v>
       </c>
-      <c r="T47" s="57">
+      <c r="T47" s="39">
         <f>_xlfn.STDEV.S(R47:R51)</f>
         <v>5.6314679256342752E-3</v>
       </c>
-      <c r="U47" s="57">
+      <c r="U47" s="39">
         <f>T47/SQRT(4)</f>
         <v>2.8157339628171376E-3</v>
       </c>
       <c r="V47" s="41">
-        <f>R47*1000</f>
+        <f t="shared" si="3"/>
         <v>41.867003272652696</v>
       </c>
-      <c r="W47" s="57">
+      <c r="W47" s="39">
         <f>AVERAGE(V47:V51)</f>
         <v>42.011304548606581</v>
       </c>
-      <c r="X47" s="57">
+      <c r="X47" s="39">
         <f>_xlfn.STDEV.S(V47:V51)</f>
         <v>5.6314679256342774</v>
       </c>
-      <c r="Y47" s="57">
+      <c r="Y47" s="39">
         <f>X47/SQRT(4)</f>
         <v>2.8157339628171387</v>
       </c>
-      <c r="Z47" s="58"/>
-      <c r="AA47" s="58"/>
-      <c r="AB47" s="58"/>
-      <c r="AC47" s="58"/>
-      <c r="AD47" s="58"/>
-      <c r="AE47" s="58"/>
-      <c r="AF47" s="58"/>
-      <c r="AG47" s="58"/>
-      <c r="AH47" s="58"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>135</v>
       </c>
@@ -22370,27 +21960,18 @@
       <c r="R48" s="41">
         <v>4.6806276990890502E-2</v>
       </c>
-      <c r="S48" s="60"/>
-      <c r="T48" s="57"/>
-      <c r="U48" s="57"/>
+      <c r="S48" s="41"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="39"/>
       <c r="V48" s="41">
-        <f>R48*1000</f>
+        <f t="shared" si="3"/>
         <v>46.806276990890503</v>
       </c>
-      <c r="W48" s="57"/>
-      <c r="X48" s="57"/>
-      <c r="Y48" s="57"/>
-      <c r="Z48" s="58"/>
-      <c r="AA48" s="58"/>
-      <c r="AB48" s="58"/>
-      <c r="AC48" s="58"/>
-      <c r="AD48" s="58"/>
-      <c r="AE48" s="58"/>
-      <c r="AF48" s="58"/>
-      <c r="AG48" s="58"/>
-      <c r="AH48" s="58"/>
+      <c r="W48" s="39"/>
+      <c r="X48" s="39"/>
+      <c r="Y48" s="39"/>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>136</v>
       </c>
@@ -22414,27 +21995,18 @@
       <c r="R49" s="41">
         <v>3.3678037555376399E-2</v>
       </c>
-      <c r="S49" s="60"/>
-      <c r="T49" s="57"/>
-      <c r="U49" s="57"/>
+      <c r="S49" s="41"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
       <c r="V49" s="41">
-        <f>R49*1000</f>
+        <f t="shared" si="3"/>
         <v>33.678037555376399</v>
       </c>
-      <c r="W49" s="57"/>
-      <c r="X49" s="57"/>
-      <c r="Y49" s="57"/>
-      <c r="Z49" s="58"/>
-      <c r="AA49" s="58"/>
-      <c r="AB49" s="58"/>
-      <c r="AC49" s="58"/>
-      <c r="AD49" s="58"/>
-      <c r="AE49" s="58"/>
-      <c r="AF49" s="58"/>
-      <c r="AG49" s="58"/>
-      <c r="AH49" s="58"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="39"/>
+      <c r="Y49" s="39"/>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>137</v>
       </c>
@@ -22464,27 +22036,18 @@
       <c r="R50" s="41">
         <v>4.0136620383475298E-2</v>
       </c>
-      <c r="S50" s="60"/>
-      <c r="T50" s="57"/>
-      <c r="U50" s="57"/>
+      <c r="S50" s="41"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
       <c r="V50" s="41">
-        <f>R50*1000</f>
+        <f t="shared" si="3"/>
         <v>40.136620383475297</v>
       </c>
-      <c r="W50" s="57"/>
-      <c r="X50" s="57"/>
-      <c r="Y50" s="57"/>
-      <c r="Z50" s="58"/>
-      <c r="AA50" s="58"/>
-      <c r="AB50" s="58"/>
-      <c r="AC50" s="58"/>
-      <c r="AD50" s="58"/>
-      <c r="AE50" s="58"/>
-      <c r="AF50" s="58"/>
-      <c r="AG50" s="58"/>
-      <c r="AH50" s="58"/>
+      <c r="W50" s="39"/>
+      <c r="X50" s="39"/>
+      <c r="Y50" s="39"/>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>138</v>
       </c>
@@ -22514,27 +22077,18 @@
       <c r="R51" s="41">
         <v>4.7568584540637997E-2</v>
       </c>
-      <c r="S51" s="60"/>
-      <c r="T51" s="57"/>
-      <c r="U51" s="57"/>
+      <c r="S51" s="41"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="39"/>
       <c r="V51" s="41">
-        <f>R51*1000</f>
+        <f t="shared" si="3"/>
         <v>47.568584540638</v>
       </c>
-      <c r="W51" s="57"/>
-      <c r="X51" s="57"/>
-      <c r="Y51" s="57"/>
-      <c r="Z51" s="58"/>
-      <c r="AA51" s="58"/>
-      <c r="AB51" s="58"/>
-      <c r="AC51" s="58"/>
-      <c r="AD51" s="58"/>
-      <c r="AE51" s="58"/>
-      <c r="AF51" s="58"/>
-      <c r="AG51" s="58"/>
-      <c r="AH51" s="58"/>
+      <c r="W51" s="39"/>
+      <c r="X51" s="39"/>
+      <c r="Y51" s="39"/>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>139</v>
       </c>
@@ -22556,15 +22110,15 @@
       <c r="F52">
         <v>1.9072896157767099</v>
       </c>
-      <c r="G52" s="50">
+      <c r="G52" s="49">
         <f>AVERAGE(F52:F56)</f>
         <v>1.7002915035154404</v>
       </c>
-      <c r="H52" s="50">
+      <c r="H52" s="49">
         <f>_xlfn.STDEV.S(F52:F56)</f>
         <v>0.46690994894169841</v>
       </c>
-      <c r="I52" s="50">
+      <c r="I52" s="49">
         <f>H52/SQRT(5)</f>
         <v>0.20880847704091871</v>
       </c>
@@ -22588,60 +22142,51 @@
         <f t="shared" si="1"/>
         <v>1907.2896157767098</v>
       </c>
-      <c r="O52" s="50">
+      <c r="O52" s="49">
         <f>AVERAGE(N52:N56)</f>
         <v>1700.2915035154406</v>
       </c>
-      <c r="P52" s="50">
+      <c r="P52" s="49">
         <f>_xlfn.STDEV.S(N52:N56)</f>
         <v>466.90994894169881</v>
       </c>
-      <c r="Q52" s="50">
+      <c r="Q52" s="49">
         <f>P52/SQRT(5)</f>
         <v>208.80847704091889</v>
       </c>
       <c r="R52" s="41">
         <v>1.39446365857014E-2</v>
       </c>
-      <c r="S52" s="60">
+      <c r="S52" s="41">
         <f>AVERAGE(R52:R56)</f>
         <v>1.4978657839298758E-2</v>
       </c>
-      <c r="T52" s="57">
+      <c r="T52" s="39">
         <f>_xlfn.STDEV.S(R52:R56)</f>
         <v>2.9348549254506438E-3</v>
       </c>
-      <c r="U52" s="57">
+      <c r="U52" s="39">
         <f>T52/SQRT(5)</f>
         <v>1.3125070234815434E-3</v>
       </c>
       <c r="V52" s="41">
-        <f>R52*1000</f>
+        <f t="shared" si="3"/>
         <v>13.944636585701401</v>
       </c>
-      <c r="W52" s="57">
+      <c r="W52" s="39">
         <f>AVERAGE(V52:V56)</f>
         <v>14.978657839298762</v>
       </c>
-      <c r="X52" s="57">
+      <c r="X52" s="39">
         <f>_xlfn.STDEV.S(V52:V56)</f>
         <v>2.9348549254506224</v>
       </c>
-      <c r="Y52" s="57">
+      <c r="Y52" s="39">
         <f>X52/SQRT(5)</f>
         <v>1.3125070234815339</v>
       </c>
-      <c r="Z52" s="58"/>
-      <c r="AA52" s="58"/>
-      <c r="AB52" s="58"/>
-      <c r="AC52" s="58"/>
-      <c r="AD52" s="58"/>
-      <c r="AE52" s="58"/>
-      <c r="AF52" s="58"/>
-      <c r="AG52" s="58"/>
-      <c r="AH52" s="58"/>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>140</v>
       </c>
@@ -22671,27 +22216,18 @@
       <c r="R53" s="41">
         <v>1.1441869733041199E-2</v>
       </c>
-      <c r="S53" s="60"/>
-      <c r="T53" s="57"/>
-      <c r="U53" s="57"/>
+      <c r="S53" s="41"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
       <c r="V53" s="41">
-        <f>R53*1000</f>
+        <f t="shared" si="3"/>
         <v>11.4418697330412</v>
       </c>
-      <c r="W53" s="57"/>
-      <c r="X53" s="57"/>
-      <c r="Y53" s="57"/>
-      <c r="Z53" s="58"/>
-      <c r="AA53" s="58"/>
-      <c r="AB53" s="58"/>
-      <c r="AC53" s="58"/>
-      <c r="AD53" s="58"/>
-      <c r="AE53" s="58"/>
-      <c r="AF53" s="58"/>
-      <c r="AG53" s="58"/>
-      <c r="AH53" s="58"/>
+      <c r="W53" s="39"/>
+      <c r="X53" s="39"/>
+      <c r="Y53" s="39"/>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>141</v>
       </c>
@@ -22721,27 +22257,18 @@
       <c r="R54" s="41">
         <v>1.39865483895137E-2</v>
       </c>
-      <c r="S54" s="60"/>
-      <c r="T54" s="57"/>
-      <c r="U54" s="57"/>
+      <c r="S54" s="41"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="39"/>
       <c r="V54" s="41">
-        <f>R54*1000</f>
+        <f t="shared" si="3"/>
         <v>13.9865483895137</v>
       </c>
-      <c r="W54" s="57"/>
-      <c r="X54" s="57"/>
-      <c r="Y54" s="57"/>
-      <c r="Z54" s="58"/>
-      <c r="AA54" s="58"/>
-      <c r="AB54" s="58"/>
-      <c r="AC54" s="58"/>
-      <c r="AD54" s="58"/>
-      <c r="AE54" s="58"/>
-      <c r="AF54" s="58"/>
-      <c r="AG54" s="58"/>
-      <c r="AH54" s="58"/>
+      <c r="W54" s="39"/>
+      <c r="X54" s="39"/>
+      <c r="Y54" s="39"/>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>142</v>
       </c>
@@ -22771,27 +22298,18 @@
       <c r="R55" s="41">
         <v>1.9246406191570701E-2</v>
       </c>
-      <c r="S55" s="60"/>
-      <c r="T55" s="57"/>
-      <c r="U55" s="57"/>
+      <c r="S55" s="41"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39"/>
       <c r="V55" s="41">
-        <f>R55*1000</f>
+        <f t="shared" si="3"/>
         <v>19.246406191570699</v>
       </c>
-      <c r="W55" s="57"/>
-      <c r="X55" s="57"/>
-      <c r="Y55" s="57"/>
-      <c r="Z55" s="58"/>
-      <c r="AA55" s="58"/>
-      <c r="AB55" s="58"/>
-      <c r="AC55" s="58"/>
-      <c r="AD55" s="58"/>
-      <c r="AE55" s="58"/>
-      <c r="AF55" s="58"/>
-      <c r="AG55" s="58"/>
-      <c r="AH55" s="58"/>
+      <c r="W55" s="39"/>
+      <c r="X55" s="39"/>
+      <c r="Y55" s="39"/>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>143</v>
       </c>
@@ -22821,27 +22339,18 @@
       <c r="R56" s="41">
         <v>1.6273828296666799E-2</v>
       </c>
-      <c r="S56" s="60"/>
-      <c r="T56" s="57"/>
-      <c r="U56" s="57"/>
+      <c r="S56" s="41"/>
+      <c r="T56" s="39"/>
+      <c r="U56" s="39"/>
       <c r="V56" s="41">
-        <f>R56*1000</f>
+        <f t="shared" si="3"/>
         <v>16.2738282966668</v>
       </c>
-      <c r="W56" s="57"/>
-      <c r="X56" s="57"/>
-      <c r="Y56" s="57"/>
-      <c r="Z56" s="58"/>
-      <c r="AA56" s="58"/>
-      <c r="AB56" s="58"/>
-      <c r="AC56" s="58"/>
-      <c r="AD56" s="58"/>
-      <c r="AE56" s="58"/>
-      <c r="AF56" s="58"/>
-      <c r="AG56" s="58"/>
-      <c r="AH56" s="58"/>
+      <c r="W56" s="39"/>
+      <c r="X56" s="39"/>
+      <c r="Y56" s="39"/>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>144</v>
       </c>
@@ -22910,45 +22419,36 @@
       <c r="R57" s="41">
         <v>7.3144315095305099E-2</v>
       </c>
-      <c r="S57" s="60">
+      <c r="S57" s="41">
         <f>AVERAGE(R57:R61)</f>
         <v>7.1123451232858736E-2</v>
       </c>
-      <c r="T57" s="57">
+      <c r="T57" s="39">
         <f>_xlfn.STDEV.S(R57:R61)</f>
         <v>5.106732686866111E-3</v>
       </c>
-      <c r="U57" s="57">
+      <c r="U57" s="39">
         <f>T57/SQRT(5)</f>
         <v>2.2838002861505541E-3</v>
       </c>
       <c r="V57" s="41">
-        <f>R57*1000</f>
+        <f t="shared" si="3"/>
         <v>73.144315095305103</v>
       </c>
-      <c r="W57" s="50">
+      <c r="W57" s="49">
         <f>AVERAGE(V57:V61)</f>
         <v>71.123451232858741</v>
       </c>
-      <c r="X57" s="50">
+      <c r="X57" s="49">
         <f>_xlfn.STDEV.S(V57:V61)</f>
         <v>5.1067326868661098</v>
       </c>
-      <c r="Y57" s="50">
+      <c r="Y57" s="49">
         <f>X57/SQRT(5)</f>
         <v>2.2838002861505537</v>
       </c>
-      <c r="Z57" s="58"/>
-      <c r="AA57" s="58"/>
-      <c r="AB57" s="58"/>
-      <c r="AC57" s="58"/>
-      <c r="AD57" s="58"/>
-      <c r="AE57" s="58"/>
-      <c r="AF57" s="58"/>
-      <c r="AG57" s="58"/>
-      <c r="AH57" s="58"/>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>145</v>
       </c>
@@ -22978,27 +22478,18 @@
       <c r="R58" s="41">
         <v>7.5410854872354494E-2</v>
       </c>
-      <c r="S58" s="60"/>
-      <c r="T58" s="57"/>
-      <c r="U58" s="57"/>
+      <c r="S58" s="41"/>
+      <c r="T58" s="39"/>
+      <c r="U58" s="39"/>
       <c r="V58" s="41">
-        <f>R58*1000</f>
+        <f t="shared" si="3"/>
         <v>75.410854872354491</v>
       </c>
-      <c r="W58" s="57"/>
-      <c r="X58" s="57"/>
-      <c r="Y58" s="57"/>
-      <c r="Z58" s="58"/>
-      <c r="AA58" s="58"/>
-      <c r="AB58" s="58"/>
-      <c r="AC58" s="58"/>
-      <c r="AD58" s="58"/>
-      <c r="AE58" s="58"/>
-      <c r="AF58" s="58"/>
-      <c r="AG58" s="58"/>
-      <c r="AH58" s="58"/>
+      <c r="W58" s="39"/>
+      <c r="X58" s="39"/>
+      <c r="Y58" s="39"/>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>146</v>
       </c>
@@ -23028,27 +22519,18 @@
       <c r="R59" s="41">
         <v>6.2467359119988498E-2</v>
       </c>
-      <c r="S59" s="60"/>
-      <c r="T59" s="57"/>
-      <c r="U59" s="57"/>
+      <c r="S59" s="41"/>
+      <c r="T59" s="39"/>
+      <c r="U59" s="39"/>
       <c r="V59" s="41">
-        <f>R59*1000</f>
+        <f t="shared" si="3"/>
         <v>62.467359119988501</v>
       </c>
-      <c r="W59" s="57"/>
-      <c r="X59" s="57"/>
-      <c r="Y59" s="57"/>
-      <c r="Z59" s="58"/>
-      <c r="AA59" s="58"/>
-      <c r="AB59" s="58"/>
-      <c r="AC59" s="58"/>
-      <c r="AD59" s="58"/>
-      <c r="AE59" s="58"/>
-      <c r="AF59" s="58"/>
-      <c r="AG59" s="58"/>
-      <c r="AH59" s="58"/>
+      <c r="W59" s="39"/>
+      <c r="X59" s="39"/>
+      <c r="Y59" s="39"/>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>147</v>
       </c>
@@ -23078,27 +22560,18 @@
       <c r="R60" s="41">
         <v>7.3740464947370299E-2</v>
       </c>
-      <c r="S60" s="60"/>
-      <c r="T60" s="57"/>
-      <c r="U60" s="57"/>
+      <c r="S60" s="41"/>
+      <c r="T60" s="39"/>
+      <c r="U60" s="39"/>
       <c r="V60" s="41">
-        <f>R60*1000</f>
+        <f t="shared" si="3"/>
         <v>73.740464947370299</v>
       </c>
-      <c r="W60" s="57"/>
-      <c r="X60" s="57"/>
-      <c r="Y60" s="57"/>
-      <c r="Z60" s="58"/>
-      <c r="AA60" s="58"/>
-      <c r="AB60" s="58"/>
-      <c r="AC60" s="58"/>
-      <c r="AD60" s="58"/>
-      <c r="AE60" s="58"/>
-      <c r="AF60" s="58"/>
-      <c r="AG60" s="58"/>
-      <c r="AH60" s="58"/>
+      <c r="W60" s="39"/>
+      <c r="X60" s="39"/>
+      <c r="Y60" s="39"/>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>148</v>
       </c>
@@ -23128,25 +22601,16 @@
       <c r="R61" s="41">
         <v>7.08542621292753E-2</v>
       </c>
-      <c r="S61" s="60"/>
-      <c r="T61" s="57"/>
-      <c r="U61" s="57"/>
+      <c r="S61" s="41"/>
+      <c r="T61" s="39"/>
+      <c r="U61" s="39"/>
       <c r="V61" s="41">
-        <f>R61*1000</f>
+        <f t="shared" si="3"/>
         <v>70.854262129275298</v>
       </c>
-      <c r="W61" s="57"/>
-      <c r="X61" s="57"/>
-      <c r="Y61" s="57"/>
-      <c r="Z61" s="58"/>
-      <c r="AA61" s="58"/>
-      <c r="AB61" s="58"/>
-      <c r="AC61" s="58"/>
-      <c r="AD61" s="58"/>
-      <c r="AE61" s="58"/>
-      <c r="AF61" s="58"/>
-      <c r="AG61" s="58"/>
-      <c r="AH61" s="58"/>
+      <c r="W61" s="39"/>
+      <c r="X61" s="39"/>
+      <c r="Y61" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SP_metadata_2021.xlsx
+++ b/SP_metadata_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugirona-my.sharepoint.com/personal/u4001033_udg_edu/Documents/GRADCATCH/ANALISIS/R/SP_gradient/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="193" documentId="13_ncr:1_{CA000A84-3FBB-4950-9B47-833BA501E91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7D13524-687A-4462-A70C-86E47D88F338}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="13_ncr:1_{CA000A84-3FBB-4950-9B47-833BA501E91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7564B8D-FFEF-4E91-8644-D3E3BEA76553}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="4125" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP_soil_2021" sheetId="1" r:id="rId1"/>
@@ -54,6 +54,7 @@
     <author>tc={EC1E8241-F70F-4BE9-B47F-FFBE7926BB63}</author>
     <author>tc={1E617BEC-2113-4034-922A-A8AF614A800F}</author>
     <author>tc={F3E5E20E-F7AC-40CE-BE07-6D96D6B20EB7}</author>
+    <author>tc={BAC4AEE4-122D-45FA-A5B5-AEADA971E074}</author>
     <author>tc={A861B59D-14D6-4062-A50E-075AA1D6131B}</author>
     <author>tc={B81A9F97-071D-4C35-895E-BE0BDEE13424}</author>
     <author>tc={2227ECD2-C3B4-4FD3-9840-F481938E8276}</author>
@@ -226,7 +227,15 @@
 (mg/kg DW soil)</t>
       </text>
     </comment>
-    <comment ref="AI1" authorId="13" shapeId="0" xr:uid="{A861B59D-14D6-4062-A50E-075AA1D6131B}">
+    <comment ref="AD1" authorId="13" shapeId="0" xr:uid="{BAC4AEE4-122D-45FA-A5B5-AEADA971E074}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Dry g/m2</t>
+      </text>
+    </comment>
+    <comment ref="AI1" authorId="14" shapeId="0" xr:uid="{A861B59D-14D6-4062-A50E-075AA1D6131B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -234,7 +243,7 @@
     Dark CO2 (mmol/m2*d)</t>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="14" shapeId="0" xr:uid="{B81A9F97-071D-4C35-895E-BE0BDEE13424}">
+    <comment ref="AJ1" authorId="15" shapeId="0" xr:uid="{B81A9F97-071D-4C35-895E-BE0BDEE13424}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -242,7 +251,7 @@
     Light CO2 (mmol/m2*d)</t>
       </text>
     </comment>
-    <comment ref="AK1" authorId="15" shapeId="0" xr:uid="{2227ECD2-C3B4-4FD3-9840-F481938E8276}">
+    <comment ref="AK1" authorId="16" shapeId="0" xr:uid="{2227ECD2-C3B4-4FD3-9840-F481938E8276}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -251,7 +260,7 @@
 (umol/m2*d)</t>
       </text>
     </comment>
-    <comment ref="AL1" authorId="16" shapeId="0" xr:uid="{CC8F20A9-1D1A-453D-B53F-26E0204A3838}">
+    <comment ref="AL1" authorId="17" shapeId="0" xr:uid="{CC8F20A9-1D1A-453D-B53F-26E0204A3838}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -259,7 +268,7 @@
     (umol/m2*d)</t>
       </text>
     </comment>
-    <comment ref="AM1" authorId="17" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="AM1" authorId="18" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -334,7 +343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="17" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="AS1" authorId="18" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -382,7 +391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="17" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="AZ1" authorId="18" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -430,7 +439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB1" authorId="18" shapeId="0" xr:uid="{EFE74430-CE78-45F3-B99F-9E4A66B4DB4A}">
+    <comment ref="BB1" authorId="19" shapeId="0" xr:uid="{EFE74430-CE78-45F3-B99F-9E4A66B4DB4A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -439,7 +448,7 @@
 (copies/g DW soil)</t>
       </text>
     </comment>
-    <comment ref="BC1" authorId="19" shapeId="0" xr:uid="{B5AA4312-E55C-4126-AC62-41022648693A}">
+    <comment ref="BC1" authorId="20" shapeId="0" xr:uid="{B5AA4312-E55C-4126-AC62-41022648693A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -448,7 +457,7 @@
 (copies/g DW soil)</t>
       </text>
     </comment>
-    <comment ref="BG1" authorId="20" shapeId="0" xr:uid="{33824549-3C86-4035-A72B-6643897DCE38}">
+    <comment ref="BG1" authorId="21" shapeId="0" xr:uid="{33824549-3C86-4035-A72B-6643897DCE38}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -457,7 +466,7 @@
 (copies/g DW soil)</t>
       </text>
     </comment>
-    <comment ref="BH1" authorId="21" shapeId="0" xr:uid="{D4888460-C366-4F77-BB5B-BF617AB9A960}">
+    <comment ref="BH1" authorId="22" shapeId="0" xr:uid="{D4888460-C366-4F77-BB5B-BF617AB9A960}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -466,7 +475,7 @@
 (copies/g DW soil)</t>
       </text>
     </comment>
-    <comment ref="BJ1" authorId="22" shapeId="0" xr:uid="{97253582-92B4-438A-9794-DF4FB2038D50}">
+    <comment ref="BJ1" authorId="23" shapeId="0" xr:uid="{97253582-92B4-438A-9794-DF4FB2038D50}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -475,7 +484,7 @@
 (copies/g DW soil)</t>
       </text>
     </comment>
-    <comment ref="BL1" authorId="23" shapeId="0" xr:uid="{8F08B99E-9739-4B6E-8F09-DF43B94644DC}">
+    <comment ref="BL1" authorId="24" shapeId="0" xr:uid="{8F08B99E-9739-4B6E-8F09-DF43B94644DC}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -486,7 +495,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="BM1" authorId="24" shapeId="0" xr:uid="{B6FFDCB7-FA07-49A4-92C0-69346EC1EFB2}">
+    <comment ref="BM1" authorId="25" shapeId="0" xr:uid="{B6FFDCB7-FA07-49A4-92C0-69346EC1EFB2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -495,7 +504,7 @@
 (mg C / gDW*h)</t>
       </text>
     </comment>
-    <comment ref="BN1" authorId="25" shapeId="0" xr:uid="{5E6F31F2-E5EE-4FEA-A394-E8FB2FFDD356}">
+    <comment ref="BN1" authorId="26" shapeId="0" xr:uid="{5E6F31F2-E5EE-4FEA-A394-E8FB2FFDD356}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -504,7 +513,7 @@
 (copies / gDW)</t>
       </text>
     </comment>
-    <comment ref="BT1" authorId="26" shapeId="0" xr:uid="{C67D560F-8BBA-4DA6-8AE1-F3DD3F0DEC55}">
+    <comment ref="BT1" authorId="27" shapeId="0" xr:uid="{C67D560F-8BBA-4DA6-8AE1-F3DD3F0DEC55}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -512,7 +521,7 @@
     mg EPS / mg C bact</t>
       </text>
     </comment>
-    <comment ref="BX1" authorId="27" shapeId="0" xr:uid="{631D2E3C-FB75-41CC-8E7D-69D20DFEBBF5}">
+    <comment ref="BX1" authorId="28" shapeId="0" xr:uid="{631D2E3C-FB75-41CC-8E7D-69D20DFEBBF5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1281,7 +1290,7 @@
     <numFmt numFmtId="168" formatCode="0.0000000"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1316,6 +1325,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1616,6 +1631,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Anna DP" id="{A76B5ED5-7FBB-427D-8877-EE1FBCBAAB0F}" userId="Anna DP" providerId="None"/>
   <person displayName="Anna Doménech Pascual" id="{5C2DB10E-6B8E-4F59-90D1-A869F7498523}" userId="b00f297b91f1275c" providerId="Windows Live"/>
   <person displayName="Anna Doménech i Pascual" id="{E812039B-72CD-4187-9393-237C6A253BAD}" userId="S::u4001033@udg.edu::7f27c3cc-36c1-4e9e-a8f1-f0da9b8d2495" providerId="AD"/>
 </personList>
@@ -1927,6 +1943,9 @@
     <text>SO42-
 (mg/kg DW soil)</text>
   </threadedComment>
+  <threadedComment ref="AD1" dT="2024-10-28T10:34:50.69" personId="{A76B5ED5-7FBB-427D-8877-EE1FBCBAAB0F}" id="{BAC4AEE4-122D-45FA-A5B5-AEADA971E074}">
+    <text>Dry g/m2</text>
+  </threadedComment>
   <threadedComment ref="AI1" dT="2023-03-01T13:53:52.67" personId="{5C2DB10E-6B8E-4F59-90D1-A869F7498523}" id="{A861B59D-14D6-4062-A50E-075AA1D6131B}">
     <text>Dark CO2 (mmol/m2*d)</text>
   </threadedComment>
@@ -1988,10 +2007,10 @@
   <dimension ref="A1:CN64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="BR20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BO5" sqref="BO5"/>
+      <selection pane="bottomRight" activeCell="AG24" sqref="AG24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
